--- a/DCIT 21 - IT 1A/LEC AND LAB - IT 1A.xlsx
+++ b/DCIT 21 - IT 1A/LEC AND LAB - IT 1A.xlsx
@@ -2540,37 +2540,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2610,104 +2672,129 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2748,93 +2835,6 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2893,102 +2893,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3062,6 +2966,102 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5565,7 +5565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5598,82 +5598,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="161"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="128" t="s">
+      <c r="A6" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="165"/>
+      <c r="C6" s="166" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="129" t="s">
+      <c r="D6" s="166"/>
+      <c r="E6" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="129"/>
+      <c r="F6" s="167"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -5681,28 +5681,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="130" t="s">
+      <c r="J6" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="130"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="3" t="s">
         <v>335</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="134"/>
+      <c r="F7" s="172"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -5710,28 +5710,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="134" t="s">
+      <c r="J7" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="134"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="137"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="8" t="s">
         <v>336</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="E8" s="138" t="s">
+      <c r="E8" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="138"/>
+      <c r="F8" s="154"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -5739,45 +5739,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="138" t="s">
+      <c r="J8" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="145" t="s">
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="145" t="s">
+      <c r="G9" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="148" t="s">
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="149"/>
-      <c r="L9" s="148" t="s">
+      <c r="K9" s="145"/>
+      <c r="L9" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="149"/>
+      <c r="M9" s="145"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="141"/>
-      <c r="B10" s="143"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -5787,14 +5787,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -5815,19 +5815,19 @@
       <c r="F11" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="155"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="157"/>
-      <c r="O11" s="168" t="s">
+      <c r="G11" s="147"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="149"/>
+      <c r="O11" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="169"/>
-      <c r="Q11" s="169"/>
-      <c r="R11" s="170"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="138"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -5848,21 +5848,21 @@
       <c r="F12" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
       <c r="O12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="166" t="s">
+      <c r="P12" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="166"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="131"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -5883,21 +5883,21 @@
       <c r="F13" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
       <c r="O13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="166" t="s">
+      <c r="P13" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="166"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -5918,21 +5918,21 @@
       <c r="F14" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
       <c r="O14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="163" t="s">
+      <c r="P14" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="Q14" s="164"/>
-      <c r="R14" s="165"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="130"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -5953,21 +5953,21 @@
       <c r="F15" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
       <c r="O15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="163" t="s">
+      <c r="P15" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="165"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="130"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -5988,21 +5988,21 @@
       <c r="F16" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
       <c r="O16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="171" t="s">
+      <c r="P16" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="Q16" s="172"/>
-      <c r="R16" s="173"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="141"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -6023,21 +6023,21 @@
       <c r="F17" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
       <c r="O17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="163" t="s">
+      <c r="P17" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="Q17" s="164"/>
-      <c r="R17" s="165"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -6058,13 +6058,13 @@
       <c r="F18" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -6085,13 +6085,13 @@
       <c r="F19" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -6112,13 +6112,13 @@
       <c r="F20" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -6139,13 +6139,13 @@
       <c r="F21" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
       <c r="P21" s="99" t="s">
         <v>143</v>
       </c>
@@ -6169,13 +6169,13 @@
       <c r="F22" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
       <c r="P22" s="100">
         <v>0</v>
       </c>
@@ -6202,13 +6202,13 @@
       <c r="F23" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
       <c r="P23" s="101">
         <v>70</v>
       </c>
@@ -6235,13 +6235,13 @@
       <c r="F24" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="154"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
       <c r="P24" s="101">
         <v>73.34</v>
       </c>
@@ -6268,13 +6268,13 @@
       <c r="F25" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
       <c r="P25" s="101">
         <v>76.680000000000007</v>
       </c>
@@ -6301,13 +6301,13 @@
       <c r="F26" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
       <c r="P26" s="101">
         <v>80.02</v>
       </c>
@@ -6334,13 +6334,13 @@
       <c r="F27" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="154"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
       <c r="P27" s="101">
         <v>83.36</v>
       </c>
@@ -6367,13 +6367,13 @@
       <c r="F28" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="154"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
       <c r="P28" s="101">
         <v>86.7</v>
       </c>
@@ -6400,13 +6400,13 @@
       <c r="F29" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
       <c r="P29" s="101">
         <v>90.04</v>
       </c>
@@ -6433,13 +6433,13 @@
       <c r="F30" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="154"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
       <c r="P30" s="101">
         <v>93.38</v>
       </c>
@@ -6466,13 +6466,13 @@
       <c r="F31" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="154"/>
-      <c r="M31" s="154"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="143"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
       <c r="P31" s="100"/>
       <c r="Q31" s="100"/>
     </row>
@@ -6495,13 +6495,13 @@
       <c r="F32" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="154"/>
-      <c r="M32" s="154"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="143"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
       <c r="P32" s="100">
         <v>96.72</v>
       </c>
@@ -6528,13 +6528,13 @@
       <c r="F33" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="154"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="143"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -6555,13 +6555,13 @@
       <c r="F34" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="154"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="134"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -6582,13 +6582,13 @@
       <c r="F35" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="154"/>
-      <c r="M35" s="154"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -6609,13 +6609,13 @@
       <c r="F36" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="152"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="154"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="143"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="134"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -6636,13 +6636,13 @@
       <c r="F37" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="160"/>
-      <c r="K37" s="160"/>
-      <c r="L37" s="154"/>
-      <c r="M37" s="154"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -6663,13 +6663,13 @@
       <c r="F38" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="160"/>
-      <c r="K38" s="160"/>
-      <c r="L38" s="154"/>
-      <c r="M38" s="154"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -6690,13 +6690,13 @@
       <c r="F39" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="160"/>
-      <c r="K39" s="160"/>
-      <c r="L39" s="154"/>
-      <c r="M39" s="154"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -6717,13 +6717,13 @@
       <c r="F40" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="160"/>
-      <c r="K40" s="160"/>
-      <c r="L40" s="154"/>
-      <c r="M40" s="154"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="134"/>
+      <c r="M40" s="134"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -6744,13 +6744,13 @@
       <c r="F41" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="160"/>
-      <c r="K41" s="160"/>
-      <c r="L41" s="154"/>
-      <c r="M41" s="154"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="134"/>
+      <c r="M41" s="134"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -6771,13 +6771,13 @@
       <c r="F42" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="160"/>
-      <c r="K42" s="160"/>
-      <c r="L42" s="154"/>
-      <c r="M42" s="154"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="134"/>
+      <c r="M42" s="134"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -6798,13 +6798,13 @@
       <c r="F43" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="160"/>
-      <c r="K43" s="160"/>
-      <c r="L43" s="154"/>
-      <c r="M43" s="154"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -6825,13 +6825,13 @@
       <c r="F44" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="160"/>
-      <c r="K44" s="160"/>
-      <c r="L44" s="154"/>
-      <c r="M44" s="154"/>
+      <c r="G44" s="132"/>
+      <c r="H44" s="132"/>
+      <c r="I44" s="132"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="134"/>
+      <c r="M44" s="134"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -6852,13 +6852,13 @@
       <c r="F45" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G45" s="151"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="160"/>
-      <c r="K45" s="160"/>
-      <c r="L45" s="154"/>
-      <c r="M45" s="154"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="134"/>
+      <c r="M45" s="134"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -6879,13 +6879,13 @@
       <c r="F46" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G46" s="151"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="160"/>
-      <c r="K46" s="160"/>
-      <c r="L46" s="154"/>
-      <c r="M46" s="154"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="133"/>
+      <c r="L46" s="134"/>
+      <c r="M46" s="134"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -6906,13 +6906,13 @@
       <c r="F47" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="160"/>
-      <c r="K47" s="160"/>
-      <c r="L47" s="154"/>
-      <c r="M47" s="154"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="133"/>
+      <c r="K47" s="133"/>
+      <c r="L47" s="134"/>
+      <c r="M47" s="134"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -6933,13 +6933,13 @@
       <c r="F48" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="160"/>
-      <c r="K48" s="160"/>
-      <c r="L48" s="154"/>
-      <c r="M48" s="154"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="133"/>
+      <c r="K48" s="133"/>
+      <c r="L48" s="134"/>
+      <c r="M48" s="134"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -6960,13 +6960,13 @@
       <c r="F49" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="160"/>
-      <c r="K49" s="160"/>
-      <c r="L49" s="154"/>
-      <c r="M49" s="154"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="134"/>
+      <c r="M49" s="134"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -6987,13 +6987,13 @@
       <c r="F50" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="160"/>
-      <c r="K50" s="160"/>
-      <c r="L50" s="154"/>
-      <c r="M50" s="154"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="134"/>
+      <c r="M50" s="134"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -7014,13 +7014,13 @@
       <c r="F51" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="160"/>
-      <c r="L51" s="154"/>
-      <c r="M51" s="154"/>
+      <c r="G51" s="132"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="134"/>
+      <c r="M51" s="134"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -7041,13 +7041,13 @@
       <c r="F52" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G52" s="151"/>
-      <c r="H52" s="151"/>
-      <c r="I52" s="151"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="160"/>
-      <c r="L52" s="154"/>
-      <c r="M52" s="154"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="134"/>
+      <c r="M52" s="134"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -7068,13 +7068,13 @@
       <c r="F53" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G53" s="151"/>
-      <c r="H53" s="151"/>
-      <c r="I53" s="151"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="160"/>
-      <c r="L53" s="154"/>
-      <c r="M53" s="154"/>
+      <c r="G53" s="132"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="132"/>
+      <c r="J53" s="133"/>
+      <c r="K53" s="133"/>
+      <c r="L53" s="134"/>
+      <c r="M53" s="134"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -7095,13 +7095,13 @@
       <c r="F54" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G54" s="151"/>
-      <c r="H54" s="151"/>
-      <c r="I54" s="151"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="160"/>
-      <c r="L54" s="154"/>
-      <c r="M54" s="154"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="133"/>
+      <c r="K54" s="133"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="134"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -7122,13 +7122,13 @@
       <c r="F55" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G55" s="151"/>
-      <c r="H55" s="151"/>
-      <c r="I55" s="151"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="160"/>
-      <c r="L55" s="154"/>
-      <c r="M55" s="154"/>
+      <c r="G55" s="132"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="133"/>
+      <c r="K55" s="133"/>
+      <c r="L55" s="134"/>
+      <c r="M55" s="134"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -7149,13 +7149,13 @@
       <c r="F56" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G56" s="151"/>
-      <c r="H56" s="151"/>
-      <c r="I56" s="151"/>
-      <c r="J56" s="160"/>
-      <c r="K56" s="160"/>
-      <c r="L56" s="154"/>
-      <c r="M56" s="154"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="134"/>
+      <c r="M56" s="134"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -7176,13 +7176,13 @@
       <c r="F57" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G57" s="151"/>
-      <c r="H57" s="151"/>
-      <c r="I57" s="151"/>
-      <c r="J57" s="160"/>
-      <c r="K57" s="160"/>
-      <c r="L57" s="154"/>
-      <c r="M57" s="154"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="133"/>
+      <c r="K57" s="133"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="134"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -7203,13 +7203,13 @@
       <c r="F58" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G58" s="151"/>
-      <c r="H58" s="151"/>
-      <c r="I58" s="151"/>
-      <c r="J58" s="160"/>
-      <c r="K58" s="160"/>
-      <c r="L58" s="154"/>
-      <c r="M58" s="154"/>
+      <c r="G58" s="132"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="134"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -7230,13 +7230,13 @@
       <c r="F59" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G59" s="151"/>
-      <c r="H59" s="151"/>
-      <c r="I59" s="151"/>
-      <c r="J59" s="160"/>
-      <c r="K59" s="160"/>
-      <c r="L59" s="154"/>
-      <c r="M59" s="154"/>
+      <c r="G59" s="132"/>
+      <c r="H59" s="132"/>
+      <c r="I59" s="132"/>
+      <c r="J59" s="133"/>
+      <c r="K59" s="133"/>
+      <c r="L59" s="134"/>
+      <c r="M59" s="134"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -7257,13 +7257,13 @@
       <c r="F60" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G60" s="151"/>
-      <c r="H60" s="151"/>
-      <c r="I60" s="151"/>
-      <c r="J60" s="160"/>
-      <c r="K60" s="160"/>
-      <c r="L60" s="154"/>
-      <c r="M60" s="154"/>
+      <c r="G60" s="132"/>
+      <c r="H60" s="132"/>
+      <c r="I60" s="132"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="133"/>
+      <c r="L60" s="134"/>
+      <c r="M60" s="134"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -7274,13 +7274,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="151"/>
-      <c r="H61" s="151"/>
-      <c r="I61" s="151"/>
-      <c r="J61" s="160"/>
-      <c r="K61" s="160"/>
-      <c r="L61" s="154"/>
-      <c r="M61" s="154"/>
+      <c r="G61" s="132"/>
+      <c r="H61" s="132"/>
+      <c r="I61" s="132"/>
+      <c r="J61" s="133"/>
+      <c r="K61" s="133"/>
+      <c r="L61" s="134"/>
+      <c r="M61" s="134"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -7291,13 +7291,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="151"/>
-      <c r="H62" s="151"/>
-      <c r="I62" s="151"/>
-      <c r="J62" s="160"/>
-      <c r="K62" s="160"/>
-      <c r="L62" s="154"/>
-      <c r="M62" s="154"/>
+      <c r="G62" s="132"/>
+      <c r="H62" s="132"/>
+      <c r="I62" s="132"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="133"/>
+      <c r="L62" s="134"/>
+      <c r="M62" s="134"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -7308,13 +7308,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="151"/>
-      <c r="H63" s="151"/>
-      <c r="I63" s="151"/>
-      <c r="J63" s="160"/>
-      <c r="K63" s="160"/>
-      <c r="L63" s="154"/>
-      <c r="M63" s="154"/>
+      <c r="G63" s="132"/>
+      <c r="H63" s="132"/>
+      <c r="I63" s="132"/>
+      <c r="J63" s="133"/>
+      <c r="K63" s="133"/>
+      <c r="L63" s="134"/>
+      <c r="M63" s="134"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -7325,13 +7325,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="151"/>
-      <c r="H64" s="151"/>
-      <c r="I64" s="151"/>
-      <c r="J64" s="160"/>
-      <c r="K64" s="160"/>
-      <c r="L64" s="154"/>
-      <c r="M64" s="154"/>
+      <c r="G64" s="132"/>
+      <c r="H64" s="132"/>
+      <c r="I64" s="132"/>
+      <c r="J64" s="133"/>
+      <c r="K64" s="133"/>
+      <c r="L64" s="134"/>
+      <c r="M64" s="134"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -7342,13 +7342,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="151"/>
-      <c r="H65" s="151"/>
-      <c r="I65" s="151"/>
-      <c r="J65" s="160"/>
-      <c r="K65" s="160"/>
-      <c r="L65" s="154"/>
-      <c r="M65" s="154"/>
+      <c r="G65" s="132"/>
+      <c r="H65" s="132"/>
+      <c r="I65" s="132"/>
+      <c r="J65" s="133"/>
+      <c r="K65" s="133"/>
+      <c r="L65" s="134"/>
+      <c r="M65" s="134"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -7359,13 +7359,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="151"/>
-      <c r="H66" s="151"/>
-      <c r="I66" s="151"/>
-      <c r="J66" s="160"/>
-      <c r="K66" s="160"/>
-      <c r="L66" s="154"/>
-      <c r="M66" s="154"/>
+      <c r="G66" s="132"/>
+      <c r="H66" s="132"/>
+      <c r="I66" s="132"/>
+      <c r="J66" s="133"/>
+      <c r="K66" s="133"/>
+      <c r="L66" s="134"/>
+      <c r="M66" s="134"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -7376,13 +7376,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="89"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="151"/>
-      <c r="H67" s="151"/>
-      <c r="I67" s="151"/>
-      <c r="J67" s="160"/>
-      <c r="K67" s="160"/>
-      <c r="L67" s="154"/>
-      <c r="M67" s="154"/>
+      <c r="G67" s="132"/>
+      <c r="H67" s="132"/>
+      <c r="I67" s="132"/>
+      <c r="J67" s="133"/>
+      <c r="K67" s="133"/>
+      <c r="L67" s="134"/>
+      <c r="M67" s="134"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -7393,13 +7393,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="151"/>
-      <c r="H68" s="151"/>
-      <c r="I68" s="151"/>
-      <c r="J68" s="160"/>
-      <c r="K68" s="160"/>
-      <c r="L68" s="154"/>
-      <c r="M68" s="154"/>
+      <c r="G68" s="132"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="133"/>
+      <c r="K68" s="133"/>
+      <c r="L68" s="134"/>
+      <c r="M68" s="134"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -7410,13 +7410,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="151"/>
-      <c r="H69" s="151"/>
-      <c r="I69" s="151"/>
-      <c r="J69" s="160"/>
-      <c r="K69" s="160"/>
-      <c r="L69" s="154"/>
-      <c r="M69" s="154"/>
+      <c r="G69" s="132"/>
+      <c r="H69" s="132"/>
+      <c r="I69" s="132"/>
+      <c r="J69" s="133"/>
+      <c r="K69" s="133"/>
+      <c r="L69" s="134"/>
+      <c r="M69" s="134"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -7427,13 +7427,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="151"/>
-      <c r="H70" s="151"/>
-      <c r="I70" s="151"/>
-      <c r="J70" s="160"/>
-      <c r="K70" s="160"/>
-      <c r="L70" s="154"/>
-      <c r="M70" s="154"/>
+      <c r="G70" s="132"/>
+      <c r="H70" s="132"/>
+      <c r="I70" s="132"/>
+      <c r="J70" s="133"/>
+      <c r="K70" s="133"/>
+      <c r="L70" s="134"/>
+      <c r="M70" s="134"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -7444,13 +7444,13 @@
       <c r="D71" s="89"/>
       <c r="E71" s="89"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="151"/>
-      <c r="H71" s="151"/>
-      <c r="I71" s="151"/>
-      <c r="J71" s="160"/>
-      <c r="K71" s="160"/>
-      <c r="L71" s="154"/>
-      <c r="M71" s="154"/>
+      <c r="G71" s="132"/>
+      <c r="H71" s="132"/>
+      <c r="I71" s="132"/>
+      <c r="J71" s="133"/>
+      <c r="K71" s="133"/>
+      <c r="L71" s="134"/>
+      <c r="M71" s="134"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -7458,6 +7458,195 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -7482,195 +7671,6 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="208" priority="213" stopIfTrue="1" operator="equal">
@@ -8721,9 +8721,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="CK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CS16" sqref="CS16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8737,452 +8737,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="167"/>
-      <c r="AB2" s="167"/>
-      <c r="AC2" s="167"/>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="167"/>
-      <c r="AH2" s="167"/>
-      <c r="AI2" s="167"/>
-      <c r="AJ2" s="167"/>
-      <c r="AK2" s="167"/>
-      <c r="AL2" s="167"/>
-      <c r="AM2" s="167"/>
-      <c r="AN2" s="167"/>
-      <c r="AO2" s="167"/>
-      <c r="AP2" s="167"/>
-      <c r="AQ2" s="167"/>
-      <c r="AR2" s="167"/>
-      <c r="AS2" s="167"/>
-      <c r="AT2" s="167"/>
-      <c r="AU2" s="167"/>
-      <c r="AV2" s="167"/>
-      <c r="AW2" s="167"/>
-      <c r="AX2" s="167"/>
-      <c r="AY2" s="167"/>
-      <c r="AZ2" s="167"/>
-      <c r="BA2" s="167"/>
-      <c r="BB2" s="167"/>
-      <c r="BC2" s="167"/>
-      <c r="BD2" s="167"/>
-      <c r="BE2" s="167"/>
-      <c r="BF2" s="167"/>
-      <c r="BG2" s="167"/>
-      <c r="BH2" s="167"/>
-      <c r="BI2" s="167"/>
-      <c r="BJ2" s="167"/>
-      <c r="BK2" s="167"/>
-      <c r="BL2" s="167"/>
-      <c r="BM2" s="167"/>
-      <c r="BN2" s="167"/>
-      <c r="BO2" s="167"/>
-      <c r="BP2" s="167"/>
-      <c r="BQ2" s="167"/>
-      <c r="BR2" s="167"/>
-      <c r="BS2" s="167"/>
-      <c r="BT2" s="167"/>
-      <c r="BU2" s="167"/>
-      <c r="BV2" s="167"/>
-      <c r="BW2" s="167"/>
-      <c r="BX2" s="167"/>
-      <c r="BY2" s="167"/>
-      <c r="BZ2" s="167"/>
-      <c r="CA2" s="167"/>
-      <c r="CB2" s="167"/>
-      <c r="CC2" s="167"/>
-      <c r="CD2" s="167"/>
-      <c r="CE2" s="167"/>
-      <c r="CF2" s="167"/>
-      <c r="CG2" s="167"/>
-      <c r="CH2" s="167"/>
-      <c r="CI2" s="167"/>
-      <c r="CJ2" s="167"/>
-      <c r="CK2" s="167"/>
-      <c r="CL2" s="167"/>
-      <c r="CM2" s="167"/>
-      <c r="CN2" s="167"/>
-      <c r="CO2" s="167"/>
-      <c r="CP2" s="167"/>
-      <c r="CQ2" s="167"/>
-      <c r="CR2" s="167"/>
-      <c r="CS2" s="167"/>
-      <c r="CT2" s="167"/>
-      <c r="CU2" s="167"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="135"/>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="135"/>
+      <c r="AX2" s="135"/>
+      <c r="AY2" s="135"/>
+      <c r="AZ2" s="135"/>
+      <c r="BA2" s="135"/>
+      <c r="BB2" s="135"/>
+      <c r="BC2" s="135"/>
+      <c r="BD2" s="135"/>
+      <c r="BE2" s="135"/>
+      <c r="BF2" s="135"/>
+      <c r="BG2" s="135"/>
+      <c r="BH2" s="135"/>
+      <c r="BI2" s="135"/>
+      <c r="BJ2" s="135"/>
+      <c r="BK2" s="135"/>
+      <c r="BL2" s="135"/>
+      <c r="BM2" s="135"/>
+      <c r="BN2" s="135"/>
+      <c r="BO2" s="135"/>
+      <c r="BP2" s="135"/>
+      <c r="BQ2" s="135"/>
+      <c r="BR2" s="135"/>
+      <c r="BS2" s="135"/>
+      <c r="BT2" s="135"/>
+      <c r="BU2" s="135"/>
+      <c r="BV2" s="135"/>
+      <c r="BW2" s="135"/>
+      <c r="BX2" s="135"/>
+      <c r="BY2" s="135"/>
+      <c r="BZ2" s="135"/>
+      <c r="CA2" s="135"/>
+      <c r="CB2" s="135"/>
+      <c r="CC2" s="135"/>
+      <c r="CD2" s="135"/>
+      <c r="CE2" s="135"/>
+      <c r="CF2" s="135"/>
+      <c r="CG2" s="135"/>
+      <c r="CH2" s="135"/>
+      <c r="CI2" s="135"/>
+      <c r="CJ2" s="135"/>
+      <c r="CK2" s="135"/>
+      <c r="CL2" s="135"/>
+      <c r="CM2" s="135"/>
+      <c r="CN2" s="135"/>
+      <c r="CO2" s="135"/>
+      <c r="CP2" s="135"/>
+      <c r="CQ2" s="135"/>
+      <c r="CR2" s="135"/>
+      <c r="CS2" s="135"/>
+      <c r="CT2" s="135"/>
+      <c r="CU2" s="135"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="167"/>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="167"/>
-      <c r="AH3" s="167"/>
-      <c r="AI3" s="167"/>
-      <c r="AJ3" s="167"/>
-      <c r="AK3" s="167"/>
-      <c r="AL3" s="167"/>
-      <c r="AM3" s="167"/>
-      <c r="AN3" s="167"/>
-      <c r="AO3" s="167"/>
-      <c r="AP3" s="167"/>
-      <c r="AQ3" s="167"/>
-      <c r="AR3" s="167"/>
-      <c r="AS3" s="167"/>
-      <c r="AT3" s="167"/>
-      <c r="AU3" s="167"/>
-      <c r="AV3" s="167"/>
-      <c r="AW3" s="167"/>
-      <c r="AX3" s="167"/>
-      <c r="AY3" s="167"/>
-      <c r="AZ3" s="167"/>
-      <c r="BA3" s="167"/>
-      <c r="BB3" s="167"/>
-      <c r="BC3" s="167"/>
-      <c r="BD3" s="167"/>
-      <c r="BE3" s="167"/>
-      <c r="BF3" s="167"/>
-      <c r="BG3" s="167"/>
-      <c r="BH3" s="167"/>
-      <c r="BI3" s="167"/>
-      <c r="BJ3" s="167"/>
-      <c r="BK3" s="167"/>
-      <c r="BL3" s="167"/>
-      <c r="BM3" s="167"/>
-      <c r="BN3" s="167"/>
-      <c r="BO3" s="167"/>
-      <c r="BP3" s="167"/>
-      <c r="BQ3" s="167"/>
-      <c r="BR3" s="167"/>
-      <c r="BS3" s="167"/>
-      <c r="BT3" s="167"/>
-      <c r="BU3" s="167"/>
-      <c r="BV3" s="167"/>
-      <c r="BW3" s="167"/>
-      <c r="BX3" s="167"/>
-      <c r="BY3" s="167"/>
-      <c r="BZ3" s="167"/>
-      <c r="CA3" s="167"/>
-      <c r="CB3" s="167"/>
-      <c r="CC3" s="167"/>
-      <c r="CD3" s="167"/>
-      <c r="CE3" s="167"/>
-      <c r="CF3" s="167"/>
-      <c r="CG3" s="167"/>
-      <c r="CH3" s="167"/>
-      <c r="CI3" s="167"/>
-      <c r="CJ3" s="167"/>
-      <c r="CK3" s="167"/>
-      <c r="CL3" s="167"/>
-      <c r="CM3" s="167"/>
-      <c r="CN3" s="167"/>
-      <c r="CO3" s="167"/>
-      <c r="CP3" s="167"/>
-      <c r="CQ3" s="167"/>
-      <c r="CR3" s="167"/>
-      <c r="CS3" s="167"/>
-      <c r="CT3" s="167"/>
-      <c r="CU3" s="167"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="135"/>
+      <c r="U3" s="135"/>
+      <c r="V3" s="135"/>
+      <c r="W3" s="135"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="135"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="135"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="135"/>
+      <c r="AH3" s="135"/>
+      <c r="AI3" s="135"/>
+      <c r="AJ3" s="135"/>
+      <c r="AK3" s="135"/>
+      <c r="AL3" s="135"/>
+      <c r="AM3" s="135"/>
+      <c r="AN3" s="135"/>
+      <c r="AO3" s="135"/>
+      <c r="AP3" s="135"/>
+      <c r="AQ3" s="135"/>
+      <c r="AR3" s="135"/>
+      <c r="AS3" s="135"/>
+      <c r="AT3" s="135"/>
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135"/>
+      <c r="BA3" s="135"/>
+      <c r="BB3" s="135"/>
+      <c r="BC3" s="135"/>
+      <c r="BD3" s="135"/>
+      <c r="BE3" s="135"/>
+      <c r="BF3" s="135"/>
+      <c r="BG3" s="135"/>
+      <c r="BH3" s="135"/>
+      <c r="BI3" s="135"/>
+      <c r="BJ3" s="135"/>
+      <c r="BK3" s="135"/>
+      <c r="BL3" s="135"/>
+      <c r="BM3" s="135"/>
+      <c r="BN3" s="135"/>
+      <c r="BO3" s="135"/>
+      <c r="BP3" s="135"/>
+      <c r="BQ3" s="135"/>
+      <c r="BR3" s="135"/>
+      <c r="BS3" s="135"/>
+      <c r="BT3" s="135"/>
+      <c r="BU3" s="135"/>
+      <c r="BV3" s="135"/>
+      <c r="BW3" s="135"/>
+      <c r="BX3" s="135"/>
+      <c r="BY3" s="135"/>
+      <c r="BZ3" s="135"/>
+      <c r="CA3" s="135"/>
+      <c r="CB3" s="135"/>
+      <c r="CC3" s="135"/>
+      <c r="CD3" s="135"/>
+      <c r="CE3" s="135"/>
+      <c r="CF3" s="135"/>
+      <c r="CG3" s="135"/>
+      <c r="CH3" s="135"/>
+      <c r="CI3" s="135"/>
+      <c r="CJ3" s="135"/>
+      <c r="CK3" s="135"/>
+      <c r="CL3" s="135"/>
+      <c r="CM3" s="135"/>
+      <c r="CN3" s="135"/>
+      <c r="CO3" s="135"/>
+      <c r="CP3" s="135"/>
+      <c r="CQ3" s="135"/>
+      <c r="CR3" s="135"/>
+      <c r="CS3" s="135"/>
+      <c r="CT3" s="135"/>
+      <c r="CU3" s="135"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="178" t="s">
+      <c r="B5" s="203" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="178" t="s">
+      <c r="C5" s="203" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="179" t="s">
+      <c r="D5" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="180"/>
-      <c r="AC5" s="180"/>
-      <c r="AD5" s="180"/>
-      <c r="AE5" s="180"/>
-      <c r="AF5" s="180"/>
-      <c r="AG5" s="180"/>
-      <c r="AH5" s="180"/>
-      <c r="AI5" s="180"/>
-      <c r="AJ5" s="180"/>
-      <c r="AK5" s="180"/>
-      <c r="AL5" s="180"/>
-      <c r="AM5" s="180"/>
-      <c r="AN5" s="180"/>
-      <c r="AO5" s="180"/>
-      <c r="AP5" s="180"/>
-      <c r="AQ5" s="180"/>
-      <c r="AR5" s="180"/>
-      <c r="AS5" s="180"/>
-      <c r="AT5" s="180"/>
-      <c r="AU5" s="180"/>
-      <c r="AV5" s="180"/>
-      <c r="AW5" s="180"/>
-      <c r="AX5" s="180"/>
-      <c r="AY5" s="180"/>
-      <c r="AZ5" s="180"/>
-      <c r="BA5" s="180"/>
-      <c r="BB5" s="180"/>
-      <c r="BC5" s="180"/>
-      <c r="BD5" s="181"/>
-      <c r="BE5" s="182" t="s">
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="205"/>
+      <c r="K5" s="205"/>
+      <c r="L5" s="205"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="205"/>
+      <c r="O5" s="205"/>
+      <c r="P5" s="205"/>
+      <c r="Q5" s="205"/>
+      <c r="R5" s="205"/>
+      <c r="S5" s="205"/>
+      <c r="T5" s="205"/>
+      <c r="U5" s="205"/>
+      <c r="V5" s="205"/>
+      <c r="W5" s="205"/>
+      <c r="X5" s="205"/>
+      <c r="Y5" s="205"/>
+      <c r="Z5" s="205"/>
+      <c r="AA5" s="205"/>
+      <c r="AB5" s="205"/>
+      <c r="AC5" s="205"/>
+      <c r="AD5" s="205"/>
+      <c r="AE5" s="205"/>
+      <c r="AF5" s="205"/>
+      <c r="AG5" s="205"/>
+      <c r="AH5" s="205"/>
+      <c r="AI5" s="205"/>
+      <c r="AJ5" s="205"/>
+      <c r="AK5" s="205"/>
+      <c r="AL5" s="205"/>
+      <c r="AM5" s="205"/>
+      <c r="AN5" s="205"/>
+      <c r="AO5" s="205"/>
+      <c r="AP5" s="205"/>
+      <c r="AQ5" s="205"/>
+      <c r="AR5" s="205"/>
+      <c r="AS5" s="205"/>
+      <c r="AT5" s="205"/>
+      <c r="AU5" s="205"/>
+      <c r="AV5" s="205"/>
+      <c r="AW5" s="205"/>
+      <c r="AX5" s="205"/>
+      <c r="AY5" s="205"/>
+      <c r="AZ5" s="205"/>
+      <c r="BA5" s="205"/>
+      <c r="BB5" s="205"/>
+      <c r="BC5" s="205"/>
+      <c r="BD5" s="206"/>
+      <c r="BE5" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="183"/>
-      <c r="BG5" s="183"/>
-      <c r="BH5" s="183"/>
-      <c r="BI5" s="183"/>
-      <c r="BJ5" s="183"/>
-      <c r="BK5" s="183"/>
-      <c r="BL5" s="183"/>
-      <c r="BM5" s="183"/>
-      <c r="BN5" s="183"/>
-      <c r="BO5" s="183"/>
-      <c r="BP5" s="183"/>
-      <c r="BQ5" s="183"/>
-      <c r="BR5" s="183"/>
-      <c r="BS5" s="183"/>
-      <c r="BT5" s="183"/>
-      <c r="BU5" s="183"/>
-      <c r="BV5" s="183"/>
-      <c r="BW5" s="183"/>
-      <c r="BX5" s="183"/>
-      <c r="BY5" s="183"/>
-      <c r="BZ5" s="183"/>
-      <c r="CA5" s="183"/>
-      <c r="CB5" s="183"/>
-      <c r="CC5" s="183"/>
-      <c r="CD5" s="183"/>
-      <c r="CE5" s="183"/>
-      <c r="CF5" s="183"/>
-      <c r="CG5" s="183"/>
-      <c r="CH5" s="183"/>
-      <c r="CI5" s="183"/>
-      <c r="CJ5" s="183"/>
-      <c r="CK5" s="183"/>
-      <c r="CL5" s="183"/>
-      <c r="CM5" s="183"/>
-      <c r="CN5" s="183"/>
-      <c r="CO5" s="183"/>
-      <c r="CP5" s="183"/>
-      <c r="CQ5" s="183"/>
-      <c r="CR5" s="184"/>
-      <c r="CS5" s="189" t="s">
+      <c r="BF5" s="208"/>
+      <c r="BG5" s="208"/>
+      <c r="BH5" s="208"/>
+      <c r="BI5" s="208"/>
+      <c r="BJ5" s="208"/>
+      <c r="BK5" s="208"/>
+      <c r="BL5" s="208"/>
+      <c r="BM5" s="208"/>
+      <c r="BN5" s="208"/>
+      <c r="BO5" s="208"/>
+      <c r="BP5" s="208"/>
+      <c r="BQ5" s="208"/>
+      <c r="BR5" s="208"/>
+      <c r="BS5" s="208"/>
+      <c r="BT5" s="208"/>
+      <c r="BU5" s="208"/>
+      <c r="BV5" s="208"/>
+      <c r="BW5" s="208"/>
+      <c r="BX5" s="208"/>
+      <c r="BY5" s="208"/>
+      <c r="BZ5" s="208"/>
+      <c r="CA5" s="208"/>
+      <c r="CB5" s="208"/>
+      <c r="CC5" s="208"/>
+      <c r="CD5" s="208"/>
+      <c r="CE5" s="208"/>
+      <c r="CF5" s="208"/>
+      <c r="CG5" s="208"/>
+      <c r="CH5" s="208"/>
+      <c r="CI5" s="208"/>
+      <c r="CJ5" s="208"/>
+      <c r="CK5" s="208"/>
+      <c r="CL5" s="208"/>
+      <c r="CM5" s="208"/>
+      <c r="CN5" s="208"/>
+      <c r="CO5" s="208"/>
+      <c r="CP5" s="208"/>
+      <c r="CQ5" s="208"/>
+      <c r="CR5" s="209"/>
+      <c r="CS5" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="190"/>
-      <c r="CU5" s="191"/>
+      <c r="CT5" s="197"/>
+      <c r="CU5" s="198"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="176"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="209" t="s">
+      <c r="A6" s="201"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="195" t="s">
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="182" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="195"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="195"/>
-      <c r="S6" s="195"/>
-      <c r="T6" s="195"/>
-      <c r="U6" s="195"/>
-      <c r="V6" s="195"/>
-      <c r="W6" s="195"/>
-      <c r="X6" s="195"/>
-      <c r="Y6" s="195"/>
-      <c r="Z6" s="195"/>
-      <c r="AA6" s="195"/>
-      <c r="AB6" s="195"/>
-      <c r="AC6" s="195"/>
-      <c r="AD6" s="195"/>
-      <c r="AE6" s="195"/>
-      <c r="AF6" s="195"/>
-      <c r="AG6" s="195"/>
-      <c r="AH6" s="195"/>
-      <c r="AI6" s="195"/>
-      <c r="AJ6" s="195"/>
-      <c r="AK6" s="195"/>
-      <c r="AL6" s="195"/>
-      <c r="AM6" s="195"/>
-      <c r="AN6" s="195"/>
-      <c r="AO6" s="195" t="s">
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="182"/>
+      <c r="S6" s="182"/>
+      <c r="T6" s="182"/>
+      <c r="U6" s="182"/>
+      <c r="V6" s="182"/>
+      <c r="W6" s="182"/>
+      <c r="X6" s="182"/>
+      <c r="Y6" s="182"/>
+      <c r="Z6" s="182"/>
+      <c r="AA6" s="182"/>
+      <c r="AB6" s="182"/>
+      <c r="AC6" s="182"/>
+      <c r="AD6" s="182"/>
+      <c r="AE6" s="182"/>
+      <c r="AF6" s="182"/>
+      <c r="AG6" s="182"/>
+      <c r="AH6" s="182"/>
+      <c r="AI6" s="182"/>
+      <c r="AJ6" s="182"/>
+      <c r="AK6" s="182"/>
+      <c r="AL6" s="182"/>
+      <c r="AM6" s="182"/>
+      <c r="AN6" s="182"/>
+      <c r="AO6" s="182" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="195"/>
-      <c r="AQ6" s="195"/>
-      <c r="AR6" s="195"/>
-      <c r="AS6" s="195" t="s">
+      <c r="AP6" s="182"/>
+      <c r="AQ6" s="182"/>
+      <c r="AR6" s="182"/>
+      <c r="AS6" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="195"/>
-      <c r="AU6" s="195"/>
-      <c r="AV6" s="195" t="s">
+      <c r="AT6" s="182"/>
+      <c r="AU6" s="182"/>
+      <c r="AV6" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="195"/>
-      <c r="AX6" s="195"/>
-      <c r="AY6" s="195"/>
-      <c r="AZ6" s="195"/>
-      <c r="BA6" s="195"/>
-      <c r="BB6" s="195"/>
-      <c r="BC6" s="199" t="s">
+      <c r="AW6" s="182"/>
+      <c r="AX6" s="182"/>
+      <c r="AY6" s="182"/>
+      <c r="AZ6" s="182"/>
+      <c r="BA6" s="182"/>
+      <c r="BB6" s="182"/>
+      <c r="BC6" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="200"/>
-      <c r="BE6" s="201" t="s">
+      <c r="BD6" s="190"/>
+      <c r="BE6" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="202"/>
-      <c r="BG6" s="202"/>
-      <c r="BH6" s="202"/>
-      <c r="BI6" s="202"/>
-      <c r="BJ6" s="202"/>
-      <c r="BK6" s="203"/>
-      <c r="BL6" s="204" t="s">
+      <c r="BF6" s="192"/>
+      <c r="BG6" s="192"/>
+      <c r="BH6" s="192"/>
+      <c r="BI6" s="192"/>
+      <c r="BJ6" s="192"/>
+      <c r="BK6" s="193"/>
+      <c r="BL6" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="202"/>
-      <c r="BN6" s="202"/>
-      <c r="BO6" s="202"/>
-      <c r="BP6" s="202"/>
-      <c r="BQ6" s="202"/>
-      <c r="BR6" s="202"/>
-      <c r="BS6" s="202"/>
-      <c r="BT6" s="202"/>
-      <c r="BU6" s="202"/>
-      <c r="BV6" s="202"/>
-      <c r="BW6" s="202"/>
-      <c r="BX6" s="202"/>
-      <c r="BY6" s="202"/>
-      <c r="BZ6" s="202"/>
-      <c r="CA6" s="202"/>
-      <c r="CB6" s="202"/>
-      <c r="CC6" s="202"/>
-      <c r="CD6" s="202"/>
-      <c r="CE6" s="202"/>
-      <c r="CF6" s="202"/>
-      <c r="CG6" s="202"/>
-      <c r="CH6" s="202"/>
-      <c r="CI6" s="202"/>
-      <c r="CJ6" s="202"/>
-      <c r="CK6" s="202"/>
-      <c r="CL6" s="202"/>
-      <c r="CM6" s="202"/>
-      <c r="CN6" s="202"/>
-      <c r="CO6" s="202"/>
-      <c r="CP6" s="202"/>
-      <c r="CQ6" s="192" t="s">
+      <c r="BM6" s="192"/>
+      <c r="BN6" s="192"/>
+      <c r="BO6" s="192"/>
+      <c r="BP6" s="192"/>
+      <c r="BQ6" s="192"/>
+      <c r="BR6" s="192"/>
+      <c r="BS6" s="192"/>
+      <c r="BT6" s="192"/>
+      <c r="BU6" s="192"/>
+      <c r="BV6" s="192"/>
+      <c r="BW6" s="192"/>
+      <c r="BX6" s="192"/>
+      <c r="BY6" s="192"/>
+      <c r="BZ6" s="192"/>
+      <c r="CA6" s="192"/>
+      <c r="CB6" s="192"/>
+      <c r="CC6" s="192"/>
+      <c r="CD6" s="192"/>
+      <c r="CE6" s="192"/>
+      <c r="CF6" s="192"/>
+      <c r="CG6" s="192"/>
+      <c r="CH6" s="192"/>
+      <c r="CI6" s="192"/>
+      <c r="CJ6" s="192"/>
+      <c r="CK6" s="192"/>
+      <c r="CL6" s="192"/>
+      <c r="CM6" s="192"/>
+      <c r="CN6" s="192"/>
+      <c r="CO6" s="192"/>
+      <c r="CP6" s="192"/>
+      <c r="CQ6" s="199" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="192"/>
-      <c r="CS6" s="174" t="s">
+      <c r="CR6" s="199"/>
+      <c r="CS6" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="174" t="s">
+      <c r="CT6" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="196" t="s">
+      <c r="CU6" s="186" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="176"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
+      <c r="A7" s="201"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
       <c r="E7" s="123"/>
       <c r="F7" s="122">
         <v>0.3</v>
@@ -9191,339 +9191,339 @@
       <c r="I7" s="123">
         <v>0.3</v>
       </c>
-      <c r="J7" s="187">
+      <c r="J7" s="181">
         <v>42983</v>
       </c>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187">
+      <c r="K7" s="181"/>
+      <c r="L7" s="181">
         <v>43004</v>
       </c>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="187"/>
-      <c r="Q7" s="187"/>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
-      <c r="T7" s="188">
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="181"/>
+      <c r="Q7" s="181"/>
+      <c r="R7" s="181"/>
+      <c r="S7" s="181"/>
+      <c r="T7" s="185">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
-        <v>1</v>
-      </c>
-      <c r="U7" s="188"/>
-      <c r="V7" s="187"/>
-      <c r="W7" s="187"/>
-      <c r="X7" s="187"/>
-      <c r="Y7" s="187"/>
-      <c r="Z7" s="187"/>
-      <c r="AA7" s="187"/>
-      <c r="AB7" s="187"/>
-      <c r="AC7" s="187"/>
-      <c r="AD7" s="187"/>
-      <c r="AE7" s="187"/>
-      <c r="AF7" s="187"/>
-      <c r="AG7" s="187"/>
-      <c r="AH7" s="187"/>
-      <c r="AI7" s="187"/>
-      <c r="AJ7" s="187"/>
-      <c r="AK7" s="187"/>
-      <c r="AL7" s="187"/>
-      <c r="AM7" s="187"/>
+        <v>2</v>
+      </c>
+      <c r="U7" s="185"/>
+      <c r="V7" s="181"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="181"/>
+      <c r="Y7" s="181"/>
+      <c r="Z7" s="181"/>
+      <c r="AA7" s="181"/>
+      <c r="AB7" s="181"/>
+      <c r="AC7" s="181"/>
+      <c r="AD7" s="181"/>
+      <c r="AE7" s="181"/>
+      <c r="AF7" s="181"/>
+      <c r="AG7" s="181"/>
+      <c r="AH7" s="181"/>
+      <c r="AI7" s="181"/>
+      <c r="AJ7" s="181"/>
+      <c r="AK7" s="181"/>
+      <c r="AL7" s="181"/>
+      <c r="AM7" s="181"/>
       <c r="AN7" s="96">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="187" t="s">
+      <c r="AO7" s="181" t="s">
         <v>166</v>
       </c>
-      <c r="AP7" s="187"/>
-      <c r="AQ7" s="187"/>
-      <c r="AR7" s="187"/>
-      <c r="AS7" s="188">
+      <c r="AP7" s="181"/>
+      <c r="AQ7" s="181"/>
+      <c r="AR7" s="181"/>
+      <c r="AS7" s="185">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="188"/>
+      <c r="AT7" s="185"/>
       <c r="AU7" s="20">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="187" t="s">
+      <c r="AV7" s="181" t="s">
         <v>167</v>
       </c>
-      <c r="AW7" s="187"/>
-      <c r="AX7" s="187"/>
-      <c r="AY7" s="187"/>
-      <c r="AZ7" s="188">
+      <c r="AW7" s="181"/>
+      <c r="AX7" s="181"/>
+      <c r="AY7" s="181"/>
+      <c r="AZ7" s="185">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="188"/>
+      <c r="BA7" s="185"/>
       <c r="BB7" s="21">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="199"/>
-      <c r="BD7" s="200"/>
-      <c r="BE7" s="187" t="s">
+      <c r="BC7" s="189"/>
+      <c r="BD7" s="190"/>
+      <c r="BE7" s="181" t="s">
         <v>339</v>
       </c>
-      <c r="BF7" s="187"/>
-      <c r="BG7" s="187" t="s">
+      <c r="BF7" s="181"/>
+      <c r="BG7" s="181" t="s">
         <v>338</v>
       </c>
-      <c r="BH7" s="187"/>
-      <c r="BI7" s="188">
+      <c r="BH7" s="181"/>
+      <c r="BI7" s="185">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>2</v>
       </c>
-      <c r="BJ7" s="188"/>
+      <c r="BJ7" s="185"/>
       <c r="BK7" s="104">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="187">
+      <c r="BL7" s="181">
         <v>42982</v>
       </c>
-      <c r="BM7" s="187"/>
-      <c r="BN7" s="187">
+      <c r="BM7" s="181"/>
+      <c r="BN7" s="181">
         <v>42982</v>
       </c>
-      <c r="BO7" s="187"/>
-      <c r="BP7" s="187">
+      <c r="BO7" s="181"/>
+      <c r="BP7" s="181">
         <v>42989</v>
       </c>
-      <c r="BQ7" s="187"/>
-      <c r="BR7" s="187">
+      <c r="BQ7" s="181"/>
+      <c r="BR7" s="181">
         <v>42987</v>
       </c>
-      <c r="BS7" s="187"/>
-      <c r="BT7" s="187"/>
-      <c r="BU7" s="187"/>
-      <c r="BV7" s="187"/>
-      <c r="BW7" s="187"/>
-      <c r="BX7" s="187"/>
-      <c r="BY7" s="187"/>
-      <c r="BZ7" s="187"/>
-      <c r="CA7" s="187"/>
-      <c r="CB7" s="187"/>
-      <c r="CC7" s="187"/>
-      <c r="CD7" s="187"/>
-      <c r="CE7" s="187"/>
-      <c r="CF7" s="187"/>
-      <c r="CG7" s="187"/>
-      <c r="CH7" s="187"/>
-      <c r="CI7" s="187"/>
-      <c r="CJ7" s="187"/>
-      <c r="CK7" s="187"/>
-      <c r="CL7" s="187"/>
-      <c r="CM7" s="187"/>
-      <c r="CN7" s="188">
+      <c r="BS7" s="181"/>
+      <c r="BT7" s="181"/>
+      <c r="BU7" s="181"/>
+      <c r="BV7" s="181"/>
+      <c r="BW7" s="181"/>
+      <c r="BX7" s="181"/>
+      <c r="BY7" s="181"/>
+      <c r="BZ7" s="181"/>
+      <c r="CA7" s="181"/>
+      <c r="CB7" s="181"/>
+      <c r="CC7" s="181"/>
+      <c r="CD7" s="181"/>
+      <c r="CE7" s="181"/>
+      <c r="CF7" s="181"/>
+      <c r="CG7" s="181"/>
+      <c r="CH7" s="181"/>
+      <c r="CI7" s="181"/>
+      <c r="CJ7" s="181"/>
+      <c r="CK7" s="181"/>
+      <c r="CL7" s="181"/>
+      <c r="CM7" s="181"/>
+      <c r="CN7" s="185">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>3</v>
       </c>
-      <c r="CO7" s="188"/>
+      <c r="CO7" s="185"/>
       <c r="CP7" s="105">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="192"/>
-      <c r="CR7" s="192"/>
-      <c r="CS7" s="174"/>
-      <c r="CT7" s="174"/>
-      <c r="CU7" s="197"/>
+      <c r="CQ7" s="199"/>
+      <c r="CR7" s="199"/>
+      <c r="CS7" s="195"/>
+      <c r="CT7" s="195"/>
+      <c r="CU7" s="187"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="176"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="185" t="s">
+      <c r="A8" s="201"/>
+      <c r="B8" s="203"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="210" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185" t="s">
+      <c r="E8" s="210"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="210" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="186" t="s">
+      <c r="H8" s="210"/>
+      <c r="I8" s="210"/>
+      <c r="J8" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="186"/>
-      <c r="L8" s="186" t="s">
+      <c r="K8" s="174"/>
+      <c r="L8" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="186"/>
-      <c r="N8" s="186" t="s">
+      <c r="M8" s="174"/>
+      <c r="N8" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186" t="s">
+      <c r="O8" s="174"/>
+      <c r="P8" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="186" t="s">
+      <c r="Q8" s="174"/>
+      <c r="R8" s="174" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="186"/>
-      <c r="T8" s="186" t="s">
+      <c r="S8" s="174"/>
+      <c r="T8" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="186"/>
-      <c r="V8" s="186" t="s">
+      <c r="U8" s="174"/>
+      <c r="V8" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="186"/>
-      <c r="X8" s="186" t="s">
+      <c r="W8" s="174"/>
+      <c r="X8" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="186"/>
-      <c r="Z8" s="186" t="s">
+      <c r="Y8" s="174"/>
+      <c r="Z8" s="174" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="186"/>
-      <c r="AB8" s="186" t="s">
+      <c r="AA8" s="174"/>
+      <c r="AB8" s="174" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="186"/>
-      <c r="AD8" s="186" t="s">
+      <c r="AC8" s="174"/>
+      <c r="AD8" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="186"/>
-      <c r="AF8" s="186" t="s">
+      <c r="AE8" s="174"/>
+      <c r="AF8" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="186"/>
-      <c r="AH8" s="186" t="s">
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="186"/>
-      <c r="AJ8" s="186" t="s">
+      <c r="AI8" s="174"/>
+      <c r="AJ8" s="174" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="186"/>
-      <c r="AL8" s="186" t="s">
+      <c r="AK8" s="174"/>
+      <c r="AL8" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="186"/>
+      <c r="AM8" s="174"/>
       <c r="AN8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="186" t="s">
+      <c r="AO8" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="186"/>
-      <c r="AQ8" s="186" t="s">
+      <c r="AP8" s="174"/>
+      <c r="AQ8" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="186"/>
-      <c r="AS8" s="186" t="s">
+      <c r="AR8" s="174"/>
+      <c r="AS8" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="186"/>
+      <c r="AT8" s="174"/>
       <c r="AU8" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="186" t="s">
+      <c r="AV8" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="186"/>
-      <c r="AX8" s="186" t="s">
+      <c r="AW8" s="174"/>
+      <c r="AX8" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="186"/>
-      <c r="AZ8" s="186" t="s">
+      <c r="AY8" s="174"/>
+      <c r="AZ8" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="186"/>
+      <c r="BA8" s="174"/>
       <c r="BB8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="199"/>
-      <c r="BD8" s="200"/>
-      <c r="BE8" s="208" t="s">
+      <c r="BC8" s="189"/>
+      <c r="BD8" s="190"/>
+      <c r="BE8" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="205"/>
-      <c r="BG8" s="205" t="s">
+      <c r="BF8" s="183"/>
+      <c r="BG8" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="205"/>
-      <c r="BI8" s="205" t="s">
+      <c r="BH8" s="183"/>
+      <c r="BI8" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="205"/>
+      <c r="BJ8" s="183"/>
       <c r="BK8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="206" t="s">
+      <c r="BL8" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="207"/>
-      <c r="BN8" s="206" t="s">
+      <c r="BM8" s="178"/>
+      <c r="BN8" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="207"/>
-      <c r="BP8" s="206" t="s">
+      <c r="BO8" s="178"/>
+      <c r="BP8" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="207"/>
-      <c r="BR8" s="206" t="s">
+      <c r="BQ8" s="178"/>
+      <c r="BR8" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="207"/>
-      <c r="BT8" s="206" t="s">
+      <c r="BS8" s="178"/>
+      <c r="BT8" s="177" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="207"/>
-      <c r="BV8" s="193" t="s">
+      <c r="BU8" s="178"/>
+      <c r="BV8" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="194"/>
-      <c r="BX8" s="193" t="s">
+      <c r="BW8" s="176"/>
+      <c r="BX8" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="194"/>
-      <c r="BZ8" s="193" t="s">
+      <c r="BY8" s="176"/>
+      <c r="BZ8" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="194"/>
-      <c r="CB8" s="193" t="s">
+      <c r="CA8" s="176"/>
+      <c r="CB8" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="194"/>
-      <c r="CD8" s="193" t="s">
+      <c r="CC8" s="176"/>
+      <c r="CD8" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="194"/>
-      <c r="CF8" s="193" t="s">
+      <c r="CE8" s="176"/>
+      <c r="CF8" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="194"/>
-      <c r="CH8" s="193" t="s">
+      <c r="CG8" s="176"/>
+      <c r="CH8" s="175" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="194"/>
-      <c r="CJ8" s="193" t="s">
+      <c r="CI8" s="176"/>
+      <c r="CJ8" s="175" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="194"/>
-      <c r="CL8" s="193" t="s">
+      <c r="CK8" s="176"/>
+      <c r="CL8" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="194"/>
-      <c r="CN8" s="193" t="s">
+      <c r="CM8" s="176"/>
+      <c r="CN8" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="194"/>
+      <c r="CO8" s="176"/>
       <c r="CP8" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="192"/>
-      <c r="CR8" s="192"/>
-      <c r="CS8" s="174"/>
-      <c r="CT8" s="174"/>
-      <c r="CU8" s="197"/>
+      <c r="CQ8" s="199"/>
+      <c r="CR8" s="199"/>
+      <c r="CS8" s="195"/>
+      <c r="CT8" s="195"/>
+      <c r="CU8" s="187"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="177"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
+      <c r="A9" s="202"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="203"/>
       <c r="D9" s="26">
         <v>70</v>
       </c>
@@ -9542,7 +9542,9 @@
         <v>20</v>
       </c>
       <c r="K9" s="28"/>
-      <c r="L9" s="26"/>
+      <c r="L9" s="26">
+        <v>35</v>
+      </c>
       <c r="M9" s="28"/>
       <c r="N9" s="26"/>
       <c r="O9" s="28"/>
@@ -9695,9 +9697,9 @@
       <c r="CR9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="174"/>
-      <c r="CT9" s="174"/>
-      <c r="CU9" s="198"/>
+      <c r="CS9" s="195"/>
+      <c r="CT9" s="195"/>
+      <c r="CU9" s="188"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="41">
@@ -9742,9 +9744,9 @@
       <c r="L10" s="106">
         <v>0</v>
       </c>
-      <c r="M10" s="91" t="str">
+      <c r="M10" s="91">
         <f>IFERROR(((L10/$L$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N10" s="106"/>
       <c r="O10" s="91" t="str">
@@ -9786,7 +9788,7 @@
       <c r="AM10" s="92"/>
       <c r="AN10" s="94">
         <f>IFERROR((((SUM(K10,M10,O10,Q10,S10,U10)/$T$7))*$AN$7),"")</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AO10" s="106"/>
       <c r="AP10" s="91">
@@ -9828,11 +9830,11 @@
       </c>
       <c r="BC10" s="97">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>39</v>
+        <v>31.5</v>
       </c>
       <c r="BD10" s="97">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>39</v>
+        <v>31.5</v>
       </c>
       <c r="BE10" s="106"/>
       <c r="BF10" s="91">
@@ -9948,7 +9950,7 @@
       </c>
       <c r="CS10" s="103">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>44.597999999999999</v>
+        <v>41.597999999999999</v>
       </c>
       <c r="CT10" s="103">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10002,9 +10004,9 @@
       <c r="L11" s="107">
         <v>16</v>
       </c>
-      <c r="M11" s="91" t="str">
+      <c r="M11" s="91">
         <f t="shared" ref="M11:M70" si="4">IFERROR(((L11/$L$9)*100),"")</f>
-        <v/>
+        <v>45.714285714285715</v>
       </c>
       <c r="N11" s="107"/>
       <c r="O11" s="91" t="str">
@@ -10046,7 +10048,7 @@
       <c r="AM11" s="93"/>
       <c r="AN11" s="94">
         <f t="shared" ref="AN11:AN70" si="9">IFERROR((((SUM(K11,M11,O11,Q11,S11,U11)/$T$7))*$AN$7),"")</f>
-        <v>14</v>
+        <v>11.571428571428573</v>
       </c>
       <c r="AO11" s="107"/>
       <c r="AP11" s="91">
@@ -10088,11 +10090,11 @@
       </c>
       <c r="BC11" s="97">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>34.142857142857139</v>
+        <v>31.714285714285715</v>
       </c>
       <c r="BD11" s="97">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>34.14</v>
+        <v>31.71</v>
       </c>
       <c r="BE11" s="107"/>
       <c r="BF11" s="91">
@@ -10208,7 +10210,7 @@
       </c>
       <c r="CS11" s="103">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>41.658000000000001</v>
+        <v>40.686</v>
       </c>
       <c r="CT11" s="103">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10262,9 +10264,9 @@
       <c r="L12" s="107">
         <v>25</v>
       </c>
-      <c r="M12" s="91" t="str">
+      <c r="M12" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>71.428571428571431</v>
       </c>
       <c r="N12" s="107"/>
       <c r="O12" s="91" t="str">
@@ -10306,7 +10308,7 @@
       <c r="AM12" s="93"/>
       <c r="AN12" s="94">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>14.142857142857146</v>
       </c>
       <c r="AO12" s="107"/>
       <c r="AP12" s="91">
@@ -10348,11 +10350,11 @@
       </c>
       <c r="BC12" s="97">
         <f t="shared" si="18"/>
-        <v>37.142857142857146</v>
+        <v>37.285714285714292</v>
       </c>
       <c r="BD12" s="97">
         <f t="shared" si="19"/>
-        <v>37.14</v>
+        <v>37.29</v>
       </c>
       <c r="BE12" s="107"/>
       <c r="BF12" s="91">
@@ -10468,7 +10470,7 @@
       </c>
       <c r="CS12" s="103">
         <f t="shared" si="41"/>
-        <v>42.353999999999999</v>
+        <v>42.414000000000001</v>
       </c>
       <c r="CT12" s="103">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10522,9 +10524,9 @@
       <c r="L13" s="107">
         <v>24</v>
       </c>
-      <c r="M13" s="91" t="str">
+      <c r="M13" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>68.571428571428569</v>
       </c>
       <c r="N13" s="107"/>
       <c r="O13" s="91" t="str">
@@ -10566,7 +10568,7 @@
       <c r="AM13" s="93"/>
       <c r="AN13" s="94">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.8571428571428577</v>
       </c>
       <c r="AO13" s="107"/>
       <c r="AP13" s="91">
@@ -10608,11 +10610,11 @@
       </c>
       <c r="BC13" s="97">
         <f t="shared" si="18"/>
-        <v>21.857142857142854</v>
+        <v>28.714285714285712</v>
       </c>
       <c r="BD13" s="97">
         <f t="shared" si="19"/>
-        <v>21.86</v>
+        <v>28.71</v>
       </c>
       <c r="BE13" s="107"/>
       <c r="BF13" s="91">
@@ -10728,7 +10730,7 @@
       </c>
       <c r="CS13" s="103">
         <f t="shared" si="41"/>
-        <v>38.744</v>
+        <v>41.484000000000002</v>
       </c>
       <c r="CT13" s="103">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10782,9 +10784,9 @@
       <c r="L14" s="107">
         <v>27</v>
       </c>
-      <c r="M14" s="91" t="str">
+      <c r="M14" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>77.142857142857153</v>
       </c>
       <c r="N14" s="107"/>
       <c r="O14" s="91" t="str">
@@ -10826,7 +10828,7 @@
       <c r="AM14" s="93"/>
       <c r="AN14" s="94">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>16.714285714285719</v>
       </c>
       <c r="AO14" s="107"/>
       <c r="AP14" s="91">
@@ -10868,11 +10870,11 @@
       </c>
       <c r="BC14" s="97">
         <f t="shared" si="18"/>
-        <v>44.571428571428569</v>
+        <v>43.285714285714292</v>
       </c>
       <c r="BD14" s="97">
         <f t="shared" si="19"/>
-        <v>44.57</v>
+        <v>43.29</v>
       </c>
       <c r="BE14" s="107"/>
       <c r="BF14" s="91">
@@ -10988,7 +10990,7 @@
       </c>
       <c r="CS14" s="103">
         <f t="shared" si="41"/>
-        <v>47.828000000000003</v>
+        <v>47.316000000000003</v>
       </c>
       <c r="CT14" s="103">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11042,9 +11044,9 @@
       <c r="L15" s="107">
         <v>30</v>
       </c>
-      <c r="M15" s="91" t="str">
+      <c r="M15" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>85.714285714285708</v>
       </c>
       <c r="N15" s="107"/>
       <c r="O15" s="91" t="str">
@@ -11086,7 +11088,7 @@
       <c r="AM15" s="93"/>
       <c r="AN15" s="94">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>15.071428571428573</v>
       </c>
       <c r="AO15" s="107"/>
       <c r="AP15" s="91">
@@ -11128,11 +11130,11 @@
       </c>
       <c r="BC15" s="97">
         <f t="shared" si="18"/>
-        <v>39.142857142857139</v>
+        <v>41.214285714285715</v>
       </c>
       <c r="BD15" s="97">
         <f t="shared" si="19"/>
-        <v>39.14</v>
+        <v>41.21</v>
       </c>
       <c r="BE15" s="107"/>
       <c r="BF15" s="91">
@@ -11248,7 +11250,7 @@
       </c>
       <c r="CS15" s="103">
         <f t="shared" si="41"/>
-        <v>45.655999999999999</v>
+        <v>46.484000000000002</v>
       </c>
       <c r="CT15" s="103">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11302,9 +11304,9 @@
       <c r="L16" s="107">
         <v>18</v>
       </c>
-      <c r="M16" s="91" t="str">
+      <c r="M16" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>51.428571428571423</v>
       </c>
       <c r="N16" s="107"/>
       <c r="O16" s="91" t="str">
@@ -11346,7 +11348,7 @@
       <c r="AM16" s="93"/>
       <c r="AN16" s="94">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.1428571428571423</v>
       </c>
       <c r="AO16" s="107"/>
       <c r="AP16" s="91">
@@ -11388,11 +11390,11 @@
       </c>
       <c r="BC16" s="97">
         <f t="shared" si="18"/>
-        <v>12.857142857142856</v>
+        <v>18</v>
       </c>
       <c r="BD16" s="97">
         <f t="shared" si="19"/>
-        <v>12.86</v>
+        <v>18</v>
       </c>
       <c r="BE16" s="107"/>
       <c r="BF16" s="91">
@@ -11502,7 +11504,7 @@
       </c>
       <c r="CS16" s="103">
         <f t="shared" si="41"/>
-        <v>5.1440000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="CT16" s="103">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11556,9 +11558,9 @@
       <c r="L17" s="107">
         <v>21</v>
       </c>
-      <c r="M17" s="91" t="str">
+      <c r="M17" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="N17" s="107"/>
       <c r="O17" s="91" t="str">
@@ -11816,9 +11818,9 @@
       <c r="L18" s="107">
         <v>26</v>
       </c>
-      <c r="M18" s="91" t="str">
+      <c r="M18" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>74.285714285714292</v>
       </c>
       <c r="N18" s="107"/>
       <c r="O18" s="91" t="str">
@@ -11860,7 +11862,7 @@
       <c r="AM18" s="93"/>
       <c r="AN18" s="94">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>14.928571428571429</v>
       </c>
       <c r="AO18" s="107"/>
       <c r="AP18" s="91">
@@ -11902,11 +11904,11 @@
       </c>
       <c r="BC18" s="97">
         <f t="shared" si="18"/>
-        <v>33.857142857142854</v>
+        <v>33.785714285714285</v>
       </c>
       <c r="BD18" s="97">
         <f t="shared" si="19"/>
-        <v>33.86</v>
+        <v>33.79</v>
       </c>
       <c r="BE18" s="107"/>
       <c r="BF18" s="91">
@@ -12022,7 +12024,7 @@
       </c>
       <c r="CS18" s="103">
         <f t="shared" si="41"/>
-        <v>43.543999999999997</v>
+        <v>43.515999999999998</v>
       </c>
       <c r="CT18" s="103">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12076,9 +12078,9 @@
       <c r="L19" s="107">
         <v>21</v>
       </c>
-      <c r="M19" s="91" t="str">
+      <c r="M19" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="N19" s="107"/>
       <c r="O19" s="91" t="str">
@@ -12120,7 +12122,7 @@
       <c r="AM19" s="93"/>
       <c r="AN19" s="94">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO19" s="107"/>
       <c r="AP19" s="91">
@@ -12162,11 +12164,11 @@
       </c>
       <c r="BC19" s="97">
         <f t="shared" si="18"/>
-        <v>40.428571428571431</v>
+        <v>38.428571428571431</v>
       </c>
       <c r="BD19" s="97">
         <f t="shared" si="19"/>
-        <v>40.43</v>
+        <v>38.43</v>
       </c>
       <c r="BE19" s="107"/>
       <c r="BF19" s="91">
@@ -12282,7 +12284,7 @@
       </c>
       <c r="CS19" s="103">
         <f t="shared" si="41"/>
-        <v>43.171999999999997</v>
+        <v>42.372</v>
       </c>
       <c r="CT19" s="103">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12334,9 +12336,9 @@
       <c r="L20" s="107">
         <v>0</v>
       </c>
-      <c r="M20" s="91" t="str">
+      <c r="M20" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N20" s="107"/>
       <c r="O20" s="91" t="str">
@@ -12588,9 +12590,9 @@
       <c r="L21" s="107">
         <v>29</v>
       </c>
-      <c r="M21" s="91" t="str">
+      <c r="M21" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>82.857142857142861</v>
       </c>
       <c r="N21" s="107"/>
       <c r="O21" s="91" t="str">
@@ -12632,7 +12634,7 @@
       <c r="AM21" s="93"/>
       <c r="AN21" s="94">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>16.285714285714288</v>
       </c>
       <c r="AO21" s="107"/>
       <c r="AP21" s="91">
@@ -12674,11 +12676,11 @@
       </c>
       <c r="BC21" s="97">
         <f t="shared" si="18"/>
-        <v>40.428571428571431</v>
+        <v>40.714285714285715</v>
       </c>
       <c r="BD21" s="97">
         <f t="shared" si="19"/>
-        <v>40.43</v>
+        <v>40.71</v>
       </c>
       <c r="BE21" s="107"/>
       <c r="BF21" s="91">
@@ -12794,7 +12796,7 @@
       </c>
       <c r="CS21" s="103">
         <f t="shared" si="41"/>
-        <v>46.171999999999997</v>
+        <v>46.284000000000006</v>
       </c>
       <c r="CT21" s="103">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12848,9 +12850,9 @@
       <c r="L22" s="107">
         <v>23</v>
       </c>
-      <c r="M22" s="91" t="str">
+      <c r="M22" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>65.714285714285708</v>
       </c>
       <c r="N22" s="107"/>
       <c r="O22" s="91" t="str">
@@ -12892,7 +12894,7 @@
       <c r="AM22" s="93"/>
       <c r="AN22" s="94">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>12.571428571428571</v>
       </c>
       <c r="AO22" s="107"/>
       <c r="AP22" s="91">
@@ -12934,11 +12936,11 @@
       </c>
       <c r="BC22" s="97">
         <f t="shared" si="18"/>
-        <v>34.714285714285708</v>
+        <v>35.285714285714285</v>
       </c>
       <c r="BD22" s="97">
         <f t="shared" si="19"/>
-        <v>34.71</v>
+        <v>35.29</v>
       </c>
       <c r="BE22" s="107"/>
       <c r="BF22" s="91">
@@ -13054,7 +13056,7 @@
       </c>
       <c r="CS22" s="103">
         <f t="shared" si="41"/>
-        <v>43.884</v>
+        <v>44.116</v>
       </c>
       <c r="CT22" s="103">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13108,9 +13110,9 @@
       <c r="L23" s="107">
         <v>22</v>
       </c>
-      <c r="M23" s="91" t="str">
+      <c r="M23" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>62.857142857142854</v>
       </c>
       <c r="N23" s="107"/>
       <c r="O23" s="91" t="str">
@@ -13152,7 +13154,7 @@
       <c r="AM23" s="93"/>
       <c r="AN23" s="94">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="AO23" s="107"/>
       <c r="AP23" s="91">
@@ -13194,11 +13196,11 @@
       </c>
       <c r="BC23" s="97">
         <f t="shared" si="18"/>
-        <v>38.285714285714292</v>
+        <v>36.571428571428577</v>
       </c>
       <c r="BD23" s="97">
         <f t="shared" si="19"/>
-        <v>38.29</v>
+        <v>36.57</v>
       </c>
       <c r="BE23" s="107"/>
       <c r="BF23" s="91">
@@ -13314,7 +13316,7 @@
       </c>
       <c r="CS23" s="103">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>45.316000000000003</v>
+        <v>44.628</v>
       </c>
       <c r="CT23" s="103">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13366,9 +13368,9 @@
       <c r="L24" s="107">
         <v>0</v>
       </c>
-      <c r="M24" s="91" t="str">
+      <c r="M24" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N24" s="107"/>
       <c r="O24" s="91" t="str">
@@ -13620,9 +13622,9 @@
       <c r="L25" s="107">
         <v>24</v>
       </c>
-      <c r="M25" s="91" t="str">
+      <c r="M25" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>68.571428571428569</v>
       </c>
       <c r="N25" s="107"/>
       <c r="O25" s="91" t="str">
@@ -13664,7 +13666,7 @@
       <c r="AM25" s="93"/>
       <c r="AN25" s="94">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>13.857142857142856</v>
       </c>
       <c r="AO25" s="107"/>
       <c r="AP25" s="91">
@@ -13706,11 +13708,11 @@
       </c>
       <c r="BC25" s="97">
         <f t="shared" si="18"/>
-        <v>36.285714285714292</v>
+        <v>36.142857142857146</v>
       </c>
       <c r="BD25" s="97">
         <f t="shared" si="19"/>
-        <v>36.29</v>
+        <v>36.14</v>
       </c>
       <c r="BE25" s="107"/>
       <c r="BF25" s="91">
@@ -13826,7 +13828,7 @@
       </c>
       <c r="CS25" s="103">
         <f t="shared" si="45"/>
-        <v>42.518000000000001</v>
+        <v>42.457999999999998</v>
       </c>
       <c r="CT25" s="103">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13880,9 +13882,9 @@
       <c r="L26" s="107">
         <v>24</v>
       </c>
-      <c r="M26" s="91" t="str">
+      <c r="M26" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>68.571428571428569</v>
       </c>
       <c r="N26" s="107"/>
       <c r="O26" s="91" t="str">
@@ -13924,7 +13926,7 @@
       <c r="AM26" s="93"/>
       <c r="AN26" s="94">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>10.857142857142858</v>
       </c>
       <c r="AO26" s="107"/>
       <c r="AP26" s="91">
@@ -13966,11 +13968,11 @@
       </c>
       <c r="BC26" s="97">
         <f t="shared" si="18"/>
-        <v>26</v>
+        <v>28.857142857142858</v>
       </c>
       <c r="BD26" s="97">
         <f t="shared" si="19"/>
-        <v>26</v>
+        <v>28.86</v>
       </c>
       <c r="BE26" s="107"/>
       <c r="BF26" s="91">
@@ -14086,7 +14088,7 @@
       </c>
       <c r="CS26" s="103">
         <f t="shared" si="45"/>
-        <v>37.4</v>
+        <v>38.543999999999997</v>
       </c>
       <c r="CT26" s="103">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14140,9 +14142,9 @@
       <c r="L27" s="107">
         <v>24</v>
       </c>
-      <c r="M27" s="91" t="str">
+      <c r="M27" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>68.571428571428569</v>
       </c>
       <c r="N27" s="107"/>
       <c r="O27" s="91" t="str">
@@ -14184,7 +14186,7 @@
       <c r="AM27" s="93"/>
       <c r="AN27" s="94">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>14.857142857142856</v>
       </c>
       <c r="AO27" s="107"/>
       <c r="AP27" s="91">
@@ -14226,11 +14228,11 @@
       </c>
       <c r="BC27" s="97">
         <f t="shared" si="18"/>
-        <v>37.857142857142854</v>
+        <v>36.714285714285708</v>
       </c>
       <c r="BD27" s="97">
         <f t="shared" si="19"/>
-        <v>37.86</v>
+        <v>36.71</v>
       </c>
       <c r="BE27" s="107"/>
       <c r="BF27" s="91">
@@ -14346,7 +14348,7 @@
       </c>
       <c r="CS27" s="103">
         <f t="shared" si="45"/>
-        <v>45.143999999999998</v>
+        <v>44.683999999999997</v>
       </c>
       <c r="CT27" s="103">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14400,9 +14402,9 @@
       <c r="L28" s="107">
         <v>25</v>
       </c>
-      <c r="M28" s="91" t="str">
+      <c r="M28" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>71.428571428571431</v>
       </c>
       <c r="N28" s="107"/>
       <c r="O28" s="91" t="str">
@@ -14444,7 +14446,7 @@
       <c r="AM28" s="93"/>
       <c r="AN28" s="94">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>12.142857142857144</v>
       </c>
       <c r="AO28" s="107"/>
       <c r="AP28" s="91">
@@ -14486,11 +14488,11 @@
       </c>
       <c r="BC28" s="97">
         <f t="shared" si="18"/>
-        <v>31.428571428571427</v>
+        <v>33.571428571428569</v>
       </c>
       <c r="BD28" s="97">
         <f t="shared" si="19"/>
-        <v>31.43</v>
+        <v>33.57</v>
       </c>
       <c r="BE28" s="107"/>
       <c r="BF28" s="91">
@@ -14606,7 +14608,7 @@
       </c>
       <c r="CS28" s="103">
         <f t="shared" si="45"/>
-        <v>40.07</v>
+        <v>40.926000000000002</v>
       </c>
       <c r="CT28" s="103">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14660,9 +14662,9 @@
       <c r="L29" s="107">
         <v>23</v>
       </c>
-      <c r="M29" s="91" t="str">
+      <c r="M29" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>65.714285714285708</v>
       </c>
       <c r="N29" s="107"/>
       <c r="O29" s="91" t="str">
@@ -14704,7 +14706,7 @@
       <c r="AM29" s="93"/>
       <c r="AN29" s="94">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>14.571428571428573</v>
       </c>
       <c r="AO29" s="107"/>
       <c r="AP29" s="91">
@@ -14746,11 +14748,11 @@
       </c>
       <c r="BC29" s="97">
         <f t="shared" si="18"/>
-        <v>41.714285714285708</v>
+        <v>40.285714285714285</v>
       </c>
       <c r="BD29" s="97">
         <f t="shared" si="19"/>
-        <v>41.71</v>
+        <v>40.29</v>
       </c>
       <c r="BE29" s="107"/>
       <c r="BF29" s="91">
@@ -14866,7 +14868,7 @@
       </c>
       <c r="CS29" s="103">
         <f t="shared" si="45"/>
-        <v>44.182000000000002</v>
+        <v>43.613999999999997</v>
       </c>
       <c r="CT29" s="103">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14920,9 +14922,9 @@
       <c r="L30" s="107">
         <v>0</v>
       </c>
-      <c r="M30" s="91" t="str">
+      <c r="M30" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N30" s="107"/>
       <c r="O30" s="91" t="str">
@@ -15180,9 +15182,9 @@
       <c r="L31" s="107">
         <v>26</v>
       </c>
-      <c r="M31" s="91" t="str">
+      <c r="M31" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>74.285714285714292</v>
       </c>
       <c r="N31" s="107"/>
       <c r="O31" s="91" t="str">
@@ -15224,7 +15226,7 @@
       <c r="AM31" s="93"/>
       <c r="AN31" s="94">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>14.428571428571429</v>
       </c>
       <c r="AO31" s="107"/>
       <c r="AP31" s="91">
@@ -15266,11 +15268,11 @@
       </c>
       <c r="BC31" s="97">
         <f t="shared" si="18"/>
-        <v>33.714285714285708</v>
+        <v>34.142857142857139</v>
       </c>
       <c r="BD31" s="97">
         <f t="shared" si="19"/>
-        <v>33.71</v>
+        <v>34.14</v>
       </c>
       <c r="BE31" s="107"/>
       <c r="BF31" s="91">
@@ -15386,7 +15388,7 @@
       </c>
       <c r="CS31" s="103">
         <f t="shared" si="45"/>
-        <v>43.484000000000002</v>
+        <v>43.655999999999999</v>
       </c>
       <c r="CT31" s="103">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15438,9 +15440,9 @@
       <c r="L32" s="107">
         <v>0</v>
       </c>
-      <c r="M32" s="91" t="str">
+      <c r="M32" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N32" s="107"/>
       <c r="O32" s="91" t="str">
@@ -15692,9 +15694,9 @@
       <c r="L33" s="107">
         <v>25</v>
       </c>
-      <c r="M33" s="91" t="str">
+      <c r="M33" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>71.428571428571431</v>
       </c>
       <c r="N33" s="107"/>
       <c r="O33" s="91" t="str">
@@ -15736,7 +15738,7 @@
       <c r="AM33" s="93"/>
       <c r="AN33" s="94">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>15.142857142857146</v>
       </c>
       <c r="AO33" s="107"/>
       <c r="AP33" s="91">
@@ -15778,11 +15780,11 @@
       </c>
       <c r="BC33" s="97">
         <f t="shared" si="18"/>
-        <v>37.857142857142854</v>
+        <v>37</v>
       </c>
       <c r="BD33" s="97">
         <f t="shared" si="19"/>
-        <v>37.86</v>
+        <v>37</v>
       </c>
       <c r="BE33" s="107"/>
       <c r="BF33" s="91">
@@ -15898,7 +15900,7 @@
       </c>
       <c r="CS33" s="103">
         <f t="shared" si="45"/>
-        <v>43.146000000000001</v>
+        <v>42.802</v>
       </c>
       <c r="CT33" s="103">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15952,9 +15954,9 @@
       <c r="L34" s="107">
         <v>22</v>
       </c>
-      <c r="M34" s="91" t="str">
+      <c r="M34" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>62.857142857142854</v>
       </c>
       <c r="N34" s="107"/>
       <c r="O34" s="91" t="str">
@@ -15996,7 +15998,7 @@
       <c r="AM34" s="93"/>
       <c r="AN34" s="94">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.2857142857142856</v>
       </c>
       <c r="AO34" s="107"/>
       <c r="AP34" s="91">
@@ -16038,11 +16040,11 @@
       </c>
       <c r="BC34" s="97">
         <f t="shared" si="18"/>
-        <v>21</v>
+        <v>27.285714285714285</v>
       </c>
       <c r="BD34" s="97">
         <f t="shared" si="19"/>
-        <v>21</v>
+        <v>27.29</v>
       </c>
       <c r="BE34" s="107"/>
       <c r="BF34" s="91">
@@ -16158,7 +16160,7 @@
       </c>
       <c r="CS34" s="103">
         <f t="shared" si="45"/>
-        <v>38.4</v>
+        <v>40.915999999999997</v>
       </c>
       <c r="CT34" s="103">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -16212,9 +16214,9 @@
       <c r="L35" s="107">
         <v>22</v>
       </c>
-      <c r="M35" s="91" t="str">
+      <c r="M35" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>62.857142857142854</v>
       </c>
       <c r="N35" s="107"/>
       <c r="O35" s="91" t="str">
@@ -16256,7 +16258,7 @@
       <c r="AM35" s="93"/>
       <c r="AN35" s="94">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.2857142857142856</v>
       </c>
       <c r="AO35" s="107"/>
       <c r="AP35" s="91">
@@ -16298,11 +16300,11 @@
       </c>
       <c r="BC35" s="97">
         <f t="shared" si="18"/>
-        <v>24.428571428571427</v>
+        <v>30.714285714285712</v>
       </c>
       <c r="BD35" s="97">
         <f t="shared" si="19"/>
-        <v>24.43</v>
+        <v>30.71</v>
       </c>
       <c r="BE35" s="107"/>
       <c r="BF35" s="91">
@@ -16418,7 +16420,7 @@
       </c>
       <c r="CS35" s="103">
         <f t="shared" si="45"/>
-        <v>39.771999999999998</v>
+        <v>42.283999999999999</v>
       </c>
       <c r="CT35" s="103">
         <f>IFERROR(VLOOKUP(CS35,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -16470,9 +16472,9 @@
       <c r="L36" s="107">
         <v>0</v>
       </c>
-      <c r="M36" s="91" t="str">
+      <c r="M36" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N36" s="107"/>
       <c r="O36" s="91" t="str">
@@ -16724,9 +16726,9 @@
       <c r="L37" s="107">
         <v>27</v>
       </c>
-      <c r="M37" s="91" t="str">
+      <c r="M37" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>77.142857142857153</v>
       </c>
       <c r="N37" s="107"/>
       <c r="O37" s="91" t="str">
@@ -16768,7 +16770,7 @@
       <c r="AM37" s="93"/>
       <c r="AN37" s="94">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>15.714285714285717</v>
       </c>
       <c r="AO37" s="107"/>
       <c r="AP37" s="91">
@@ -16810,11 +16812,11 @@
       </c>
       <c r="BC37" s="97">
         <f t="shared" si="18"/>
-        <v>40.428571428571431</v>
+        <v>40.142857142857146</v>
       </c>
       <c r="BD37" s="97">
         <f t="shared" si="19"/>
-        <v>40.43</v>
+        <v>40.14</v>
       </c>
       <c r="BE37" s="107"/>
       <c r="BF37" s="91">
@@ -16930,7 +16932,7 @@
       </c>
       <c r="CS37" s="103">
         <f t="shared" si="45"/>
-        <v>46.171999999999997</v>
+        <v>46.055999999999997</v>
       </c>
       <c r="CT37" s="103">
         <f>IFERROR(VLOOKUP(CS37,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -16984,9 +16986,9 @@
       <c r="L38" s="107">
         <v>23</v>
       </c>
-      <c r="M38" s="91" t="str">
+      <c r="M38" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>65.714285714285708</v>
       </c>
       <c r="N38" s="107"/>
       <c r="O38" s="91" t="str">
@@ -17028,7 +17030,7 @@
       <c r="AM38" s="93"/>
       <c r="AN38" s="94">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="AO38" s="107"/>
       <c r="AP38" s="91">
@@ -17070,11 +17072,11 @@
       </c>
       <c r="BC38" s="97">
         <f t="shared" si="18"/>
-        <v>21</v>
+        <v>27.571428571428569</v>
       </c>
       <c r="BD38" s="97">
         <f t="shared" si="19"/>
-        <v>21</v>
+        <v>27.57</v>
       </c>
       <c r="BE38" s="107"/>
       <c r="BF38" s="91">
@@ -17190,7 +17192,7 @@
       </c>
       <c r="CS38" s="103">
         <f t="shared" si="45"/>
-        <v>38.4</v>
+        <v>41.027999999999999</v>
       </c>
       <c r="CT38" s="103">
         <f>IFERROR(VLOOKUP(CS38,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -17244,9 +17246,9 @@
       <c r="L39" s="107">
         <v>0</v>
       </c>
-      <c r="M39" s="91" t="str">
+      <c r="M39" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N39" s="107"/>
       <c r="O39" s="91" t="str">
@@ -17504,9 +17506,9 @@
       <c r="L40" s="107">
         <v>24</v>
       </c>
-      <c r="M40" s="91" t="str">
+      <c r="M40" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>68.571428571428569</v>
       </c>
       <c r="N40" s="107"/>
       <c r="O40" s="91" t="str">
@@ -17548,7 +17550,7 @@
       <c r="AM40" s="93"/>
       <c r="AN40" s="94">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>13.357142857142856</v>
       </c>
       <c r="AO40" s="107"/>
       <c r="AP40" s="91">
@@ -17590,11 +17592,11 @@
       </c>
       <c r="BC40" s="97">
         <f t="shared" si="18"/>
-        <v>36.142857142857146</v>
+        <v>36.5</v>
       </c>
       <c r="BD40" s="97">
         <f t="shared" si="19"/>
-        <v>36.14</v>
+        <v>36.5</v>
       </c>
       <c r="BE40" s="107"/>
       <c r="BF40" s="91">
@@ -17710,7 +17712,7 @@
       </c>
       <c r="CS40" s="103">
         <f t="shared" si="45"/>
-        <v>44.456000000000003</v>
+        <v>44.6</v>
       </c>
       <c r="CT40" s="103">
         <f>IFERROR(VLOOKUP(CS40,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -17764,9 +17766,9 @@
       <c r="L41" s="107">
         <v>25</v>
       </c>
-      <c r="M41" s="91" t="str">
+      <c r="M41" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>71.428571428571431</v>
       </c>
       <c r="N41" s="107"/>
       <c r="O41" s="91" t="str">
@@ -17808,7 +17810,7 @@
       <c r="AM41" s="93"/>
       <c r="AN41" s="94">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>15.642857142857146</v>
       </c>
       <c r="AO41" s="107"/>
       <c r="AP41" s="91">
@@ -17850,11 +17852,11 @@
       </c>
       <c r="BC41" s="97">
         <f t="shared" si="18"/>
-        <v>40.142857142857146</v>
+        <v>38.785714285714292</v>
       </c>
       <c r="BD41" s="97">
         <f t="shared" si="19"/>
-        <v>40.14</v>
+        <v>38.79</v>
       </c>
       <c r="BE41" s="107"/>
       <c r="BF41" s="91">
@@ -17970,7 +17972,7 @@
       </c>
       <c r="CS41" s="103">
         <f t="shared" si="45"/>
-        <v>46.055999999999997</v>
+        <v>45.515999999999998</v>
       </c>
       <c r="CT41" s="103">
         <f>IFERROR(VLOOKUP(CS41,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -18024,9 +18026,9 @@
       <c r="L42" s="107">
         <v>23</v>
       </c>
-      <c r="M42" s="91" t="str">
+      <c r="M42" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>65.714285714285708</v>
       </c>
       <c r="N42" s="107"/>
       <c r="O42" s="91" t="str">
@@ -18068,7 +18070,7 @@
       <c r="AM42" s="93"/>
       <c r="AN42" s="94">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="AO42" s="107"/>
       <c r="AP42" s="91">
@@ -18110,11 +18112,11 @@
       </c>
       <c r="BC42" s="97">
         <f t="shared" si="18"/>
-        <v>20.571428571428569</v>
+        <v>27.142857142857139</v>
       </c>
       <c r="BD42" s="97">
         <f t="shared" si="19"/>
-        <v>20.57</v>
+        <v>27.14</v>
       </c>
       <c r="BE42" s="107"/>
       <c r="BF42" s="91">
@@ -18230,7 +18232,7 @@
       </c>
       <c r="CS42" s="103">
         <f t="shared" si="45"/>
-        <v>38.228000000000002</v>
+        <v>40.856000000000002</v>
       </c>
       <c r="CT42" s="103">
         <f>IFERROR(VLOOKUP(CS42,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -18284,9 +18286,9 @@
       <c r="L43" s="107">
         <v>21</v>
       </c>
-      <c r="M43" s="91" t="str">
+      <c r="M43" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="N43" s="107"/>
       <c r="O43" s="91" t="str">
@@ -18328,7 +18330,7 @@
       <c r="AM43" s="93"/>
       <c r="AN43" s="94">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO43" s="107"/>
       <c r="AP43" s="91">
@@ -18370,11 +18372,11 @@
       </c>
       <c r="BC43" s="97">
         <f t="shared" si="18"/>
-        <v>30.714285714285715</v>
+        <v>29.714285714285715</v>
       </c>
       <c r="BD43" s="97">
         <f t="shared" si="19"/>
-        <v>30.71</v>
+        <v>29.71</v>
       </c>
       <c r="BE43" s="107"/>
       <c r="BF43" s="91">
@@ -18490,7 +18492,7 @@
       </c>
       <c r="CS43" s="103">
         <f t="shared" si="45"/>
-        <v>39.781999999999996</v>
+        <v>39.381999999999998</v>
       </c>
       <c r="CT43" s="103">
         <f>IFERROR(VLOOKUP(CS43,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -18544,9 +18546,9 @@
       <c r="L44" s="107">
         <v>26</v>
       </c>
-      <c r="M44" s="91" t="str">
+      <c r="M44" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>74.285714285714292</v>
       </c>
       <c r="N44" s="107"/>
       <c r="O44" s="91" t="str">
@@ -18588,7 +18590,7 @@
       <c r="AM44" s="93"/>
       <c r="AN44" s="94">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>15.428571428571429</v>
       </c>
       <c r="AO44" s="107"/>
       <c r="AP44" s="91">
@@ -18630,11 +18632,11 @@
       </c>
       <c r="BC44" s="97">
         <f t="shared" si="18"/>
-        <v>37.857142857142854</v>
+        <v>37.285714285714285</v>
       </c>
       <c r="BD44" s="97">
         <f t="shared" si="19"/>
-        <v>37.86</v>
+        <v>37.29</v>
       </c>
       <c r="BE44" s="107"/>
       <c r="BF44" s="91">
@@ -18750,7 +18752,7 @@
       </c>
       <c r="CS44" s="103">
         <f t="shared" si="45"/>
-        <v>42.641999999999996</v>
+        <v>42.414000000000001</v>
       </c>
       <c r="CT44" s="103">
         <f>IFERROR(VLOOKUP(CS44,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -18804,9 +18806,9 @@
       <c r="L45" s="107">
         <v>22</v>
       </c>
-      <c r="M45" s="91" t="str">
+      <c r="M45" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>62.857142857142854</v>
       </c>
       <c r="N45" s="107"/>
       <c r="O45" s="91" t="str">
@@ -18848,7 +18850,7 @@
       <c r="AM45" s="93"/>
       <c r="AN45" s="94">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>14.785714285714286</v>
       </c>
       <c r="AO45" s="107"/>
       <c r="AP45" s="91">
@@ -18890,11 +18892,11 @@
       </c>
       <c r="BC45" s="97">
         <f t="shared" si="18"/>
-        <v>36.714285714285708</v>
+        <v>34.5</v>
       </c>
       <c r="BD45" s="97">
         <f t="shared" si="19"/>
-        <v>36.71</v>
+        <v>34.5</v>
       </c>
       <c r="BE45" s="107"/>
       <c r="BF45" s="91">
@@ -19010,7 +19012,7 @@
       </c>
       <c r="CS45" s="103">
         <f t="shared" si="45"/>
-        <v>41.683999999999997</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="CT45" s="103">
         <f>IFERROR(VLOOKUP(CS45,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19064,9 +19066,9 @@
       <c r="L46" s="107">
         <v>0</v>
       </c>
-      <c r="M46" s="91" t="str">
+      <c r="M46" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N46" s="107"/>
       <c r="O46" s="91" t="str">
@@ -19324,9 +19326,9 @@
       <c r="L47" s="107">
         <v>24</v>
       </c>
-      <c r="M47" s="91" t="str">
+      <c r="M47" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>68.571428571428569</v>
       </c>
       <c r="N47" s="107"/>
       <c r="O47" s="91" t="str">
@@ -19368,7 +19370,7 @@
       <c r="AM47" s="93"/>
       <c r="AN47" s="94">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>12.857142857142856</v>
       </c>
       <c r="AO47" s="107"/>
       <c r="AP47" s="91">
@@ -19410,11 +19412,11 @@
       </c>
       <c r="BC47" s="97">
         <f t="shared" si="18"/>
-        <v>30.857142857142854</v>
+        <v>31.714285714285708</v>
       </c>
       <c r="BD47" s="97">
         <f t="shared" si="19"/>
-        <v>30.86</v>
+        <v>31.71</v>
       </c>
       <c r="BE47" s="107"/>
       <c r="BF47" s="91">
@@ -19530,7 +19532,7 @@
       </c>
       <c r="CS47" s="103">
         <f t="shared" si="45"/>
-        <v>42.344000000000001</v>
+        <v>42.683999999999997</v>
       </c>
       <c r="CT47" s="103">
         <f>IFERROR(VLOOKUP(CS47,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19584,9 +19586,9 @@
       <c r="L48" s="107">
         <v>19</v>
       </c>
-      <c r="M48" s="91" t="str">
+      <c r="M48" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>54.285714285714285</v>
       </c>
       <c r="N48" s="107"/>
       <c r="O48" s="91" t="str">
@@ -19628,7 +19630,7 @@
       <c r="AM48" s="93"/>
       <c r="AN48" s="94">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>14.928571428571429</v>
       </c>
       <c r="AO48" s="107"/>
       <c r="AP48" s="91">
@@ -19670,11 +19672,11 @@
       </c>
       <c r="BC48" s="97">
         <f t="shared" si="18"/>
-        <v>40.857142857142854</v>
+        <v>36.785714285714285</v>
       </c>
       <c r="BD48" s="97">
         <f t="shared" si="19"/>
-        <v>40.86</v>
+        <v>36.79</v>
       </c>
       <c r="BE48" s="107"/>
       <c r="BF48" s="91">
@@ -19790,7 +19792,7 @@
       </c>
       <c r="CS48" s="103">
         <f t="shared" si="45"/>
-        <v>43.841999999999999</v>
+        <v>42.213999999999999</v>
       </c>
       <c r="CT48" s="103">
         <f>IFERROR(VLOOKUP(CS48,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19844,9 +19846,9 @@
       <c r="L49" s="107">
         <v>22</v>
       </c>
-      <c r="M49" s="91" t="str">
+      <c r="M49" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>62.857142857142854</v>
       </c>
       <c r="N49" s="107"/>
       <c r="O49" s="91" t="str">
@@ -19888,7 +19890,7 @@
       <c r="AM49" s="93"/>
       <c r="AN49" s="94">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11.285714285714286</v>
       </c>
       <c r="AO49" s="107"/>
       <c r="AP49" s="91">
@@ -19930,11 +19932,11 @@
       </c>
       <c r="BC49" s="97">
         <f t="shared" si="18"/>
-        <v>27.571428571428573</v>
+        <v>28.857142857142861</v>
       </c>
       <c r="BD49" s="97">
         <f t="shared" si="19"/>
-        <v>27.57</v>
+        <v>28.86</v>
       </c>
       <c r="BE49" s="107"/>
       <c r="BF49" s="91">
@@ -20050,7 +20052,7 @@
       </c>
       <c r="CS49" s="103">
         <f t="shared" si="45"/>
-        <v>41.027999999999999</v>
+        <v>41.543999999999997</v>
       </c>
       <c r="CT49" s="103">
         <f>IFERROR(VLOOKUP(CS49,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -20104,9 +20106,9 @@
       <c r="L50" s="107">
         <v>27</v>
       </c>
-      <c r="M50" s="91" t="str">
+      <c r="M50" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>77.142857142857153</v>
       </c>
       <c r="N50" s="107"/>
       <c r="O50" s="91" t="str">
@@ -20148,7 +20150,7 @@
       <c r="AM50" s="93"/>
       <c r="AN50" s="94">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>15.714285714285717</v>
       </c>
       <c r="AO50" s="107"/>
       <c r="AP50" s="91">
@@ -20190,11 +20192,11 @@
       </c>
       <c r="BC50" s="97">
         <f t="shared" si="18"/>
-        <v>41.285714285714292</v>
+        <v>41.000000000000007</v>
       </c>
       <c r="BD50" s="97">
         <f t="shared" si="19"/>
-        <v>41.29</v>
+        <v>41</v>
       </c>
       <c r="BE50" s="107"/>
       <c r="BF50" s="91">
@@ -20310,7 +20312,7 @@
       </c>
       <c r="CS50" s="103">
         <f t="shared" si="45"/>
-        <v>46.516000000000005</v>
+        <v>46.400000000000006</v>
       </c>
       <c r="CT50" s="103">
         <f>IFERROR(VLOOKUP(CS50,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -20364,9 +20366,9 @@
       <c r="L51" s="107">
         <v>22</v>
       </c>
-      <c r="M51" s="91" t="str">
+      <c r="M51" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>62.857142857142854</v>
       </c>
       <c r="N51" s="107"/>
       <c r="O51" s="91" t="str">
@@ -20408,7 +20410,7 @@
       <c r="AM51" s="93"/>
       <c r="AN51" s="94">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>14.785714285714286</v>
       </c>
       <c r="AO51" s="107"/>
       <c r="AP51" s="91">
@@ -20450,11 +20452,11 @@
       </c>
       <c r="BC51" s="97">
         <f t="shared" si="18"/>
-        <v>41.428571428571431</v>
+        <v>39.214285714285715</v>
       </c>
       <c r="BD51" s="97">
         <f t="shared" si="19"/>
-        <v>41.43</v>
+        <v>39.21</v>
       </c>
       <c r="BE51" s="107"/>
       <c r="BF51" s="91">
@@ -20570,7 +20572,7 @@
       </c>
       <c r="CS51" s="103">
         <f t="shared" si="45"/>
-        <v>46.572000000000003</v>
+        <v>45.683999999999997</v>
       </c>
       <c r="CT51" s="103">
         <f>IFERROR(VLOOKUP(CS51,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -20624,9 +20626,9 @@
       <c r="L52" s="107">
         <v>27</v>
       </c>
-      <c r="M52" s="91" t="str">
+      <c r="M52" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>77.142857142857153</v>
       </c>
       <c r="N52" s="107"/>
       <c r="O52" s="91" t="str">
@@ -20668,7 +20670,7 @@
       <c r="AM52" s="93"/>
       <c r="AN52" s="94">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>17.714285714285719</v>
       </c>
       <c r="AO52" s="107"/>
       <c r="AP52" s="91">
@@ -20710,11 +20712,11 @@
       </c>
       <c r="BC52" s="97">
         <f t="shared" si="18"/>
-        <v>48.285714285714278</v>
+        <v>46</v>
       </c>
       <c r="BD52" s="97">
         <f t="shared" si="19"/>
-        <v>48.29</v>
+        <v>46</v>
       </c>
       <c r="BE52" s="107"/>
       <c r="BF52" s="91">
@@ -20830,7 +20832,7 @@
       </c>
       <c r="CS52" s="103">
         <f t="shared" si="45"/>
-        <v>49.316000000000003</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="CT52" s="103">
         <f>IFERROR(VLOOKUP(CS52,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -20884,9 +20886,9 @@
       <c r="L53" s="107">
         <v>25</v>
       </c>
-      <c r="M53" s="91" t="str">
+      <c r="M53" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>71.428571428571431</v>
       </c>
       <c r="N53" s="107"/>
       <c r="O53" s="91" t="str">
@@ -20928,7 +20930,7 @@
       <c r="AM53" s="93"/>
       <c r="AN53" s="94">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>14.142857142857146</v>
       </c>
       <c r="AO53" s="107"/>
       <c r="AP53" s="91">
@@ -20970,11 +20972,11 @@
       </c>
       <c r="BC53" s="97">
         <f t="shared" si="18"/>
-        <v>38.857142857142861</v>
+        <v>39</v>
       </c>
       <c r="BD53" s="97">
         <f t="shared" si="19"/>
-        <v>38.86</v>
+        <v>39</v>
       </c>
       <c r="BE53" s="107"/>
       <c r="BF53" s="91">
@@ -21090,7 +21092,7 @@
       </c>
       <c r="CS53" s="103">
         <f t="shared" si="45"/>
-        <v>45.543999999999997</v>
+        <v>45.6</v>
       </c>
       <c r="CT53" s="103">
         <f>IFERROR(VLOOKUP(CS53,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -21144,9 +21146,9 @@
       <c r="L54" s="107">
         <v>21</v>
       </c>
-      <c r="M54" s="91" t="str">
+      <c r="M54" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="N54" s="107"/>
       <c r="O54" s="91" t="str">
@@ -21404,9 +21406,9 @@
       <c r="L55" s="107">
         <v>26</v>
       </c>
-      <c r="M55" s="91" t="str">
+      <c r="M55" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>74.285714285714292</v>
       </c>
       <c r="N55" s="107"/>
       <c r="O55" s="91" t="str">
@@ -21448,7 +21450,7 @@
       <c r="AM55" s="93"/>
       <c r="AN55" s="94">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>14.428571428571429</v>
       </c>
       <c r="AO55" s="107"/>
       <c r="AP55" s="91">
@@ -21490,11 +21492,11 @@
       </c>
       <c r="BC55" s="97">
         <f t="shared" si="18"/>
-        <v>38.428571428571431</v>
+        <v>38.857142857142854</v>
       </c>
       <c r="BD55" s="97">
         <f t="shared" si="19"/>
-        <v>38.43</v>
+        <v>38.86</v>
       </c>
       <c r="BE55" s="107"/>
       <c r="BF55" s="91">
@@ -21610,7 +21612,7 @@
       </c>
       <c r="CS55" s="103">
         <f t="shared" si="45"/>
-        <v>42.87</v>
+        <v>43.042000000000002</v>
       </c>
       <c r="CT55" s="103">
         <f>IFERROR(VLOOKUP(CS55,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -21664,9 +21666,9 @@
       <c r="L56" s="107">
         <v>27</v>
       </c>
-      <c r="M56" s="91" t="str">
+      <c r="M56" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>77.142857142857153</v>
       </c>
       <c r="N56" s="107"/>
       <c r="O56" s="91" t="str">
@@ -21708,7 +21710,7 @@
       <c r="AM56" s="93"/>
       <c r="AN56" s="94">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>14.214285714285717</v>
       </c>
       <c r="AO56" s="107"/>
       <c r="AP56" s="91">
@@ -21750,11 +21752,11 @@
       </c>
       <c r="BC56" s="97">
         <f t="shared" si="18"/>
-        <v>33.571428571428569</v>
+        <v>34.785714285714285</v>
       </c>
       <c r="BD56" s="97">
         <f t="shared" si="19"/>
-        <v>33.57</v>
+        <v>34.79</v>
       </c>
       <c r="BE56" s="107"/>
       <c r="BF56" s="91">
@@ -21870,7 +21872,7 @@
       </c>
       <c r="CS56" s="103">
         <f t="shared" si="45"/>
-        <v>42.426000000000002</v>
+        <v>42.914000000000001</v>
       </c>
       <c r="CT56" s="103">
         <f>IFERROR(VLOOKUP(CS56,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -21924,9 +21926,9 @@
       <c r="L57" s="107">
         <v>26</v>
       </c>
-      <c r="M57" s="91" t="str">
+      <c r="M57" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>74.285714285714292</v>
       </c>
       <c r="N57" s="107"/>
       <c r="O57" s="91" t="str">
@@ -21968,7 +21970,7 @@
       <c r="AM57" s="93"/>
       <c r="AN57" s="94">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>14.428571428571429</v>
       </c>
       <c r="AO57" s="107"/>
       <c r="AP57" s="91">
@@ -22010,11 +22012,11 @@
       </c>
       <c r="BC57" s="97">
         <f t="shared" si="18"/>
-        <v>38.428571428571431</v>
+        <v>38.857142857142854</v>
       </c>
       <c r="BD57" s="97">
         <f t="shared" si="19"/>
-        <v>38.43</v>
+        <v>38.86</v>
       </c>
       <c r="BE57" s="107"/>
       <c r="BF57" s="91">
@@ -22130,7 +22132,7 @@
       </c>
       <c r="CS57" s="103">
         <f t="shared" si="45"/>
-        <v>45.372</v>
+        <v>45.543999999999997</v>
       </c>
       <c r="CT57" s="103">
         <f>IFERROR(VLOOKUP(CS57,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22184,9 +22186,9 @@
       <c r="L58" s="107">
         <v>18</v>
       </c>
-      <c r="M58" s="91" t="str">
+      <c r="M58" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>51.428571428571423</v>
       </c>
       <c r="N58" s="107"/>
       <c r="O58" s="91" t="str">
@@ -22228,7 +22230,7 @@
       <c r="AM58" s="93"/>
       <c r="AN58" s="94">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="AO58" s="107"/>
       <c r="AP58" s="91">
@@ -22270,11 +22272,11 @@
       </c>
       <c r="BC58" s="97">
         <f t="shared" si="18"/>
-        <v>37.142857142857146</v>
+        <v>35.285714285714292</v>
       </c>
       <c r="BD58" s="97">
         <f t="shared" si="19"/>
-        <v>37.14</v>
+        <v>35.29</v>
       </c>
       <c r="BE58" s="107"/>
       <c r="BF58" s="91">
@@ -22390,7 +22392,7 @@
       </c>
       <c r="CS58" s="103">
         <f t="shared" si="45"/>
-        <v>41.856000000000002</v>
+        <v>41.116</v>
       </c>
       <c r="CT58" s="103">
         <f>IFERROR(VLOOKUP(CS58,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22444,9 +22446,9 @@
       <c r="L59" s="107">
         <v>24</v>
       </c>
-      <c r="M59" s="91" t="str">
+      <c r="M59" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>68.571428571428569</v>
       </c>
       <c r="N59" s="107"/>
       <c r="O59" s="91" t="str">
@@ -22488,7 +22490,7 @@
       <c r="AM59" s="93"/>
       <c r="AN59" s="94">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>15.857142857142856</v>
       </c>
       <c r="AO59" s="107"/>
       <c r="AP59" s="91">
@@ -22530,11 +22532,11 @@
       </c>
       <c r="BC59" s="97">
         <f t="shared" si="18"/>
-        <v>42</v>
+        <v>39.857142857142854</v>
       </c>
       <c r="BD59" s="97">
         <f t="shared" si="19"/>
-        <v>42</v>
+        <v>39.86</v>
       </c>
       <c r="BE59" s="107"/>
       <c r="BF59" s="91">
@@ -22650,7 +22652,7 @@
       </c>
       <c r="CS59" s="103">
         <f t="shared" si="45"/>
-        <v>46.8</v>
+        <v>45.944000000000003</v>
       </c>
       <c r="CT59" s="103">
         <f>IFERROR(VLOOKUP(CS59,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22698,9 +22700,9 @@
         <v>0</v>
       </c>
       <c r="L60" s="107"/>
-      <c r="M60" s="91" t="str">
+      <c r="M60" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N60" s="107"/>
       <c r="O60" s="91" t="str">
@@ -22946,9 +22948,9 @@
         <v>0</v>
       </c>
       <c r="L61" s="107"/>
-      <c r="M61" s="91" t="str">
+      <c r="M61" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N61" s="107"/>
       <c r="O61" s="91" t="str">
@@ -23194,9 +23196,9 @@
         <v>0</v>
       </c>
       <c r="L62" s="107"/>
-      <c r="M62" s="91" t="str">
+      <c r="M62" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N62" s="107"/>
       <c r="O62" s="91" t="str">
@@ -23442,9 +23444,9 @@
         <v>0</v>
       </c>
       <c r="L63" s="107"/>
-      <c r="M63" s="91" t="str">
+      <c r="M63" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N63" s="107"/>
       <c r="O63" s="91" t="str">
@@ -23690,9 +23692,9 @@
         <v>0</v>
       </c>
       <c r="L64" s="107"/>
-      <c r="M64" s="91" t="str">
+      <c r="M64" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N64" s="107"/>
       <c r="O64" s="91" t="str">
@@ -23938,9 +23940,9 @@
         <v>0</v>
       </c>
       <c r="L65" s="107"/>
-      <c r="M65" s="91" t="str">
+      <c r="M65" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N65" s="107"/>
       <c r="O65" s="91" t="str">
@@ -24186,9 +24188,9 @@
         <v>0</v>
       </c>
       <c r="L66" s="107"/>
-      <c r="M66" s="91" t="str">
+      <c r="M66" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N66" s="107"/>
       <c r="O66" s="91" t="str">
@@ -24434,9 +24436,9 @@
         <v>0</v>
       </c>
       <c r="L67" s="107"/>
-      <c r="M67" s="91" t="str">
+      <c r="M67" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N67" s="107"/>
       <c r="O67" s="91" t="str">
@@ -24682,9 +24684,9 @@
         <v>0</v>
       </c>
       <c r="L68" s="107"/>
-      <c r="M68" s="91" t="str">
+      <c r="M68" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N68" s="107"/>
       <c r="O68" s="91" t="str">
@@ -24930,9 +24932,9 @@
         <v>0</v>
       </c>
       <c r="L69" s="107"/>
-      <c r="M69" s="91" t="str">
+      <c r="M69" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N69" s="107"/>
       <c r="O69" s="91" t="str">
@@ -25178,9 +25180,9 @@
         <v>0</v>
       </c>
       <c r="L70" s="107"/>
-      <c r="M70" s="91" t="str">
+      <c r="M70" s="91">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N70" s="107"/>
       <c r="O70" s="91" t="str">
@@ -25392,6 +25394,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -25408,88 +25492,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -25701,7 +25703,7 @@
       </c>
       <c r="E8" s="51">
         <f>'RAW GRADES'!AN10</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="F8" s="51">
         <f>'RAW GRADES'!AU10</f>
@@ -25713,11 +25715,11 @@
       </c>
       <c r="H8" s="52">
         <f>'RAW GRADES'!BC10</f>
-        <v>39</v>
+        <v>31.5</v>
       </c>
       <c r="I8" s="52">
         <f>'RAW GRADES'!BD10</f>
-        <v>39</v>
+        <v>31.5</v>
       </c>
       <c r="J8" s="51">
         <f>'RAW GRADES'!BK10</f>
@@ -25737,7 +25739,7 @@
       </c>
       <c r="N8" s="54">
         <f>'RAW GRADES'!CS10</f>
-        <v>44.597999999999999</v>
+        <v>41.597999999999999</v>
       </c>
       <c r="O8" s="55">
         <f>'RAW GRADES'!CT10</f>
@@ -25766,7 +25768,7 @@
       </c>
       <c r="E9" s="51">
         <f>'RAW GRADES'!AN11</f>
-        <v>14</v>
+        <v>11.571428571428573</v>
       </c>
       <c r="F9" s="51">
         <f>'RAW GRADES'!AU11</f>
@@ -25778,11 +25780,11 @@
       </c>
       <c r="H9" s="52">
         <f>'RAW GRADES'!BC11</f>
-        <v>34.142857142857139</v>
+        <v>31.714285714285715</v>
       </c>
       <c r="I9" s="52">
         <f>'RAW GRADES'!BD11</f>
-        <v>34.14</v>
+        <v>31.71</v>
       </c>
       <c r="J9" s="51">
         <f>'RAW GRADES'!BK11</f>
@@ -25802,7 +25804,7 @@
       </c>
       <c r="N9" s="57">
         <f>'RAW GRADES'!CS11</f>
-        <v>41.658000000000001</v>
+        <v>40.686</v>
       </c>
       <c r="O9" s="55">
         <f>'RAW GRADES'!CT11</f>
@@ -25831,7 +25833,7 @@
       </c>
       <c r="E10" s="51">
         <f>'RAW GRADES'!AN12</f>
-        <v>14</v>
+        <v>14.142857142857146</v>
       </c>
       <c r="F10" s="51">
         <f>'RAW GRADES'!AU12</f>
@@ -25843,11 +25845,11 @@
       </c>
       <c r="H10" s="52">
         <f>'RAW GRADES'!BC12</f>
-        <v>37.142857142857146</v>
+        <v>37.285714285714292</v>
       </c>
       <c r="I10" s="52">
         <f>'RAW GRADES'!BD12</f>
-        <v>37.14</v>
+        <v>37.29</v>
       </c>
       <c r="J10" s="51">
         <f>'RAW GRADES'!BK12</f>
@@ -25867,7 +25869,7 @@
       </c>
       <c r="N10" s="57">
         <f>'RAW GRADES'!CS12</f>
-        <v>42.353999999999999</v>
+        <v>42.414000000000001</v>
       </c>
       <c r="O10" s="55">
         <f>'RAW GRADES'!CT12</f>
@@ -25896,7 +25898,7 @@
       </c>
       <c r="E11" s="51">
         <f>'RAW GRADES'!AN13</f>
-        <v>0</v>
+        <v>6.8571428571428577</v>
       </c>
       <c r="F11" s="51">
         <f>'RAW GRADES'!AU13</f>
@@ -25908,11 +25910,11 @@
       </c>
       <c r="H11" s="52">
         <f>'RAW GRADES'!BC13</f>
-        <v>21.857142857142854</v>
+        <v>28.714285714285712</v>
       </c>
       <c r="I11" s="52">
         <f>'RAW GRADES'!BD13</f>
-        <v>21.86</v>
+        <v>28.71</v>
       </c>
       <c r="J11" s="51">
         <f>'RAW GRADES'!BK13</f>
@@ -25932,7 +25934,7 @@
       </c>
       <c r="N11" s="57">
         <f>'RAW GRADES'!CS13</f>
-        <v>38.744</v>
+        <v>41.484000000000002</v>
       </c>
       <c r="O11" s="55">
         <f>'RAW GRADES'!CT13</f>
@@ -25961,7 +25963,7 @@
       </c>
       <c r="E12" s="51">
         <f>'RAW GRADES'!AN14</f>
-        <v>18</v>
+        <v>16.714285714285719</v>
       </c>
       <c r="F12" s="51">
         <f>'RAW GRADES'!AU14</f>
@@ -25973,11 +25975,11 @@
       </c>
       <c r="H12" s="52">
         <f>'RAW GRADES'!BC14</f>
-        <v>44.571428571428569</v>
+        <v>43.285714285714292</v>
       </c>
       <c r="I12" s="52">
         <f>'RAW GRADES'!BD14</f>
-        <v>44.57</v>
+        <v>43.29</v>
       </c>
       <c r="J12" s="51">
         <f>'RAW GRADES'!BK14</f>
@@ -25997,7 +25999,7 @@
       </c>
       <c r="N12" s="57">
         <f>'RAW GRADES'!CS14</f>
-        <v>47.828000000000003</v>
+        <v>47.316000000000003</v>
       </c>
       <c r="O12" s="55">
         <f>'RAW GRADES'!CT14</f>
@@ -26026,7 +26028,7 @@
       </c>
       <c r="E13" s="51">
         <f>'RAW GRADES'!AN15</f>
-        <v>13</v>
+        <v>15.071428571428573</v>
       </c>
       <c r="F13" s="51">
         <f>'RAW GRADES'!AU15</f>
@@ -26038,11 +26040,11 @@
       </c>
       <c r="H13" s="52">
         <f>'RAW GRADES'!BC15</f>
-        <v>39.142857142857139</v>
+        <v>41.214285714285715</v>
       </c>
       <c r="I13" s="52">
         <f>'RAW GRADES'!BD15</f>
-        <v>39.14</v>
+        <v>41.21</v>
       </c>
       <c r="J13" s="51">
         <f>'RAW GRADES'!BK15</f>
@@ -26062,7 +26064,7 @@
       </c>
       <c r="N13" s="57">
         <f>'RAW GRADES'!CS15</f>
-        <v>45.655999999999999</v>
+        <v>46.484000000000002</v>
       </c>
       <c r="O13" s="55">
         <f>'RAW GRADES'!CT15</f>
@@ -26091,7 +26093,7 @@
       </c>
       <c r="E14" s="51">
         <f>'RAW GRADES'!AN16</f>
-        <v>0</v>
+        <v>5.1428571428571423</v>
       </c>
       <c r="F14" s="51">
         <f>'RAW GRADES'!AU16</f>
@@ -26103,11 +26105,11 @@
       </c>
       <c r="H14" s="52">
         <f>'RAW GRADES'!BC16</f>
-        <v>12.857142857142856</v>
+        <v>18</v>
       </c>
       <c r="I14" s="52">
         <f>'RAW GRADES'!BD16</f>
-        <v>12.86</v>
+        <v>18</v>
       </c>
       <c r="J14" s="51">
         <f>'RAW GRADES'!BK16</f>
@@ -26127,7 +26129,7 @@
       </c>
       <c r="N14" s="57">
         <f>'RAW GRADES'!CS16</f>
-        <v>5.1440000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="O14" s="55">
         <f>'RAW GRADES'!CT16</f>
@@ -26221,7 +26223,7 @@
       </c>
       <c r="E16" s="51">
         <f>'RAW GRADES'!AN18</f>
-        <v>15</v>
+        <v>14.928571428571429</v>
       </c>
       <c r="F16" s="51">
         <f>'RAW GRADES'!AU18</f>
@@ -26233,11 +26235,11 @@
       </c>
       <c r="H16" s="52">
         <f>'RAW GRADES'!BC18</f>
-        <v>33.857142857142854</v>
+        <v>33.785714285714285</v>
       </c>
       <c r="I16" s="52">
         <f>'RAW GRADES'!BD18</f>
-        <v>33.86</v>
+        <v>33.79</v>
       </c>
       <c r="J16" s="51">
         <f>'RAW GRADES'!BK18</f>
@@ -26257,7 +26259,7 @@
       </c>
       <c r="N16" s="57">
         <f>'RAW GRADES'!CS18</f>
-        <v>43.543999999999997</v>
+        <v>43.515999999999998</v>
       </c>
       <c r="O16" s="55">
         <f>'RAW GRADES'!CT18</f>
@@ -26286,7 +26288,7 @@
       </c>
       <c r="E17" s="51">
         <f>'RAW GRADES'!AN19</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" s="51">
         <f>'RAW GRADES'!AU19</f>
@@ -26298,11 +26300,11 @@
       </c>
       <c r="H17" s="52">
         <f>'RAW GRADES'!BC19</f>
-        <v>40.428571428571431</v>
+        <v>38.428571428571431</v>
       </c>
       <c r="I17" s="52">
         <f>'RAW GRADES'!BD19</f>
-        <v>40.43</v>
+        <v>38.43</v>
       </c>
       <c r="J17" s="51">
         <f>'RAW GRADES'!BK19</f>
@@ -26322,7 +26324,7 @@
       </c>
       <c r="N17" s="57">
         <f>'RAW GRADES'!CS19</f>
-        <v>43.171999999999997</v>
+        <v>42.372</v>
       </c>
       <c r="O17" s="55">
         <f>'RAW GRADES'!CT19</f>
@@ -26416,7 +26418,7 @@
       </c>
       <c r="E19" s="51">
         <f>'RAW GRADES'!AN21</f>
-        <v>16</v>
+        <v>16.285714285714288</v>
       </c>
       <c r="F19" s="51">
         <f>'RAW GRADES'!AU21</f>
@@ -26428,11 +26430,11 @@
       </c>
       <c r="H19" s="52">
         <f>'RAW GRADES'!BC21</f>
-        <v>40.428571428571431</v>
+        <v>40.714285714285715</v>
       </c>
       <c r="I19" s="52">
         <f>'RAW GRADES'!BD21</f>
-        <v>40.43</v>
+        <v>40.71</v>
       </c>
       <c r="J19" s="51">
         <f>'RAW GRADES'!BK21</f>
@@ -26452,7 +26454,7 @@
       </c>
       <c r="N19" s="57">
         <f>'RAW GRADES'!CS21</f>
-        <v>46.171999999999997</v>
+        <v>46.284000000000006</v>
       </c>
       <c r="O19" s="55">
         <f>'RAW GRADES'!CT21</f>
@@ -26481,7 +26483,7 @@
       </c>
       <c r="E20" s="51">
         <f>'RAW GRADES'!AN22</f>
-        <v>12</v>
+        <v>12.571428571428571</v>
       </c>
       <c r="F20" s="51">
         <f>'RAW GRADES'!AU22</f>
@@ -26493,11 +26495,11 @@
       </c>
       <c r="H20" s="52">
         <f>'RAW GRADES'!BC22</f>
-        <v>34.714285714285708</v>
+        <v>35.285714285714285</v>
       </c>
       <c r="I20" s="52">
         <f>'RAW GRADES'!BD22</f>
-        <v>34.71</v>
+        <v>35.29</v>
       </c>
       <c r="J20" s="51">
         <f>'RAW GRADES'!BK22</f>
@@ -26517,7 +26519,7 @@
       </c>
       <c r="N20" s="57">
         <f>'RAW GRADES'!CS22</f>
-        <v>43.884</v>
+        <v>44.116</v>
       </c>
       <c r="O20" s="55">
         <f>'RAW GRADES'!CT22</f>
@@ -26546,7 +26548,7 @@
       </c>
       <c r="E21" s="51">
         <f>'RAW GRADES'!AN23</f>
-        <v>16</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="F21" s="51">
         <f>'RAW GRADES'!AU23</f>
@@ -26558,11 +26560,11 @@
       </c>
       <c r="H21" s="52">
         <f>'RAW GRADES'!BC23</f>
-        <v>38.285714285714292</v>
+        <v>36.571428571428577</v>
       </c>
       <c r="I21" s="52">
         <f>'RAW GRADES'!BD23</f>
-        <v>38.29</v>
+        <v>36.57</v>
       </c>
       <c r="J21" s="51">
         <f>'RAW GRADES'!BK23</f>
@@ -26582,7 +26584,7 @@
       </c>
       <c r="N21" s="57">
         <f>'RAW GRADES'!CS23</f>
-        <v>45.316000000000003</v>
+        <v>44.628</v>
       </c>
       <c r="O21" s="55">
         <f>'RAW GRADES'!CT23</f>
@@ -26676,7 +26678,7 @@
       </c>
       <c r="E23" s="51">
         <f>'RAW GRADES'!AN25</f>
-        <v>14</v>
+        <v>13.857142857142856</v>
       </c>
       <c r="F23" s="51">
         <f>'RAW GRADES'!AU25</f>
@@ -26688,11 +26690,11 @@
       </c>
       <c r="H23" s="52">
         <f>'RAW GRADES'!BC25</f>
-        <v>36.285714285714292</v>
+        <v>36.142857142857146</v>
       </c>
       <c r="I23" s="52">
         <f>'RAW GRADES'!BD25</f>
-        <v>36.29</v>
+        <v>36.14</v>
       </c>
       <c r="J23" s="51">
         <f>'RAW GRADES'!BK25</f>
@@ -26712,7 +26714,7 @@
       </c>
       <c r="N23" s="57">
         <f>'RAW GRADES'!CS25</f>
-        <v>42.518000000000001</v>
+        <v>42.457999999999998</v>
       </c>
       <c r="O23" s="55">
         <f>'RAW GRADES'!CT25</f>
@@ -26741,7 +26743,7 @@
       </c>
       <c r="E24" s="51">
         <f>'RAW GRADES'!AN26</f>
-        <v>8</v>
+        <v>10.857142857142858</v>
       </c>
       <c r="F24" s="51">
         <f>'RAW GRADES'!AU26</f>
@@ -26753,11 +26755,11 @@
       </c>
       <c r="H24" s="52">
         <f>'RAW GRADES'!BC26</f>
-        <v>26</v>
+        <v>28.857142857142858</v>
       </c>
       <c r="I24" s="52">
         <f>'RAW GRADES'!BD26</f>
-        <v>26</v>
+        <v>28.86</v>
       </c>
       <c r="J24" s="51">
         <f>'RAW GRADES'!BK26</f>
@@ -26777,7 +26779,7 @@
       </c>
       <c r="N24" s="57">
         <f>'RAW GRADES'!CS26</f>
-        <v>37.4</v>
+        <v>38.543999999999997</v>
       </c>
       <c r="O24" s="55">
         <f>'RAW GRADES'!CT26</f>
@@ -26806,7 +26808,7 @@
       </c>
       <c r="E25" s="51">
         <f>'RAW GRADES'!AN27</f>
-        <v>16</v>
+        <v>14.857142857142856</v>
       </c>
       <c r="F25" s="51">
         <f>'RAW GRADES'!AU27</f>
@@ -26818,11 +26820,11 @@
       </c>
       <c r="H25" s="52">
         <f>'RAW GRADES'!BC27</f>
-        <v>37.857142857142854</v>
+        <v>36.714285714285708</v>
       </c>
       <c r="I25" s="52">
         <f>'RAW GRADES'!BD27</f>
-        <v>37.86</v>
+        <v>36.71</v>
       </c>
       <c r="J25" s="51">
         <f>'RAW GRADES'!BK27</f>
@@ -26842,7 +26844,7 @@
       </c>
       <c r="N25" s="57">
         <f>'RAW GRADES'!CS27</f>
-        <v>45.143999999999998</v>
+        <v>44.683999999999997</v>
       </c>
       <c r="O25" s="55">
         <f>'RAW GRADES'!CT27</f>
@@ -26871,7 +26873,7 @@
       </c>
       <c r="E26" s="51">
         <f>'RAW GRADES'!AN28</f>
-        <v>10</v>
+        <v>12.142857142857144</v>
       </c>
       <c r="F26" s="51">
         <f>'RAW GRADES'!AU28</f>
@@ -26883,11 +26885,11 @@
       </c>
       <c r="H26" s="52">
         <f>'RAW GRADES'!BC28</f>
-        <v>31.428571428571427</v>
+        <v>33.571428571428569</v>
       </c>
       <c r="I26" s="52">
         <f>'RAW GRADES'!BD28</f>
-        <v>31.43</v>
+        <v>33.57</v>
       </c>
       <c r="J26" s="51">
         <f>'RAW GRADES'!BK28</f>
@@ -26907,7 +26909,7 @@
       </c>
       <c r="N26" s="57">
         <f>'RAW GRADES'!CS28</f>
-        <v>40.07</v>
+        <v>40.926000000000002</v>
       </c>
       <c r="O26" s="55">
         <f>'RAW GRADES'!CT28</f>
@@ -26936,7 +26938,7 @@
       </c>
       <c r="E27" s="51">
         <f>'RAW GRADES'!AN29</f>
-        <v>16</v>
+        <v>14.571428571428573</v>
       </c>
       <c r="F27" s="51">
         <f>'RAW GRADES'!AU29</f>
@@ -26948,11 +26950,11 @@
       </c>
       <c r="H27" s="52">
         <f>'RAW GRADES'!BC29</f>
-        <v>41.714285714285708</v>
+        <v>40.285714285714285</v>
       </c>
       <c r="I27" s="52">
         <f>'RAW GRADES'!BD29</f>
-        <v>41.71</v>
+        <v>40.29</v>
       </c>
       <c r="J27" s="51">
         <f>'RAW GRADES'!BK29</f>
@@ -26972,7 +26974,7 @@
       </c>
       <c r="N27" s="57">
         <f>'RAW GRADES'!CS29</f>
-        <v>44.182000000000002</v>
+        <v>43.613999999999997</v>
       </c>
       <c r="O27" s="55">
         <f>'RAW GRADES'!CT29</f>
@@ -27066,7 +27068,7 @@
       </c>
       <c r="E29" s="51">
         <f>'RAW GRADES'!AN31</f>
-        <v>14</v>
+        <v>14.428571428571429</v>
       </c>
       <c r="F29" s="51">
         <f>'RAW GRADES'!AU31</f>
@@ -27078,11 +27080,11 @@
       </c>
       <c r="H29" s="52">
         <f>'RAW GRADES'!BC31</f>
-        <v>33.714285714285708</v>
+        <v>34.142857142857139</v>
       </c>
       <c r="I29" s="52">
         <f>'RAW GRADES'!BD31</f>
-        <v>33.71</v>
+        <v>34.14</v>
       </c>
       <c r="J29" s="51">
         <f>'RAW GRADES'!BK31</f>
@@ -27102,7 +27104,7 @@
       </c>
       <c r="N29" s="57">
         <f>'RAW GRADES'!CS31</f>
-        <v>43.484000000000002</v>
+        <v>43.655999999999999</v>
       </c>
       <c r="O29" s="55">
         <f>'RAW GRADES'!CT31</f>
@@ -27196,7 +27198,7 @@
       </c>
       <c r="E31" s="51">
         <f>'RAW GRADES'!AN33</f>
-        <v>16</v>
+        <v>15.142857142857146</v>
       </c>
       <c r="F31" s="51">
         <f>'RAW GRADES'!AU33</f>
@@ -27208,11 +27210,11 @@
       </c>
       <c r="H31" s="52">
         <f>'RAW GRADES'!BC33</f>
-        <v>37.857142857142854</v>
+        <v>37</v>
       </c>
       <c r="I31" s="52">
         <f>'RAW GRADES'!BD33</f>
-        <v>37.86</v>
+        <v>37</v>
       </c>
       <c r="J31" s="51">
         <f>'RAW GRADES'!BK33</f>
@@ -27232,7 +27234,7 @@
       </c>
       <c r="N31" s="57">
         <f>'RAW GRADES'!CS33</f>
-        <v>43.146000000000001</v>
+        <v>42.802</v>
       </c>
       <c r="O31" s="55">
         <f>'RAW GRADES'!CT33</f>
@@ -27261,7 +27263,7 @@
       </c>
       <c r="E32" s="51">
         <f>'RAW GRADES'!AN34</f>
-        <v>0</v>
+        <v>6.2857142857142856</v>
       </c>
       <c r="F32" s="51">
         <f>'RAW GRADES'!AU34</f>
@@ -27273,11 +27275,11 @@
       </c>
       <c r="H32" s="52">
         <f>'RAW GRADES'!BC34</f>
-        <v>21</v>
+        <v>27.285714285714285</v>
       </c>
       <c r="I32" s="52">
         <f>'RAW GRADES'!BD34</f>
-        <v>21</v>
+        <v>27.29</v>
       </c>
       <c r="J32" s="51">
         <f>'RAW GRADES'!BK34</f>
@@ -27297,7 +27299,7 @@
       </c>
       <c r="N32" s="57">
         <f>'RAW GRADES'!CS34</f>
-        <v>38.4</v>
+        <v>40.915999999999997</v>
       </c>
       <c r="O32" s="55">
         <f>'RAW GRADES'!CT34</f>
@@ -27326,7 +27328,7 @@
       </c>
       <c r="E33" s="51">
         <f>'RAW GRADES'!AN35</f>
-        <v>0</v>
+        <v>6.2857142857142856</v>
       </c>
       <c r="F33" s="51">
         <f>'RAW GRADES'!AU35</f>
@@ -27338,11 +27340,11 @@
       </c>
       <c r="H33" s="52">
         <f>'RAW GRADES'!BC35</f>
-        <v>24.428571428571427</v>
+        <v>30.714285714285712</v>
       </c>
       <c r="I33" s="52">
         <f>'RAW GRADES'!BD35</f>
-        <v>24.43</v>
+        <v>30.71</v>
       </c>
       <c r="J33" s="51">
         <f>'RAW GRADES'!BK35</f>
@@ -27362,7 +27364,7 @@
       </c>
       <c r="N33" s="57">
         <f>'RAW GRADES'!CS35</f>
-        <v>39.771999999999998</v>
+        <v>42.283999999999999</v>
       </c>
       <c r="O33" s="55">
         <f>'RAW GRADES'!CT35</f>
@@ -27456,7 +27458,7 @@
       </c>
       <c r="E35" s="51">
         <f>'RAW GRADES'!AN37</f>
-        <v>16</v>
+        <v>15.714285714285717</v>
       </c>
       <c r="F35" s="51">
         <f>'RAW GRADES'!AU37</f>
@@ -27468,11 +27470,11 @@
       </c>
       <c r="H35" s="52">
         <f>'RAW GRADES'!BC37</f>
-        <v>40.428571428571431</v>
+        <v>40.142857142857146</v>
       </c>
       <c r="I35" s="52">
         <f>'RAW GRADES'!BD37</f>
-        <v>40.43</v>
+        <v>40.14</v>
       </c>
       <c r="J35" s="51">
         <f>'RAW GRADES'!BK37</f>
@@ -27492,7 +27494,7 @@
       </c>
       <c r="N35" s="57">
         <f>'RAW GRADES'!CS37</f>
-        <v>46.171999999999997</v>
+        <v>46.055999999999997</v>
       </c>
       <c r="O35" s="55">
         <f>'RAW GRADES'!CT37</f>
@@ -27521,7 +27523,7 @@
       </c>
       <c r="E36" s="51">
         <f>'RAW GRADES'!AN38</f>
-        <v>0</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="F36" s="51">
         <f>'RAW GRADES'!AU38</f>
@@ -27533,11 +27535,11 @@
       </c>
       <c r="H36" s="52">
         <f>'RAW GRADES'!BC38</f>
-        <v>21</v>
+        <v>27.571428571428569</v>
       </c>
       <c r="I36" s="52">
         <f>'RAW GRADES'!BD38</f>
-        <v>21</v>
+        <v>27.57</v>
       </c>
       <c r="J36" s="51">
         <f>'RAW GRADES'!BK38</f>
@@ -27557,7 +27559,7 @@
       </c>
       <c r="N36" s="57">
         <f>'RAW GRADES'!CS38</f>
-        <v>38.4</v>
+        <v>41.027999999999999</v>
       </c>
       <c r="O36" s="55">
         <f>'RAW GRADES'!CT38</f>
@@ -27651,7 +27653,7 @@
       </c>
       <c r="E38" s="51">
         <f>'RAW GRADES'!AN40</f>
-        <v>13</v>
+        <v>13.357142857142856</v>
       </c>
       <c r="F38" s="51">
         <f>'RAW GRADES'!AU40</f>
@@ -27663,11 +27665,11 @@
       </c>
       <c r="H38" s="52">
         <f>'RAW GRADES'!BC40</f>
-        <v>36.142857142857146</v>
+        <v>36.5</v>
       </c>
       <c r="I38" s="52">
         <f>'RAW GRADES'!BD40</f>
-        <v>36.14</v>
+        <v>36.5</v>
       </c>
       <c r="J38" s="51">
         <f>'RAW GRADES'!BK40</f>
@@ -27687,7 +27689,7 @@
       </c>
       <c r="N38" s="57">
         <f>'RAW GRADES'!CS40</f>
-        <v>44.456000000000003</v>
+        <v>44.6</v>
       </c>
       <c r="O38" s="55">
         <f>'RAW GRADES'!CT40</f>
@@ -27716,7 +27718,7 @@
       </c>
       <c r="E39" s="51">
         <f>'RAW GRADES'!AN41</f>
-        <v>17</v>
+        <v>15.642857142857146</v>
       </c>
       <c r="F39" s="51">
         <f>'RAW GRADES'!AU41</f>
@@ -27728,11 +27730,11 @@
       </c>
       <c r="H39" s="52">
         <f>'RAW GRADES'!BC41</f>
-        <v>40.142857142857146</v>
+        <v>38.785714285714292</v>
       </c>
       <c r="I39" s="52">
         <f>'RAW GRADES'!BD41</f>
-        <v>40.14</v>
+        <v>38.79</v>
       </c>
       <c r="J39" s="51">
         <f>'RAW GRADES'!BK41</f>
@@ -27752,7 +27754,7 @@
       </c>
       <c r="N39" s="57">
         <f>'RAW GRADES'!CS41</f>
-        <v>46.055999999999997</v>
+        <v>45.515999999999998</v>
       </c>
       <c r="O39" s="55">
         <f>'RAW GRADES'!CT41</f>
@@ -27781,7 +27783,7 @@
       </c>
       <c r="E40" s="51">
         <f>'RAW GRADES'!AN42</f>
-        <v>0</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="F40" s="51">
         <f>'RAW GRADES'!AU42</f>
@@ -27793,11 +27795,11 @@
       </c>
       <c r="H40" s="52">
         <f>'RAW GRADES'!BC42</f>
-        <v>20.571428571428569</v>
+        <v>27.142857142857139</v>
       </c>
       <c r="I40" s="52">
         <f>'RAW GRADES'!BD42</f>
-        <v>20.57</v>
+        <v>27.14</v>
       </c>
       <c r="J40" s="51">
         <f>'RAW GRADES'!BK42</f>
@@ -27817,7 +27819,7 @@
       </c>
       <c r="N40" s="57">
         <f>'RAW GRADES'!CS42</f>
-        <v>38.228000000000002</v>
+        <v>40.856000000000002</v>
       </c>
       <c r="O40" s="55">
         <f>'RAW GRADES'!CT42</f>
@@ -27846,7 +27848,7 @@
       </c>
       <c r="E41" s="51">
         <f>'RAW GRADES'!AN43</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F41" s="51">
         <f>'RAW GRADES'!AU43</f>
@@ -27858,11 +27860,11 @@
       </c>
       <c r="H41" s="52">
         <f>'RAW GRADES'!BC43</f>
-        <v>30.714285714285715</v>
+        <v>29.714285714285715</v>
       </c>
       <c r="I41" s="52">
         <f>'RAW GRADES'!BD43</f>
-        <v>30.71</v>
+        <v>29.71</v>
       </c>
       <c r="J41" s="51">
         <f>'RAW GRADES'!BK43</f>
@@ -27882,7 +27884,7 @@
       </c>
       <c r="N41" s="57">
         <f>'RAW GRADES'!CS43</f>
-        <v>39.781999999999996</v>
+        <v>39.381999999999998</v>
       </c>
       <c r="O41" s="55">
         <f>'RAW GRADES'!CT43</f>
@@ -27911,7 +27913,7 @@
       </c>
       <c r="E42" s="51">
         <f>'RAW GRADES'!AN44</f>
-        <v>16</v>
+        <v>15.428571428571429</v>
       </c>
       <c r="F42" s="51">
         <f>'RAW GRADES'!AU44</f>
@@ -27923,11 +27925,11 @@
       </c>
       <c r="H42" s="52">
         <f>'RAW GRADES'!BC44</f>
-        <v>37.857142857142854</v>
+        <v>37.285714285714285</v>
       </c>
       <c r="I42" s="52">
         <f>'RAW GRADES'!BD44</f>
-        <v>37.86</v>
+        <v>37.29</v>
       </c>
       <c r="J42" s="51">
         <f>'RAW GRADES'!BK44</f>
@@ -27947,7 +27949,7 @@
       </c>
       <c r="N42" s="57">
         <f>'RAW GRADES'!CS44</f>
-        <v>42.641999999999996</v>
+        <v>42.414000000000001</v>
       </c>
       <c r="O42" s="55">
         <f>'RAW GRADES'!CT44</f>
@@ -27976,7 +27978,7 @@
       </c>
       <c r="E43" s="51">
         <f>'RAW GRADES'!AN45</f>
-        <v>17</v>
+        <v>14.785714285714286</v>
       </c>
       <c r="F43" s="51">
         <f>'RAW GRADES'!AU45</f>
@@ -27988,11 +27990,11 @@
       </c>
       <c r="H43" s="52">
         <f>'RAW GRADES'!BC45</f>
-        <v>36.714285714285708</v>
+        <v>34.5</v>
       </c>
       <c r="I43" s="52">
         <f>'RAW GRADES'!BD45</f>
-        <v>36.71</v>
+        <v>34.5</v>
       </c>
       <c r="J43" s="51">
         <f>'RAW GRADES'!BK45</f>
@@ -28012,7 +28014,7 @@
       </c>
       <c r="N43" s="57">
         <f>'RAW GRADES'!CS45</f>
-        <v>41.683999999999997</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="O43" s="55">
         <f>'RAW GRADES'!CT45</f>
@@ -28106,7 +28108,7 @@
       </c>
       <c r="E45" s="51">
         <f>'RAW GRADES'!AN47</f>
-        <v>12</v>
+        <v>12.857142857142856</v>
       </c>
       <c r="F45" s="51">
         <f>'RAW GRADES'!AU47</f>
@@ -28118,11 +28120,11 @@
       </c>
       <c r="H45" s="52">
         <f>'RAW GRADES'!BC47</f>
-        <v>30.857142857142854</v>
+        <v>31.714285714285708</v>
       </c>
       <c r="I45" s="52">
         <f>'RAW GRADES'!BD47</f>
-        <v>30.86</v>
+        <v>31.71</v>
       </c>
       <c r="J45" s="51">
         <f>'RAW GRADES'!BK47</f>
@@ -28142,7 +28144,7 @@
       </c>
       <c r="N45" s="57">
         <f>'RAW GRADES'!CS47</f>
-        <v>42.344000000000001</v>
+        <v>42.683999999999997</v>
       </c>
       <c r="O45" s="55">
         <f>'RAW GRADES'!CT47</f>
@@ -28171,7 +28173,7 @@
       </c>
       <c r="E46" s="51">
         <f>'RAW GRADES'!AN48</f>
-        <v>19</v>
+        <v>14.928571428571429</v>
       </c>
       <c r="F46" s="51">
         <f>'RAW GRADES'!AU48</f>
@@ -28183,11 +28185,11 @@
       </c>
       <c r="H46" s="52">
         <f>'RAW GRADES'!BC48</f>
-        <v>40.857142857142854</v>
+        <v>36.785714285714285</v>
       </c>
       <c r="I46" s="52">
         <f>'RAW GRADES'!BD48</f>
-        <v>40.86</v>
+        <v>36.79</v>
       </c>
       <c r="J46" s="51">
         <f>'RAW GRADES'!BK48</f>
@@ -28207,7 +28209,7 @@
       </c>
       <c r="N46" s="57">
         <f>'RAW GRADES'!CS48</f>
-        <v>43.841999999999999</v>
+        <v>42.213999999999999</v>
       </c>
       <c r="O46" s="55">
         <f>'RAW GRADES'!CT48</f>
@@ -28236,7 +28238,7 @@
       </c>
       <c r="E47" s="51">
         <f>'RAW GRADES'!AN49</f>
-        <v>10</v>
+        <v>11.285714285714286</v>
       </c>
       <c r="F47" s="51">
         <f>'RAW GRADES'!AU49</f>
@@ -28248,11 +28250,11 @@
       </c>
       <c r="H47" s="52">
         <f>'RAW GRADES'!BC49</f>
-        <v>27.571428571428573</v>
+        <v>28.857142857142861</v>
       </c>
       <c r="I47" s="52">
         <f>'RAW GRADES'!BD49</f>
-        <v>27.57</v>
+        <v>28.86</v>
       </c>
       <c r="J47" s="51">
         <f>'RAW GRADES'!BK49</f>
@@ -28272,7 +28274,7 @@
       </c>
       <c r="N47" s="57">
         <f>'RAW GRADES'!CS49</f>
-        <v>41.027999999999999</v>
+        <v>41.543999999999997</v>
       </c>
       <c r="O47" s="55">
         <f>'RAW GRADES'!CT49</f>
@@ -28301,7 +28303,7 @@
       </c>
       <c r="E48" s="51">
         <f>'RAW GRADES'!AN50</f>
-        <v>16</v>
+        <v>15.714285714285717</v>
       </c>
       <c r="F48" s="51">
         <f>'RAW GRADES'!AU50</f>
@@ -28313,11 +28315,11 @@
       </c>
       <c r="H48" s="52">
         <f>'RAW GRADES'!BC50</f>
-        <v>41.285714285714292</v>
+        <v>41.000000000000007</v>
       </c>
       <c r="I48" s="52">
         <f>'RAW GRADES'!BD50</f>
-        <v>41.29</v>
+        <v>41</v>
       </c>
       <c r="J48" s="51">
         <f>'RAW GRADES'!BK50</f>
@@ -28337,7 +28339,7 @@
       </c>
       <c r="N48" s="57">
         <f>'RAW GRADES'!CS50</f>
-        <v>46.516000000000005</v>
+        <v>46.400000000000006</v>
       </c>
       <c r="O48" s="55">
         <f>'RAW GRADES'!CT50</f>
@@ -28366,7 +28368,7 @@
       </c>
       <c r="E49" s="51">
         <f>'RAW GRADES'!AN51</f>
-        <v>17</v>
+        <v>14.785714285714286</v>
       </c>
       <c r="F49" s="51">
         <f>'RAW GRADES'!AU51</f>
@@ -28378,11 +28380,11 @@
       </c>
       <c r="H49" s="52">
         <f>'RAW GRADES'!BC51</f>
-        <v>41.428571428571431</v>
+        <v>39.214285714285715</v>
       </c>
       <c r="I49" s="52">
         <f>'RAW GRADES'!BD51</f>
-        <v>41.43</v>
+        <v>39.21</v>
       </c>
       <c r="J49" s="51">
         <f>'RAW GRADES'!BK51</f>
@@ -28402,7 +28404,7 @@
       </c>
       <c r="N49" s="57">
         <f>'RAW GRADES'!CS51</f>
-        <v>46.572000000000003</v>
+        <v>45.683999999999997</v>
       </c>
       <c r="O49" s="55">
         <f>'RAW GRADES'!CT51</f>
@@ -28431,7 +28433,7 @@
       </c>
       <c r="E50" s="51">
         <f>'RAW GRADES'!AN52</f>
-        <v>20</v>
+        <v>17.714285714285719</v>
       </c>
       <c r="F50" s="51">
         <f>'RAW GRADES'!AU52</f>
@@ -28443,11 +28445,11 @@
       </c>
       <c r="H50" s="52">
         <f>'RAW GRADES'!BC52</f>
-        <v>48.285714285714278</v>
+        <v>46</v>
       </c>
       <c r="I50" s="52">
         <f>'RAW GRADES'!BD52</f>
-        <v>48.29</v>
+        <v>46</v>
       </c>
       <c r="J50" s="51">
         <f>'RAW GRADES'!BK52</f>
@@ -28467,7 +28469,7 @@
       </c>
       <c r="N50" s="57">
         <f>'RAW GRADES'!CS52</f>
-        <v>49.316000000000003</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="O50" s="55">
         <f>'RAW GRADES'!CT52</f>
@@ -28496,7 +28498,7 @@
       </c>
       <c r="E51" s="51">
         <f>'RAW GRADES'!AN53</f>
-        <v>14</v>
+        <v>14.142857142857146</v>
       </c>
       <c r="F51" s="51">
         <f>'RAW GRADES'!AU53</f>
@@ -28508,11 +28510,11 @@
       </c>
       <c r="H51" s="52">
         <f>'RAW GRADES'!BC53</f>
-        <v>38.857142857142861</v>
+        <v>39</v>
       </c>
       <c r="I51" s="52">
         <f>'RAW GRADES'!BD53</f>
-        <v>38.86</v>
+        <v>39</v>
       </c>
       <c r="J51" s="51">
         <f>'RAW GRADES'!BK53</f>
@@ -28532,7 +28534,7 @@
       </c>
       <c r="N51" s="57">
         <f>'RAW GRADES'!CS53</f>
-        <v>45.543999999999997</v>
+        <v>45.6</v>
       </c>
       <c r="O51" s="55">
         <f>'RAW GRADES'!CT53</f>
@@ -28626,7 +28628,7 @@
       </c>
       <c r="E53" s="51">
         <f>'RAW GRADES'!AN55</f>
-        <v>14</v>
+        <v>14.428571428571429</v>
       </c>
       <c r="F53" s="51">
         <f>'RAW GRADES'!AU55</f>
@@ -28638,11 +28640,11 @@
       </c>
       <c r="H53" s="52">
         <f>'RAW GRADES'!BC55</f>
-        <v>38.428571428571431</v>
+        <v>38.857142857142854</v>
       </c>
       <c r="I53" s="52">
         <f>'RAW GRADES'!BD55</f>
-        <v>38.43</v>
+        <v>38.86</v>
       </c>
       <c r="J53" s="51">
         <f>'RAW GRADES'!BK55</f>
@@ -28662,7 +28664,7 @@
       </c>
       <c r="N53" s="57">
         <f>'RAW GRADES'!CS55</f>
-        <v>42.87</v>
+        <v>43.042000000000002</v>
       </c>
       <c r="O53" s="55">
         <f>'RAW GRADES'!CT55</f>
@@ -28691,7 +28693,7 @@
       </c>
       <c r="E54" s="51">
         <f>'RAW GRADES'!AN56</f>
-        <v>13</v>
+        <v>14.214285714285717</v>
       </c>
       <c r="F54" s="51">
         <f>'RAW GRADES'!AU56</f>
@@ -28703,11 +28705,11 @@
       </c>
       <c r="H54" s="52">
         <f>'RAW GRADES'!BC56</f>
-        <v>33.571428571428569</v>
+        <v>34.785714285714285</v>
       </c>
       <c r="I54" s="52">
         <f>'RAW GRADES'!BD56</f>
-        <v>33.57</v>
+        <v>34.79</v>
       </c>
       <c r="J54" s="51">
         <f>'RAW GRADES'!BK56</f>
@@ -28727,7 +28729,7 @@
       </c>
       <c r="N54" s="57">
         <f>'RAW GRADES'!CS56</f>
-        <v>42.426000000000002</v>
+        <v>42.914000000000001</v>
       </c>
       <c r="O54" s="55">
         <f>'RAW GRADES'!CT56</f>
@@ -28756,7 +28758,7 @@
       </c>
       <c r="E55" s="51">
         <f>'RAW GRADES'!AN57</f>
-        <v>14</v>
+        <v>14.428571428571429</v>
       </c>
       <c r="F55" s="51">
         <f>'RAW GRADES'!AU57</f>
@@ -28768,11 +28770,11 @@
       </c>
       <c r="H55" s="52">
         <f>'RAW GRADES'!BC57</f>
-        <v>38.428571428571431</v>
+        <v>38.857142857142854</v>
       </c>
       <c r="I55" s="52">
         <f>'RAW GRADES'!BD57</f>
-        <v>38.43</v>
+        <v>38.86</v>
       </c>
       <c r="J55" s="51">
         <f>'RAW GRADES'!BK57</f>
@@ -28792,7 +28794,7 @@
       </c>
       <c r="N55" s="57">
         <f>'RAW GRADES'!CS57</f>
-        <v>45.372</v>
+        <v>45.543999999999997</v>
       </c>
       <c r="O55" s="55">
         <f>'RAW GRADES'!CT57</f>
@@ -28821,7 +28823,7 @@
       </c>
       <c r="E56" s="51">
         <f>'RAW GRADES'!AN58</f>
-        <v>14</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="F56" s="51">
         <f>'RAW GRADES'!AU58</f>
@@ -28833,11 +28835,11 @@
       </c>
       <c r="H56" s="52">
         <f>'RAW GRADES'!BC58</f>
-        <v>37.142857142857146</v>
+        <v>35.285714285714292</v>
       </c>
       <c r="I56" s="52">
         <f>'RAW GRADES'!BD58</f>
-        <v>37.14</v>
+        <v>35.29</v>
       </c>
       <c r="J56" s="51">
         <f>'RAW GRADES'!BK58</f>
@@ -28857,7 +28859,7 @@
       </c>
       <c r="N56" s="57">
         <f>'RAW GRADES'!CS58</f>
-        <v>41.856000000000002</v>
+        <v>41.116</v>
       </c>
       <c r="O56" s="55">
         <f>'RAW GRADES'!CT58</f>
@@ -28886,7 +28888,7 @@
       </c>
       <c r="E57" s="51">
         <f>'RAW GRADES'!AN59</f>
-        <v>18</v>
+        <v>15.857142857142856</v>
       </c>
       <c r="F57" s="51">
         <f>'RAW GRADES'!AU59</f>
@@ -28898,11 +28900,11 @@
       </c>
       <c r="H57" s="52">
         <f>'RAW GRADES'!BC59</f>
-        <v>42</v>
+        <v>39.857142857142854</v>
       </c>
       <c r="I57" s="52">
         <f>'RAW GRADES'!BD59</f>
-        <v>42</v>
+        <v>39.86</v>
       </c>
       <c r="J57" s="51">
         <f>'RAW GRADES'!BK59</f>
@@ -28922,7 +28924,7 @@
       </c>
       <c r="N57" s="57">
         <f>'RAW GRADES'!CS59</f>
-        <v>46.8</v>
+        <v>45.944000000000003</v>
       </c>
       <c r="O57" s="55">
         <f>'RAW GRADES'!CT59</f>
@@ -29704,106 +29706,106 @@
       <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="227"/>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
+      <c r="A3" s="258"/>
+      <c r="B3" s="258"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="228" t="s">
+      <c r="A4" s="261" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
+      <c r="B4" s="261"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="261"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="229" t="s">
+      <c r="A5" s="262" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="229"/>
-      <c r="C5" s="229"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="229"/>
-      <c r="F5" s="229"/>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="228" t="s">
+      <c r="A6" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="228"/>
-      <c r="C6" s="228"/>
-      <c r="D6" s="228"/>
-      <c r="E6" s="228"/>
-      <c r="F6" s="228"/>
+      <c r="B6" s="261"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="230" t="s">
+      <c r="A7" s="263" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="230"/>
-      <c r="C7" s="230"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="231"/>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
+      <c r="A8" s="264"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="227"/>
-      <c r="B9" s="227"/>
-      <c r="C9" s="227"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="227"/>
-      <c r="F9" s="227"/>
+      <c r="A9" s="258"/>
+      <c r="B9" s="258"/>
+      <c r="C9" s="258"/>
+      <c r="D9" s="258"/>
+      <c r="E9" s="258"/>
+      <c r="F9" s="258"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="232"/>
-      <c r="B10" s="232"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="232"/>
-      <c r="F10" s="232"/>
+      <c r="A10" s="265"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="233" t="s">
+      <c r="A11" s="266" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="233"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="233"/>
+      <c r="B11" s="266"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="266"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="266"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="231"/>
-      <c r="B12" s="231"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="231"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="231"/>
+      <c r="A12" s="264"/>
+      <c r="B12" s="264"/>
+      <c r="C12" s="264"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="264"/>
+      <c r="F12" s="264"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="59"/>
       <c r="B13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="234" t="str">
+      <c r="C13" s="267" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 21</v>
       </c>
-      <c r="D13" s="234"/>
-      <c r="E13" s="234"/>
+      <c r="D13" s="267"/>
+      <c r="E13" s="267"/>
       <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6">
@@ -29811,12 +29813,12 @@
       <c r="B14" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="226" t="str">
+      <c r="C14" s="260" t="str">
         <f>REGISTRATION!C6</f>
         <v>Programming I</v>
       </c>
-      <c r="D14" s="226"/>
-      <c r="E14" s="226"/>
+      <c r="D14" s="260"/>
+      <c r="E14" s="260"/>
       <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:6">
@@ -29824,12 +29826,12 @@
       <c r="B15" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="237" t="str">
+      <c r="C15" s="246" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="237"/>
-      <c r="E15" s="237"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="246"/>
       <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:6">
@@ -29837,12 +29839,12 @@
       <c r="B16" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="237" t="str">
+      <c r="C16" s="246" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>IT  1A</v>
       </c>
-      <c r="D16" s="237"/>
-      <c r="E16" s="237"/>
+      <c r="D16" s="246"/>
+      <c r="E16" s="246"/>
       <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6">
@@ -29850,12 +29852,12 @@
       <c r="B17" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="237" t="str">
+      <c r="C17" s="246" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="237"/>
-      <c r="E17" s="237"/>
+      <c r="D17" s="246"/>
+      <c r="E17" s="246"/>
       <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -29867,42 +29869,42 @@
       <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="238" t="s">
+      <c r="A19" s="247" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="250" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="238" t="s">
+      <c r="C19" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="238" t="s">
+      <c r="D19" s="247" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="243" t="s">
+      <c r="E19" s="252" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="238" t="s">
+      <c r="F19" s="247" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="239"/>
-      <c r="B20" s="242"/>
-      <c r="C20" s="239"/>
-      <c r="D20" s="239"/>
-      <c r="E20" s="244"/>
-      <c r="F20" s="246"/>
+      <c r="A20" s="248"/>
+      <c r="B20" s="251"/>
+      <c r="C20" s="248"/>
+      <c r="D20" s="248"/>
+      <c r="E20" s="253"/>
+      <c r="F20" s="255"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="240"/>
+      <c r="A21" s="249"/>
       <c r="B21" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="240"/>
-      <c r="D21" s="240"/>
-      <c r="E21" s="245"/>
-      <c r="F21" s="247"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="249"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="256"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="64">
@@ -31415,14 +31417,14 @@
       <c r="F82" s="83"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="254" t="s">
+      <c r="A83" s="230" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="255"/>
-      <c r="C83" s="255"/>
-      <c r="D83" s="255"/>
-      <c r="E83" s="255"/>
-      <c r="F83" s="256"/>
+      <c r="B83" s="231"/>
+      <c r="C83" s="231"/>
+      <c r="D83" s="231"/>
+      <c r="E83" s="231"/>
+      <c r="F83" s="232"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="61"/>
@@ -31455,11 +31457,11 @@
       </c>
       <c r="C87" s="59"/>
       <c r="D87" s="59"/>
-      <c r="E87" s="248">
+      <c r="E87" s="257">
         <f ca="1">NOW()</f>
-        <v>43021.468180902775</v>
-      </c>
-      <c r="F87" s="248"/>
+        <v>43022.327739930559</v>
+      </c>
+      <c r="F87" s="257"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="59"/>
@@ -31469,10 +31471,10 @@
       </c>
       <c r="C88" s="72"/>
       <c r="D88" s="72"/>
-      <c r="E88" s="227" t="s">
+      <c r="E88" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="227"/>
+      <c r="F88" s="258"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="59"/>
@@ -31489,8 +31491,8 @@
       <c r="B90" s="73"/>
       <c r="C90" s="73"/>
       <c r="D90" s="73"/>
-      <c r="E90" s="227"/>
-      <c r="F90" s="227"/>
+      <c r="E90" s="258"/>
+      <c r="F90" s="258"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="59"/>
@@ -31606,14 +31608,14 @@
       <c r="F104" s="59"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="249" t="s">
+      <c r="A105" s="259" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="249"/>
-      <c r="C105" s="249"/>
-      <c r="D105" s="249"/>
-      <c r="E105" s="249"/>
-      <c r="F105" s="249"/>
+      <c r="B105" s="259"/>
+      <c r="C105" s="259"/>
+      <c r="D105" s="259"/>
+      <c r="E105" s="259"/>
+      <c r="F105" s="259"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="59"/>
@@ -31628,124 +31630,124 @@
       <c r="B107" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="267" t="s">
+      <c r="C107" s="243" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="236"/>
-      <c r="E107" s="235" t="s">
+      <c r="D107" s="244"/>
+      <c r="E107" s="245" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="236"/>
+      <c r="F107" s="244"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="59"/>
       <c r="B108" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="263">
+      <c r="C108" s="239">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="264"/>
-      <c r="E108" s="265">
+      <c r="D108" s="240"/>
+      <c r="E108" s="241">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="266"/>
+      <c r="F108" s="242"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="59"/>
       <c r="B109" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="257">
+      <c r="C109" s="233">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="258"/>
-      <c r="E109" s="259">
+      <c r="D109" s="234"/>
+      <c r="E109" s="235">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="260"/>
+      <c r="F109" s="236"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="59"/>
       <c r="B110" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="257">
+      <c r="C110" s="233">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="258"/>
-      <c r="E110" s="259">
+      <c r="D110" s="234"/>
+      <c r="E110" s="235">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="260"/>
+      <c r="F110" s="236"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="59"/>
       <c r="B111" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="257">
+      <c r="C111" s="233">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="258"/>
-      <c r="E111" s="259">
+      <c r="D111" s="234"/>
+      <c r="E111" s="235">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="260"/>
+      <c r="F111" s="236"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="59"/>
       <c r="B112" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="261">
-        <v>0</v>
-      </c>
-      <c r="D112" s="262"/>
-      <c r="E112" s="259">
+      <c r="C112" s="237">
+        <v>0</v>
+      </c>
+      <c r="D112" s="238"/>
+      <c r="E112" s="235">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="260"/>
+      <c r="F112" s="236"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="59"/>
       <c r="B113" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="261">
-        <v>0</v>
-      </c>
-      <c r="D113" s="262"/>
-      <c r="E113" s="259">
+      <c r="C113" s="237">
+        <v>0</v>
+      </c>
+      <c r="D113" s="238"/>
+      <c r="E113" s="235">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="260"/>
+      <c r="F113" s="236"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="59"/>
       <c r="B114" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="250">
+      <c r="C114" s="226">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="251"/>
-      <c r="E114" s="252">
+      <c r="D114" s="227"/>
+      <c r="E114" s="228">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="253"/>
+      <c r="F114" s="229"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="59"/>
@@ -31913,6 +31915,32 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -31929,32 +31957,6 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 21 - IT 1A/LEC AND LAB - IT 1A.xlsx
+++ b/DCIT 21 - IT 1A/LEC AND LAB - IT 1A.xlsx
@@ -2540,99 +2540,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2672,129 +2610,104 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2835,6 +2748,93 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2893,6 +2893,102 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2966,102 +3062,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5565,7 +5565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5598,82 +5598,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="165"/>
-      <c r="C6" s="166" t="s">
+      <c r="A6" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="127"/>
+      <c r="C6" s="128" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="166"/>
-      <c r="E6" s="167" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="167"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -5681,28 +5681,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="168" t="s">
+      <c r="J6" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="168"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="171"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="3" t="s">
         <v>335</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="172"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -5710,28 +5710,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="172" t="s">
+      <c r="J7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="172"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="153"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="8" t="s">
         <v>336</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="E8" s="154" t="s">
+      <c r="E8" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="154"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -5739,45 +5739,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="154" t="s">
+      <c r="J8" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="154"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="160" t="s">
+      <c r="C9" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="161" t="s">
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="161" t="s">
+      <c r="G9" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="144" t="s">
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="144" t="s">
+      <c r="K9" s="149"/>
+      <c r="L9" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="145"/>
+      <c r="M9" s="149"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="157"/>
-      <c r="B10" s="159"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -5787,14 +5787,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -5815,19 +5815,19 @@
       <c r="F11" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="147"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="149"/>
-      <c r="O11" s="136" t="s">
+      <c r="G11" s="155"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="157"/>
+      <c r="O11" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="138"/>
+      <c r="P11" s="169"/>
+      <c r="Q11" s="169"/>
+      <c r="R11" s="170"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -5848,21 +5848,21 @@
       <c r="F12" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
       <c r="O12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="131" t="s">
+      <c r="P12" s="166" t="s">
         <v>159</v>
       </c>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
+      <c r="Q12" s="166"/>
+      <c r="R12" s="166"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -5883,21 +5883,21 @@
       <c r="F13" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
       <c r="O13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="131" t="s">
+      <c r="P13" s="166" t="s">
         <v>165</v>
       </c>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
+      <c r="Q13" s="166"/>
+      <c r="R13" s="166"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -5918,21 +5918,21 @@
       <c r="F14" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
       <c r="O14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="128" t="s">
+      <c r="P14" s="163" t="s">
         <v>160</v>
       </c>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="130"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="165"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -5953,21 +5953,21 @@
       <c r="F15" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
       <c r="O15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="128" t="s">
+      <c r="P15" s="163" t="s">
         <v>161</v>
       </c>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="130"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="165"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -5988,21 +5988,21 @@
       <c r="F16" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
       <c r="O16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="139" t="s">
+      <c r="P16" s="171" t="s">
         <v>163</v>
       </c>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="141"/>
+      <c r="Q16" s="172"/>
+      <c r="R16" s="173"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -6023,21 +6023,21 @@
       <c r="F17" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
       <c r="O17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="128" t="s">
+      <c r="P17" s="163" t="s">
         <v>162</v>
       </c>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="164"/>
+      <c r="R17" s="165"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -6058,13 +6058,13 @@
       <c r="F18" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -6085,13 +6085,13 @@
       <c r="F19" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -6112,13 +6112,13 @@
       <c r="F20" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -6139,13 +6139,13 @@
       <c r="F21" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
       <c r="P21" s="99" t="s">
         <v>143</v>
       </c>
@@ -6169,13 +6169,13 @@
       <c r="F22" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
       <c r="P22" s="100">
         <v>0</v>
       </c>
@@ -6202,13 +6202,13 @@
       <c r="F23" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
       <c r="P23" s="101">
         <v>70</v>
       </c>
@@ -6235,13 +6235,13 @@
       <c r="F24" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="143"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
       <c r="P24" s="101">
         <v>73.34</v>
       </c>
@@ -6268,13 +6268,13 @@
       <c r="F25" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
       <c r="P25" s="101">
         <v>76.680000000000007</v>
       </c>
@@ -6301,13 +6301,13 @@
       <c r="F26" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
       <c r="P26" s="101">
         <v>80.02</v>
       </c>
@@ -6334,13 +6334,13 @@
       <c r="F27" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
       <c r="P27" s="101">
         <v>83.36</v>
       </c>
@@ -6367,13 +6367,13 @@
       <c r="F28" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
       <c r="P28" s="101">
         <v>86.7</v>
       </c>
@@ -6400,13 +6400,13 @@
       <c r="F29" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
       <c r="P29" s="101">
         <v>90.04</v>
       </c>
@@ -6433,13 +6433,13 @@
       <c r="F30" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
       <c r="P30" s="101">
         <v>93.38</v>
       </c>
@@ -6466,13 +6466,13 @@
       <c r="F31" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="154"/>
       <c r="P31" s="100"/>
       <c r="Q31" s="100"/>
     </row>
@@ -6495,13 +6495,13 @@
       <c r="F32" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
       <c r="P32" s="100">
         <v>96.72</v>
       </c>
@@ -6528,13 +6528,13 @@
       <c r="F33" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="143"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -6555,13 +6555,13 @@
       <c r="F34" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="134"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -6582,13 +6582,13 @@
       <c r="F35" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="134"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="154"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -6609,13 +6609,13 @@
       <c r="F36" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="142"/>
-      <c r="K36" s="143"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="134"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -6636,13 +6636,13 @@
       <c r="F37" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="134"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="160"/>
+      <c r="K37" s="160"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -6663,13 +6663,13 @@
       <c r="F38" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="160"/>
+      <c r="K38" s="160"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -6690,13 +6690,13 @@
       <c r="F39" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="160"/>
+      <c r="K39" s="160"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -6717,13 +6717,13 @@
       <c r="F40" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="133"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="134"/>
-      <c r="M40" s="134"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="160"/>
+      <c r="K40" s="160"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="154"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -6744,13 +6744,13 @@
       <c r="F41" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="134"/>
-      <c r="M41" s="134"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="160"/>
+      <c r="K41" s="160"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -6771,13 +6771,13 @@
       <c r="F42" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="134"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="160"/>
+      <c r="K42" s="160"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="154"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -6798,13 +6798,13 @@
       <c r="F43" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="160"/>
+      <c r="K43" s="160"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -6825,13 +6825,13 @@
       <c r="F44" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="134"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="160"/>
+      <c r="K44" s="160"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -6852,13 +6852,13 @@
       <c r="F45" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="134"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="160"/>
+      <c r="K45" s="160"/>
+      <c r="L45" s="154"/>
+      <c r="M45" s="154"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -6879,13 +6879,13 @@
       <c r="F46" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="133"/>
-      <c r="L46" s="134"/>
-      <c r="M46" s="134"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="160"/>
+      <c r="K46" s="160"/>
+      <c r="L46" s="154"/>
+      <c r="M46" s="154"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -6906,13 +6906,13 @@
       <c r="F47" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="133"/>
-      <c r="K47" s="133"/>
-      <c r="L47" s="134"/>
-      <c r="M47" s="134"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="160"/>
+      <c r="K47" s="160"/>
+      <c r="L47" s="154"/>
+      <c r="M47" s="154"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -6933,13 +6933,13 @@
       <c r="F48" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="133"/>
-      <c r="K48" s="133"/>
-      <c r="L48" s="134"/>
-      <c r="M48" s="134"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="160"/>
+      <c r="K48" s="160"/>
+      <c r="L48" s="154"/>
+      <c r="M48" s="154"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -6960,13 +6960,13 @@
       <c r="F49" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G49" s="132"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="133"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="134"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="160"/>
+      <c r="K49" s="160"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -6987,13 +6987,13 @@
       <c r="F50" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="133"/>
-      <c r="K50" s="133"/>
-      <c r="L50" s="134"/>
-      <c r="M50" s="134"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="160"/>
+      <c r="K50" s="160"/>
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -7014,13 +7014,13 @@
       <c r="F51" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="134"/>
-      <c r="M51" s="134"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="160"/>
+      <c r="K51" s="160"/>
+      <c r="L51" s="154"/>
+      <c r="M51" s="154"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -7041,13 +7041,13 @@
       <c r="F52" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="134"/>
-      <c r="M52" s="134"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="151"/>
+      <c r="J52" s="160"/>
+      <c r="K52" s="160"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -7068,13 +7068,13 @@
       <c r="F53" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G53" s="132"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="133"/>
-      <c r="L53" s="134"/>
-      <c r="M53" s="134"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="160"/>
+      <c r="K53" s="160"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -7095,13 +7095,13 @@
       <c r="F54" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G54" s="132"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="133"/>
-      <c r="K54" s="133"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="134"/>
+      <c r="G54" s="151"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="160"/>
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -7122,13 +7122,13 @@
       <c r="F55" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="133"/>
-      <c r="K55" s="133"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="151"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="160"/>
+      <c r="L55" s="154"/>
+      <c r="M55" s="154"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -7149,13 +7149,13 @@
       <c r="F56" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G56" s="132"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="134"/>
-      <c r="M56" s="134"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="151"/>
+      <c r="J56" s="160"/>
+      <c r="K56" s="160"/>
+      <c r="L56" s="154"/>
+      <c r="M56" s="154"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -7176,13 +7176,13 @@
       <c r="F57" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="133"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="134"/>
+      <c r="G57" s="151"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="151"/>
+      <c r="J57" s="160"/>
+      <c r="K57" s="160"/>
+      <c r="L57" s="154"/>
+      <c r="M57" s="154"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -7203,13 +7203,13 @@
       <c r="F58" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="133"/>
-      <c r="L58" s="134"/>
-      <c r="M58" s="134"/>
+      <c r="G58" s="151"/>
+      <c r="H58" s="151"/>
+      <c r="I58" s="151"/>
+      <c r="J58" s="160"/>
+      <c r="K58" s="160"/>
+      <c r="L58" s="154"/>
+      <c r="M58" s="154"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -7230,13 +7230,13 @@
       <c r="F59" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G59" s="132"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="132"/>
-      <c r="J59" s="133"/>
-      <c r="K59" s="133"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
+      <c r="G59" s="151"/>
+      <c r="H59" s="151"/>
+      <c r="I59" s="151"/>
+      <c r="J59" s="160"/>
+      <c r="K59" s="160"/>
+      <c r="L59" s="154"/>
+      <c r="M59" s="154"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -7257,13 +7257,13 @@
       <c r="F60" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G60" s="132"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="133"/>
-      <c r="K60" s="133"/>
-      <c r="L60" s="134"/>
-      <c r="M60" s="134"/>
+      <c r="G60" s="151"/>
+      <c r="H60" s="151"/>
+      <c r="I60" s="151"/>
+      <c r="J60" s="160"/>
+      <c r="K60" s="160"/>
+      <c r="L60" s="154"/>
+      <c r="M60" s="154"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -7274,13 +7274,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="132"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="133"/>
-      <c r="K61" s="133"/>
-      <c r="L61" s="134"/>
-      <c r="M61" s="134"/>
+      <c r="G61" s="151"/>
+      <c r="H61" s="151"/>
+      <c r="I61" s="151"/>
+      <c r="J61" s="160"/>
+      <c r="K61" s="160"/>
+      <c r="L61" s="154"/>
+      <c r="M61" s="154"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -7291,13 +7291,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
-      <c r="L62" s="134"/>
-      <c r="M62" s="134"/>
+      <c r="G62" s="151"/>
+      <c r="H62" s="151"/>
+      <c r="I62" s="151"/>
+      <c r="J62" s="160"/>
+      <c r="K62" s="160"/>
+      <c r="L62" s="154"/>
+      <c r="M62" s="154"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -7308,13 +7308,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="132"/>
-      <c r="H63" s="132"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="133"/>
-      <c r="K63" s="133"/>
-      <c r="L63" s="134"/>
-      <c r="M63" s="134"/>
+      <c r="G63" s="151"/>
+      <c r="H63" s="151"/>
+      <c r="I63" s="151"/>
+      <c r="J63" s="160"/>
+      <c r="K63" s="160"/>
+      <c r="L63" s="154"/>
+      <c r="M63" s="154"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -7325,13 +7325,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="133"/>
-      <c r="K64" s="133"/>
-      <c r="L64" s="134"/>
-      <c r="M64" s="134"/>
+      <c r="G64" s="151"/>
+      <c r="H64" s="151"/>
+      <c r="I64" s="151"/>
+      <c r="J64" s="160"/>
+      <c r="K64" s="160"/>
+      <c r="L64" s="154"/>
+      <c r="M64" s="154"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -7342,13 +7342,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="132"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="133"/>
-      <c r="K65" s="133"/>
-      <c r="L65" s="134"/>
-      <c r="M65" s="134"/>
+      <c r="G65" s="151"/>
+      <c r="H65" s="151"/>
+      <c r="I65" s="151"/>
+      <c r="J65" s="160"/>
+      <c r="K65" s="160"/>
+      <c r="L65" s="154"/>
+      <c r="M65" s="154"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -7359,13 +7359,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="133"/>
-      <c r="K66" s="133"/>
-      <c r="L66" s="134"/>
-      <c r="M66" s="134"/>
+      <c r="G66" s="151"/>
+      <c r="H66" s="151"/>
+      <c r="I66" s="151"/>
+      <c r="J66" s="160"/>
+      <c r="K66" s="160"/>
+      <c r="L66" s="154"/>
+      <c r="M66" s="154"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -7376,13 +7376,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="89"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="132"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="133"/>
-      <c r="L67" s="134"/>
-      <c r="M67" s="134"/>
+      <c r="G67" s="151"/>
+      <c r="H67" s="151"/>
+      <c r="I67" s="151"/>
+      <c r="J67" s="160"/>
+      <c r="K67" s="160"/>
+      <c r="L67" s="154"/>
+      <c r="M67" s="154"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -7393,13 +7393,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="132"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="133"/>
-      <c r="K68" s="133"/>
-      <c r="L68" s="134"/>
-      <c r="M68" s="134"/>
+      <c r="G68" s="151"/>
+      <c r="H68" s="151"/>
+      <c r="I68" s="151"/>
+      <c r="J68" s="160"/>
+      <c r="K68" s="160"/>
+      <c r="L68" s="154"/>
+      <c r="M68" s="154"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -7410,13 +7410,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="132"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="133"/>
-      <c r="K69" s="133"/>
-      <c r="L69" s="134"/>
-      <c r="M69" s="134"/>
+      <c r="G69" s="151"/>
+      <c r="H69" s="151"/>
+      <c r="I69" s="151"/>
+      <c r="J69" s="160"/>
+      <c r="K69" s="160"/>
+      <c r="L69" s="154"/>
+      <c r="M69" s="154"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -7427,13 +7427,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="133"/>
-      <c r="K70" s="133"/>
-      <c r="L70" s="134"/>
-      <c r="M70" s="134"/>
+      <c r="G70" s="151"/>
+      <c r="H70" s="151"/>
+      <c r="I70" s="151"/>
+      <c r="J70" s="160"/>
+      <c r="K70" s="160"/>
+      <c r="L70" s="154"/>
+      <c r="M70" s="154"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -7444,13 +7444,13 @@
       <c r="D71" s="89"/>
       <c r="E71" s="89"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="132"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="132"/>
-      <c r="J71" s="133"/>
-      <c r="K71" s="133"/>
-      <c r="L71" s="134"/>
-      <c r="M71" s="134"/>
+      <c r="G71" s="151"/>
+      <c r="H71" s="151"/>
+      <c r="I71" s="151"/>
+      <c r="J71" s="160"/>
+      <c r="K71" s="160"/>
+      <c r="L71" s="154"/>
+      <c r="M71" s="154"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -7458,195 +7458,6 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -7671,6 +7482,195 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="208" priority="213" stopIfTrue="1" operator="equal">
@@ -8737,452 +8737,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="167" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="135"/>
-      <c r="AY2" s="135"/>
-      <c r="AZ2" s="135"/>
-      <c r="BA2" s="135"/>
-      <c r="BB2" s="135"/>
-      <c r="BC2" s="135"/>
-      <c r="BD2" s="135"/>
-      <c r="BE2" s="135"/>
-      <c r="BF2" s="135"/>
-      <c r="BG2" s="135"/>
-      <c r="BH2" s="135"/>
-      <c r="BI2" s="135"/>
-      <c r="BJ2" s="135"/>
-      <c r="BK2" s="135"/>
-      <c r="BL2" s="135"/>
-      <c r="BM2" s="135"/>
-      <c r="BN2" s="135"/>
-      <c r="BO2" s="135"/>
-      <c r="BP2" s="135"/>
-      <c r="BQ2" s="135"/>
-      <c r="BR2" s="135"/>
-      <c r="BS2" s="135"/>
-      <c r="BT2" s="135"/>
-      <c r="BU2" s="135"/>
-      <c r="BV2" s="135"/>
-      <c r="BW2" s="135"/>
-      <c r="BX2" s="135"/>
-      <c r="BY2" s="135"/>
-      <c r="BZ2" s="135"/>
-      <c r="CA2" s="135"/>
-      <c r="CB2" s="135"/>
-      <c r="CC2" s="135"/>
-      <c r="CD2" s="135"/>
-      <c r="CE2" s="135"/>
-      <c r="CF2" s="135"/>
-      <c r="CG2" s="135"/>
-      <c r="CH2" s="135"/>
-      <c r="CI2" s="135"/>
-      <c r="CJ2" s="135"/>
-      <c r="CK2" s="135"/>
-      <c r="CL2" s="135"/>
-      <c r="CM2" s="135"/>
-      <c r="CN2" s="135"/>
-      <c r="CO2" s="135"/>
-      <c r="CP2" s="135"/>
-      <c r="CQ2" s="135"/>
-      <c r="CR2" s="135"/>
-      <c r="CS2" s="135"/>
-      <c r="CT2" s="135"/>
-      <c r="CU2" s="135"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="167"/>
+      <c r="AB2" s="167"/>
+      <c r="AC2" s="167"/>
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="167"/>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="167"/>
+      <c r="AJ2" s="167"/>
+      <c r="AK2" s="167"/>
+      <c r="AL2" s="167"/>
+      <c r="AM2" s="167"/>
+      <c r="AN2" s="167"/>
+      <c r="AO2" s="167"/>
+      <c r="AP2" s="167"/>
+      <c r="AQ2" s="167"/>
+      <c r="AR2" s="167"/>
+      <c r="AS2" s="167"/>
+      <c r="AT2" s="167"/>
+      <c r="AU2" s="167"/>
+      <c r="AV2" s="167"/>
+      <c r="AW2" s="167"/>
+      <c r="AX2" s="167"/>
+      <c r="AY2" s="167"/>
+      <c r="AZ2" s="167"/>
+      <c r="BA2" s="167"/>
+      <c r="BB2" s="167"/>
+      <c r="BC2" s="167"/>
+      <c r="BD2" s="167"/>
+      <c r="BE2" s="167"/>
+      <c r="BF2" s="167"/>
+      <c r="BG2" s="167"/>
+      <c r="BH2" s="167"/>
+      <c r="BI2" s="167"/>
+      <c r="BJ2" s="167"/>
+      <c r="BK2" s="167"/>
+      <c r="BL2" s="167"/>
+      <c r="BM2" s="167"/>
+      <c r="BN2" s="167"/>
+      <c r="BO2" s="167"/>
+      <c r="BP2" s="167"/>
+      <c r="BQ2" s="167"/>
+      <c r="BR2" s="167"/>
+      <c r="BS2" s="167"/>
+      <c r="BT2" s="167"/>
+      <c r="BU2" s="167"/>
+      <c r="BV2" s="167"/>
+      <c r="BW2" s="167"/>
+      <c r="BX2" s="167"/>
+      <c r="BY2" s="167"/>
+      <c r="BZ2" s="167"/>
+      <c r="CA2" s="167"/>
+      <c r="CB2" s="167"/>
+      <c r="CC2" s="167"/>
+      <c r="CD2" s="167"/>
+      <c r="CE2" s="167"/>
+      <c r="CF2" s="167"/>
+      <c r="CG2" s="167"/>
+      <c r="CH2" s="167"/>
+      <c r="CI2" s="167"/>
+      <c r="CJ2" s="167"/>
+      <c r="CK2" s="167"/>
+      <c r="CL2" s="167"/>
+      <c r="CM2" s="167"/>
+      <c r="CN2" s="167"/>
+      <c r="CO2" s="167"/>
+      <c r="CP2" s="167"/>
+      <c r="CQ2" s="167"/>
+      <c r="CR2" s="167"/>
+      <c r="CS2" s="167"/>
+      <c r="CT2" s="167"/>
+      <c r="CU2" s="167"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="135"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="135"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="135"/>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="135"/>
-      <c r="AT3" s="135"/>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
-      <c r="BB3" s="135"/>
-      <c r="BC3" s="135"/>
-      <c r="BD3" s="135"/>
-      <c r="BE3" s="135"/>
-      <c r="BF3" s="135"/>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="135"/>
-      <c r="BI3" s="135"/>
-      <c r="BJ3" s="135"/>
-      <c r="BK3" s="135"/>
-      <c r="BL3" s="135"/>
-      <c r="BM3" s="135"/>
-      <c r="BN3" s="135"/>
-      <c r="BO3" s="135"/>
-      <c r="BP3" s="135"/>
-      <c r="BQ3" s="135"/>
-      <c r="BR3" s="135"/>
-      <c r="BS3" s="135"/>
-      <c r="BT3" s="135"/>
-      <c r="BU3" s="135"/>
-      <c r="BV3" s="135"/>
-      <c r="BW3" s="135"/>
-      <c r="BX3" s="135"/>
-      <c r="BY3" s="135"/>
-      <c r="BZ3" s="135"/>
-      <c r="CA3" s="135"/>
-      <c r="CB3" s="135"/>
-      <c r="CC3" s="135"/>
-      <c r="CD3" s="135"/>
-      <c r="CE3" s="135"/>
-      <c r="CF3" s="135"/>
-      <c r="CG3" s="135"/>
-      <c r="CH3" s="135"/>
-      <c r="CI3" s="135"/>
-      <c r="CJ3" s="135"/>
-      <c r="CK3" s="135"/>
-      <c r="CL3" s="135"/>
-      <c r="CM3" s="135"/>
-      <c r="CN3" s="135"/>
-      <c r="CO3" s="135"/>
-      <c r="CP3" s="135"/>
-      <c r="CQ3" s="135"/>
-      <c r="CR3" s="135"/>
-      <c r="CS3" s="135"/>
-      <c r="CT3" s="135"/>
-      <c r="CU3" s="135"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="167"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="167"/>
+      <c r="AJ3" s="167"/>
+      <c r="AK3" s="167"/>
+      <c r="AL3" s="167"/>
+      <c r="AM3" s="167"/>
+      <c r="AN3" s="167"/>
+      <c r="AO3" s="167"/>
+      <c r="AP3" s="167"/>
+      <c r="AQ3" s="167"/>
+      <c r="AR3" s="167"/>
+      <c r="AS3" s="167"/>
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="167"/>
+      <c r="AV3" s="167"/>
+      <c r="AW3" s="167"/>
+      <c r="AX3" s="167"/>
+      <c r="AY3" s="167"/>
+      <c r="AZ3" s="167"/>
+      <c r="BA3" s="167"/>
+      <c r="BB3" s="167"/>
+      <c r="BC3" s="167"/>
+      <c r="BD3" s="167"/>
+      <c r="BE3" s="167"/>
+      <c r="BF3" s="167"/>
+      <c r="BG3" s="167"/>
+      <c r="BH3" s="167"/>
+      <c r="BI3" s="167"/>
+      <c r="BJ3" s="167"/>
+      <c r="BK3" s="167"/>
+      <c r="BL3" s="167"/>
+      <c r="BM3" s="167"/>
+      <c r="BN3" s="167"/>
+      <c r="BO3" s="167"/>
+      <c r="BP3" s="167"/>
+      <c r="BQ3" s="167"/>
+      <c r="BR3" s="167"/>
+      <c r="BS3" s="167"/>
+      <c r="BT3" s="167"/>
+      <c r="BU3" s="167"/>
+      <c r="BV3" s="167"/>
+      <c r="BW3" s="167"/>
+      <c r="BX3" s="167"/>
+      <c r="BY3" s="167"/>
+      <c r="BZ3" s="167"/>
+      <c r="CA3" s="167"/>
+      <c r="CB3" s="167"/>
+      <c r="CC3" s="167"/>
+      <c r="CD3" s="167"/>
+      <c r="CE3" s="167"/>
+      <c r="CF3" s="167"/>
+      <c r="CG3" s="167"/>
+      <c r="CH3" s="167"/>
+      <c r="CI3" s="167"/>
+      <c r="CJ3" s="167"/>
+      <c r="CK3" s="167"/>
+      <c r="CL3" s="167"/>
+      <c r="CM3" s="167"/>
+      <c r="CN3" s="167"/>
+      <c r="CO3" s="167"/>
+      <c r="CP3" s="167"/>
+      <c r="CQ3" s="167"/>
+      <c r="CR3" s="167"/>
+      <c r="CS3" s="167"/>
+      <c r="CT3" s="167"/>
+      <c r="CU3" s="167"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="200" t="s">
+      <c r="A5" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="203" t="s">
+      <c r="C5" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="204" t="s">
+      <c r="D5" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="205"/>
-      <c r="J5" s="205"/>
-      <c r="K5" s="205"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
-      <c r="O5" s="205"/>
-      <c r="P5" s="205"/>
-      <c r="Q5" s="205"/>
-      <c r="R5" s="205"/>
-      <c r="S5" s="205"/>
-      <c r="T5" s="205"/>
-      <c r="U5" s="205"/>
-      <c r="V5" s="205"/>
-      <c r="W5" s="205"/>
-      <c r="X5" s="205"/>
-      <c r="Y5" s="205"/>
-      <c r="Z5" s="205"/>
-      <c r="AA5" s="205"/>
-      <c r="AB5" s="205"/>
-      <c r="AC5" s="205"/>
-      <c r="AD5" s="205"/>
-      <c r="AE5" s="205"/>
-      <c r="AF5" s="205"/>
-      <c r="AG5" s="205"/>
-      <c r="AH5" s="205"/>
-      <c r="AI5" s="205"/>
-      <c r="AJ5" s="205"/>
-      <c r="AK5" s="205"/>
-      <c r="AL5" s="205"/>
-      <c r="AM5" s="205"/>
-      <c r="AN5" s="205"/>
-      <c r="AO5" s="205"/>
-      <c r="AP5" s="205"/>
-      <c r="AQ5" s="205"/>
-      <c r="AR5" s="205"/>
-      <c r="AS5" s="205"/>
-      <c r="AT5" s="205"/>
-      <c r="AU5" s="205"/>
-      <c r="AV5" s="205"/>
-      <c r="AW5" s="205"/>
-      <c r="AX5" s="205"/>
-      <c r="AY5" s="205"/>
-      <c r="AZ5" s="205"/>
-      <c r="BA5" s="205"/>
-      <c r="BB5" s="205"/>
-      <c r="BC5" s="205"/>
-      <c r="BD5" s="206"/>
-      <c r="BE5" s="207" t="s">
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="180"/>
+      <c r="Q5" s="180"/>
+      <c r="R5" s="180"/>
+      <c r="S5" s="180"/>
+      <c r="T5" s="180"/>
+      <c r="U5" s="180"/>
+      <c r="V5" s="180"/>
+      <c r="W5" s="180"/>
+      <c r="X5" s="180"/>
+      <c r="Y5" s="180"/>
+      <c r="Z5" s="180"/>
+      <c r="AA5" s="180"/>
+      <c r="AB5" s="180"/>
+      <c r="AC5" s="180"/>
+      <c r="AD5" s="180"/>
+      <c r="AE5" s="180"/>
+      <c r="AF5" s="180"/>
+      <c r="AG5" s="180"/>
+      <c r="AH5" s="180"/>
+      <c r="AI5" s="180"/>
+      <c r="AJ5" s="180"/>
+      <c r="AK5" s="180"/>
+      <c r="AL5" s="180"/>
+      <c r="AM5" s="180"/>
+      <c r="AN5" s="180"/>
+      <c r="AO5" s="180"/>
+      <c r="AP5" s="180"/>
+      <c r="AQ5" s="180"/>
+      <c r="AR5" s="180"/>
+      <c r="AS5" s="180"/>
+      <c r="AT5" s="180"/>
+      <c r="AU5" s="180"/>
+      <c r="AV5" s="180"/>
+      <c r="AW5" s="180"/>
+      <c r="AX5" s="180"/>
+      <c r="AY5" s="180"/>
+      <c r="AZ5" s="180"/>
+      <c r="BA5" s="180"/>
+      <c r="BB5" s="180"/>
+      <c r="BC5" s="180"/>
+      <c r="BD5" s="181"/>
+      <c r="BE5" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="208"/>
-      <c r="BG5" s="208"/>
-      <c r="BH5" s="208"/>
-      <c r="BI5" s="208"/>
-      <c r="BJ5" s="208"/>
-      <c r="BK5" s="208"/>
-      <c r="BL5" s="208"/>
-      <c r="BM5" s="208"/>
-      <c r="BN5" s="208"/>
-      <c r="BO5" s="208"/>
-      <c r="BP5" s="208"/>
-      <c r="BQ5" s="208"/>
-      <c r="BR5" s="208"/>
-      <c r="BS5" s="208"/>
-      <c r="BT5" s="208"/>
-      <c r="BU5" s="208"/>
-      <c r="BV5" s="208"/>
-      <c r="BW5" s="208"/>
-      <c r="BX5" s="208"/>
-      <c r="BY5" s="208"/>
-      <c r="BZ5" s="208"/>
-      <c r="CA5" s="208"/>
-      <c r="CB5" s="208"/>
-      <c r="CC5" s="208"/>
-      <c r="CD5" s="208"/>
-      <c r="CE5" s="208"/>
-      <c r="CF5" s="208"/>
-      <c r="CG5" s="208"/>
-      <c r="CH5" s="208"/>
-      <c r="CI5" s="208"/>
-      <c r="CJ5" s="208"/>
-      <c r="CK5" s="208"/>
-      <c r="CL5" s="208"/>
-      <c r="CM5" s="208"/>
-      <c r="CN5" s="208"/>
-      <c r="CO5" s="208"/>
-      <c r="CP5" s="208"/>
-      <c r="CQ5" s="208"/>
-      <c r="CR5" s="209"/>
-      <c r="CS5" s="196" t="s">
+      <c r="BF5" s="183"/>
+      <c r="BG5" s="183"/>
+      <c r="BH5" s="183"/>
+      <c r="BI5" s="183"/>
+      <c r="BJ5" s="183"/>
+      <c r="BK5" s="183"/>
+      <c r="BL5" s="183"/>
+      <c r="BM5" s="183"/>
+      <c r="BN5" s="183"/>
+      <c r="BO5" s="183"/>
+      <c r="BP5" s="183"/>
+      <c r="BQ5" s="183"/>
+      <c r="BR5" s="183"/>
+      <c r="BS5" s="183"/>
+      <c r="BT5" s="183"/>
+      <c r="BU5" s="183"/>
+      <c r="BV5" s="183"/>
+      <c r="BW5" s="183"/>
+      <c r="BX5" s="183"/>
+      <c r="BY5" s="183"/>
+      <c r="BZ5" s="183"/>
+      <c r="CA5" s="183"/>
+      <c r="CB5" s="183"/>
+      <c r="CC5" s="183"/>
+      <c r="CD5" s="183"/>
+      <c r="CE5" s="183"/>
+      <c r="CF5" s="183"/>
+      <c r="CG5" s="183"/>
+      <c r="CH5" s="183"/>
+      <c r="CI5" s="183"/>
+      <c r="CJ5" s="183"/>
+      <c r="CK5" s="183"/>
+      <c r="CL5" s="183"/>
+      <c r="CM5" s="183"/>
+      <c r="CN5" s="183"/>
+      <c r="CO5" s="183"/>
+      <c r="CP5" s="183"/>
+      <c r="CQ5" s="183"/>
+      <c r="CR5" s="184"/>
+      <c r="CS5" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="197"/>
-      <c r="CU5" s="198"/>
+      <c r="CT5" s="190"/>
+      <c r="CU5" s="191"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="201"/>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="179" t="s">
+      <c r="A6" s="176"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="182" t="s">
+      <c r="E6" s="210"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="195" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="182"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="182"/>
-      <c r="S6" s="182"/>
-      <c r="T6" s="182"/>
-      <c r="U6" s="182"/>
-      <c r="V6" s="182"/>
-      <c r="W6" s="182"/>
-      <c r="X6" s="182"/>
-      <c r="Y6" s="182"/>
-      <c r="Z6" s="182"/>
-      <c r="AA6" s="182"/>
-      <c r="AB6" s="182"/>
-      <c r="AC6" s="182"/>
-      <c r="AD6" s="182"/>
-      <c r="AE6" s="182"/>
-      <c r="AF6" s="182"/>
-      <c r="AG6" s="182"/>
-      <c r="AH6" s="182"/>
-      <c r="AI6" s="182"/>
-      <c r="AJ6" s="182"/>
-      <c r="AK6" s="182"/>
-      <c r="AL6" s="182"/>
-      <c r="AM6" s="182"/>
-      <c r="AN6" s="182"/>
-      <c r="AO6" s="182" t="s">
+      <c r="K6" s="195"/>
+      <c r="L6" s="195"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
+      <c r="R6" s="195"/>
+      <c r="S6" s="195"/>
+      <c r="T6" s="195"/>
+      <c r="U6" s="195"/>
+      <c r="V6" s="195"/>
+      <c r="W6" s="195"/>
+      <c r="X6" s="195"/>
+      <c r="Y6" s="195"/>
+      <c r="Z6" s="195"/>
+      <c r="AA6" s="195"/>
+      <c r="AB6" s="195"/>
+      <c r="AC6" s="195"/>
+      <c r="AD6" s="195"/>
+      <c r="AE6" s="195"/>
+      <c r="AF6" s="195"/>
+      <c r="AG6" s="195"/>
+      <c r="AH6" s="195"/>
+      <c r="AI6" s="195"/>
+      <c r="AJ6" s="195"/>
+      <c r="AK6" s="195"/>
+      <c r="AL6" s="195"/>
+      <c r="AM6" s="195"/>
+      <c r="AN6" s="195"/>
+      <c r="AO6" s="195" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="182"/>
-      <c r="AQ6" s="182"/>
-      <c r="AR6" s="182"/>
-      <c r="AS6" s="182" t="s">
+      <c r="AP6" s="195"/>
+      <c r="AQ6" s="195"/>
+      <c r="AR6" s="195"/>
+      <c r="AS6" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="182"/>
-      <c r="AU6" s="182"/>
-      <c r="AV6" s="182" t="s">
+      <c r="AT6" s="195"/>
+      <c r="AU6" s="195"/>
+      <c r="AV6" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="182"/>
-      <c r="AX6" s="182"/>
-      <c r="AY6" s="182"/>
-      <c r="AZ6" s="182"/>
-      <c r="BA6" s="182"/>
-      <c r="BB6" s="182"/>
-      <c r="BC6" s="189" t="s">
+      <c r="AW6" s="195"/>
+      <c r="AX6" s="195"/>
+      <c r="AY6" s="195"/>
+      <c r="AZ6" s="195"/>
+      <c r="BA6" s="195"/>
+      <c r="BB6" s="195"/>
+      <c r="BC6" s="199" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="190"/>
-      <c r="BE6" s="191" t="s">
+      <c r="BD6" s="200"/>
+      <c r="BE6" s="201" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="192"/>
-      <c r="BG6" s="192"/>
-      <c r="BH6" s="192"/>
-      <c r="BI6" s="192"/>
-      <c r="BJ6" s="192"/>
-      <c r="BK6" s="193"/>
-      <c r="BL6" s="194" t="s">
+      <c r="BF6" s="202"/>
+      <c r="BG6" s="202"/>
+      <c r="BH6" s="202"/>
+      <c r="BI6" s="202"/>
+      <c r="BJ6" s="202"/>
+      <c r="BK6" s="203"/>
+      <c r="BL6" s="204" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="192"/>
-      <c r="BN6" s="192"/>
-      <c r="BO6" s="192"/>
-      <c r="BP6" s="192"/>
-      <c r="BQ6" s="192"/>
-      <c r="BR6" s="192"/>
-      <c r="BS6" s="192"/>
-      <c r="BT6" s="192"/>
-      <c r="BU6" s="192"/>
-      <c r="BV6" s="192"/>
-      <c r="BW6" s="192"/>
-      <c r="BX6" s="192"/>
-      <c r="BY6" s="192"/>
-      <c r="BZ6" s="192"/>
-      <c r="CA6" s="192"/>
-      <c r="CB6" s="192"/>
-      <c r="CC6" s="192"/>
-      <c r="CD6" s="192"/>
-      <c r="CE6" s="192"/>
-      <c r="CF6" s="192"/>
-      <c r="CG6" s="192"/>
-      <c r="CH6" s="192"/>
-      <c r="CI6" s="192"/>
-      <c r="CJ6" s="192"/>
-      <c r="CK6" s="192"/>
-      <c r="CL6" s="192"/>
-      <c r="CM6" s="192"/>
-      <c r="CN6" s="192"/>
-      <c r="CO6" s="192"/>
-      <c r="CP6" s="192"/>
-      <c r="CQ6" s="199" t="s">
+      <c r="BM6" s="202"/>
+      <c r="BN6" s="202"/>
+      <c r="BO6" s="202"/>
+      <c r="BP6" s="202"/>
+      <c r="BQ6" s="202"/>
+      <c r="BR6" s="202"/>
+      <c r="BS6" s="202"/>
+      <c r="BT6" s="202"/>
+      <c r="BU6" s="202"/>
+      <c r="BV6" s="202"/>
+      <c r="BW6" s="202"/>
+      <c r="BX6" s="202"/>
+      <c r="BY6" s="202"/>
+      <c r="BZ6" s="202"/>
+      <c r="CA6" s="202"/>
+      <c r="CB6" s="202"/>
+      <c r="CC6" s="202"/>
+      <c r="CD6" s="202"/>
+      <c r="CE6" s="202"/>
+      <c r="CF6" s="202"/>
+      <c r="CG6" s="202"/>
+      <c r="CH6" s="202"/>
+      <c r="CI6" s="202"/>
+      <c r="CJ6" s="202"/>
+      <c r="CK6" s="202"/>
+      <c r="CL6" s="202"/>
+      <c r="CM6" s="202"/>
+      <c r="CN6" s="202"/>
+      <c r="CO6" s="202"/>
+      <c r="CP6" s="202"/>
+      <c r="CQ6" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="199"/>
-      <c r="CS6" s="195" t="s">
+      <c r="CR6" s="192"/>
+      <c r="CS6" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="195" t="s">
+      <c r="CT6" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="186" t="s">
+      <c r="CU6" s="196" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="201"/>
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
       <c r="E7" s="123"/>
       <c r="F7" s="122">
         <v>0.3</v>
@@ -9191,339 +9191,339 @@
       <c r="I7" s="123">
         <v>0.3</v>
       </c>
-      <c r="J7" s="181">
+      <c r="J7" s="187">
         <v>42983</v>
       </c>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181">
+      <c r="K7" s="187"/>
+      <c r="L7" s="187">
         <v>43004</v>
       </c>
-      <c r="M7" s="181"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="181"/>
-      <c r="P7" s="181"/>
-      <c r="Q7" s="181"/>
-      <c r="R7" s="181"/>
-      <c r="S7" s="181"/>
-      <c r="T7" s="185">
+      <c r="M7" s="187"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="187"/>
+      <c r="Q7" s="187"/>
+      <c r="R7" s="187"/>
+      <c r="S7" s="187"/>
+      <c r="T7" s="188">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>2</v>
       </c>
-      <c r="U7" s="185"/>
-      <c r="V7" s="181"/>
-      <c r="W7" s="181"/>
-      <c r="X7" s="181"/>
-      <c r="Y7" s="181"/>
-      <c r="Z7" s="181"/>
-      <c r="AA7" s="181"/>
-      <c r="AB7" s="181"/>
-      <c r="AC7" s="181"/>
-      <c r="AD7" s="181"/>
-      <c r="AE7" s="181"/>
-      <c r="AF7" s="181"/>
-      <c r="AG7" s="181"/>
-      <c r="AH7" s="181"/>
-      <c r="AI7" s="181"/>
-      <c r="AJ7" s="181"/>
-      <c r="AK7" s="181"/>
-      <c r="AL7" s="181"/>
-      <c r="AM7" s="181"/>
+      <c r="U7" s="188"/>
+      <c r="V7" s="187"/>
+      <c r="W7" s="187"/>
+      <c r="X7" s="187"/>
+      <c r="Y7" s="187"/>
+      <c r="Z7" s="187"/>
+      <c r="AA7" s="187"/>
+      <c r="AB7" s="187"/>
+      <c r="AC7" s="187"/>
+      <c r="AD7" s="187"/>
+      <c r="AE7" s="187"/>
+      <c r="AF7" s="187"/>
+      <c r="AG7" s="187"/>
+      <c r="AH7" s="187"/>
+      <c r="AI7" s="187"/>
+      <c r="AJ7" s="187"/>
+      <c r="AK7" s="187"/>
+      <c r="AL7" s="187"/>
+      <c r="AM7" s="187"/>
       <c r="AN7" s="96">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="181" t="s">
+      <c r="AO7" s="187" t="s">
         <v>166</v>
       </c>
-      <c r="AP7" s="181"/>
-      <c r="AQ7" s="181"/>
-      <c r="AR7" s="181"/>
-      <c r="AS7" s="185">
+      <c r="AP7" s="187"/>
+      <c r="AQ7" s="187"/>
+      <c r="AR7" s="187"/>
+      <c r="AS7" s="188">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="185"/>
+      <c r="AT7" s="188"/>
       <c r="AU7" s="20">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="181" t="s">
+      <c r="AV7" s="187" t="s">
         <v>167</v>
       </c>
-      <c r="AW7" s="181"/>
-      <c r="AX7" s="181"/>
-      <c r="AY7" s="181"/>
-      <c r="AZ7" s="185">
+      <c r="AW7" s="187"/>
+      <c r="AX7" s="187"/>
+      <c r="AY7" s="187"/>
+      <c r="AZ7" s="188">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="185"/>
+      <c r="BA7" s="188"/>
       <c r="BB7" s="21">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="189"/>
-      <c r="BD7" s="190"/>
-      <c r="BE7" s="181" t="s">
+      <c r="BC7" s="199"/>
+      <c r="BD7" s="200"/>
+      <c r="BE7" s="187" t="s">
         <v>339</v>
       </c>
-      <c r="BF7" s="181"/>
-      <c r="BG7" s="181" t="s">
+      <c r="BF7" s="187"/>
+      <c r="BG7" s="187" t="s">
         <v>338</v>
       </c>
-      <c r="BH7" s="181"/>
-      <c r="BI7" s="185">
+      <c r="BH7" s="187"/>
+      <c r="BI7" s="188">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>2</v>
       </c>
-      <c r="BJ7" s="185"/>
+      <c r="BJ7" s="188"/>
       <c r="BK7" s="104">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="181">
+      <c r="BL7" s="187">
         <v>42982</v>
       </c>
-      <c r="BM7" s="181"/>
-      <c r="BN7" s="181">
+      <c r="BM7" s="187"/>
+      <c r="BN7" s="187">
         <v>42982</v>
       </c>
-      <c r="BO7" s="181"/>
-      <c r="BP7" s="181">
+      <c r="BO7" s="187"/>
+      <c r="BP7" s="187">
         <v>42989</v>
       </c>
-      <c r="BQ7" s="181"/>
-      <c r="BR7" s="181">
+      <c r="BQ7" s="187"/>
+      <c r="BR7" s="187">
         <v>42987</v>
       </c>
-      <c r="BS7" s="181"/>
-      <c r="BT7" s="181"/>
-      <c r="BU7" s="181"/>
-      <c r="BV7" s="181"/>
-      <c r="BW7" s="181"/>
-      <c r="BX7" s="181"/>
-      <c r="BY7" s="181"/>
-      <c r="BZ7" s="181"/>
-      <c r="CA7" s="181"/>
-      <c r="CB7" s="181"/>
-      <c r="CC7" s="181"/>
-      <c r="CD7" s="181"/>
-      <c r="CE7" s="181"/>
-      <c r="CF7" s="181"/>
-      <c r="CG7" s="181"/>
-      <c r="CH7" s="181"/>
-      <c r="CI7" s="181"/>
-      <c r="CJ7" s="181"/>
-      <c r="CK7" s="181"/>
-      <c r="CL7" s="181"/>
-      <c r="CM7" s="181"/>
-      <c r="CN7" s="185">
+      <c r="BS7" s="187"/>
+      <c r="BT7" s="187"/>
+      <c r="BU7" s="187"/>
+      <c r="BV7" s="187"/>
+      <c r="BW7" s="187"/>
+      <c r="BX7" s="187"/>
+      <c r="BY7" s="187"/>
+      <c r="BZ7" s="187"/>
+      <c r="CA7" s="187"/>
+      <c r="CB7" s="187"/>
+      <c r="CC7" s="187"/>
+      <c r="CD7" s="187"/>
+      <c r="CE7" s="187"/>
+      <c r="CF7" s="187"/>
+      <c r="CG7" s="187"/>
+      <c r="CH7" s="187"/>
+      <c r="CI7" s="187"/>
+      <c r="CJ7" s="187"/>
+      <c r="CK7" s="187"/>
+      <c r="CL7" s="187"/>
+      <c r="CM7" s="187"/>
+      <c r="CN7" s="188">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>3</v>
       </c>
-      <c r="CO7" s="185"/>
+      <c r="CO7" s="188"/>
       <c r="CP7" s="105">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="199"/>
-      <c r="CR7" s="199"/>
-      <c r="CS7" s="195"/>
-      <c r="CT7" s="195"/>
-      <c r="CU7" s="187"/>
+      <c r="CQ7" s="192"/>
+      <c r="CR7" s="192"/>
+      <c r="CS7" s="174"/>
+      <c r="CT7" s="174"/>
+      <c r="CU7" s="197"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="201"/>
-      <c r="B8" s="203"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="210" t="s">
+      <c r="A8" s="176"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="185" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210" t="s">
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
-      <c r="J8" s="174" t="s">
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174" t="s">
+      <c r="K8" s="186"/>
+      <c r="L8" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174" t="s">
+      <c r="M8" s="186"/>
+      <c r="N8" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="174"/>
-      <c r="P8" s="174" t="s">
+      <c r="O8" s="186"/>
+      <c r="P8" s="186" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="174"/>
-      <c r="R8" s="174" t="s">
+      <c r="Q8" s="186"/>
+      <c r="R8" s="186" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="174"/>
-      <c r="T8" s="174" t="s">
+      <c r="S8" s="186"/>
+      <c r="T8" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="174"/>
-      <c r="V8" s="174" t="s">
+      <c r="U8" s="186"/>
+      <c r="V8" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="174"/>
-      <c r="X8" s="174" t="s">
+      <c r="W8" s="186"/>
+      <c r="X8" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="174"/>
-      <c r="Z8" s="174" t="s">
+      <c r="Y8" s="186"/>
+      <c r="Z8" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="174"/>
-      <c r="AB8" s="174" t="s">
+      <c r="AA8" s="186"/>
+      <c r="AB8" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="174"/>
-      <c r="AD8" s="174" t="s">
+      <c r="AC8" s="186"/>
+      <c r="AD8" s="186" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="174"/>
-      <c r="AF8" s="174" t="s">
+      <c r="AE8" s="186"/>
+      <c r="AF8" s="186" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="174"/>
-      <c r="AH8" s="174" t="s">
+      <c r="AG8" s="186"/>
+      <c r="AH8" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="174"/>
-      <c r="AJ8" s="174" t="s">
+      <c r="AI8" s="186"/>
+      <c r="AJ8" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="174"/>
-      <c r="AL8" s="174" t="s">
+      <c r="AK8" s="186"/>
+      <c r="AL8" s="186" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="174"/>
+      <c r="AM8" s="186"/>
       <c r="AN8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="174" t="s">
+      <c r="AO8" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="174"/>
-      <c r="AQ8" s="174" t="s">
+      <c r="AP8" s="186"/>
+      <c r="AQ8" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="174"/>
-      <c r="AS8" s="174" t="s">
+      <c r="AR8" s="186"/>
+      <c r="AS8" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="174"/>
+      <c r="AT8" s="186"/>
       <c r="AU8" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="174" t="s">
+      <c r="AV8" s="186" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="174"/>
-      <c r="AX8" s="174" t="s">
+      <c r="AW8" s="186"/>
+      <c r="AX8" s="186" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="174"/>
-      <c r="AZ8" s="174" t="s">
+      <c r="AY8" s="186"/>
+      <c r="AZ8" s="186" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="174"/>
+      <c r="BA8" s="186"/>
       <c r="BB8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="189"/>
-      <c r="BD8" s="190"/>
-      <c r="BE8" s="184" t="s">
+      <c r="BC8" s="199"/>
+      <c r="BD8" s="200"/>
+      <c r="BE8" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="183"/>
-      <c r="BG8" s="183" t="s">
+      <c r="BF8" s="205"/>
+      <c r="BG8" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="183"/>
-      <c r="BI8" s="183" t="s">
+      <c r="BH8" s="205"/>
+      <c r="BI8" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="183"/>
+      <c r="BJ8" s="205"/>
       <c r="BK8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="177" t="s">
+      <c r="BL8" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="178"/>
-      <c r="BN8" s="177" t="s">
+      <c r="BM8" s="207"/>
+      <c r="BN8" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="178"/>
-      <c r="BP8" s="177" t="s">
+      <c r="BO8" s="207"/>
+      <c r="BP8" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="178"/>
-      <c r="BR8" s="177" t="s">
+      <c r="BQ8" s="207"/>
+      <c r="BR8" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="178"/>
-      <c r="BT8" s="177" t="s">
+      <c r="BS8" s="207"/>
+      <c r="BT8" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="178"/>
-      <c r="BV8" s="175" t="s">
+      <c r="BU8" s="207"/>
+      <c r="BV8" s="193" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="176"/>
-      <c r="BX8" s="175" t="s">
+      <c r="BW8" s="194"/>
+      <c r="BX8" s="193" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="176"/>
-      <c r="BZ8" s="175" t="s">
+      <c r="BY8" s="194"/>
+      <c r="BZ8" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="176"/>
-      <c r="CB8" s="175" t="s">
+      <c r="CA8" s="194"/>
+      <c r="CB8" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="176"/>
-      <c r="CD8" s="175" t="s">
+      <c r="CC8" s="194"/>
+      <c r="CD8" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="176"/>
-      <c r="CF8" s="175" t="s">
+      <c r="CE8" s="194"/>
+      <c r="CF8" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="176"/>
-      <c r="CH8" s="175" t="s">
+      <c r="CG8" s="194"/>
+      <c r="CH8" s="193" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="176"/>
-      <c r="CJ8" s="175" t="s">
+      <c r="CI8" s="194"/>
+      <c r="CJ8" s="193" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="176"/>
-      <c r="CL8" s="175" t="s">
+      <c r="CK8" s="194"/>
+      <c r="CL8" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="176"/>
-      <c r="CN8" s="175" t="s">
+      <c r="CM8" s="194"/>
+      <c r="CN8" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="176"/>
+      <c r="CO8" s="194"/>
       <c r="CP8" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="199"/>
-      <c r="CR8" s="199"/>
-      <c r="CS8" s="195"/>
-      <c r="CT8" s="195"/>
-      <c r="CU8" s="187"/>
+      <c r="CQ8" s="192"/>
+      <c r="CR8" s="192"/>
+      <c r="CS8" s="174"/>
+      <c r="CT8" s="174"/>
+      <c r="CU8" s="197"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="202"/>
-      <c r="B9" s="203"/>
-      <c r="C9" s="203"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="26">
         <v>70</v>
       </c>
@@ -9697,9 +9697,9 @@
       <c r="CR9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="195"/>
-      <c r="CT9" s="195"/>
-      <c r="CU9" s="188"/>
+      <c r="CS9" s="174"/>
+      <c r="CT9" s="174"/>
+      <c r="CU9" s="198"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="41">
@@ -25394,6 +25394,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:CU3"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
@@ -25410,88 +25492,6 @@
     <mergeCell ref="BG7:BH7"/>
     <mergeCell ref="CF7:CG7"/>
     <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:CU3"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -29706,106 +29706,106 @@
       <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="258"/>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
+      <c r="A3" s="227"/>
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="261" t="s">
+      <c r="A4" s="228" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="261"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
+      <c r="B4" s="228"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="262" t="s">
+      <c r="A5" s="229" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="262"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
+      <c r="B5" s="229"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="261" t="s">
+      <c r="A6" s="228" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="261"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="261"/>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
+      <c r="B6" s="228"/>
+      <c r="C6" s="228"/>
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="228"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="263" t="s">
+      <c r="A7" s="230" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="263"/>
-      <c r="C7" s="263"/>
-      <c r="D7" s="263"/>
-      <c r="E7" s="263"/>
-      <c r="F7" s="263"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="264"/>
-      <c r="B8" s="264"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
+      <c r="A8" s="231"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="258"/>
-      <c r="B9" s="258"/>
-      <c r="C9" s="258"/>
-      <c r="D9" s="258"/>
-      <c r="E9" s="258"/>
-      <c r="F9" s="258"/>
+      <c r="A9" s="227"/>
+      <c r="B9" s="227"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="227"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="265"/>
-      <c r="B10" s="265"/>
-      <c r="C10" s="265"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="265"/>
+      <c r="A10" s="232"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="232"/>
+      <c r="E10" s="232"/>
+      <c r="F10" s="232"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="266" t="s">
+      <c r="A11" s="233" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="266"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="266"/>
-      <c r="E11" s="266"/>
-      <c r="F11" s="266"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="233"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="264"/>
-      <c r="B12" s="264"/>
-      <c r="C12" s="264"/>
-      <c r="D12" s="264"/>
-      <c r="E12" s="264"/>
-      <c r="F12" s="264"/>
+      <c r="A12" s="231"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="231"/>
+      <c r="D12" s="231"/>
+      <c r="E12" s="231"/>
+      <c r="F12" s="231"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="59"/>
       <c r="B13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="267" t="str">
+      <c r="C13" s="234" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 21</v>
       </c>
-      <c r="D13" s="267"/>
-      <c r="E13" s="267"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="234"/>
       <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6">
@@ -29813,12 +29813,12 @@
       <c r="B14" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="260" t="str">
+      <c r="C14" s="226" t="str">
         <f>REGISTRATION!C6</f>
         <v>Programming I</v>
       </c>
-      <c r="D14" s="260"/>
-      <c r="E14" s="260"/>
+      <c r="D14" s="226"/>
+      <c r="E14" s="226"/>
       <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:6">
@@ -29826,12 +29826,12 @@
       <c r="B15" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="246" t="str">
+      <c r="C15" s="237" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="246"/>
-      <c r="E15" s="246"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="237"/>
       <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:6">
@@ -29839,12 +29839,12 @@
       <c r="B16" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="246" t="str">
+      <c r="C16" s="237" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>IT  1A</v>
       </c>
-      <c r="D16" s="246"/>
-      <c r="E16" s="246"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="237"/>
       <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6">
@@ -29852,12 +29852,12 @@
       <c r="B17" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="246" t="str">
+      <c r="C17" s="237" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="246"/>
-      <c r="E17" s="246"/>
+      <c r="D17" s="237"/>
+      <c r="E17" s="237"/>
       <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -29869,42 +29869,42 @@
       <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="247" t="s">
+      <c r="A19" s="238" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="250" t="s">
+      <c r="B19" s="241" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="247" t="s">
+      <c r="C19" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="247" t="s">
+      <c r="D19" s="238" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="252" t="s">
+      <c r="E19" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="247" t="s">
+      <c r="F19" s="238" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="248"/>
-      <c r="B20" s="251"/>
-      <c r="C20" s="248"/>
-      <c r="D20" s="248"/>
-      <c r="E20" s="253"/>
-      <c r="F20" s="255"/>
+      <c r="A20" s="239"/>
+      <c r="B20" s="242"/>
+      <c r="C20" s="239"/>
+      <c r="D20" s="239"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="246"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="249"/>
+      <c r="A21" s="240"/>
       <c r="B21" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="249"/>
-      <c r="D21" s="249"/>
-      <c r="E21" s="254"/>
-      <c r="F21" s="256"/>
+      <c r="C21" s="240"/>
+      <c r="D21" s="240"/>
+      <c r="E21" s="245"/>
+      <c r="F21" s="247"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="64">
@@ -31417,14 +31417,14 @@
       <c r="F82" s="83"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="230" t="s">
+      <c r="A83" s="254" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="231"/>
-      <c r="C83" s="231"/>
-      <c r="D83" s="231"/>
-      <c r="E83" s="231"/>
-      <c r="F83" s="232"/>
+      <c r="B83" s="255"/>
+      <c r="C83" s="255"/>
+      <c r="D83" s="255"/>
+      <c r="E83" s="255"/>
+      <c r="F83" s="256"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="61"/>
@@ -31457,11 +31457,11 @@
       </c>
       <c r="C87" s="59"/>
       <c r="D87" s="59"/>
-      <c r="E87" s="257">
+      <c r="E87" s="248">
         <f ca="1">NOW()</f>
-        <v>43022.327739930559</v>
-      </c>
-      <c r="F87" s="257"/>
+        <v>43023.817172222225</v>
+      </c>
+      <c r="F87" s="248"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="59"/>
@@ -31471,10 +31471,10 @@
       </c>
       <c r="C88" s="72"/>
       <c r="D88" s="72"/>
-      <c r="E88" s="258" t="s">
+      <c r="E88" s="227" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="258"/>
+      <c r="F88" s="227"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="59"/>
@@ -31491,8 +31491,8 @@
       <c r="B90" s="73"/>
       <c r="C90" s="73"/>
       <c r="D90" s="73"/>
-      <c r="E90" s="258"/>
-      <c r="F90" s="258"/>
+      <c r="E90" s="227"/>
+      <c r="F90" s="227"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="59"/>
@@ -31608,14 +31608,14 @@
       <c r="F104" s="59"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="259" t="s">
+      <c r="A105" s="249" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="259"/>
-      <c r="C105" s="259"/>
-      <c r="D105" s="259"/>
-      <c r="E105" s="259"/>
-      <c r="F105" s="259"/>
+      <c r="B105" s="249"/>
+      <c r="C105" s="249"/>
+      <c r="D105" s="249"/>
+      <c r="E105" s="249"/>
+      <c r="F105" s="249"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="59"/>
@@ -31630,124 +31630,124 @@
       <c r="B107" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="243" t="s">
+      <c r="C107" s="267" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="244"/>
-      <c r="E107" s="245" t="s">
+      <c r="D107" s="236"/>
+      <c r="E107" s="235" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="244"/>
+      <c r="F107" s="236"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="59"/>
       <c r="B108" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="239">
+      <c r="C108" s="263">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="240"/>
-      <c r="E108" s="241">
+      <c r="D108" s="264"/>
+      <c r="E108" s="265">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="242"/>
+      <c r="F108" s="266"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="59"/>
       <c r="B109" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="233">
+      <c r="C109" s="257">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="234"/>
-      <c r="E109" s="235">
+      <c r="D109" s="258"/>
+      <c r="E109" s="259">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="236"/>
+      <c r="F109" s="260"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="59"/>
       <c r="B110" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="233">
+      <c r="C110" s="257">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="234"/>
-      <c r="E110" s="235">
+      <c r="D110" s="258"/>
+      <c r="E110" s="259">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="236"/>
+      <c r="F110" s="260"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="59"/>
       <c r="B111" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="233">
+      <c r="C111" s="257">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="234"/>
-      <c r="E111" s="235">
+      <c r="D111" s="258"/>
+      <c r="E111" s="259">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="236"/>
+      <c r="F111" s="260"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="59"/>
       <c r="B112" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="237">
-        <v>0</v>
-      </c>
-      <c r="D112" s="238"/>
-      <c r="E112" s="235">
+      <c r="C112" s="261">
+        <v>0</v>
+      </c>
+      <c r="D112" s="262"/>
+      <c r="E112" s="259">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="236"/>
+      <c r="F112" s="260"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="59"/>
       <c r="B113" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="237">
-        <v>0</v>
-      </c>
-      <c r="D113" s="238"/>
-      <c r="E113" s="235">
+      <c r="C113" s="261">
+        <v>0</v>
+      </c>
+      <c r="D113" s="262"/>
+      <c r="E113" s="259">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="236"/>
+      <c r="F113" s="260"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="59"/>
       <c r="B114" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="226">
+      <c r="C114" s="250">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="227"/>
-      <c r="E114" s="228">
+      <c r="D114" s="251"/>
+      <c r="E114" s="252">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="229"/>
+      <c r="F114" s="253"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="59"/>
@@ -31915,32 +31915,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -31957,6 +31931,32 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 21 - IT 1A/LEC AND LAB - IT 1A.xlsx
+++ b/DCIT 21 - IT 1A/LEC AND LAB - IT 1A.xlsx
@@ -2107,7 +2107,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2537,40 +2537,99 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2610,104 +2669,129 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2748,93 +2832,6 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2893,102 +2890,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3062,6 +2963,102 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5565,7 +5562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5598,82 +5595,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="161"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="128" t="s">
+      <c r="A6" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="129" t="s">
+      <c r="D6" s="165"/>
+      <c r="E6" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="129"/>
+      <c r="F6" s="166"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -5681,28 +5678,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="130" t="s">
+      <c r="J6" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="130"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="3" t="s">
         <v>335</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="134"/>
+      <c r="F7" s="171"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -5710,28 +5707,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="134" t="s">
+      <c r="J7" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="134"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="137"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="8" t="s">
         <v>336</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="E8" s="138" t="s">
+      <c r="E8" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="138"/>
+      <c r="F8" s="153"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -5739,45 +5736,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="138" t="s">
+      <c r="J8" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="157" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="145" t="s">
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="145" t="s">
+      <c r="G9" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="148" t="s">
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="149"/>
-      <c r="L9" s="148" t="s">
+      <c r="K9" s="144"/>
+      <c r="L9" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="149"/>
+      <c r="M9" s="144"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="141"/>
-      <c r="B10" s="143"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -5787,14 +5784,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -5815,19 +5812,19 @@
       <c r="F11" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="155"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="157"/>
-      <c r="O11" s="168" t="s">
+      <c r="G11" s="146"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="148"/>
+      <c r="O11" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="169"/>
-      <c r="Q11" s="169"/>
-      <c r="R11" s="170"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="137"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -5848,21 +5845,21 @@
       <c r="F12" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
       <c r="O12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="166" t="s">
+      <c r="P12" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="166"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -5883,21 +5880,21 @@
       <c r="F13" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
       <c r="O13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="166" t="s">
+      <c r="P13" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="166"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -5918,21 +5915,21 @@
       <c r="F14" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
       <c r="O14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="163" t="s">
+      <c r="P14" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="Q14" s="164"/>
-      <c r="R14" s="165"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="129"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -5953,21 +5950,21 @@
       <c r="F15" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
       <c r="O15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="163" t="s">
+      <c r="P15" s="127" t="s">
         <v>161</v>
       </c>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="165"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="129"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -5988,21 +5985,21 @@
       <c r="F16" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
       <c r="O16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="171" t="s">
+      <c r="P16" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="Q16" s="172"/>
-      <c r="R16" s="173"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="140"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -6023,21 +6020,21 @@
       <c r="F17" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
       <c r="O17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="163" t="s">
+      <c r="P17" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="Q17" s="164"/>
-      <c r="R17" s="165"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="129"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -6058,13 +6055,13 @@
       <c r="F18" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -6085,13 +6082,13 @@
       <c r="F19" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -6112,13 +6109,13 @@
       <c r="F20" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -6139,13 +6136,13 @@
       <c r="F21" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
       <c r="P21" s="99" t="s">
         <v>143</v>
       </c>
@@ -6169,13 +6166,13 @@
       <c r="F22" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
       <c r="P22" s="100">
         <v>0</v>
       </c>
@@ -6202,13 +6199,13 @@
       <c r="F23" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="133"/>
       <c r="P23" s="101">
         <v>70</v>
       </c>
@@ -6235,13 +6232,13 @@
       <c r="F24" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="154"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="133"/>
+      <c r="M24" s="133"/>
       <c r="P24" s="101">
         <v>73.34</v>
       </c>
@@ -6268,13 +6265,13 @@
       <c r="F25" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="133"/>
       <c r="P25" s="101">
         <v>76.680000000000007</v>
       </c>
@@ -6301,13 +6298,13 @@
       <c r="F26" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
       <c r="P26" s="101">
         <v>80.02</v>
       </c>
@@ -6334,13 +6331,13 @@
       <c r="F27" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="154"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="133"/>
       <c r="P27" s="101">
         <v>83.36</v>
       </c>
@@ -6367,13 +6364,13 @@
       <c r="F28" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="154"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="133"/>
       <c r="P28" s="101">
         <v>86.7</v>
       </c>
@@ -6400,13 +6397,13 @@
       <c r="F29" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="133"/>
       <c r="P29" s="101">
         <v>90.04</v>
       </c>
@@ -6433,13 +6430,13 @@
       <c r="F30" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="154"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="133"/>
+      <c r="M30" s="133"/>
       <c r="P30" s="101">
         <v>93.38</v>
       </c>
@@ -6466,13 +6463,13 @@
       <c r="F31" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="154"/>
-      <c r="M31" s="154"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="133"/>
+      <c r="M31" s="133"/>
       <c r="P31" s="100"/>
       <c r="Q31" s="100"/>
     </row>
@@ -6495,13 +6492,13 @@
       <c r="F32" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="154"/>
-      <c r="M32" s="154"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="133"/>
       <c r="P32" s="100">
         <v>96.72</v>
       </c>
@@ -6528,13 +6525,13 @@
       <c r="F33" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="154"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="133"/>
+      <c r="M33" s="133"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -6555,13 +6552,13 @@
       <c r="F34" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="154"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="133"/>
+      <c r="M34" s="133"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -6582,13 +6579,13 @@
       <c r="F35" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="154"/>
-      <c r="M35" s="154"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="133"/>
+      <c r="M35" s="133"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -6609,13 +6606,13 @@
       <c r="F36" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="152"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="154"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="141"/>
+      <c r="K36" s="142"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="133"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -6636,13 +6633,13 @@
       <c r="F37" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="160"/>
-      <c r="K37" s="160"/>
-      <c r="L37" s="154"/>
-      <c r="M37" s="154"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="133"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -6663,13 +6660,13 @@
       <c r="F38" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="160"/>
-      <c r="K38" s="160"/>
-      <c r="L38" s="154"/>
-      <c r="M38" s="154"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="133"/>
+      <c r="M38" s="133"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -6690,13 +6687,13 @@
       <c r="F39" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="160"/>
-      <c r="K39" s="160"/>
-      <c r="L39" s="154"/>
-      <c r="M39" s="154"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="133"/>
+      <c r="M39" s="133"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -6717,13 +6714,13 @@
       <c r="F40" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="160"/>
-      <c r="K40" s="160"/>
-      <c r="L40" s="154"/>
-      <c r="M40" s="154"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="133"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -6744,13 +6741,13 @@
       <c r="F41" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="160"/>
-      <c r="K41" s="160"/>
-      <c r="L41" s="154"/>
-      <c r="M41" s="154"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="133"/>
+      <c r="M41" s="133"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -6771,13 +6768,13 @@
       <c r="F42" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="160"/>
-      <c r="K42" s="160"/>
-      <c r="L42" s="154"/>
-      <c r="M42" s="154"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -6798,13 +6795,13 @@
       <c r="F43" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="160"/>
-      <c r="K43" s="160"/>
-      <c r="L43" s="154"/>
-      <c r="M43" s="154"/>
+      <c r="G43" s="131"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="131"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="133"/>
+      <c r="M43" s="133"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -6825,13 +6822,13 @@
       <c r="F44" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="160"/>
-      <c r="K44" s="160"/>
-      <c r="L44" s="154"/>
-      <c r="M44" s="154"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="131"/>
+      <c r="J44" s="132"/>
+      <c r="K44" s="132"/>
+      <c r="L44" s="133"/>
+      <c r="M44" s="133"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -6852,13 +6849,13 @@
       <c r="F45" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G45" s="151"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="160"/>
-      <c r="K45" s="160"/>
-      <c r="L45" s="154"/>
-      <c r="M45" s="154"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -6879,13 +6876,13 @@
       <c r="F46" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G46" s="151"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="160"/>
-      <c r="K46" s="160"/>
-      <c r="L46" s="154"/>
-      <c r="M46" s="154"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="133"/>
+      <c r="M46" s="133"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -6906,13 +6903,13 @@
       <c r="F47" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="160"/>
-      <c r="K47" s="160"/>
-      <c r="L47" s="154"/>
-      <c r="M47" s="154"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="133"/>
+      <c r="M47" s="133"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -6933,13 +6930,13 @@
       <c r="F48" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="160"/>
-      <c r="K48" s="160"/>
-      <c r="L48" s="154"/>
-      <c r="M48" s="154"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="132"/>
+      <c r="L48" s="133"/>
+      <c r="M48" s="133"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -6960,13 +6957,13 @@
       <c r="F49" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="160"/>
-      <c r="K49" s="160"/>
-      <c r="L49" s="154"/>
-      <c r="M49" s="154"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="131"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="132"/>
+      <c r="K49" s="132"/>
+      <c r="L49" s="133"/>
+      <c r="M49" s="133"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -6987,13 +6984,13 @@
       <c r="F50" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="160"/>
-      <c r="K50" s="160"/>
-      <c r="L50" s="154"/>
-      <c r="M50" s="154"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="132"/>
+      <c r="K50" s="132"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -7014,13 +7011,13 @@
       <c r="F51" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="160"/>
-      <c r="L51" s="154"/>
-      <c r="M51" s="154"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="132"/>
+      <c r="K51" s="132"/>
+      <c r="L51" s="133"/>
+      <c r="M51" s="133"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -7041,13 +7038,13 @@
       <c r="F52" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G52" s="151"/>
-      <c r="H52" s="151"/>
-      <c r="I52" s="151"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="160"/>
-      <c r="L52" s="154"/>
-      <c r="M52" s="154"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="132"/>
+      <c r="L52" s="133"/>
+      <c r="M52" s="133"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -7068,13 +7065,13 @@
       <c r="F53" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G53" s="151"/>
-      <c r="H53" s="151"/>
-      <c r="I53" s="151"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="160"/>
-      <c r="L53" s="154"/>
-      <c r="M53" s="154"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="132"/>
+      <c r="K53" s="132"/>
+      <c r="L53" s="133"/>
+      <c r="M53" s="133"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -7095,13 +7092,13 @@
       <c r="F54" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G54" s="151"/>
-      <c r="H54" s="151"/>
-      <c r="I54" s="151"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="160"/>
-      <c r="L54" s="154"/>
-      <c r="M54" s="154"/>
+      <c r="G54" s="131"/>
+      <c r="H54" s="131"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="132"/>
+      <c r="L54" s="133"/>
+      <c r="M54" s="133"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -7122,13 +7119,13 @@
       <c r="F55" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G55" s="151"/>
-      <c r="H55" s="151"/>
-      <c r="I55" s="151"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="160"/>
-      <c r="L55" s="154"/>
-      <c r="M55" s="154"/>
+      <c r="G55" s="131"/>
+      <c r="H55" s="131"/>
+      <c r="I55" s="131"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="132"/>
+      <c r="L55" s="133"/>
+      <c r="M55" s="133"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -7149,13 +7146,13 @@
       <c r="F56" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G56" s="151"/>
-      <c r="H56" s="151"/>
-      <c r="I56" s="151"/>
-      <c r="J56" s="160"/>
-      <c r="K56" s="160"/>
-      <c r="L56" s="154"/>
-      <c r="M56" s="154"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="132"/>
+      <c r="L56" s="133"/>
+      <c r="M56" s="133"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -7176,13 +7173,13 @@
       <c r="F57" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G57" s="151"/>
-      <c r="H57" s="151"/>
-      <c r="I57" s="151"/>
-      <c r="J57" s="160"/>
-      <c r="K57" s="160"/>
-      <c r="L57" s="154"/>
-      <c r="M57" s="154"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="133"/>
+      <c r="M57" s="133"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -7203,13 +7200,13 @@
       <c r="F58" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G58" s="151"/>
-      <c r="H58" s="151"/>
-      <c r="I58" s="151"/>
-      <c r="J58" s="160"/>
-      <c r="K58" s="160"/>
-      <c r="L58" s="154"/>
-      <c r="M58" s="154"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="132"/>
+      <c r="L58" s="133"/>
+      <c r="M58" s="133"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -7230,13 +7227,13 @@
       <c r="F59" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G59" s="151"/>
-      <c r="H59" s="151"/>
-      <c r="I59" s="151"/>
-      <c r="J59" s="160"/>
-      <c r="K59" s="160"/>
-      <c r="L59" s="154"/>
-      <c r="M59" s="154"/>
+      <c r="G59" s="131"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="131"/>
+      <c r="J59" s="132"/>
+      <c r="K59" s="132"/>
+      <c r="L59" s="133"/>
+      <c r="M59" s="133"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -7257,13 +7254,13 @@
       <c r="F60" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G60" s="151"/>
-      <c r="H60" s="151"/>
-      <c r="I60" s="151"/>
-      <c r="J60" s="160"/>
-      <c r="K60" s="160"/>
-      <c r="L60" s="154"/>
-      <c r="M60" s="154"/>
+      <c r="G60" s="131"/>
+      <c r="H60" s="131"/>
+      <c r="I60" s="131"/>
+      <c r="J60" s="132"/>
+      <c r="K60" s="132"/>
+      <c r="L60" s="133"/>
+      <c r="M60" s="133"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -7274,13 +7271,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="151"/>
-      <c r="H61" s="151"/>
-      <c r="I61" s="151"/>
-      <c r="J61" s="160"/>
-      <c r="K61" s="160"/>
-      <c r="L61" s="154"/>
-      <c r="M61" s="154"/>
+      <c r="G61" s="131"/>
+      <c r="H61" s="131"/>
+      <c r="I61" s="131"/>
+      <c r="J61" s="132"/>
+      <c r="K61" s="132"/>
+      <c r="L61" s="133"/>
+      <c r="M61" s="133"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -7291,13 +7288,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="151"/>
-      <c r="H62" s="151"/>
-      <c r="I62" s="151"/>
-      <c r="J62" s="160"/>
-      <c r="K62" s="160"/>
-      <c r="L62" s="154"/>
-      <c r="M62" s="154"/>
+      <c r="G62" s="131"/>
+      <c r="H62" s="131"/>
+      <c r="I62" s="131"/>
+      <c r="J62" s="132"/>
+      <c r="K62" s="132"/>
+      <c r="L62" s="133"/>
+      <c r="M62" s="133"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -7308,13 +7305,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="151"/>
-      <c r="H63" s="151"/>
-      <c r="I63" s="151"/>
-      <c r="J63" s="160"/>
-      <c r="K63" s="160"/>
-      <c r="L63" s="154"/>
-      <c r="M63" s="154"/>
+      <c r="G63" s="131"/>
+      <c r="H63" s="131"/>
+      <c r="I63" s="131"/>
+      <c r="J63" s="132"/>
+      <c r="K63" s="132"/>
+      <c r="L63" s="133"/>
+      <c r="M63" s="133"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -7325,13 +7322,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="151"/>
-      <c r="H64" s="151"/>
-      <c r="I64" s="151"/>
-      <c r="J64" s="160"/>
-      <c r="K64" s="160"/>
-      <c r="L64" s="154"/>
-      <c r="M64" s="154"/>
+      <c r="G64" s="131"/>
+      <c r="H64" s="131"/>
+      <c r="I64" s="131"/>
+      <c r="J64" s="132"/>
+      <c r="K64" s="132"/>
+      <c r="L64" s="133"/>
+      <c r="M64" s="133"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -7342,13 +7339,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="151"/>
-      <c r="H65" s="151"/>
-      <c r="I65" s="151"/>
-      <c r="J65" s="160"/>
-      <c r="K65" s="160"/>
-      <c r="L65" s="154"/>
-      <c r="M65" s="154"/>
+      <c r="G65" s="131"/>
+      <c r="H65" s="131"/>
+      <c r="I65" s="131"/>
+      <c r="J65" s="132"/>
+      <c r="K65" s="132"/>
+      <c r="L65" s="133"/>
+      <c r="M65" s="133"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -7359,13 +7356,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="151"/>
-      <c r="H66" s="151"/>
-      <c r="I66" s="151"/>
-      <c r="J66" s="160"/>
-      <c r="K66" s="160"/>
-      <c r="L66" s="154"/>
-      <c r="M66" s="154"/>
+      <c r="G66" s="131"/>
+      <c r="H66" s="131"/>
+      <c r="I66" s="131"/>
+      <c r="J66" s="132"/>
+      <c r="K66" s="132"/>
+      <c r="L66" s="133"/>
+      <c r="M66" s="133"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -7376,13 +7373,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="89"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="151"/>
-      <c r="H67" s="151"/>
-      <c r="I67" s="151"/>
-      <c r="J67" s="160"/>
-      <c r="K67" s="160"/>
-      <c r="L67" s="154"/>
-      <c r="M67" s="154"/>
+      <c r="G67" s="131"/>
+      <c r="H67" s="131"/>
+      <c r="I67" s="131"/>
+      <c r="J67" s="132"/>
+      <c r="K67" s="132"/>
+      <c r="L67" s="133"/>
+      <c r="M67" s="133"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -7393,13 +7390,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="151"/>
-      <c r="H68" s="151"/>
-      <c r="I68" s="151"/>
-      <c r="J68" s="160"/>
-      <c r="K68" s="160"/>
-      <c r="L68" s="154"/>
-      <c r="M68" s="154"/>
+      <c r="G68" s="131"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="131"/>
+      <c r="J68" s="132"/>
+      <c r="K68" s="132"/>
+      <c r="L68" s="133"/>
+      <c r="M68" s="133"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -7410,13 +7407,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="151"/>
-      <c r="H69" s="151"/>
-      <c r="I69" s="151"/>
-      <c r="J69" s="160"/>
-      <c r="K69" s="160"/>
-      <c r="L69" s="154"/>
-      <c r="M69" s="154"/>
+      <c r="G69" s="131"/>
+      <c r="H69" s="131"/>
+      <c r="I69" s="131"/>
+      <c r="J69" s="132"/>
+      <c r="K69" s="132"/>
+      <c r="L69" s="133"/>
+      <c r="M69" s="133"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -7427,13 +7424,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="151"/>
-      <c r="H70" s="151"/>
-      <c r="I70" s="151"/>
-      <c r="J70" s="160"/>
-      <c r="K70" s="160"/>
-      <c r="L70" s="154"/>
-      <c r="M70" s="154"/>
+      <c r="G70" s="131"/>
+      <c r="H70" s="131"/>
+      <c r="I70" s="131"/>
+      <c r="J70" s="132"/>
+      <c r="K70" s="132"/>
+      <c r="L70" s="133"/>
+      <c r="M70" s="133"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -7444,13 +7441,13 @@
       <c r="D71" s="89"/>
       <c r="E71" s="89"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="151"/>
-      <c r="H71" s="151"/>
-      <c r="I71" s="151"/>
-      <c r="J71" s="160"/>
-      <c r="K71" s="160"/>
-      <c r="L71" s="154"/>
-      <c r="M71" s="154"/>
+      <c r="G71" s="131"/>
+      <c r="H71" s="131"/>
+      <c r="I71" s="131"/>
+      <c r="J71" s="132"/>
+      <c r="K71" s="132"/>
+      <c r="L71" s="133"/>
+      <c r="M71" s="133"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -7458,6 +7455,195 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -7482,195 +7668,6 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="208" priority="213" stopIfTrue="1" operator="equal">
@@ -8721,9 +8718,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="CK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CS16" sqref="CS16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="BL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BR16" sqref="BR16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8737,452 +8734,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="167"/>
-      <c r="AB2" s="167"/>
-      <c r="AC2" s="167"/>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="167"/>
-      <c r="AH2" s="167"/>
-      <c r="AI2" s="167"/>
-      <c r="AJ2" s="167"/>
-      <c r="AK2" s="167"/>
-      <c r="AL2" s="167"/>
-      <c r="AM2" s="167"/>
-      <c r="AN2" s="167"/>
-      <c r="AO2" s="167"/>
-      <c r="AP2" s="167"/>
-      <c r="AQ2" s="167"/>
-      <c r="AR2" s="167"/>
-      <c r="AS2" s="167"/>
-      <c r="AT2" s="167"/>
-      <c r="AU2" s="167"/>
-      <c r="AV2" s="167"/>
-      <c r="AW2" s="167"/>
-      <c r="AX2" s="167"/>
-      <c r="AY2" s="167"/>
-      <c r="AZ2" s="167"/>
-      <c r="BA2" s="167"/>
-      <c r="BB2" s="167"/>
-      <c r="BC2" s="167"/>
-      <c r="BD2" s="167"/>
-      <c r="BE2" s="167"/>
-      <c r="BF2" s="167"/>
-      <c r="BG2" s="167"/>
-      <c r="BH2" s="167"/>
-      <c r="BI2" s="167"/>
-      <c r="BJ2" s="167"/>
-      <c r="BK2" s="167"/>
-      <c r="BL2" s="167"/>
-      <c r="BM2" s="167"/>
-      <c r="BN2" s="167"/>
-      <c r="BO2" s="167"/>
-      <c r="BP2" s="167"/>
-      <c r="BQ2" s="167"/>
-      <c r="BR2" s="167"/>
-      <c r="BS2" s="167"/>
-      <c r="BT2" s="167"/>
-      <c r="BU2" s="167"/>
-      <c r="BV2" s="167"/>
-      <c r="BW2" s="167"/>
-      <c r="BX2" s="167"/>
-      <c r="BY2" s="167"/>
-      <c r="BZ2" s="167"/>
-      <c r="CA2" s="167"/>
-      <c r="CB2" s="167"/>
-      <c r="CC2" s="167"/>
-      <c r="CD2" s="167"/>
-      <c r="CE2" s="167"/>
-      <c r="CF2" s="167"/>
-      <c r="CG2" s="167"/>
-      <c r="CH2" s="167"/>
-      <c r="CI2" s="167"/>
-      <c r="CJ2" s="167"/>
-      <c r="CK2" s="167"/>
-      <c r="CL2" s="167"/>
-      <c r="CM2" s="167"/>
-      <c r="CN2" s="167"/>
-      <c r="CO2" s="167"/>
-      <c r="CP2" s="167"/>
-      <c r="CQ2" s="167"/>
-      <c r="CR2" s="167"/>
-      <c r="CS2" s="167"/>
-      <c r="CT2" s="167"/>
-      <c r="CU2" s="167"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="134"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="134"/>
+      <c r="AQ2" s="134"/>
+      <c r="AR2" s="134"/>
+      <c r="AS2" s="134"/>
+      <c r="AT2" s="134"/>
+      <c r="AU2" s="134"/>
+      <c r="AV2" s="134"/>
+      <c r="AW2" s="134"/>
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="134"/>
+      <c r="AZ2" s="134"/>
+      <c r="BA2" s="134"/>
+      <c r="BB2" s="134"/>
+      <c r="BC2" s="134"/>
+      <c r="BD2" s="134"/>
+      <c r="BE2" s="134"/>
+      <c r="BF2" s="134"/>
+      <c r="BG2" s="134"/>
+      <c r="BH2" s="134"/>
+      <c r="BI2" s="134"/>
+      <c r="BJ2" s="134"/>
+      <c r="BK2" s="134"/>
+      <c r="BL2" s="134"/>
+      <c r="BM2" s="134"/>
+      <c r="BN2" s="134"/>
+      <c r="BO2" s="134"/>
+      <c r="BP2" s="134"/>
+      <c r="BQ2" s="134"/>
+      <c r="BR2" s="134"/>
+      <c r="BS2" s="134"/>
+      <c r="BT2" s="134"/>
+      <c r="BU2" s="134"/>
+      <c r="BV2" s="134"/>
+      <c r="BW2" s="134"/>
+      <c r="BX2" s="134"/>
+      <c r="BY2" s="134"/>
+      <c r="BZ2" s="134"/>
+      <c r="CA2" s="134"/>
+      <c r="CB2" s="134"/>
+      <c r="CC2" s="134"/>
+      <c r="CD2" s="134"/>
+      <c r="CE2" s="134"/>
+      <c r="CF2" s="134"/>
+      <c r="CG2" s="134"/>
+      <c r="CH2" s="134"/>
+      <c r="CI2" s="134"/>
+      <c r="CJ2" s="134"/>
+      <c r="CK2" s="134"/>
+      <c r="CL2" s="134"/>
+      <c r="CM2" s="134"/>
+      <c r="CN2" s="134"/>
+      <c r="CO2" s="134"/>
+      <c r="CP2" s="134"/>
+      <c r="CQ2" s="134"/>
+      <c r="CR2" s="134"/>
+      <c r="CS2" s="134"/>
+      <c r="CT2" s="134"/>
+      <c r="CU2" s="134"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="167"/>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="167"/>
-      <c r="AH3" s="167"/>
-      <c r="AI3" s="167"/>
-      <c r="AJ3" s="167"/>
-      <c r="AK3" s="167"/>
-      <c r="AL3" s="167"/>
-      <c r="AM3" s="167"/>
-      <c r="AN3" s="167"/>
-      <c r="AO3" s="167"/>
-      <c r="AP3" s="167"/>
-      <c r="AQ3" s="167"/>
-      <c r="AR3" s="167"/>
-      <c r="AS3" s="167"/>
-      <c r="AT3" s="167"/>
-      <c r="AU3" s="167"/>
-      <c r="AV3" s="167"/>
-      <c r="AW3" s="167"/>
-      <c r="AX3" s="167"/>
-      <c r="AY3" s="167"/>
-      <c r="AZ3" s="167"/>
-      <c r="BA3" s="167"/>
-      <c r="BB3" s="167"/>
-      <c r="BC3" s="167"/>
-      <c r="BD3" s="167"/>
-      <c r="BE3" s="167"/>
-      <c r="BF3" s="167"/>
-      <c r="BG3" s="167"/>
-      <c r="BH3" s="167"/>
-      <c r="BI3" s="167"/>
-      <c r="BJ3" s="167"/>
-      <c r="BK3" s="167"/>
-      <c r="BL3" s="167"/>
-      <c r="BM3" s="167"/>
-      <c r="BN3" s="167"/>
-      <c r="BO3" s="167"/>
-      <c r="BP3" s="167"/>
-      <c r="BQ3" s="167"/>
-      <c r="BR3" s="167"/>
-      <c r="BS3" s="167"/>
-      <c r="BT3" s="167"/>
-      <c r="BU3" s="167"/>
-      <c r="BV3" s="167"/>
-      <c r="BW3" s="167"/>
-      <c r="BX3" s="167"/>
-      <c r="BY3" s="167"/>
-      <c r="BZ3" s="167"/>
-      <c r="CA3" s="167"/>
-      <c r="CB3" s="167"/>
-      <c r="CC3" s="167"/>
-      <c r="CD3" s="167"/>
-      <c r="CE3" s="167"/>
-      <c r="CF3" s="167"/>
-      <c r="CG3" s="167"/>
-      <c r="CH3" s="167"/>
-      <c r="CI3" s="167"/>
-      <c r="CJ3" s="167"/>
-      <c r="CK3" s="167"/>
-      <c r="CL3" s="167"/>
-      <c r="CM3" s="167"/>
-      <c r="CN3" s="167"/>
-      <c r="CO3" s="167"/>
-      <c r="CP3" s="167"/>
-      <c r="CQ3" s="167"/>
-      <c r="CR3" s="167"/>
-      <c r="CS3" s="167"/>
-      <c r="CT3" s="167"/>
-      <c r="CU3" s="167"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="134"/>
+      <c r="AJ3" s="134"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="134"/>
+      <c r="AU3" s="134"/>
+      <c r="AV3" s="134"/>
+      <c r="AW3" s="134"/>
+      <c r="AX3" s="134"/>
+      <c r="AY3" s="134"/>
+      <c r="AZ3" s="134"/>
+      <c r="BA3" s="134"/>
+      <c r="BB3" s="134"/>
+      <c r="BC3" s="134"/>
+      <c r="BD3" s="134"/>
+      <c r="BE3" s="134"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
+      <c r="BH3" s="134"/>
+      <c r="BI3" s="134"/>
+      <c r="BJ3" s="134"/>
+      <c r="BK3" s="134"/>
+      <c r="BL3" s="134"/>
+      <c r="BM3" s="134"/>
+      <c r="BN3" s="134"/>
+      <c r="BO3" s="134"/>
+      <c r="BP3" s="134"/>
+      <c r="BQ3" s="134"/>
+      <c r="BR3" s="134"/>
+      <c r="BS3" s="134"/>
+      <c r="BT3" s="134"/>
+      <c r="BU3" s="134"/>
+      <c r="BV3" s="134"/>
+      <c r="BW3" s="134"/>
+      <c r="BX3" s="134"/>
+      <c r="BY3" s="134"/>
+      <c r="BZ3" s="134"/>
+      <c r="CA3" s="134"/>
+      <c r="CB3" s="134"/>
+      <c r="CC3" s="134"/>
+      <c r="CD3" s="134"/>
+      <c r="CE3" s="134"/>
+      <c r="CF3" s="134"/>
+      <c r="CG3" s="134"/>
+      <c r="CH3" s="134"/>
+      <c r="CI3" s="134"/>
+      <c r="CJ3" s="134"/>
+      <c r="CK3" s="134"/>
+      <c r="CL3" s="134"/>
+      <c r="CM3" s="134"/>
+      <c r="CN3" s="134"/>
+      <c r="CO3" s="134"/>
+      <c r="CP3" s="134"/>
+      <c r="CQ3" s="134"/>
+      <c r="CR3" s="134"/>
+      <c r="CS3" s="134"/>
+      <c r="CT3" s="134"/>
+      <c r="CU3" s="134"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="178" t="s">
+      <c r="B5" s="202" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="178" t="s">
+      <c r="C5" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="179" t="s">
+      <c r="D5" s="203" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="180"/>
-      <c r="AC5" s="180"/>
-      <c r="AD5" s="180"/>
-      <c r="AE5" s="180"/>
-      <c r="AF5" s="180"/>
-      <c r="AG5" s="180"/>
-      <c r="AH5" s="180"/>
-      <c r="AI5" s="180"/>
-      <c r="AJ5" s="180"/>
-      <c r="AK5" s="180"/>
-      <c r="AL5" s="180"/>
-      <c r="AM5" s="180"/>
-      <c r="AN5" s="180"/>
-      <c r="AO5" s="180"/>
-      <c r="AP5" s="180"/>
-      <c r="AQ5" s="180"/>
-      <c r="AR5" s="180"/>
-      <c r="AS5" s="180"/>
-      <c r="AT5" s="180"/>
-      <c r="AU5" s="180"/>
-      <c r="AV5" s="180"/>
-      <c r="AW5" s="180"/>
-      <c r="AX5" s="180"/>
-      <c r="AY5" s="180"/>
-      <c r="AZ5" s="180"/>
-      <c r="BA5" s="180"/>
-      <c r="BB5" s="180"/>
-      <c r="BC5" s="180"/>
-      <c r="BD5" s="181"/>
-      <c r="BE5" s="182" t="s">
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="204"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="204"/>
+      <c r="O5" s="204"/>
+      <c r="P5" s="204"/>
+      <c r="Q5" s="204"/>
+      <c r="R5" s="204"/>
+      <c r="S5" s="204"/>
+      <c r="T5" s="204"/>
+      <c r="U5" s="204"/>
+      <c r="V5" s="204"/>
+      <c r="W5" s="204"/>
+      <c r="X5" s="204"/>
+      <c r="Y5" s="204"/>
+      <c r="Z5" s="204"/>
+      <c r="AA5" s="204"/>
+      <c r="AB5" s="204"/>
+      <c r="AC5" s="204"/>
+      <c r="AD5" s="204"/>
+      <c r="AE5" s="204"/>
+      <c r="AF5" s="204"/>
+      <c r="AG5" s="204"/>
+      <c r="AH5" s="204"/>
+      <c r="AI5" s="204"/>
+      <c r="AJ5" s="204"/>
+      <c r="AK5" s="204"/>
+      <c r="AL5" s="204"/>
+      <c r="AM5" s="204"/>
+      <c r="AN5" s="204"/>
+      <c r="AO5" s="204"/>
+      <c r="AP5" s="204"/>
+      <c r="AQ5" s="204"/>
+      <c r="AR5" s="204"/>
+      <c r="AS5" s="204"/>
+      <c r="AT5" s="204"/>
+      <c r="AU5" s="204"/>
+      <c r="AV5" s="204"/>
+      <c r="AW5" s="204"/>
+      <c r="AX5" s="204"/>
+      <c r="AY5" s="204"/>
+      <c r="AZ5" s="204"/>
+      <c r="BA5" s="204"/>
+      <c r="BB5" s="204"/>
+      <c r="BC5" s="204"/>
+      <c r="BD5" s="205"/>
+      <c r="BE5" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="183"/>
-      <c r="BG5" s="183"/>
-      <c r="BH5" s="183"/>
-      <c r="BI5" s="183"/>
-      <c r="BJ5" s="183"/>
-      <c r="BK5" s="183"/>
-      <c r="BL5" s="183"/>
-      <c r="BM5" s="183"/>
-      <c r="BN5" s="183"/>
-      <c r="BO5" s="183"/>
-      <c r="BP5" s="183"/>
-      <c r="BQ5" s="183"/>
-      <c r="BR5" s="183"/>
-      <c r="BS5" s="183"/>
-      <c r="BT5" s="183"/>
-      <c r="BU5" s="183"/>
-      <c r="BV5" s="183"/>
-      <c r="BW5" s="183"/>
-      <c r="BX5" s="183"/>
-      <c r="BY5" s="183"/>
-      <c r="BZ5" s="183"/>
-      <c r="CA5" s="183"/>
-      <c r="CB5" s="183"/>
-      <c r="CC5" s="183"/>
-      <c r="CD5" s="183"/>
-      <c r="CE5" s="183"/>
-      <c r="CF5" s="183"/>
-      <c r="CG5" s="183"/>
-      <c r="CH5" s="183"/>
-      <c r="CI5" s="183"/>
-      <c r="CJ5" s="183"/>
-      <c r="CK5" s="183"/>
-      <c r="CL5" s="183"/>
-      <c r="CM5" s="183"/>
-      <c r="CN5" s="183"/>
-      <c r="CO5" s="183"/>
-      <c r="CP5" s="183"/>
-      <c r="CQ5" s="183"/>
-      <c r="CR5" s="184"/>
-      <c r="CS5" s="189" t="s">
+      <c r="BF5" s="207"/>
+      <c r="BG5" s="207"/>
+      <c r="BH5" s="207"/>
+      <c r="BI5" s="207"/>
+      <c r="BJ5" s="207"/>
+      <c r="BK5" s="207"/>
+      <c r="BL5" s="207"/>
+      <c r="BM5" s="207"/>
+      <c r="BN5" s="207"/>
+      <c r="BO5" s="207"/>
+      <c r="BP5" s="207"/>
+      <c r="BQ5" s="207"/>
+      <c r="BR5" s="207"/>
+      <c r="BS5" s="207"/>
+      <c r="BT5" s="207"/>
+      <c r="BU5" s="207"/>
+      <c r="BV5" s="207"/>
+      <c r="BW5" s="207"/>
+      <c r="BX5" s="207"/>
+      <c r="BY5" s="207"/>
+      <c r="BZ5" s="207"/>
+      <c r="CA5" s="207"/>
+      <c r="CB5" s="207"/>
+      <c r="CC5" s="207"/>
+      <c r="CD5" s="207"/>
+      <c r="CE5" s="207"/>
+      <c r="CF5" s="207"/>
+      <c r="CG5" s="207"/>
+      <c r="CH5" s="207"/>
+      <c r="CI5" s="207"/>
+      <c r="CJ5" s="207"/>
+      <c r="CK5" s="207"/>
+      <c r="CL5" s="207"/>
+      <c r="CM5" s="207"/>
+      <c r="CN5" s="207"/>
+      <c r="CO5" s="207"/>
+      <c r="CP5" s="207"/>
+      <c r="CQ5" s="207"/>
+      <c r="CR5" s="208"/>
+      <c r="CS5" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="190"/>
-      <c r="CU5" s="191"/>
+      <c r="CT5" s="196"/>
+      <c r="CU5" s="197"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="176"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="209" t="s">
+      <c r="A6" s="200"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="195" t="s">
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="181" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="195"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="195"/>
-      <c r="S6" s="195"/>
-      <c r="T6" s="195"/>
-      <c r="U6" s="195"/>
-      <c r="V6" s="195"/>
-      <c r="W6" s="195"/>
-      <c r="X6" s="195"/>
-      <c r="Y6" s="195"/>
-      <c r="Z6" s="195"/>
-      <c r="AA6" s="195"/>
-      <c r="AB6" s="195"/>
-      <c r="AC6" s="195"/>
-      <c r="AD6" s="195"/>
-      <c r="AE6" s="195"/>
-      <c r="AF6" s="195"/>
-      <c r="AG6" s="195"/>
-      <c r="AH6" s="195"/>
-      <c r="AI6" s="195"/>
-      <c r="AJ6" s="195"/>
-      <c r="AK6" s="195"/>
-      <c r="AL6" s="195"/>
-      <c r="AM6" s="195"/>
-      <c r="AN6" s="195"/>
-      <c r="AO6" s="195" t="s">
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="181"/>
+      <c r="P6" s="181"/>
+      <c r="Q6" s="181"/>
+      <c r="R6" s="181"/>
+      <c r="S6" s="181"/>
+      <c r="T6" s="181"/>
+      <c r="U6" s="181"/>
+      <c r="V6" s="181"/>
+      <c r="W6" s="181"/>
+      <c r="X6" s="181"/>
+      <c r="Y6" s="181"/>
+      <c r="Z6" s="181"/>
+      <c r="AA6" s="181"/>
+      <c r="AB6" s="181"/>
+      <c r="AC6" s="181"/>
+      <c r="AD6" s="181"/>
+      <c r="AE6" s="181"/>
+      <c r="AF6" s="181"/>
+      <c r="AG6" s="181"/>
+      <c r="AH6" s="181"/>
+      <c r="AI6" s="181"/>
+      <c r="AJ6" s="181"/>
+      <c r="AK6" s="181"/>
+      <c r="AL6" s="181"/>
+      <c r="AM6" s="181"/>
+      <c r="AN6" s="181"/>
+      <c r="AO6" s="181" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="195"/>
-      <c r="AQ6" s="195"/>
-      <c r="AR6" s="195"/>
-      <c r="AS6" s="195" t="s">
+      <c r="AP6" s="181"/>
+      <c r="AQ6" s="181"/>
+      <c r="AR6" s="181"/>
+      <c r="AS6" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="195"/>
-      <c r="AU6" s="195"/>
-      <c r="AV6" s="195" t="s">
+      <c r="AT6" s="181"/>
+      <c r="AU6" s="181"/>
+      <c r="AV6" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="195"/>
-      <c r="AX6" s="195"/>
-      <c r="AY6" s="195"/>
-      <c r="AZ6" s="195"/>
-      <c r="BA6" s="195"/>
-      <c r="BB6" s="195"/>
-      <c r="BC6" s="199" t="s">
+      <c r="AW6" s="181"/>
+      <c r="AX6" s="181"/>
+      <c r="AY6" s="181"/>
+      <c r="AZ6" s="181"/>
+      <c r="BA6" s="181"/>
+      <c r="BB6" s="181"/>
+      <c r="BC6" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="200"/>
-      <c r="BE6" s="201" t="s">
+      <c r="BD6" s="189"/>
+      <c r="BE6" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="202"/>
-      <c r="BG6" s="202"/>
-      <c r="BH6" s="202"/>
-      <c r="BI6" s="202"/>
-      <c r="BJ6" s="202"/>
-      <c r="BK6" s="203"/>
-      <c r="BL6" s="204" t="s">
+      <c r="BF6" s="191"/>
+      <c r="BG6" s="191"/>
+      <c r="BH6" s="191"/>
+      <c r="BI6" s="191"/>
+      <c r="BJ6" s="191"/>
+      <c r="BK6" s="192"/>
+      <c r="BL6" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="202"/>
-      <c r="BN6" s="202"/>
-      <c r="BO6" s="202"/>
-      <c r="BP6" s="202"/>
-      <c r="BQ6" s="202"/>
-      <c r="BR6" s="202"/>
-      <c r="BS6" s="202"/>
-      <c r="BT6" s="202"/>
-      <c r="BU6" s="202"/>
-      <c r="BV6" s="202"/>
-      <c r="BW6" s="202"/>
-      <c r="BX6" s="202"/>
-      <c r="BY6" s="202"/>
-      <c r="BZ6" s="202"/>
-      <c r="CA6" s="202"/>
-      <c r="CB6" s="202"/>
-      <c r="CC6" s="202"/>
-      <c r="CD6" s="202"/>
-      <c r="CE6" s="202"/>
-      <c r="CF6" s="202"/>
-      <c r="CG6" s="202"/>
-      <c r="CH6" s="202"/>
-      <c r="CI6" s="202"/>
-      <c r="CJ6" s="202"/>
-      <c r="CK6" s="202"/>
-      <c r="CL6" s="202"/>
-      <c r="CM6" s="202"/>
-      <c r="CN6" s="202"/>
-      <c r="CO6" s="202"/>
-      <c r="CP6" s="202"/>
-      <c r="CQ6" s="192" t="s">
+      <c r="BM6" s="191"/>
+      <c r="BN6" s="191"/>
+      <c r="BO6" s="191"/>
+      <c r="BP6" s="191"/>
+      <c r="BQ6" s="191"/>
+      <c r="BR6" s="191"/>
+      <c r="BS6" s="191"/>
+      <c r="BT6" s="191"/>
+      <c r="BU6" s="191"/>
+      <c r="BV6" s="191"/>
+      <c r="BW6" s="191"/>
+      <c r="BX6" s="191"/>
+      <c r="BY6" s="191"/>
+      <c r="BZ6" s="191"/>
+      <c r="CA6" s="191"/>
+      <c r="CB6" s="191"/>
+      <c r="CC6" s="191"/>
+      <c r="CD6" s="191"/>
+      <c r="CE6" s="191"/>
+      <c r="CF6" s="191"/>
+      <c r="CG6" s="191"/>
+      <c r="CH6" s="191"/>
+      <c r="CI6" s="191"/>
+      <c r="CJ6" s="191"/>
+      <c r="CK6" s="191"/>
+      <c r="CL6" s="191"/>
+      <c r="CM6" s="191"/>
+      <c r="CN6" s="191"/>
+      <c r="CO6" s="191"/>
+      <c r="CP6" s="191"/>
+      <c r="CQ6" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="192"/>
-      <c r="CS6" s="174" t="s">
+      <c r="CR6" s="198"/>
+      <c r="CS6" s="194" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="174" t="s">
+      <c r="CT6" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="196" t="s">
+      <c r="CU6" s="185" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="176"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
+      <c r="A7" s="200"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="202"/>
       <c r="E7" s="123"/>
       <c r="F7" s="122">
         <v>0.3</v>
@@ -9191,339 +9188,339 @@
       <c r="I7" s="123">
         <v>0.3</v>
       </c>
-      <c r="J7" s="187">
+      <c r="J7" s="180">
         <v>42983</v>
       </c>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187">
+      <c r="K7" s="180"/>
+      <c r="L7" s="180">
         <v>43004</v>
       </c>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="187"/>
-      <c r="Q7" s="187"/>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
-      <c r="T7" s="188">
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="184">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>2</v>
       </c>
-      <c r="U7" s="188"/>
-      <c r="V7" s="187"/>
-      <c r="W7" s="187"/>
-      <c r="X7" s="187"/>
-      <c r="Y7" s="187"/>
-      <c r="Z7" s="187"/>
-      <c r="AA7" s="187"/>
-      <c r="AB7" s="187"/>
-      <c r="AC7" s="187"/>
-      <c r="AD7" s="187"/>
-      <c r="AE7" s="187"/>
-      <c r="AF7" s="187"/>
-      <c r="AG7" s="187"/>
-      <c r="AH7" s="187"/>
-      <c r="AI7" s="187"/>
-      <c r="AJ7" s="187"/>
-      <c r="AK7" s="187"/>
-      <c r="AL7" s="187"/>
-      <c r="AM7" s="187"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="180"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="180"/>
+      <c r="AJ7" s="180"/>
+      <c r="AK7" s="180"/>
+      <c r="AL7" s="180"/>
+      <c r="AM7" s="180"/>
       <c r="AN7" s="96">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="187" t="s">
+      <c r="AO7" s="180" t="s">
         <v>166</v>
       </c>
-      <c r="AP7" s="187"/>
-      <c r="AQ7" s="187"/>
-      <c r="AR7" s="187"/>
-      <c r="AS7" s="188">
+      <c r="AP7" s="180"/>
+      <c r="AQ7" s="180"/>
+      <c r="AR7" s="180"/>
+      <c r="AS7" s="184">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="188"/>
+      <c r="AT7" s="184"/>
       <c r="AU7" s="20">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="187" t="s">
+      <c r="AV7" s="180" t="s">
         <v>167</v>
       </c>
-      <c r="AW7" s="187"/>
-      <c r="AX7" s="187"/>
-      <c r="AY7" s="187"/>
-      <c r="AZ7" s="188">
+      <c r="AW7" s="180"/>
+      <c r="AX7" s="180"/>
+      <c r="AY7" s="180"/>
+      <c r="AZ7" s="184">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="188"/>
+      <c r="BA7" s="184"/>
       <c r="BB7" s="21">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="199"/>
-      <c r="BD7" s="200"/>
-      <c r="BE7" s="187" t="s">
+      <c r="BC7" s="188"/>
+      <c r="BD7" s="189"/>
+      <c r="BE7" s="180" t="s">
         <v>339</v>
       </c>
-      <c r="BF7" s="187"/>
-      <c r="BG7" s="187" t="s">
+      <c r="BF7" s="180"/>
+      <c r="BG7" s="180" t="s">
         <v>338</v>
       </c>
-      <c r="BH7" s="187"/>
-      <c r="BI7" s="188">
+      <c r="BH7" s="180"/>
+      <c r="BI7" s="184">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>2</v>
       </c>
-      <c r="BJ7" s="188"/>
+      <c r="BJ7" s="184"/>
       <c r="BK7" s="104">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="187">
+      <c r="BL7" s="180">
         <v>42982</v>
       </c>
-      <c r="BM7" s="187"/>
-      <c r="BN7" s="187">
+      <c r="BM7" s="180"/>
+      <c r="BN7" s="180">
         <v>42982</v>
       </c>
-      <c r="BO7" s="187"/>
-      <c r="BP7" s="187">
+      <c r="BO7" s="180"/>
+      <c r="BP7" s="180">
         <v>42989</v>
       </c>
-      <c r="BQ7" s="187"/>
-      <c r="BR7" s="187">
+      <c r="BQ7" s="180"/>
+      <c r="BR7" s="180">
         <v>42987</v>
       </c>
-      <c r="BS7" s="187"/>
-      <c r="BT7" s="187"/>
-      <c r="BU7" s="187"/>
-      <c r="BV7" s="187"/>
-      <c r="BW7" s="187"/>
-      <c r="BX7" s="187"/>
-      <c r="BY7" s="187"/>
-      <c r="BZ7" s="187"/>
-      <c r="CA7" s="187"/>
-      <c r="CB7" s="187"/>
-      <c r="CC7" s="187"/>
-      <c r="CD7" s="187"/>
-      <c r="CE7" s="187"/>
-      <c r="CF7" s="187"/>
-      <c r="CG7" s="187"/>
-      <c r="CH7" s="187"/>
-      <c r="CI7" s="187"/>
-      <c r="CJ7" s="187"/>
-      <c r="CK7" s="187"/>
-      <c r="CL7" s="187"/>
-      <c r="CM7" s="187"/>
-      <c r="CN7" s="188">
+      <c r="BS7" s="180"/>
+      <c r="BT7" s="180"/>
+      <c r="BU7" s="180"/>
+      <c r="BV7" s="180"/>
+      <c r="BW7" s="180"/>
+      <c r="BX7" s="180"/>
+      <c r="BY7" s="180"/>
+      <c r="BZ7" s="180"/>
+      <c r="CA7" s="180"/>
+      <c r="CB7" s="180"/>
+      <c r="CC7" s="180"/>
+      <c r="CD7" s="180"/>
+      <c r="CE7" s="180"/>
+      <c r="CF7" s="180"/>
+      <c r="CG7" s="180"/>
+      <c r="CH7" s="180"/>
+      <c r="CI7" s="180"/>
+      <c r="CJ7" s="180"/>
+      <c r="CK7" s="180"/>
+      <c r="CL7" s="180"/>
+      <c r="CM7" s="180"/>
+      <c r="CN7" s="184">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
-        <v>3</v>
-      </c>
-      <c r="CO7" s="188"/>
+        <v>5</v>
+      </c>
+      <c r="CO7" s="184"/>
       <c r="CP7" s="105">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="192"/>
-      <c r="CR7" s="192"/>
-      <c r="CS7" s="174"/>
-      <c r="CT7" s="174"/>
-      <c r="CU7" s="197"/>
+      <c r="CQ7" s="198"/>
+      <c r="CR7" s="198"/>
+      <c r="CS7" s="194"/>
+      <c r="CT7" s="194"/>
+      <c r="CU7" s="186"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="176"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="185" t="s">
+      <c r="A8" s="200"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="209" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185" t="s">
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="209" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="186" t="s">
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="186"/>
-      <c r="L8" s="186" t="s">
+      <c r="K8" s="173"/>
+      <c r="L8" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="186"/>
-      <c r="N8" s="186" t="s">
+      <c r="M8" s="173"/>
+      <c r="N8" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186" t="s">
+      <c r="O8" s="173"/>
+      <c r="P8" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="186" t="s">
+      <c r="Q8" s="173"/>
+      <c r="R8" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="186"/>
-      <c r="T8" s="186" t="s">
+      <c r="S8" s="173"/>
+      <c r="T8" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="186"/>
-      <c r="V8" s="186" t="s">
+      <c r="U8" s="173"/>
+      <c r="V8" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="186"/>
-      <c r="X8" s="186" t="s">
+      <c r="W8" s="173"/>
+      <c r="X8" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="186"/>
-      <c r="Z8" s="186" t="s">
+      <c r="Y8" s="173"/>
+      <c r="Z8" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="186"/>
-      <c r="AB8" s="186" t="s">
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="186"/>
-      <c r="AD8" s="186" t="s">
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="186"/>
-      <c r="AF8" s="186" t="s">
+      <c r="AE8" s="173"/>
+      <c r="AF8" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="186"/>
-      <c r="AH8" s="186" t="s">
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="186"/>
-      <c r="AJ8" s="186" t="s">
+      <c r="AI8" s="173"/>
+      <c r="AJ8" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="186"/>
-      <c r="AL8" s="186" t="s">
+      <c r="AK8" s="173"/>
+      <c r="AL8" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="186"/>
+      <c r="AM8" s="173"/>
       <c r="AN8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="186" t="s">
+      <c r="AO8" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="186"/>
-      <c r="AQ8" s="186" t="s">
+      <c r="AP8" s="173"/>
+      <c r="AQ8" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="186"/>
-      <c r="AS8" s="186" t="s">
+      <c r="AR8" s="173"/>
+      <c r="AS8" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="186"/>
+      <c r="AT8" s="173"/>
       <c r="AU8" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="186" t="s">
+      <c r="AV8" s="173" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="186"/>
-      <c r="AX8" s="186" t="s">
+      <c r="AW8" s="173"/>
+      <c r="AX8" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="186"/>
-      <c r="AZ8" s="186" t="s">
+      <c r="AY8" s="173"/>
+      <c r="AZ8" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="186"/>
+      <c r="BA8" s="173"/>
       <c r="BB8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="199"/>
-      <c r="BD8" s="200"/>
-      <c r="BE8" s="208" t="s">
+      <c r="BC8" s="188"/>
+      <c r="BD8" s="189"/>
+      <c r="BE8" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="205"/>
-      <c r="BG8" s="205" t="s">
+      <c r="BF8" s="182"/>
+      <c r="BG8" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="205"/>
-      <c r="BI8" s="205" t="s">
+      <c r="BH8" s="182"/>
+      <c r="BI8" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="205"/>
+      <c r="BJ8" s="182"/>
       <c r="BK8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="206" t="s">
+      <c r="BL8" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="207"/>
-      <c r="BN8" s="206" t="s">
+      <c r="BM8" s="177"/>
+      <c r="BN8" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="207"/>
-      <c r="BP8" s="206" t="s">
+      <c r="BO8" s="177"/>
+      <c r="BP8" s="176" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="207"/>
-      <c r="BR8" s="206" t="s">
+      <c r="BQ8" s="177"/>
+      <c r="BR8" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="207"/>
-      <c r="BT8" s="206" t="s">
+      <c r="BS8" s="177"/>
+      <c r="BT8" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="207"/>
-      <c r="BV8" s="193" t="s">
+      <c r="BU8" s="177"/>
+      <c r="BV8" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="194"/>
-      <c r="BX8" s="193" t="s">
+      <c r="BW8" s="175"/>
+      <c r="BX8" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="194"/>
-      <c r="BZ8" s="193" t="s">
+      <c r="BY8" s="175"/>
+      <c r="BZ8" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="194"/>
-      <c r="CB8" s="193" t="s">
+      <c r="CA8" s="175"/>
+      <c r="CB8" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="194"/>
-      <c r="CD8" s="193" t="s">
+      <c r="CC8" s="175"/>
+      <c r="CD8" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="194"/>
-      <c r="CF8" s="193" t="s">
+      <c r="CE8" s="175"/>
+      <c r="CF8" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="194"/>
-      <c r="CH8" s="193" t="s">
+      <c r="CG8" s="175"/>
+      <c r="CH8" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="194"/>
-      <c r="CJ8" s="193" t="s">
+      <c r="CI8" s="175"/>
+      <c r="CJ8" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="194"/>
-      <c r="CL8" s="193" t="s">
+      <c r="CK8" s="175"/>
+      <c r="CL8" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="194"/>
-      <c r="CN8" s="193" t="s">
+      <c r="CM8" s="175"/>
+      <c r="CN8" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="194"/>
+      <c r="CO8" s="175"/>
       <c r="CP8" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="192"/>
-      <c r="CR8" s="192"/>
-      <c r="CS8" s="174"/>
-      <c r="CT8" s="174"/>
-      <c r="CU8" s="197"/>
+      <c r="CQ8" s="198"/>
+      <c r="CR8" s="198"/>
+      <c r="CS8" s="194"/>
+      <c r="CT8" s="194"/>
+      <c r="CU8" s="186"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="177"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
+      <c r="A9" s="201"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="202"/>
       <c r="D9" s="26">
         <v>70</v>
       </c>
@@ -9640,11 +9637,15 @@
       <c r="BQ9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BR9" s="26"/>
+      <c r="BR9" s="26">
+        <v>100</v>
+      </c>
       <c r="BS9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BT9" s="26"/>
+      <c r="BT9" s="26">
+        <v>100</v>
+      </c>
       <c r="BU9" s="29" t="s">
         <v>87</v>
       </c>
@@ -9697,9 +9698,9 @@
       <c r="CR9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="174"/>
-      <c r="CT9" s="174"/>
-      <c r="CU9" s="198"/>
+      <c r="CS9" s="194"/>
+      <c r="CT9" s="194"/>
+      <c r="CU9" s="187"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="41">
@@ -9877,14 +9878,14 @@
         <v>100</v>
       </c>
       <c r="BR10" s="106"/>
-      <c r="BS10" s="91" t="str">
+      <c r="BS10" s="91">
         <f>IFERROR(((BR10/$BR$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT10" s="106"/>
-      <c r="BU10" s="91" t="str">
+      <c r="BU10" s="91">
         <f>IFERROR(((BT10/$BT$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV10" s="106"/>
       <c r="BW10" s="91" t="str">
@@ -9938,19 +9939,19 @@
       </c>
       <c r="CP10" s="102">
         <f>IFERROR(((SUM(BM10,BO10,BQ10,BS10,BU10,BW10,BY10,CA10,CC10,CE10,CG10,CI10,CK10,CM10,CO10)/$CN$7)*$CP$7),"")</f>
-        <v>48.333333333333336</v>
+        <v>29</v>
       </c>
       <c r="CQ10" s="98">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
-        <v>48.333333333333336</v>
+        <v>29</v>
       </c>
       <c r="CR10" s="98">
         <f>IFERROR(ROUND(CQ10,2),"")</f>
-        <v>48.33</v>
+        <v>29</v>
       </c>
       <c r="CS10" s="103">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>41.597999999999999</v>
+        <v>30</v>
       </c>
       <c r="CT10" s="103">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10137,14 +10138,14 @@
         <v>80</v>
       </c>
       <c r="BR11" s="107"/>
-      <c r="BS11" s="91" t="str">
+      <c r="BS11" s="91">
         <f t="shared" ref="BS11:BS70" si="26">IFERROR(((BR11/$BR$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT11" s="107"/>
-      <c r="BU11" s="91" t="str">
+      <c r="BU11" s="91">
         <f t="shared" ref="BU11:BU70" si="27">IFERROR(((BT11/$BT$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV11" s="106"/>
       <c r="BW11" s="91" t="str">
@@ -10198,19 +10199,19 @@
       </c>
       <c r="CP11" s="102">
         <f t="shared" ref="CP11:CP70" si="38">IFERROR(((SUM(BM11,BO11,BQ11,BS11,BU11,BW11,BY11,CA11,CC11,CE11,CG11,CI11,CK11,CM11,CO11)/$CN$7)*$CP$7),"")</f>
-        <v>46.666666666666664</v>
+        <v>28</v>
       </c>
       <c r="CQ11" s="98">
         <f t="shared" ref="CQ11:CQ70" si="39">IFERROR(SUM(CP11,BK11),"")</f>
-        <v>46.666666666666664</v>
+        <v>28</v>
       </c>
       <c r="CR11" s="98">
         <f t="shared" ref="CR11:CR70" si="40">IFERROR(ROUND(CQ11,2),"")</f>
-        <v>46.67</v>
+        <v>28</v>
       </c>
       <c r="CS11" s="103">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>40.686</v>
+        <v>29.484000000000002</v>
       </c>
       <c r="CT11" s="103">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10397,14 +10398,14 @@
         <v>75</v>
       </c>
       <c r="BR12" s="107"/>
-      <c r="BS12" s="91" t="str">
+      <c r="BS12" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT12" s="107"/>
-      <c r="BU12" s="91" t="str">
+      <c r="BU12" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV12" s="106"/>
       <c r="BW12" s="91" t="str">
@@ -10458,19 +10459,19 @@
       </c>
       <c r="CP12" s="102">
         <f t="shared" si="38"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CQ12" s="98">
         <f t="shared" si="39"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CR12" s="98">
         <f t="shared" si="40"/>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="CS12" s="103">
         <f t="shared" si="41"/>
-        <v>42.414000000000001</v>
+        <v>31.416</v>
       </c>
       <c r="CT12" s="103">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10657,14 +10658,14 @@
         <v>100</v>
       </c>
       <c r="BR13" s="107"/>
-      <c r="BS13" s="91" t="str">
+      <c r="BS13" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT13" s="107"/>
-      <c r="BU13" s="91" t="str">
+      <c r="BU13" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV13" s="106"/>
       <c r="BW13" s="91" t="str">
@@ -10718,19 +10719,19 @@
       </c>
       <c r="CP13" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ13" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR13" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS13" s="103">
         <f t="shared" si="41"/>
-        <v>41.484000000000002</v>
+        <v>29.484000000000002</v>
       </c>
       <c r="CT13" s="103">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10917,14 +10918,16 @@
         <v>100</v>
       </c>
       <c r="BR14" s="107"/>
-      <c r="BS14" s="91" t="str">
+      <c r="BS14" s="91">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="BT14" s="107"/>
-      <c r="BU14" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="BT14" s="107">
+        <v>90</v>
+      </c>
+      <c r="BU14" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>90</v>
       </c>
       <c r="BV14" s="106"/>
       <c r="BW14" s="91" t="str">
@@ -10978,19 +10981,19 @@
       </c>
       <c r="CP14" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="CQ14" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="CR14" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="CS14" s="103">
         <f t="shared" si="41"/>
-        <v>47.316000000000003</v>
+        <v>40.715999999999994</v>
       </c>
       <c r="CT14" s="103">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11177,14 +11180,14 @@
         <v>100</v>
       </c>
       <c r="BR15" s="107"/>
-      <c r="BS15" s="91" t="str">
+      <c r="BS15" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT15" s="107"/>
-      <c r="BU15" s="91" t="str">
+      <c r="BU15" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV15" s="106"/>
       <c r="BW15" s="91" t="str">
@@ -11238,19 +11241,19 @@
       </c>
       <c r="CP15" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ15" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR15" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS15" s="103">
         <f t="shared" si="41"/>
-        <v>46.484000000000002</v>
+        <v>34.484000000000002</v>
       </c>
       <c r="CT15" s="103">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11295,11 +11298,11 @@
         <v>0</v>
       </c>
       <c r="J16" s="107">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K16" s="91">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L16" s="107">
         <v>18</v>
@@ -11348,7 +11351,7 @@
       <c r="AM16" s="93"/>
       <c r="AN16" s="94">
         <f t="shared" si="9"/>
-        <v>5.1428571428571423</v>
+        <v>12.642857142857142</v>
       </c>
       <c r="AO16" s="107"/>
       <c r="AP16" s="91">
@@ -11390,11 +11393,11 @@
       </c>
       <c r="BC16" s="97">
         <f t="shared" si="18"/>
-        <v>18</v>
+        <v>25.5</v>
       </c>
       <c r="BD16" s="97">
         <f t="shared" si="19"/>
-        <v>18</v>
+        <v>25.5</v>
       </c>
       <c r="BE16" s="107"/>
       <c r="BF16" s="91">
@@ -11415,30 +11418,40 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="BL16" s="107"/>
+      <c r="BL16" s="107">
+        <v>100</v>
+      </c>
       <c r="BM16" s="91">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN16" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BN16" s="107">
+        <v>60</v>
+      </c>
       <c r="BO16" s="91">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP16" s="107"/>
+        <v>60</v>
+      </c>
+      <c r="BP16" s="107">
+        <v>60</v>
+      </c>
       <c r="BQ16" s="91">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR16" s="107"/>
-      <c r="BS16" s="91" t="str">
+        <v>60</v>
+      </c>
+      <c r="BR16" s="107">
+        <v>60</v>
+      </c>
+      <c r="BS16" s="91">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="BT16" s="107"/>
-      <c r="BU16" s="91" t="str">
+        <v>60</v>
+      </c>
+      <c r="BT16" s="107">
+        <v>60</v>
+      </c>
+      <c r="BU16" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="BV16" s="106"/>
       <c r="BW16" s="91" t="str">
@@ -11492,19 +11505,19 @@
       </c>
       <c r="CP16" s="102">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="CQ16" s="98">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="CR16" s="98">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="CS16" s="103">
         <f t="shared" si="41"/>
-        <v>7.2</v>
+        <v>30.6</v>
       </c>
       <c r="CT16" s="103">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11691,14 +11704,14 @@
         <v>75</v>
       </c>
       <c r="BR17" s="107"/>
-      <c r="BS17" s="91" t="str">
+      <c r="BS17" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT17" s="107"/>
-      <c r="BU17" s="91" t="str">
+      <c r="BU17" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV17" s="106"/>
       <c r="BW17" s="91" t="str">
@@ -11752,19 +11765,19 @@
       </c>
       <c r="CP17" s="102">
         <f t="shared" si="38"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CQ17" s="98">
         <f t="shared" si="39"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CR17" s="98">
         <f t="shared" si="40"/>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="CS17" s="103">
         <f t="shared" si="41"/>
-        <v>42.07</v>
+        <v>31.072000000000003</v>
       </c>
       <c r="CT17" s="103">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11951,14 +11964,14 @@
         <v>100</v>
       </c>
       <c r="BR18" s="107"/>
-      <c r="BS18" s="91" t="str">
+      <c r="BS18" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT18" s="107"/>
-      <c r="BU18" s="91" t="str">
+      <c r="BU18" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV18" s="106"/>
       <c r="BW18" s="91" t="str">
@@ -12012,19 +12025,19 @@
       </c>
       <c r="CP18" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ18" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR18" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS18" s="103">
         <f t="shared" si="41"/>
-        <v>43.515999999999998</v>
+        <v>31.515999999999998</v>
       </c>
       <c r="CT18" s="103">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12211,14 +12224,14 @@
         <v>70</v>
       </c>
       <c r="BR19" s="107"/>
-      <c r="BS19" s="91" t="str">
+      <c r="BS19" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT19" s="107"/>
-      <c r="BU19" s="91" t="str">
+      <c r="BU19" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV19" s="106"/>
       <c r="BW19" s="91" t="str">
@@ -12272,19 +12285,19 @@
       </c>
       <c r="CP19" s="102">
         <f t="shared" si="38"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CQ19" s="98">
         <f t="shared" si="39"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CR19" s="98">
         <f t="shared" si="40"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CS19" s="103">
         <f t="shared" si="41"/>
-        <v>42.372</v>
+        <v>31.571999999999999</v>
       </c>
       <c r="CT19" s="103">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12308,7 +12321,9 @@
         <f>CONCATENATE(REGISTRATION!C21," ",REGISTRATION!D21," ",REGISTRATION!E21)</f>
         <v>Caday Jonathan Benedict T.</v>
       </c>
-      <c r="D20" s="107"/>
+      <c r="D20" s="107">
+        <v>0</v>
+      </c>
       <c r="E20" s="91">
         <f t="shared" si="43"/>
         <v>0</v>
@@ -12447,30 +12462,36 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="BL20" s="107"/>
+      <c r="BL20" s="107">
+        <v>0</v>
+      </c>
       <c r="BM20" s="91">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="BN20" s="107"/>
+      <c r="BN20" s="107">
+        <v>0</v>
+      </c>
       <c r="BO20" s="91">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BP20" s="107"/>
+      <c r="BP20" s="107">
+        <v>0</v>
+      </c>
       <c r="BQ20" s="91">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BR20" s="107"/>
-      <c r="BS20" s="91" t="str">
+      <c r="BS20" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT20" s="107"/>
-      <c r="BU20" s="91" t="str">
+      <c r="BU20" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV20" s="106"/>
       <c r="BW20" s="91" t="str">
@@ -12723,14 +12744,14 @@
         <v>100</v>
       </c>
       <c r="BR21" s="107"/>
-      <c r="BS21" s="91" t="str">
+      <c r="BS21" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT21" s="107"/>
-      <c r="BU21" s="91" t="str">
+      <c r="BU21" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV21" s="106"/>
       <c r="BW21" s="91" t="str">
@@ -12784,19 +12805,19 @@
       </c>
       <c r="CP21" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ21" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR21" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS21" s="103">
         <f t="shared" si="41"/>
-        <v>46.284000000000006</v>
+        <v>34.284000000000006</v>
       </c>
       <c r="CT21" s="103">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12983,14 +13004,14 @@
         <v>100</v>
       </c>
       <c r="BR22" s="107"/>
-      <c r="BS22" s="91" t="str">
+      <c r="BS22" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT22" s="107"/>
-      <c r="BU22" s="91" t="str">
+      <c r="BU22" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV22" s="106"/>
       <c r="BW22" s="91" t="str">
@@ -13044,19 +13065,19 @@
       </c>
       <c r="CP22" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ22" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR22" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS22" s="103">
         <f t="shared" si="41"/>
-        <v>44.116</v>
+        <v>32.116</v>
       </c>
       <c r="CT22" s="103">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13243,14 +13264,14 @@
         <v>100</v>
       </c>
       <c r="BR23" s="107"/>
-      <c r="BS23" s="91" t="str">
+      <c r="BS23" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT23" s="107"/>
-      <c r="BU23" s="91" t="str">
+      <c r="BU23" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV23" s="106"/>
       <c r="BW23" s="91" t="str">
@@ -13304,19 +13325,19 @@
       </c>
       <c r="CP23" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ23" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR23" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS23" s="103">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>44.628</v>
+        <v>32.628</v>
       </c>
       <c r="CT23" s="103">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13340,7 +13361,9 @@
         <f>CONCATENATE(REGISTRATION!C25," ",REGISTRATION!D25," ",REGISTRATION!E25)</f>
         <v>Casas Raymart D.</v>
       </c>
-      <c r="D24" s="107"/>
+      <c r="D24" s="107">
+        <v>0</v>
+      </c>
       <c r="E24" s="91">
         <f t="shared" si="43"/>
         <v>0</v>
@@ -13479,30 +13502,36 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="BL24" s="107"/>
+      <c r="BL24" s="107">
+        <v>0</v>
+      </c>
       <c r="BM24" s="91">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="BN24" s="107"/>
+      <c r="BN24" s="107">
+        <v>0</v>
+      </c>
       <c r="BO24" s="91">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BP24" s="107"/>
+      <c r="BP24" s="107">
+        <v>0</v>
+      </c>
       <c r="BQ24" s="91">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BR24" s="107"/>
-      <c r="BS24" s="91" t="str">
+      <c r="BS24" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT24" s="107"/>
-      <c r="BU24" s="91" t="str">
+      <c r="BU24" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV24" s="106"/>
       <c r="BW24" s="91" t="str">
@@ -13755,14 +13784,14 @@
         <v>80</v>
       </c>
       <c r="BR25" s="107"/>
-      <c r="BS25" s="91" t="str">
+      <c r="BS25" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT25" s="107"/>
-      <c r="BU25" s="91" t="str">
+      <c r="BU25" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV25" s="106"/>
       <c r="BW25" s="91" t="str">
@@ -13816,19 +13845,19 @@
       </c>
       <c r="CP25" s="102">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>28</v>
       </c>
       <c r="CQ25" s="98">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>28</v>
       </c>
       <c r="CR25" s="98">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>28</v>
       </c>
       <c r="CS25" s="103">
         <f t="shared" si="45"/>
-        <v>42.457999999999998</v>
+        <v>31.256</v>
       </c>
       <c r="CT25" s="103">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14015,14 +14044,14 @@
         <v>70</v>
       </c>
       <c r="BR26" s="107"/>
-      <c r="BS26" s="91" t="str">
+      <c r="BS26" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT26" s="107"/>
-      <c r="BU26" s="91" t="str">
+      <c r="BU26" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV26" s="106"/>
       <c r="BW26" s="91" t="str">
@@ -14076,19 +14105,19 @@
       </c>
       <c r="CP26" s="102">
         <f t="shared" si="38"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CQ26" s="98">
         <f t="shared" si="39"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CR26" s="98">
         <f t="shared" si="40"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CS26" s="103">
         <f t="shared" si="45"/>
-        <v>38.543999999999997</v>
+        <v>27.744</v>
       </c>
       <c r="CT26" s="103">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14275,14 +14304,14 @@
         <v>100</v>
       </c>
       <c r="BR27" s="107"/>
-      <c r="BS27" s="91" t="str">
+      <c r="BS27" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT27" s="107"/>
-      <c r="BU27" s="91" t="str">
+      <c r="BU27" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV27" s="106"/>
       <c r="BW27" s="91" t="str">
@@ -14336,19 +14365,19 @@
       </c>
       <c r="CP27" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ27" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR27" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS27" s="103">
         <f t="shared" si="45"/>
-        <v>44.683999999999997</v>
+        <v>32.683999999999997</v>
       </c>
       <c r="CT27" s="103">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14535,14 +14564,14 @@
         <v>75</v>
       </c>
       <c r="BR28" s="107"/>
-      <c r="BS28" s="91" t="str">
+      <c r="BS28" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT28" s="107"/>
-      <c r="BU28" s="91" t="str">
+      <c r="BU28" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV28" s="106"/>
       <c r="BW28" s="91" t="str">
@@ -14596,19 +14625,19 @@
       </c>
       <c r="CP28" s="102">
         <f t="shared" si="38"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CQ28" s="98">
         <f t="shared" si="39"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CR28" s="98">
         <f t="shared" si="40"/>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="CS28" s="103">
         <f t="shared" si="45"/>
-        <v>40.926000000000002</v>
+        <v>29.928000000000001</v>
       </c>
       <c r="CT28" s="103">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14795,14 +14824,14 @@
         <v>75</v>
       </c>
       <c r="BR29" s="107"/>
-      <c r="BS29" s="91" t="str">
+      <c r="BS29" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT29" s="107"/>
-      <c r="BU29" s="91" t="str">
+      <c r="BU29" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV29" s="106"/>
       <c r="BW29" s="91" t="str">
@@ -14856,19 +14885,19 @@
       </c>
       <c r="CP29" s="102">
         <f t="shared" si="38"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CQ29" s="98">
         <f t="shared" si="39"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CR29" s="98">
         <f t="shared" si="40"/>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="CS29" s="103">
         <f t="shared" si="45"/>
-        <v>43.613999999999997</v>
+        <v>32.616</v>
       </c>
       <c r="CT29" s="103">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15055,14 +15084,14 @@
         <v>100</v>
       </c>
       <c r="BR30" s="107"/>
-      <c r="BS30" s="91" t="str">
+      <c r="BS30" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT30" s="107"/>
-      <c r="BU30" s="91" t="str">
+      <c r="BU30" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV30" s="106"/>
       <c r="BW30" s="91" t="str">
@@ -15116,19 +15145,19 @@
       </c>
       <c r="CP30" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ30" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR30" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS30" s="103">
         <f t="shared" si="45"/>
-        <v>38.055999999999997</v>
+        <v>26.056000000000001</v>
       </c>
       <c r="CT30" s="103">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15315,14 +15344,14 @@
         <v>100</v>
       </c>
       <c r="BR31" s="107"/>
-      <c r="BS31" s="91" t="str">
+      <c r="BS31" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT31" s="107"/>
-      <c r="BU31" s="91" t="str">
+      <c r="BU31" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV31" s="106"/>
       <c r="BW31" s="91" t="str">
@@ -15376,19 +15405,19 @@
       </c>
       <c r="CP31" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ31" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR31" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS31" s="103">
         <f t="shared" si="45"/>
-        <v>43.655999999999999</v>
+        <v>31.655999999999999</v>
       </c>
       <c r="CT31" s="103">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15412,7 +15441,9 @@
         <f>CONCATENATE(REGISTRATION!C33," ",REGISTRATION!D33," ",REGISTRATION!E33)</f>
         <v xml:space="preserve">Erese Justin Aaron M. </v>
       </c>
-      <c r="D32" s="125"/>
+      <c r="D32" s="124">
+        <v>0</v>
+      </c>
       <c r="E32" s="91">
         <f t="shared" si="43"/>
         <v>0</v>
@@ -15551,30 +15582,36 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="BL32" s="107"/>
+      <c r="BL32" s="107">
+        <v>0</v>
+      </c>
       <c r="BM32" s="91">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="BN32" s="107"/>
+      <c r="BN32" s="107">
+        <v>0</v>
+      </c>
       <c r="BO32" s="91">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BP32" s="107"/>
+      <c r="BP32" s="107">
+        <v>0</v>
+      </c>
       <c r="BQ32" s="91">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BR32" s="107"/>
-      <c r="BS32" s="91" t="str">
+      <c r="BS32" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT32" s="107"/>
-      <c r="BU32" s="91" t="str">
+      <c r="BU32" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV32" s="106"/>
       <c r="BW32" s="91" t="str">
@@ -15827,14 +15864,14 @@
         <v>80</v>
       </c>
       <c r="BR33" s="107"/>
-      <c r="BS33" s="91" t="str">
+      <c r="BS33" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT33" s="107"/>
-      <c r="BU33" s="91" t="str">
+      <c r="BU33" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV33" s="106"/>
       <c r="BW33" s="91" t="str">
@@ -15888,19 +15925,19 @@
       </c>
       <c r="CP33" s="102">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>28</v>
       </c>
       <c r="CQ33" s="98">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>28</v>
       </c>
       <c r="CR33" s="98">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>28</v>
       </c>
       <c r="CS33" s="103">
         <f t="shared" si="45"/>
-        <v>42.802</v>
+        <v>31.6</v>
       </c>
       <c r="CT33" s="103">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -16087,14 +16124,16 @@
         <v>100</v>
       </c>
       <c r="BR34" s="107"/>
-      <c r="BS34" s="91" t="str">
+      <c r="BS34" s="91">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="BT34" s="107"/>
-      <c r="BU34" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="BT34" s="107">
+        <v>90</v>
+      </c>
+      <c r="BU34" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>90</v>
       </c>
       <c r="BV34" s="106"/>
       <c r="BW34" s="91" t="str">
@@ -16148,19 +16187,19 @@
       </c>
       <c r="CP34" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="CQ34" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="CR34" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="CS34" s="103">
         <f t="shared" si="45"/>
-        <v>40.915999999999997</v>
+        <v>34.316000000000003</v>
       </c>
       <c r="CT34" s="103">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -16347,14 +16386,14 @@
         <v>100</v>
       </c>
       <c r="BR35" s="107"/>
-      <c r="BS35" s="91" t="str">
+      <c r="BS35" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT35" s="107"/>
-      <c r="BU35" s="91" t="str">
+      <c r="BU35" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV35" s="106"/>
       <c r="BW35" s="91" t="str">
@@ -16408,19 +16447,19 @@
       </c>
       <c r="CP35" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ35" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR35" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS35" s="103">
         <f t="shared" si="45"/>
-        <v>42.283999999999999</v>
+        <v>30.283999999999999</v>
       </c>
       <c r="CT35" s="103">
         <f>IFERROR(VLOOKUP(CS35,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -16444,7 +16483,9 @@
         <f>CONCATENATE(REGISTRATION!C37," ",REGISTRATION!D37," ",REGISTRATION!E37)</f>
         <v>Gervacio Glen Dale L.</v>
       </c>
-      <c r="D36" s="125"/>
+      <c r="D36" s="124">
+        <v>0</v>
+      </c>
       <c r="E36" s="91">
         <f t="shared" si="43"/>
         <v>0</v>
@@ -16583,30 +16624,36 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="BL36" s="107"/>
+      <c r="BL36" s="107">
+        <v>0</v>
+      </c>
       <c r="BM36" s="91">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="BN36" s="107"/>
+      <c r="BN36" s="107">
+        <v>0</v>
+      </c>
       <c r="BO36" s="91">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BP36" s="107"/>
+      <c r="BP36" s="107">
+        <v>0</v>
+      </c>
       <c r="BQ36" s="91">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BR36" s="107"/>
-      <c r="BS36" s="91" t="str">
+      <c r="BS36" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT36" s="107"/>
-      <c r="BU36" s="91" t="str">
+      <c r="BU36" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV36" s="106"/>
       <c r="BW36" s="91" t="str">
@@ -16859,14 +16906,14 @@
         <v>100</v>
       </c>
       <c r="BR37" s="107"/>
-      <c r="BS37" s="91" t="str">
+      <c r="BS37" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT37" s="107"/>
-      <c r="BU37" s="91" t="str">
+      <c r="BU37" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV37" s="106"/>
       <c r="BW37" s="91" t="str">
@@ -16920,19 +16967,19 @@
       </c>
       <c r="CP37" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ37" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR37" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS37" s="103">
         <f t="shared" si="45"/>
-        <v>46.055999999999997</v>
+        <v>34.055999999999997</v>
       </c>
       <c r="CT37" s="103">
         <f>IFERROR(VLOOKUP(CS37,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -17119,14 +17166,14 @@
         <v>100</v>
       </c>
       <c r="BR38" s="107"/>
-      <c r="BS38" s="91" t="str">
+      <c r="BS38" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT38" s="107"/>
-      <c r="BU38" s="91" t="str">
+      <c r="BU38" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV38" s="106"/>
       <c r="BW38" s="91" t="str">
@@ -17180,19 +17227,19 @@
       </c>
       <c r="CP38" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ38" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR38" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS38" s="103">
         <f t="shared" si="45"/>
-        <v>41.027999999999999</v>
+        <v>29.027999999999999</v>
       </c>
       <c r="CT38" s="103">
         <f>IFERROR(VLOOKUP(CS38,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -17379,14 +17426,14 @@
         <v>95</v>
       </c>
       <c r="BR39" s="107"/>
-      <c r="BS39" s="91" t="str">
+      <c r="BS39" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT39" s="107"/>
-      <c r="BU39" s="91" t="str">
+      <c r="BU39" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV39" s="106"/>
       <c r="BW39" s="91" t="str">
@@ -17440,19 +17487,19 @@
       </c>
       <c r="CP39" s="102">
         <f t="shared" si="38"/>
-        <v>49.166666666666664</v>
+        <v>29.5</v>
       </c>
       <c r="CQ39" s="98">
         <f t="shared" si="39"/>
-        <v>49.166666666666664</v>
+        <v>29.5</v>
       </c>
       <c r="CR39" s="98">
         <f t="shared" si="40"/>
-        <v>49.17</v>
+        <v>29.5</v>
       </c>
       <c r="CS39" s="103">
         <f t="shared" si="45"/>
-        <v>37.729999999999997</v>
+        <v>25.927999999999997</v>
       </c>
       <c r="CT39" s="103">
         <f>IFERROR(VLOOKUP(CS39,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -17639,14 +17686,14 @@
         <v>100</v>
       </c>
       <c r="BR40" s="107"/>
-      <c r="BS40" s="91" t="str">
+      <c r="BS40" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT40" s="107"/>
-      <c r="BU40" s="91" t="str">
+      <c r="BU40" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV40" s="106"/>
       <c r="BW40" s="91" t="str">
@@ -17700,19 +17747,19 @@
       </c>
       <c r="CP40" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ40" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR40" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS40" s="103">
         <f t="shared" si="45"/>
-        <v>44.6</v>
+        <v>32.6</v>
       </c>
       <c r="CT40" s="103">
         <f>IFERROR(VLOOKUP(CS40,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -17899,14 +17946,14 @@
         <v>100</v>
       </c>
       <c r="BR41" s="107"/>
-      <c r="BS41" s="91" t="str">
+      <c r="BS41" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT41" s="107"/>
-      <c r="BU41" s="91" t="str">
+      <c r="BU41" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV41" s="106"/>
       <c r="BW41" s="91" t="str">
@@ -17960,19 +18007,19 @@
       </c>
       <c r="CP41" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ41" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR41" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS41" s="103">
         <f t="shared" si="45"/>
-        <v>45.515999999999998</v>
+        <v>33.515999999999998</v>
       </c>
       <c r="CT41" s="103">
         <f>IFERROR(VLOOKUP(CS41,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -18159,14 +18206,14 @@
         <v>100</v>
       </c>
       <c r="BR42" s="107"/>
-      <c r="BS42" s="91" t="str">
+      <c r="BS42" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT42" s="107"/>
-      <c r="BU42" s="91" t="str">
+      <c r="BU42" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV42" s="106"/>
       <c r="BW42" s="91" t="str">
@@ -18220,19 +18267,19 @@
       </c>
       <c r="CP42" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ42" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR42" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS42" s="103">
         <f t="shared" si="45"/>
-        <v>40.856000000000002</v>
+        <v>28.856000000000002</v>
       </c>
       <c r="CT42" s="103">
         <f>IFERROR(VLOOKUP(CS42,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -18419,14 +18466,14 @@
         <v>75</v>
       </c>
       <c r="BR43" s="107"/>
-      <c r="BS43" s="91" t="str">
+      <c r="BS43" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT43" s="107"/>
-      <c r="BU43" s="91" t="str">
+      <c r="BU43" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV43" s="106"/>
       <c r="BW43" s="91" t="str">
@@ -18480,19 +18527,19 @@
       </c>
       <c r="CP43" s="102">
         <f t="shared" si="38"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CQ43" s="98">
         <f t="shared" si="39"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CR43" s="98">
         <f t="shared" si="40"/>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="CS43" s="103">
         <f t="shared" si="45"/>
-        <v>39.381999999999998</v>
+        <v>28.384</v>
       </c>
       <c r="CT43" s="103">
         <f>IFERROR(VLOOKUP(CS43,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -18679,14 +18726,14 @@
         <v>75</v>
       </c>
       <c r="BR44" s="107"/>
-      <c r="BS44" s="91" t="str">
+      <c r="BS44" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT44" s="107"/>
-      <c r="BU44" s="91" t="str">
+      <c r="BU44" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV44" s="106"/>
       <c r="BW44" s="91" t="str">
@@ -18740,19 +18787,19 @@
       </c>
       <c r="CP44" s="102">
         <f t="shared" si="38"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CQ44" s="98">
         <f t="shared" si="39"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CR44" s="98">
         <f t="shared" si="40"/>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="CS44" s="103">
         <f t="shared" si="45"/>
-        <v>42.414000000000001</v>
+        <v>31.416</v>
       </c>
       <c r="CT44" s="103">
         <f>IFERROR(VLOOKUP(CS44,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -18939,14 +18986,14 @@
         <v>70</v>
       </c>
       <c r="BR45" s="107"/>
-      <c r="BS45" s="91" t="str">
+      <c r="BS45" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT45" s="107"/>
-      <c r="BU45" s="91" t="str">
+      <c r="BU45" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV45" s="106"/>
       <c r="BW45" s="91" t="str">
@@ -19000,19 +19047,19 @@
       </c>
       <c r="CP45" s="102">
         <f t="shared" si="38"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CQ45" s="98">
         <f t="shared" si="39"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CR45" s="98">
         <f t="shared" si="40"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CS45" s="103">
         <f t="shared" si="45"/>
-        <v>40.799999999999997</v>
+        <v>30</v>
       </c>
       <c r="CT45" s="103">
         <f>IFERROR(VLOOKUP(CS45,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19199,14 +19246,14 @@
         <v>100</v>
       </c>
       <c r="BR46" s="107"/>
-      <c r="BS46" s="91" t="str">
+      <c r="BS46" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT46" s="107"/>
-      <c r="BU46" s="91" t="str">
+      <c r="BU46" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV46" s="106"/>
       <c r="BW46" s="91" t="str">
@@ -19260,19 +19307,19 @@
       </c>
       <c r="CP46" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ46" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR46" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS46" s="103">
         <f t="shared" si="45"/>
-        <v>38.055999999999997</v>
+        <v>26.056000000000001</v>
       </c>
       <c r="CT46" s="103">
         <f>IFERROR(VLOOKUP(CS46,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19459,14 +19506,14 @@
         <v>100</v>
       </c>
       <c r="BR47" s="107"/>
-      <c r="BS47" s="91" t="str">
+      <c r="BS47" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT47" s="107"/>
-      <c r="BU47" s="91" t="str">
+      <c r="BU47" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV47" s="106"/>
       <c r="BW47" s="91" t="str">
@@ -19520,19 +19567,19 @@
       </c>
       <c r="CP47" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ47" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR47" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS47" s="103">
         <f t="shared" si="45"/>
-        <v>42.683999999999997</v>
+        <v>30.684000000000001</v>
       </c>
       <c r="CT47" s="103">
         <f>IFERROR(VLOOKUP(CS47,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19719,14 +19766,14 @@
         <v>75</v>
       </c>
       <c r="BR48" s="107"/>
-      <c r="BS48" s="91" t="str">
+      <c r="BS48" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT48" s="107"/>
-      <c r="BU48" s="91" t="str">
+      <c r="BU48" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV48" s="106"/>
       <c r="BW48" s="91" t="str">
@@ -19780,19 +19827,19 @@
       </c>
       <c r="CP48" s="102">
         <f t="shared" si="38"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CQ48" s="98">
         <f t="shared" si="39"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CR48" s="98">
         <f t="shared" si="40"/>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="CS48" s="103">
         <f t="shared" si="45"/>
-        <v>42.213999999999999</v>
+        <v>31.216000000000001</v>
       </c>
       <c r="CT48" s="103">
         <f>IFERROR(VLOOKUP(CS48,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19979,14 +20026,14 @@
         <v>100</v>
       </c>
       <c r="BR49" s="107"/>
-      <c r="BS49" s="91" t="str">
+      <c r="BS49" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT49" s="107"/>
-      <c r="BU49" s="91" t="str">
+      <c r="BU49" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV49" s="106"/>
       <c r="BW49" s="91" t="str">
@@ -20040,19 +20087,19 @@
       </c>
       <c r="CP49" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ49" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR49" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS49" s="103">
         <f t="shared" si="45"/>
-        <v>41.543999999999997</v>
+        <v>29.544</v>
       </c>
       <c r="CT49" s="103">
         <f>IFERROR(VLOOKUP(CS49,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -20239,14 +20286,14 @@
         <v>100</v>
       </c>
       <c r="BR50" s="107"/>
-      <c r="BS50" s="91" t="str">
+      <c r="BS50" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT50" s="107"/>
-      <c r="BU50" s="91" t="str">
+      <c r="BU50" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV50" s="106"/>
       <c r="BW50" s="91" t="str">
@@ -20300,19 +20347,19 @@
       </c>
       <c r="CP50" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ50" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR50" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS50" s="103">
         <f t="shared" si="45"/>
-        <v>46.400000000000006</v>
+        <v>34.400000000000006</v>
       </c>
       <c r="CT50" s="103">
         <f>IFERROR(VLOOKUP(CS50,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -20499,14 +20546,14 @@
         <v>100</v>
       </c>
       <c r="BR51" s="107"/>
-      <c r="BS51" s="91" t="str">
+      <c r="BS51" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT51" s="107"/>
-      <c r="BU51" s="91" t="str">
+      <c r="BU51" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV51" s="106"/>
       <c r="BW51" s="91" t="str">
@@ -20560,19 +20607,19 @@
       </c>
       <c r="CP51" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ51" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR51" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS51" s="103">
         <f t="shared" si="45"/>
-        <v>45.683999999999997</v>
+        <v>33.683999999999997</v>
       </c>
       <c r="CT51" s="103">
         <f>IFERROR(VLOOKUP(CS51,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -20759,14 +20806,14 @@
         <v>100</v>
       </c>
       <c r="BR52" s="107"/>
-      <c r="BS52" s="91" t="str">
+      <c r="BS52" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT52" s="107"/>
-      <c r="BU52" s="91" t="str">
+      <c r="BU52" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV52" s="106"/>
       <c r="BW52" s="91" t="str">
@@ -20820,19 +20867,19 @@
       </c>
       <c r="CP52" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ52" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR52" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS52" s="103">
         <f t="shared" si="45"/>
-        <v>48.400000000000006</v>
+        <v>36.400000000000006</v>
       </c>
       <c r="CT52" s="103">
         <f>IFERROR(VLOOKUP(CS52,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -21019,14 +21066,14 @@
         <v>100</v>
       </c>
       <c r="BR53" s="107"/>
-      <c r="BS53" s="91" t="str">
+      <c r="BS53" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT53" s="107"/>
-      <c r="BU53" s="91" t="str">
+      <c r="BU53" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV53" s="106"/>
       <c r="BW53" s="91" t="str">
@@ -21080,19 +21127,19 @@
       </c>
       <c r="CP53" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ53" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR53" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS53" s="103">
         <f t="shared" si="45"/>
-        <v>45.6</v>
+        <v>33.6</v>
       </c>
       <c r="CT53" s="103">
         <f>IFERROR(VLOOKUP(CS53,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -21279,14 +21326,14 @@
         <v>70</v>
       </c>
       <c r="BR54" s="107"/>
-      <c r="BS54" s="91" t="str">
+      <c r="BS54" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT54" s="107"/>
-      <c r="BU54" s="91" t="str">
+      <c r="BU54" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV54" s="106"/>
       <c r="BW54" s="91" t="str">
@@ -21340,19 +21387,19 @@
       </c>
       <c r="CP54" s="102">
         <f t="shared" si="38"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CQ54" s="98">
         <f t="shared" si="39"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CR54" s="98">
         <f t="shared" si="40"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CS54" s="103">
         <f t="shared" si="45"/>
-        <v>41.572000000000003</v>
+        <v>30.771999999999998</v>
       </c>
       <c r="CT54" s="103">
         <f>IFERROR(VLOOKUP(CS54,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -21539,14 +21586,14 @@
         <v>75</v>
       </c>
       <c r="BR55" s="107"/>
-      <c r="BS55" s="91" t="str">
+      <c r="BS55" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT55" s="107"/>
-      <c r="BU55" s="91" t="str">
+      <c r="BU55" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV55" s="106"/>
       <c r="BW55" s="91" t="str">
@@ -21600,19 +21647,19 @@
       </c>
       <c r="CP55" s="102">
         <f t="shared" si="38"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CQ55" s="98">
         <f t="shared" si="39"/>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="CR55" s="98">
         <f t="shared" si="40"/>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="CS55" s="103">
         <f t="shared" si="45"/>
-        <v>43.042000000000002</v>
+        <v>32.043999999999997</v>
       </c>
       <c r="CT55" s="103">
         <f>IFERROR(VLOOKUP(CS55,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -21799,14 +21846,14 @@
         <v>90</v>
       </c>
       <c r="BR56" s="107"/>
-      <c r="BS56" s="91" t="str">
+      <c r="BS56" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT56" s="107"/>
-      <c r="BU56" s="91" t="str">
+      <c r="BU56" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV56" s="106"/>
       <c r="BW56" s="91" t="str">
@@ -21860,19 +21907,19 @@
       </c>
       <c r="CP56" s="102">
         <f t="shared" si="38"/>
-        <v>48.333333333333336</v>
+        <v>29</v>
       </c>
       <c r="CQ56" s="98">
         <f t="shared" si="39"/>
-        <v>48.333333333333336</v>
+        <v>29</v>
       </c>
       <c r="CR56" s="98">
         <f t="shared" si="40"/>
-        <v>48.33</v>
+        <v>29</v>
       </c>
       <c r="CS56" s="103">
         <f t="shared" si="45"/>
-        <v>42.914000000000001</v>
+        <v>31.315999999999999</v>
       </c>
       <c r="CT56" s="103">
         <f>IFERROR(VLOOKUP(CS56,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22059,14 +22106,14 @@
         <v>100</v>
       </c>
       <c r="BR57" s="107"/>
-      <c r="BS57" s="91" t="str">
+      <c r="BS57" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT57" s="107"/>
-      <c r="BU57" s="91" t="str">
+      <c r="BU57" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV57" s="106"/>
       <c r="BW57" s="91" t="str">
@@ -22120,19 +22167,19 @@
       </c>
       <c r="CP57" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ57" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR57" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS57" s="103">
         <f t="shared" si="45"/>
-        <v>45.543999999999997</v>
+        <v>33.543999999999997</v>
       </c>
       <c r="CT57" s="103">
         <f>IFERROR(VLOOKUP(CS57,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22319,14 +22366,14 @@
         <v>70</v>
       </c>
       <c r="BR58" s="107"/>
-      <c r="BS58" s="91" t="str">
+      <c r="BS58" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT58" s="107"/>
-      <c r="BU58" s="91" t="str">
+      <c r="BU58" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV58" s="106"/>
       <c r="BW58" s="91" t="str">
@@ -22380,19 +22427,19 @@
       </c>
       <c r="CP58" s="102">
         <f t="shared" si="38"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CQ58" s="98">
         <f t="shared" si="39"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CR58" s="98">
         <f t="shared" si="40"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CS58" s="103">
         <f t="shared" si="45"/>
-        <v>41.116</v>
+        <v>30.315999999999999</v>
       </c>
       <c r="CT58" s="103">
         <f>IFERROR(VLOOKUP(CS58,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22579,14 +22626,14 @@
         <v>100</v>
       </c>
       <c r="BR59" s="107"/>
-      <c r="BS59" s="91" t="str">
+      <c r="BS59" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT59" s="107"/>
-      <c r="BU59" s="91" t="str">
+      <c r="BU59" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV59" s="106"/>
       <c r="BW59" s="91" t="str">
@@ -22640,19 +22687,19 @@
       </c>
       <c r="CP59" s="102">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CQ59" s="98">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CR59" s="98">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CS59" s="103">
         <f t="shared" si="45"/>
-        <v>45.944000000000003</v>
+        <v>33.944000000000003</v>
       </c>
       <c r="CT59" s="103">
         <f>IFERROR(VLOOKUP(CS59,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22827,14 +22874,14 @@
         <v>0</v>
       </c>
       <c r="BR60" s="107"/>
-      <c r="BS60" s="91" t="str">
+      <c r="BS60" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT60" s="107"/>
-      <c r="BU60" s="91" t="str">
+      <c r="BU60" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV60" s="106"/>
       <c r="BW60" s="91" t="str">
@@ -23075,14 +23122,14 @@
         <v>0</v>
       </c>
       <c r="BR61" s="107"/>
-      <c r="BS61" s="91" t="str">
+      <c r="BS61" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT61" s="107"/>
-      <c r="BU61" s="91" t="str">
+      <c r="BU61" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV61" s="106"/>
       <c r="BW61" s="91" t="str">
@@ -23323,14 +23370,14 @@
         <v>0</v>
       </c>
       <c r="BR62" s="107"/>
-      <c r="BS62" s="91" t="str">
+      <c r="BS62" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT62" s="107"/>
-      <c r="BU62" s="91" t="str">
+      <c r="BU62" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV62" s="106"/>
       <c r="BW62" s="91" t="str">
@@ -23571,14 +23618,14 @@
         <v>0</v>
       </c>
       <c r="BR63" s="107"/>
-      <c r="BS63" s="91" t="str">
+      <c r="BS63" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT63" s="107"/>
-      <c r="BU63" s="91" t="str">
+      <c r="BU63" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV63" s="106"/>
       <c r="BW63" s="91" t="str">
@@ -23819,14 +23866,14 @@
         <v>0</v>
       </c>
       <c r="BR64" s="107"/>
-      <c r="BS64" s="91" t="str">
+      <c r="BS64" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT64" s="107"/>
-      <c r="BU64" s="91" t="str">
+      <c r="BU64" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV64" s="106"/>
       <c r="BW64" s="91" t="str">
@@ -24067,14 +24114,14 @@
         <v>0</v>
       </c>
       <c r="BR65" s="107"/>
-      <c r="BS65" s="91" t="str">
+      <c r="BS65" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT65" s="107"/>
-      <c r="BU65" s="91" t="str">
+      <c r="BU65" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV65" s="106"/>
       <c r="BW65" s="91" t="str">
@@ -24315,14 +24362,14 @@
         <v>0</v>
       </c>
       <c r="BR66" s="107"/>
-      <c r="BS66" s="91" t="str">
+      <c r="BS66" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT66" s="107"/>
-      <c r="BU66" s="91" t="str">
+      <c r="BU66" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV66" s="106"/>
       <c r="BW66" s="91" t="str">
@@ -24563,14 +24610,14 @@
         <v>0</v>
       </c>
       <c r="BR67" s="107"/>
-      <c r="BS67" s="91" t="str">
+      <c r="BS67" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT67" s="107"/>
-      <c r="BU67" s="91" t="str">
+      <c r="BU67" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV67" s="106"/>
       <c r="BW67" s="91" t="str">
@@ -24811,14 +24858,14 @@
         <v>0</v>
       </c>
       <c r="BR68" s="107"/>
-      <c r="BS68" s="91" t="str">
+      <c r="BS68" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT68" s="107"/>
-      <c r="BU68" s="91" t="str">
+      <c r="BU68" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV68" s="106"/>
       <c r="BW68" s="91" t="str">
@@ -25059,14 +25106,14 @@
         <v>0</v>
       </c>
       <c r="BR69" s="107"/>
-      <c r="BS69" s="91" t="str">
+      <c r="BS69" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT69" s="107"/>
-      <c r="BU69" s="91" t="str">
+      <c r="BU69" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV69" s="106"/>
       <c r="BW69" s="91" t="str">
@@ -25307,14 +25354,14 @@
         <v>0</v>
       </c>
       <c r="BR70" s="107"/>
-      <c r="BS70" s="91" t="str">
+      <c r="BS70" s="91">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT70" s="107"/>
-      <c r="BU70" s="91" t="str">
+      <c r="BU70" s="91">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV70" s="106"/>
       <c r="BW70" s="91" t="str">
@@ -25394,6 +25441,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -25410,88 +25539,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -25527,78 +25574,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="A2" s="211" t="str">
+      <c r="A2" s="210" t="str">
         <f>UPPER(CONCATENATE("GRADING SHEET A.Y."," ",REGISTRATION!P12))</f>
         <v>GRADING SHEET A.Y. 2017-2018</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="211"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="211"/>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
+      <c r="A3" s="210"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="210"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="210"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:16" ht="15" customHeight="1">
-      <c r="A5" s="223" t="s">
+      <c r="A5" s="222" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="212" t="s">
+      <c r="C5" s="211" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="212"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="212"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="212"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="212" t="s">
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="212"/>
-      <c r="L5" s="212"/>
-      <c r="M5" s="212"/>
-      <c r="N5" s="213" t="s">
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="214"/>
-      <c r="P5" s="217" t="s">
+      <c r="O5" s="213"/>
+      <c r="P5" s="216" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="224"/>
-      <c r="B6" s="220" t="s">
+      <c r="A6" s="223"/>
+      <c r="B6" s="219" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="43" t="s">
@@ -25616,27 +25663,27 @@
       <c r="G6" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="222" t="s">
+      <c r="H6" s="221" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="222"/>
+      <c r="I6" s="221"/>
       <c r="J6" s="43" t="s">
         <v>101</v>
       </c>
       <c r="K6" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="222" t="s">
+      <c r="L6" s="221" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="222"/>
-      <c r="N6" s="215"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="218"/>
+      <c r="M6" s="221"/>
+      <c r="N6" s="214"/>
+      <c r="O6" s="215"/>
+      <c r="P6" s="217"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A7" s="225"/>
-      <c r="B7" s="221"/>
+      <c r="A7" s="224"/>
+      <c r="B7" s="220"/>
       <c r="C7" s="45">
         <f>'RAW GRADES'!F7</f>
         <v>0.3</v>
@@ -25683,7 +25730,7 @@
       <c r="O7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="219"/>
+      <c r="P7" s="218"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="48">
@@ -25727,19 +25774,19 @@
       </c>
       <c r="K8" s="51">
         <f>'RAW GRADES'!CP10</f>
-        <v>48.333333333333336</v>
+        <v>29</v>
       </c>
       <c r="L8" s="51">
         <f>'RAW GRADES'!CQ10</f>
-        <v>48.333333333333336</v>
+        <v>29</v>
       </c>
       <c r="M8" s="53">
         <f>'RAW GRADES'!CR10</f>
-        <v>48.33</v>
+        <v>29</v>
       </c>
       <c r="N8" s="54">
         <f>'RAW GRADES'!CS10</f>
-        <v>41.597999999999999</v>
+        <v>30</v>
       </c>
       <c r="O8" s="55">
         <f>'RAW GRADES'!CT10</f>
@@ -25792,19 +25839,19 @@
       </c>
       <c r="K9" s="51">
         <f>'RAW GRADES'!CP11</f>
-        <v>46.666666666666664</v>
+        <v>28</v>
       </c>
       <c r="L9" s="51">
         <f>'RAW GRADES'!CQ11</f>
-        <v>46.666666666666664</v>
+        <v>28</v>
       </c>
       <c r="M9" s="53">
         <f>'RAW GRADES'!CR11</f>
-        <v>46.67</v>
+        <v>28</v>
       </c>
       <c r="N9" s="57">
         <f>'RAW GRADES'!CS11</f>
-        <v>40.686</v>
+        <v>29.484000000000002</v>
       </c>
       <c r="O9" s="55">
         <f>'RAW GRADES'!CT11</f>
@@ -25857,19 +25904,19 @@
       </c>
       <c r="K10" s="51">
         <f>'RAW GRADES'!CP12</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="L10" s="51">
         <f>'RAW GRADES'!CQ12</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="M10" s="53">
         <f>'RAW GRADES'!CR12</f>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="N10" s="57">
         <f>'RAW GRADES'!CS12</f>
-        <v>42.414000000000001</v>
+        <v>31.416</v>
       </c>
       <c r="O10" s="55">
         <f>'RAW GRADES'!CT12</f>
@@ -25922,19 +25969,19 @@
       </c>
       <c r="K11" s="51">
         <f>'RAW GRADES'!CP13</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L11" s="51">
         <f>'RAW GRADES'!CQ13</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M11" s="53">
         <f>'RAW GRADES'!CR13</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N11" s="57">
         <f>'RAW GRADES'!CS13</f>
-        <v>41.484000000000002</v>
+        <v>29.484000000000002</v>
       </c>
       <c r="O11" s="55">
         <f>'RAW GRADES'!CT13</f>
@@ -25987,19 +26034,19 @@
       </c>
       <c r="K12" s="51">
         <f>'RAW GRADES'!CP14</f>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L12" s="51">
         <f>'RAW GRADES'!CQ14</f>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M12" s="53">
         <f>'RAW GRADES'!CR14</f>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N12" s="57">
         <f>'RAW GRADES'!CS14</f>
-        <v>47.316000000000003</v>
+        <v>40.715999999999994</v>
       </c>
       <c r="O12" s="55">
         <f>'RAW GRADES'!CT14</f>
@@ -26052,19 +26099,19 @@
       </c>
       <c r="K13" s="51">
         <f>'RAW GRADES'!CP15</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L13" s="51">
         <f>'RAW GRADES'!CQ15</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M13" s="53">
         <f>'RAW GRADES'!CR15</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N13" s="57">
         <f>'RAW GRADES'!CS15</f>
-        <v>46.484000000000002</v>
+        <v>34.484000000000002</v>
       </c>
       <c r="O13" s="55">
         <f>'RAW GRADES'!CT15</f>
@@ -26093,7 +26140,7 @@
       </c>
       <c r="E14" s="51">
         <f>'RAW GRADES'!AN16</f>
-        <v>5.1428571428571423</v>
+        <v>12.642857142857142</v>
       </c>
       <c r="F14" s="51">
         <f>'RAW GRADES'!AU16</f>
@@ -26105,11 +26152,11 @@
       </c>
       <c r="H14" s="52">
         <f>'RAW GRADES'!BC16</f>
-        <v>18</v>
+        <v>25.5</v>
       </c>
       <c r="I14" s="52">
         <f>'RAW GRADES'!BD16</f>
-        <v>18</v>
+        <v>25.5</v>
       </c>
       <c r="J14" s="51">
         <f>'RAW GRADES'!BK16</f>
@@ -26117,19 +26164,19 @@
       </c>
       <c r="K14" s="51">
         <f>'RAW GRADES'!CP16</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L14" s="51">
         <f>'RAW GRADES'!CQ16</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M14" s="53">
         <f>'RAW GRADES'!CR16</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N14" s="57">
         <f>'RAW GRADES'!CS16</f>
-        <v>7.2</v>
+        <v>30.6</v>
       </c>
       <c r="O14" s="55">
         <f>'RAW GRADES'!CT16</f>
@@ -26182,19 +26229,19 @@
       </c>
       <c r="K15" s="51">
         <f>'RAW GRADES'!CP17</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="L15" s="51">
         <f>'RAW GRADES'!CQ17</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="M15" s="53">
         <f>'RAW GRADES'!CR17</f>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="N15" s="57">
         <f>'RAW GRADES'!CS17</f>
-        <v>42.07</v>
+        <v>31.072000000000003</v>
       </c>
       <c r="O15" s="55">
         <f>'RAW GRADES'!CT17</f>
@@ -26247,19 +26294,19 @@
       </c>
       <c r="K16" s="51">
         <f>'RAW GRADES'!CP18</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L16" s="51">
         <f>'RAW GRADES'!CQ18</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M16" s="53">
         <f>'RAW GRADES'!CR18</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N16" s="57">
         <f>'RAW GRADES'!CS18</f>
-        <v>43.515999999999998</v>
+        <v>31.515999999999998</v>
       </c>
       <c r="O16" s="55">
         <f>'RAW GRADES'!CT18</f>
@@ -26312,19 +26359,19 @@
       </c>
       <c r="K17" s="51">
         <f>'RAW GRADES'!CP19</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="L17" s="51">
         <f>'RAW GRADES'!CQ19</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M17" s="53">
         <f>'RAW GRADES'!CR19</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N17" s="57">
         <f>'RAW GRADES'!CS19</f>
-        <v>42.372</v>
+        <v>31.571999999999999</v>
       </c>
       <c r="O17" s="55">
         <f>'RAW GRADES'!CT19</f>
@@ -26442,19 +26489,19 @@
       </c>
       <c r="K19" s="51">
         <f>'RAW GRADES'!CP21</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L19" s="51">
         <f>'RAW GRADES'!CQ21</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M19" s="53">
         <f>'RAW GRADES'!CR21</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N19" s="57">
         <f>'RAW GRADES'!CS21</f>
-        <v>46.284000000000006</v>
+        <v>34.284000000000006</v>
       </c>
       <c r="O19" s="55">
         <f>'RAW GRADES'!CT21</f>
@@ -26507,19 +26554,19 @@
       </c>
       <c r="K20" s="51">
         <f>'RAW GRADES'!CP22</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L20" s="51">
         <f>'RAW GRADES'!CQ22</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M20" s="53">
         <f>'RAW GRADES'!CR22</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N20" s="57">
         <f>'RAW GRADES'!CS22</f>
-        <v>44.116</v>
+        <v>32.116</v>
       </c>
       <c r="O20" s="55">
         <f>'RAW GRADES'!CT22</f>
@@ -26572,19 +26619,19 @@
       </c>
       <c r="K21" s="51">
         <f>'RAW GRADES'!CP23</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L21" s="51">
         <f>'RAW GRADES'!CQ23</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M21" s="53">
         <f>'RAW GRADES'!CR23</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N21" s="57">
         <f>'RAW GRADES'!CS23</f>
-        <v>44.628</v>
+        <v>32.628</v>
       </c>
       <c r="O21" s="55">
         <f>'RAW GRADES'!CT23</f>
@@ -26702,19 +26749,19 @@
       </c>
       <c r="K23" s="51">
         <f>'RAW GRADES'!CP25</f>
-        <v>46.666666666666664</v>
+        <v>28</v>
       </c>
       <c r="L23" s="51">
         <f>'RAW GRADES'!CQ25</f>
-        <v>46.666666666666664</v>
+        <v>28</v>
       </c>
       <c r="M23" s="53">
         <f>'RAW GRADES'!CR25</f>
-        <v>46.67</v>
+        <v>28</v>
       </c>
       <c r="N23" s="57">
         <f>'RAW GRADES'!CS25</f>
-        <v>42.457999999999998</v>
+        <v>31.256</v>
       </c>
       <c r="O23" s="55">
         <f>'RAW GRADES'!CT25</f>
@@ -26767,19 +26814,19 @@
       </c>
       <c r="K24" s="51">
         <f>'RAW GRADES'!CP26</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="L24" s="51">
         <f>'RAW GRADES'!CQ26</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M24" s="53">
         <f>'RAW GRADES'!CR26</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N24" s="57">
         <f>'RAW GRADES'!CS26</f>
-        <v>38.543999999999997</v>
+        <v>27.744</v>
       </c>
       <c r="O24" s="55">
         <f>'RAW GRADES'!CT26</f>
@@ -26832,19 +26879,19 @@
       </c>
       <c r="K25" s="51">
         <f>'RAW GRADES'!CP27</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L25" s="51">
         <f>'RAW GRADES'!CQ27</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M25" s="53">
         <f>'RAW GRADES'!CR27</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N25" s="57">
         <f>'RAW GRADES'!CS27</f>
-        <v>44.683999999999997</v>
+        <v>32.683999999999997</v>
       </c>
       <c r="O25" s="55">
         <f>'RAW GRADES'!CT27</f>
@@ -26897,19 +26944,19 @@
       </c>
       <c r="K26" s="51">
         <f>'RAW GRADES'!CP28</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="L26" s="51">
         <f>'RAW GRADES'!CQ28</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="M26" s="53">
         <f>'RAW GRADES'!CR28</f>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="N26" s="57">
         <f>'RAW GRADES'!CS28</f>
-        <v>40.926000000000002</v>
+        <v>29.928000000000001</v>
       </c>
       <c r="O26" s="55">
         <f>'RAW GRADES'!CT28</f>
@@ -26962,19 +27009,19 @@
       </c>
       <c r="K27" s="51">
         <f>'RAW GRADES'!CP29</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="L27" s="51">
         <f>'RAW GRADES'!CQ29</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="M27" s="53">
         <f>'RAW GRADES'!CR29</f>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="N27" s="57">
         <f>'RAW GRADES'!CS29</f>
-        <v>43.613999999999997</v>
+        <v>32.616</v>
       </c>
       <c r="O27" s="55">
         <f>'RAW GRADES'!CT29</f>
@@ -27027,19 +27074,19 @@
       </c>
       <c r="K28" s="51">
         <f>'RAW GRADES'!CP30</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L28" s="51">
         <f>'RAW GRADES'!CQ30</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M28" s="53">
         <f>'RAW GRADES'!CR30</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N28" s="57">
         <f>'RAW GRADES'!CS30</f>
-        <v>38.055999999999997</v>
+        <v>26.056000000000001</v>
       </c>
       <c r="O28" s="55">
         <f>'RAW GRADES'!CT30</f>
@@ -27092,19 +27139,19 @@
       </c>
       <c r="K29" s="51">
         <f>'RAW GRADES'!CP31</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L29" s="51">
         <f>'RAW GRADES'!CQ31</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M29" s="53">
         <f>'RAW GRADES'!CR31</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N29" s="57">
         <f>'RAW GRADES'!CS31</f>
-        <v>43.655999999999999</v>
+        <v>31.655999999999999</v>
       </c>
       <c r="O29" s="55">
         <f>'RAW GRADES'!CT31</f>
@@ -27222,19 +27269,19 @@
       </c>
       <c r="K31" s="51">
         <f>'RAW GRADES'!CP33</f>
-        <v>46.666666666666664</v>
+        <v>28</v>
       </c>
       <c r="L31" s="51">
         <f>'RAW GRADES'!CQ33</f>
-        <v>46.666666666666664</v>
+        <v>28</v>
       </c>
       <c r="M31" s="53">
         <f>'RAW GRADES'!CR33</f>
-        <v>46.67</v>
+        <v>28</v>
       </c>
       <c r="N31" s="57">
         <f>'RAW GRADES'!CS33</f>
-        <v>42.802</v>
+        <v>31.6</v>
       </c>
       <c r="O31" s="55">
         <f>'RAW GRADES'!CT33</f>
@@ -27287,19 +27334,19 @@
       </c>
       <c r="K32" s="51">
         <f>'RAW GRADES'!CP34</f>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L32" s="51">
         <f>'RAW GRADES'!CQ34</f>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M32" s="53">
         <f>'RAW GRADES'!CR34</f>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N32" s="57">
         <f>'RAW GRADES'!CS34</f>
-        <v>40.915999999999997</v>
+        <v>34.316000000000003</v>
       </c>
       <c r="O32" s="55">
         <f>'RAW GRADES'!CT34</f>
@@ -27352,19 +27399,19 @@
       </c>
       <c r="K33" s="51">
         <f>'RAW GRADES'!CP35</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L33" s="51">
         <f>'RAW GRADES'!CQ35</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M33" s="53">
         <f>'RAW GRADES'!CR35</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N33" s="57">
         <f>'RAW GRADES'!CS35</f>
-        <v>42.283999999999999</v>
+        <v>30.283999999999999</v>
       </c>
       <c r="O33" s="55">
         <f>'RAW GRADES'!CT35</f>
@@ -27482,19 +27529,19 @@
       </c>
       <c r="K35" s="51">
         <f>'RAW GRADES'!CP37</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L35" s="51">
         <f>'RAW GRADES'!CQ37</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M35" s="53">
         <f>'RAW GRADES'!CR37</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N35" s="57">
         <f>'RAW GRADES'!CS37</f>
-        <v>46.055999999999997</v>
+        <v>34.055999999999997</v>
       </c>
       <c r="O35" s="55">
         <f>'RAW GRADES'!CT37</f>
@@ -27547,19 +27594,19 @@
       </c>
       <c r="K36" s="51">
         <f>'RAW GRADES'!CP38</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L36" s="51">
         <f>'RAW GRADES'!CQ38</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M36" s="53">
         <f>'RAW GRADES'!CR38</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N36" s="57">
         <f>'RAW GRADES'!CS38</f>
-        <v>41.027999999999999</v>
+        <v>29.027999999999999</v>
       </c>
       <c r="O36" s="55">
         <f>'RAW GRADES'!CT38</f>
@@ -27612,19 +27659,19 @@
       </c>
       <c r="K37" s="51">
         <f>'RAW GRADES'!CP39</f>
-        <v>49.166666666666664</v>
+        <v>29.5</v>
       </c>
       <c r="L37" s="51">
         <f>'RAW GRADES'!CQ39</f>
-        <v>49.166666666666664</v>
+        <v>29.5</v>
       </c>
       <c r="M37" s="53">
         <f>'RAW GRADES'!CR39</f>
-        <v>49.17</v>
+        <v>29.5</v>
       </c>
       <c r="N37" s="57">
         <f>'RAW GRADES'!CS39</f>
-        <v>37.729999999999997</v>
+        <v>25.927999999999997</v>
       </c>
       <c r="O37" s="55">
         <f>'RAW GRADES'!CT39</f>
@@ -27677,19 +27724,19 @@
       </c>
       <c r="K38" s="51">
         <f>'RAW GRADES'!CP40</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L38" s="51">
         <f>'RAW GRADES'!CQ40</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M38" s="53">
         <f>'RAW GRADES'!CR40</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N38" s="57">
         <f>'RAW GRADES'!CS40</f>
-        <v>44.6</v>
+        <v>32.6</v>
       </c>
       <c r="O38" s="55">
         <f>'RAW GRADES'!CT40</f>
@@ -27742,19 +27789,19 @@
       </c>
       <c r="K39" s="51">
         <f>'RAW GRADES'!CP41</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L39" s="51">
         <f>'RAW GRADES'!CQ41</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M39" s="53">
         <f>'RAW GRADES'!CR41</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N39" s="57">
         <f>'RAW GRADES'!CS41</f>
-        <v>45.515999999999998</v>
+        <v>33.515999999999998</v>
       </c>
       <c r="O39" s="55">
         <f>'RAW GRADES'!CT41</f>
@@ -27807,19 +27854,19 @@
       </c>
       <c r="K40" s="51">
         <f>'RAW GRADES'!CP42</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L40" s="51">
         <f>'RAW GRADES'!CQ42</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M40" s="53">
         <f>'RAW GRADES'!CR42</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N40" s="57">
         <f>'RAW GRADES'!CS42</f>
-        <v>40.856000000000002</v>
+        <v>28.856000000000002</v>
       </c>
       <c r="O40" s="55">
         <f>'RAW GRADES'!CT42</f>
@@ -27872,19 +27919,19 @@
       </c>
       <c r="K41" s="51">
         <f>'RAW GRADES'!CP43</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="L41" s="51">
         <f>'RAW GRADES'!CQ43</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="M41" s="53">
         <f>'RAW GRADES'!CR43</f>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="N41" s="57">
         <f>'RAW GRADES'!CS43</f>
-        <v>39.381999999999998</v>
+        <v>28.384</v>
       </c>
       <c r="O41" s="55">
         <f>'RAW GRADES'!CT43</f>
@@ -27937,19 +27984,19 @@
       </c>
       <c r="K42" s="51">
         <f>'RAW GRADES'!CP44</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="L42" s="51">
         <f>'RAW GRADES'!CQ44</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="M42" s="53">
         <f>'RAW GRADES'!CR44</f>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="N42" s="57">
         <f>'RAW GRADES'!CS44</f>
-        <v>42.414000000000001</v>
+        <v>31.416</v>
       </c>
       <c r="O42" s="55">
         <f>'RAW GRADES'!CT44</f>
@@ -28002,19 +28049,19 @@
       </c>
       <c r="K43" s="51">
         <f>'RAW GRADES'!CP45</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="L43" s="51">
         <f>'RAW GRADES'!CQ45</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M43" s="53">
         <f>'RAW GRADES'!CR45</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N43" s="57">
         <f>'RAW GRADES'!CS45</f>
-        <v>40.799999999999997</v>
+        <v>30</v>
       </c>
       <c r="O43" s="55">
         <f>'RAW GRADES'!CT45</f>
@@ -28067,19 +28114,19 @@
       </c>
       <c r="K44" s="51">
         <f>'RAW GRADES'!CP46</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L44" s="51">
         <f>'RAW GRADES'!CQ46</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M44" s="53">
         <f>'RAW GRADES'!CR46</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N44" s="57">
         <f>'RAW GRADES'!CS46</f>
-        <v>38.055999999999997</v>
+        <v>26.056000000000001</v>
       </c>
       <c r="O44" s="55">
         <f>'RAW GRADES'!CT46</f>
@@ -28132,19 +28179,19 @@
       </c>
       <c r="K45" s="51">
         <f>'RAW GRADES'!CP47</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L45" s="51">
         <f>'RAW GRADES'!CQ47</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M45" s="53">
         <f>'RAW GRADES'!CR47</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N45" s="57">
         <f>'RAW GRADES'!CS47</f>
-        <v>42.683999999999997</v>
+        <v>30.684000000000001</v>
       </c>
       <c r="O45" s="55">
         <f>'RAW GRADES'!CT47</f>
@@ -28197,19 +28244,19 @@
       </c>
       <c r="K46" s="51">
         <f>'RAW GRADES'!CP48</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="L46" s="51">
         <f>'RAW GRADES'!CQ48</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="M46" s="53">
         <f>'RAW GRADES'!CR48</f>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="N46" s="57">
         <f>'RAW GRADES'!CS48</f>
-        <v>42.213999999999999</v>
+        <v>31.216000000000001</v>
       </c>
       <c r="O46" s="55">
         <f>'RAW GRADES'!CT48</f>
@@ -28262,19 +28309,19 @@
       </c>
       <c r="K47" s="51">
         <f>'RAW GRADES'!CP49</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L47" s="51">
         <f>'RAW GRADES'!CQ49</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M47" s="53">
         <f>'RAW GRADES'!CR49</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N47" s="57">
         <f>'RAW GRADES'!CS49</f>
-        <v>41.543999999999997</v>
+        <v>29.544</v>
       </c>
       <c r="O47" s="55">
         <f>'RAW GRADES'!CT49</f>
@@ -28327,19 +28374,19 @@
       </c>
       <c r="K48" s="51">
         <f>'RAW GRADES'!CP50</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L48" s="51">
         <f>'RAW GRADES'!CQ50</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M48" s="53">
         <f>'RAW GRADES'!CR50</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N48" s="57">
         <f>'RAW GRADES'!CS50</f>
-        <v>46.400000000000006</v>
+        <v>34.400000000000006</v>
       </c>
       <c r="O48" s="55">
         <f>'RAW GRADES'!CT50</f>
@@ -28392,19 +28439,19 @@
       </c>
       <c r="K49" s="51">
         <f>'RAW GRADES'!CP51</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L49" s="51">
         <f>'RAW GRADES'!CQ51</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M49" s="53">
         <f>'RAW GRADES'!CR51</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N49" s="57">
         <f>'RAW GRADES'!CS51</f>
-        <v>45.683999999999997</v>
+        <v>33.683999999999997</v>
       </c>
       <c r="O49" s="55">
         <f>'RAW GRADES'!CT51</f>
@@ -28457,19 +28504,19 @@
       </c>
       <c r="K50" s="51">
         <f>'RAW GRADES'!CP52</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L50" s="51">
         <f>'RAW GRADES'!CQ52</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M50" s="53">
         <f>'RAW GRADES'!CR52</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N50" s="57">
         <f>'RAW GRADES'!CS52</f>
-        <v>48.400000000000006</v>
+        <v>36.400000000000006</v>
       </c>
       <c r="O50" s="55">
         <f>'RAW GRADES'!CT52</f>
@@ -28522,19 +28569,19 @@
       </c>
       <c r="K51" s="51">
         <f>'RAW GRADES'!CP53</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L51" s="51">
         <f>'RAW GRADES'!CQ53</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M51" s="53">
         <f>'RAW GRADES'!CR53</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N51" s="57">
         <f>'RAW GRADES'!CS53</f>
-        <v>45.6</v>
+        <v>33.6</v>
       </c>
       <c r="O51" s="55">
         <f>'RAW GRADES'!CT53</f>
@@ -28587,19 +28634,19 @@
       </c>
       <c r="K52" s="51">
         <f>'RAW GRADES'!CP54</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="L52" s="51">
         <f>'RAW GRADES'!CQ54</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M52" s="53">
         <f>'RAW GRADES'!CR54</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N52" s="57">
         <f>'RAW GRADES'!CS54</f>
-        <v>41.572000000000003</v>
+        <v>30.771999999999998</v>
       </c>
       <c r="O52" s="55">
         <f>'RAW GRADES'!CT54</f>
@@ -28652,19 +28699,19 @@
       </c>
       <c r="K53" s="51">
         <f>'RAW GRADES'!CP55</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="L53" s="51">
         <f>'RAW GRADES'!CQ55</f>
-        <v>45.833333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="M53" s="53">
         <f>'RAW GRADES'!CR55</f>
-        <v>45.83</v>
+        <v>27.5</v>
       </c>
       <c r="N53" s="57">
         <f>'RAW GRADES'!CS55</f>
-        <v>43.042000000000002</v>
+        <v>32.043999999999997</v>
       </c>
       <c r="O53" s="55">
         <f>'RAW GRADES'!CT55</f>
@@ -28717,19 +28764,19 @@
       </c>
       <c r="K54" s="51">
         <f>'RAW GRADES'!CP56</f>
-        <v>48.333333333333336</v>
+        <v>29</v>
       </c>
       <c r="L54" s="51">
         <f>'RAW GRADES'!CQ56</f>
-        <v>48.333333333333336</v>
+        <v>29</v>
       </c>
       <c r="M54" s="53">
         <f>'RAW GRADES'!CR56</f>
-        <v>48.33</v>
+        <v>29</v>
       </c>
       <c r="N54" s="57">
         <f>'RAW GRADES'!CS56</f>
-        <v>42.914000000000001</v>
+        <v>31.315999999999999</v>
       </c>
       <c r="O54" s="55">
         <f>'RAW GRADES'!CT56</f>
@@ -28782,19 +28829,19 @@
       </c>
       <c r="K55" s="51">
         <f>'RAW GRADES'!CP57</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L55" s="51">
         <f>'RAW GRADES'!CQ57</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M55" s="53">
         <f>'RAW GRADES'!CR57</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N55" s="57">
         <f>'RAW GRADES'!CS57</f>
-        <v>45.543999999999997</v>
+        <v>33.543999999999997</v>
       </c>
       <c r="O55" s="55">
         <f>'RAW GRADES'!CT57</f>
@@ -28847,19 +28894,19 @@
       </c>
       <c r="K56" s="51">
         <f>'RAW GRADES'!CP58</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="L56" s="51">
         <f>'RAW GRADES'!CQ58</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M56" s="53">
         <f>'RAW GRADES'!CR58</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N56" s="57">
         <f>'RAW GRADES'!CS58</f>
-        <v>41.116</v>
+        <v>30.315999999999999</v>
       </c>
       <c r="O56" s="55">
         <f>'RAW GRADES'!CT58</f>
@@ -28912,19 +28959,19 @@
       </c>
       <c r="K57" s="51">
         <f>'RAW GRADES'!CP59</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L57" s="51">
         <f>'RAW GRADES'!CQ59</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M57" s="53">
         <f>'RAW GRADES'!CR59</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N57" s="57">
         <f>'RAW GRADES'!CS59</f>
-        <v>45.944000000000003</v>
+        <v>33.944000000000003</v>
       </c>
       <c r="O57" s="55">
         <f>'RAW GRADES'!CT59</f>
@@ -29706,106 +29753,106 @@
       <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="227"/>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
+      <c r="A3" s="257"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="228" t="s">
+      <c r="A4" s="260" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
+      <c r="B4" s="260"/>
+      <c r="C4" s="260"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="260"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="229" t="s">
+      <c r="A5" s="261" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="229"/>
-      <c r="C5" s="229"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="229"/>
-      <c r="F5" s="229"/>
+      <c r="B5" s="261"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="228" t="s">
+      <c r="A6" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="228"/>
-      <c r="C6" s="228"/>
-      <c r="D6" s="228"/>
-      <c r="E6" s="228"/>
-      <c r="F6" s="228"/>
+      <c r="B6" s="260"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="230" t="s">
+      <c r="A7" s="262" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="230"/>
-      <c r="C7" s="230"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
+      <c r="B7" s="262"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="262"/>
+      <c r="E7" s="262"/>
+      <c r="F7" s="262"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="231"/>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
+      <c r="A8" s="263"/>
+      <c r="B8" s="263"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="227"/>
-      <c r="B9" s="227"/>
-      <c r="C9" s="227"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="227"/>
-      <c r="F9" s="227"/>
+      <c r="A9" s="257"/>
+      <c r="B9" s="257"/>
+      <c r="C9" s="257"/>
+      <c r="D9" s="257"/>
+      <c r="E9" s="257"/>
+      <c r="F9" s="257"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="232"/>
-      <c r="B10" s="232"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="232"/>
-      <c r="F10" s="232"/>
+      <c r="A10" s="264"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="233" t="s">
+      <c r="A11" s="265" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="233"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="233"/>
+      <c r="B11" s="265"/>
+      <c r="C11" s="265"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="265"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="231"/>
-      <c r="B12" s="231"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="231"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="231"/>
+      <c r="A12" s="263"/>
+      <c r="B12" s="263"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="263"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="263"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="59"/>
       <c r="B13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="234" t="str">
+      <c r="C13" s="266" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 21</v>
       </c>
-      <c r="D13" s="234"/>
-      <c r="E13" s="234"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="266"/>
       <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6">
@@ -29813,12 +29860,12 @@
       <c r="B14" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="226" t="str">
+      <c r="C14" s="259" t="str">
         <f>REGISTRATION!C6</f>
         <v>Programming I</v>
       </c>
-      <c r="D14" s="226"/>
-      <c r="E14" s="226"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
       <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:6">
@@ -29826,12 +29873,12 @@
       <c r="B15" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="237" t="str">
+      <c r="C15" s="245" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="237"/>
-      <c r="E15" s="237"/>
+      <c r="D15" s="245"/>
+      <c r="E15" s="245"/>
       <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:6">
@@ -29839,12 +29886,12 @@
       <c r="B16" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="237" t="str">
+      <c r="C16" s="245" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>IT  1A</v>
       </c>
-      <c r="D16" s="237"/>
-      <c r="E16" s="237"/>
+      <c r="D16" s="245"/>
+      <c r="E16" s="245"/>
       <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6">
@@ -29852,12 +29899,12 @@
       <c r="B17" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="237" t="str">
+      <c r="C17" s="245" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="237"/>
-      <c r="E17" s="237"/>
+      <c r="D17" s="245"/>
+      <c r="E17" s="245"/>
       <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -29869,42 +29916,42 @@
       <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="238" t="s">
+      <c r="A19" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="249" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="238" t="s">
+      <c r="C19" s="246" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="238" t="s">
+      <c r="D19" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="243" t="s">
+      <c r="E19" s="251" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="238" t="s">
+      <c r="F19" s="246" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="239"/>
-      <c r="B20" s="242"/>
-      <c r="C20" s="239"/>
-      <c r="D20" s="239"/>
-      <c r="E20" s="244"/>
-      <c r="F20" s="246"/>
+      <c r="A20" s="247"/>
+      <c r="B20" s="250"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="247"/>
+      <c r="E20" s="252"/>
+      <c r="F20" s="254"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="240"/>
+      <c r="A21" s="248"/>
       <c r="B21" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="240"/>
-      <c r="D21" s="240"/>
-      <c r="E21" s="245"/>
-      <c r="F21" s="247"/>
+      <c r="C21" s="248"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="253"/>
+      <c r="F21" s="255"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="64">
@@ -31417,14 +31464,14 @@
       <c r="F82" s="83"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="254" t="s">
+      <c r="A83" s="229" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="255"/>
-      <c r="C83" s="255"/>
-      <c r="D83" s="255"/>
-      <c r="E83" s="255"/>
-      <c r="F83" s="256"/>
+      <c r="B83" s="230"/>
+      <c r="C83" s="230"/>
+      <c r="D83" s="230"/>
+      <c r="E83" s="230"/>
+      <c r="F83" s="231"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="61"/>
@@ -31457,11 +31504,11 @@
       </c>
       <c r="C87" s="59"/>
       <c r="D87" s="59"/>
-      <c r="E87" s="248">
+      <c r="E87" s="256">
         <f ca="1">NOW()</f>
-        <v>43023.817172222225</v>
-      </c>
-      <c r="F87" s="248"/>
+        <v>43035.484499305552</v>
+      </c>
+      <c r="F87" s="256"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="59"/>
@@ -31471,10 +31518,10 @@
       </c>
       <c r="C88" s="72"/>
       <c r="D88" s="72"/>
-      <c r="E88" s="227" t="s">
+      <c r="E88" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="227"/>
+      <c r="F88" s="257"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="59"/>
@@ -31491,8 +31538,8 @@
       <c r="B90" s="73"/>
       <c r="C90" s="73"/>
       <c r="D90" s="73"/>
-      <c r="E90" s="227"/>
-      <c r="F90" s="227"/>
+      <c r="E90" s="257"/>
+      <c r="F90" s="257"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="59"/>
@@ -31608,14 +31655,14 @@
       <c r="F104" s="59"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="249" t="s">
+      <c r="A105" s="258" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="249"/>
-      <c r="C105" s="249"/>
-      <c r="D105" s="249"/>
-      <c r="E105" s="249"/>
-      <c r="F105" s="249"/>
+      <c r="B105" s="258"/>
+      <c r="C105" s="258"/>
+      <c r="D105" s="258"/>
+      <c r="E105" s="258"/>
+      <c r="F105" s="258"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="59"/>
@@ -31630,124 +31677,124 @@
       <c r="B107" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="267" t="s">
+      <c r="C107" s="242" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="236"/>
-      <c r="E107" s="235" t="s">
+      <c r="D107" s="243"/>
+      <c r="E107" s="244" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="236"/>
+      <c r="F107" s="243"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="59"/>
       <c r="B108" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="263">
+      <c r="C108" s="238">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="264"/>
-      <c r="E108" s="265">
+      <c r="D108" s="239"/>
+      <c r="E108" s="240">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="266"/>
+      <c r="F108" s="241"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="59"/>
       <c r="B109" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="257">
+      <c r="C109" s="232">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="258"/>
-      <c r="E109" s="259">
+      <c r="D109" s="233"/>
+      <c r="E109" s="234">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="260"/>
+      <c r="F109" s="235"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="59"/>
       <c r="B110" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="257">
+      <c r="C110" s="232">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="258"/>
-      <c r="E110" s="259">
+      <c r="D110" s="233"/>
+      <c r="E110" s="234">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="260"/>
+      <c r="F110" s="235"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="59"/>
       <c r="B111" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="257">
+      <c r="C111" s="232">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="258"/>
-      <c r="E111" s="259">
+      <c r="D111" s="233"/>
+      <c r="E111" s="234">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="260"/>
+      <c r="F111" s="235"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="59"/>
       <c r="B112" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="261">
-        <v>0</v>
-      </c>
-      <c r="D112" s="262"/>
-      <c r="E112" s="259">
+      <c r="C112" s="236">
+        <v>0</v>
+      </c>
+      <c r="D112" s="237"/>
+      <c r="E112" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="260"/>
+      <c r="F112" s="235"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="59"/>
       <c r="B113" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="261">
-        <v>0</v>
-      </c>
-      <c r="D113" s="262"/>
-      <c r="E113" s="259">
+      <c r="C113" s="236">
+        <v>0</v>
+      </c>
+      <c r="D113" s="237"/>
+      <c r="E113" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="260"/>
+      <c r="F113" s="235"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="59"/>
       <c r="B114" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="250">
+      <c r="C114" s="225">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="251"/>
-      <c r="E114" s="252">
+      <c r="D114" s="226"/>
+      <c r="E114" s="227">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="253"/>
+      <c r="F114" s="228"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="59"/>
@@ -31915,6 +31962,32 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -31931,32 +32004,6 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -31987,54 +32034,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" thickBot="1">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="270" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="272"/>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="273"/>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="271"/>
+      <c r="J1" s="271"/>
+      <c r="K1" s="271"/>
+      <c r="L1" s="271"/>
+      <c r="M1" s="271"/>
+      <c r="N1" s="271"/>
+      <c r="O1" s="271"/>
+      <c r="P1" s="271"/>
+      <c r="Q1" s="271"/>
+      <c r="R1" s="272"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="115"/>
       <c r="B2" s="40"/>
       <c r="C2" s="112"/>
-      <c r="D2" s="268" t="s">
+      <c r="D2" s="267" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="268" t="s">
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="268" t="s">
+      <c r="I2" s="268"/>
+      <c r="J2" s="268"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="267" t="s">
         <v>148</v>
       </c>
-      <c r="M2" s="269"/>
-      <c r="N2" s="269"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="268" t="s">
+      <c r="M2" s="268"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="269"/>
+      <c r="P2" s="267" t="s">
         <v>153</v>
       </c>
-      <c r="Q2" s="269"/>
-      <c r="R2" s="270"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="269"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="115"/>

--- a/DCIT 21 - IT 1A/LEC AND LAB - IT 1A.xlsx
+++ b/DCIT 21 - IT 1A/LEC AND LAB - IT 1A.xlsx
@@ -8731,9 +8731,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="CO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CT14" sqref="CT14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="BV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CC30" sqref="CC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9333,7 +9333,7 @@
       <c r="CM7" s="185"/>
       <c r="CN7" s="186">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CO7" s="186"/>
       <c r="CP7" s="99">
@@ -9690,11 +9690,15 @@
       <c r="CA9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="CB9" s="26"/>
+      <c r="CB9" s="26">
+        <v>100</v>
+      </c>
       <c r="CC9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="CD9" s="26"/>
+      <c r="CD9" s="26">
+        <v>100</v>
+      </c>
       <c r="CE9" s="29" t="s">
         <v>87</v>
       </c>
@@ -9948,14 +9952,14 @@
         <v>0</v>
       </c>
       <c r="CB10" s="100"/>
-      <c r="CC10" s="85" t="str">
+      <c r="CC10" s="85">
         <f>IFERROR(((CB10/$CB$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD10" s="100"/>
-      <c r="CE10" s="85" t="str">
+      <c r="CE10" s="85">
         <f>IFERROR(((CD10/$CD$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF10" s="100"/>
       <c r="CG10" s="85" t="str">
@@ -9984,19 +9988,19 @@
       </c>
       <c r="CP10" s="96">
         <f>IFERROR(((SUM(BM10,BO10,BQ10,BS10,BU10,BW10,BY10,CA10,CC10,CE10,CG10,CI10,CK10,CM10,CO10)/$CN$7)*$CP$7),"")</f>
-        <v>35.9375</v>
+        <v>28.75</v>
       </c>
       <c r="CQ10" s="92">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
-        <v>35.9375</v>
+        <v>28.75</v>
       </c>
       <c r="CR10" s="92">
         <f>IFERROR(ROUND(CQ10,2),"")</f>
-        <v>35.94</v>
+        <v>28.75</v>
       </c>
       <c r="CS10" s="97">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>45.56</v>
+        <v>41.246000000000002</v>
       </c>
       <c r="CT10" s="97">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10224,14 +10228,14 @@
         <v>0</v>
       </c>
       <c r="CB11" s="100"/>
-      <c r="CC11" s="85" t="str">
+      <c r="CC11" s="85">
         <f t="shared" ref="CC11:CC70" si="31">IFERROR(((CB11/$CB$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD11" s="100"/>
-      <c r="CE11" s="85" t="str">
+      <c r="CE11" s="85">
         <f t="shared" ref="CE11:CE70" si="32">IFERROR(((CD11/$CD$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF11" s="100"/>
       <c r="CG11" s="85" t="str">
@@ -10260,19 +10264,19 @@
       </c>
       <c r="CP11" s="96">
         <f t="shared" ref="CP11:CP70" si="38">IFERROR(((SUM(BM11,BO11,BQ11,BS11,BU11,BW11,BY11,CA11,CC11,CE11,CG11,CI11,CK11,CM11,CO11)/$CN$7)*$CP$7),"")</f>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="CQ11" s="92">
         <f t="shared" ref="CQ11:CQ70" si="39">IFERROR(SUM(CP11,BK11),"")</f>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="CR11" s="92">
         <f t="shared" ref="CR11:CR70" si="40">IFERROR(ROUND(CQ11,2),"")</f>
-        <v>35.31</v>
+        <v>28.25</v>
       </c>
       <c r="CS11" s="97">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>40.165999999999997</v>
+        <v>35.93</v>
       </c>
       <c r="CT11" s="97">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10500,14 +10504,14 @@
         <v>0</v>
       </c>
       <c r="CB12" s="100"/>
-      <c r="CC12" s="85" t="str">
+      <c r="CC12" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD12" s="100"/>
-      <c r="CE12" s="85" t="str">
+      <c r="CE12" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF12" s="100"/>
       <c r="CG12" s="85" t="str">
@@ -10536,19 +10540,19 @@
       </c>
       <c r="CP12" s="96">
         <f t="shared" si="38"/>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="CQ12" s="92">
         <f t="shared" si="39"/>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="CR12" s="92">
         <f t="shared" si="40"/>
-        <v>35.31</v>
+        <v>28.25</v>
       </c>
       <c r="CS12" s="97">
         <f t="shared" si="41"/>
-        <v>42.626000000000005</v>
+        <v>38.39</v>
       </c>
       <c r="CT12" s="97">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10774,14 +10778,14 @@
         <v>0</v>
       </c>
       <c r="CB13" s="100"/>
-      <c r="CC13" s="85" t="str">
+      <c r="CC13" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD13" s="100"/>
-      <c r="CE13" s="85" t="str">
+      <c r="CE13" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF13" s="100"/>
       <c r="CG13" s="85" t="str">
@@ -10810,19 +10814,19 @@
       </c>
       <c r="CP13" s="96">
         <f t="shared" si="38"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CQ13" s="92">
         <f t="shared" si="39"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CR13" s="92">
         <f t="shared" si="40"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CS13" s="97">
         <f t="shared" si="41"/>
-        <v>40.866</v>
+        <v>36.215999999999994</v>
       </c>
       <c r="CT13" s="97">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11052,14 +11056,14 @@
         <v>95</v>
       </c>
       <c r="CB14" s="100"/>
-      <c r="CC14" s="85" t="str">
+      <c r="CC14" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD14" s="100"/>
-      <c r="CE14" s="85" t="str">
+      <c r="CE14" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF14" s="100"/>
       <c r="CG14" s="85" t="str">
@@ -11088,19 +11092,19 @@
       </c>
       <c r="CP14" s="96">
         <f t="shared" si="38"/>
-        <v>47.8125</v>
+        <v>38.25</v>
       </c>
       <c r="CQ14" s="92">
         <f t="shared" si="39"/>
-        <v>47.8125</v>
+        <v>38.25</v>
       </c>
       <c r="CR14" s="92">
         <f t="shared" si="40"/>
-        <v>47.81</v>
+        <v>38.25</v>
       </c>
       <c r="CS14" s="97">
         <f t="shared" si="41"/>
-        <v>54.045999999999999</v>
+        <v>48.31</v>
       </c>
       <c r="CT14" s="97">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11330,14 +11334,14 @@
         <v>95</v>
       </c>
       <c r="CB15" s="100"/>
-      <c r="CC15" s="85" t="str">
+      <c r="CC15" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD15" s="100"/>
-      <c r="CE15" s="85" t="str">
+      <c r="CE15" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF15" s="100"/>
       <c r="CG15" s="85" t="str">
@@ -11366,19 +11370,19 @@
       </c>
       <c r="CP15" s="96">
         <f t="shared" si="38"/>
-        <v>44.6875</v>
+        <v>35.75</v>
       </c>
       <c r="CQ15" s="92">
         <f t="shared" si="39"/>
-        <v>44.6875</v>
+        <v>35.75</v>
       </c>
       <c r="CR15" s="92">
         <f t="shared" si="40"/>
-        <v>44.69</v>
+        <v>35.75</v>
       </c>
       <c r="CS15" s="97">
         <f t="shared" si="41"/>
-        <v>51.105999999999995</v>
+        <v>45.742000000000004</v>
       </c>
       <c r="CT15" s="97">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11606,14 +11610,14 @@
         <v>0</v>
       </c>
       <c r="CB16" s="100"/>
-      <c r="CC16" s="85" t="str">
+      <c r="CC16" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD16" s="100"/>
-      <c r="CE16" s="85" t="str">
+      <c r="CE16" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF16" s="100"/>
       <c r="CG16" s="85" t="str">
@@ -11642,19 +11646,19 @@
       </c>
       <c r="CP16" s="96">
         <f t="shared" si="38"/>
-        <v>31.25</v>
+        <v>25</v>
       </c>
       <c r="CQ16" s="92">
         <f t="shared" si="39"/>
-        <v>31.25</v>
+        <v>25</v>
       </c>
       <c r="CR16" s="92">
         <f t="shared" si="40"/>
-        <v>31.25</v>
+        <v>25</v>
       </c>
       <c r="CS16" s="97">
         <f t="shared" si="41"/>
-        <v>35.201999999999998</v>
+        <v>31.452000000000002</v>
       </c>
       <c r="CT16" s="97">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11884,14 +11888,14 @@
         <v>90</v>
       </c>
       <c r="CB17" s="100"/>
-      <c r="CC17" s="85" t="str">
+      <c r="CC17" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD17" s="100"/>
-      <c r="CE17" s="85" t="str">
+      <c r="CE17" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF17" s="100"/>
       <c r="CG17" s="85" t="str">
@@ -11920,19 +11924,19 @@
       </c>
       <c r="CP17" s="96">
         <f t="shared" si="38"/>
-        <v>40.9375</v>
+        <v>32.75</v>
       </c>
       <c r="CQ17" s="92">
         <f t="shared" si="39"/>
-        <v>40.9375</v>
+        <v>32.75</v>
       </c>
       <c r="CR17" s="92">
         <f t="shared" si="40"/>
-        <v>40.94</v>
+        <v>32.75</v>
       </c>
       <c r="CS17" s="97">
         <f t="shared" si="41"/>
-        <v>47.06</v>
+        <v>42.146000000000001</v>
       </c>
       <c r="CT17" s="97">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12158,14 +12162,14 @@
         <v>0</v>
       </c>
       <c r="CB18" s="100"/>
-      <c r="CC18" s="85" t="str">
+      <c r="CC18" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD18" s="100"/>
-      <c r="CE18" s="85" t="str">
+      <c r="CE18" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF18" s="100"/>
       <c r="CG18" s="85" t="str">
@@ -12194,19 +12198,19 @@
       </c>
       <c r="CP18" s="96">
         <f t="shared" si="38"/>
-        <v>38.4375</v>
+        <v>30.75</v>
       </c>
       <c r="CQ18" s="92">
         <f t="shared" si="39"/>
-        <v>38.4375</v>
+        <v>30.75</v>
       </c>
       <c r="CR18" s="92">
         <f t="shared" si="40"/>
-        <v>38.44</v>
+        <v>30.75</v>
       </c>
       <c r="CS18" s="97">
         <f t="shared" si="41"/>
-        <v>42.447999999999993</v>
+        <v>37.834000000000003</v>
       </c>
       <c r="CT18" s="97">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12434,14 +12438,14 @@
         <v>0</v>
       </c>
       <c r="CB19" s="100"/>
-      <c r="CC19" s="85" t="str">
+      <c r="CC19" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD19" s="100"/>
-      <c r="CE19" s="85" t="str">
+      <c r="CE19" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF19" s="100"/>
       <c r="CG19" s="85" t="str">
@@ -12470,19 +12474,19 @@
       </c>
       <c r="CP19" s="96">
         <f t="shared" si="38"/>
-        <v>34.6875</v>
+        <v>27.75</v>
       </c>
       <c r="CQ19" s="92">
         <f t="shared" si="39"/>
-        <v>34.6875</v>
+        <v>27.75</v>
       </c>
       <c r="CR19" s="92">
         <f t="shared" si="40"/>
-        <v>34.69</v>
+        <v>27.75</v>
       </c>
       <c r="CS19" s="97">
         <f t="shared" si="41"/>
-        <v>43.518000000000001</v>
+        <v>39.353999999999999</v>
       </c>
       <c r="CT19" s="97">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12706,14 +12710,14 @@
         <v>0</v>
       </c>
       <c r="CB20" s="100"/>
-      <c r="CC20" s="85" t="str">
+      <c r="CC20" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD20" s="100"/>
-      <c r="CE20" s="85" t="str">
+      <c r="CE20" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF20" s="100"/>
       <c r="CG20" s="85" t="str">
@@ -12982,14 +12986,14 @@
         <v>0</v>
       </c>
       <c r="CB21" s="100"/>
-      <c r="CC21" s="85" t="str">
+      <c r="CC21" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD21" s="100"/>
-      <c r="CE21" s="85" t="str">
+      <c r="CE21" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF21" s="100"/>
       <c r="CG21" s="85" t="str">
@@ -13018,19 +13022,19 @@
       </c>
       <c r="CP21" s="96">
         <f t="shared" si="38"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CQ21" s="92">
         <f t="shared" si="39"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CR21" s="92">
         <f t="shared" si="40"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CS21" s="97">
         <f t="shared" si="41"/>
-        <v>46.010000000000005</v>
+        <v>41.36</v>
       </c>
       <c r="CT21" s="97">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13258,14 +13262,14 @@
         <v>0</v>
       </c>
       <c r="CB22" s="100"/>
-      <c r="CC22" s="85" t="str">
+      <c r="CC22" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD22" s="100"/>
-      <c r="CE22" s="85" t="str">
+      <c r="CE22" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF22" s="100"/>
       <c r="CG22" s="85" t="str">
@@ -13294,19 +13298,19 @@
       </c>
       <c r="CP22" s="96">
         <f t="shared" si="38"/>
-        <v>38.125</v>
+        <v>30.5</v>
       </c>
       <c r="CQ22" s="92">
         <f t="shared" si="39"/>
-        <v>38.125</v>
+        <v>30.5</v>
       </c>
       <c r="CR22" s="92">
         <f t="shared" si="40"/>
-        <v>38.130000000000003</v>
+        <v>30.5</v>
       </c>
       <c r="CS22" s="97">
         <f t="shared" si="41"/>
-        <v>44.725999999999999</v>
+        <v>40.147999999999996</v>
       </c>
       <c r="CT22" s="97">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13536,14 +13540,14 @@
         <v>95</v>
       </c>
       <c r="CB23" s="100"/>
-      <c r="CC23" s="85" t="str">
+      <c r="CC23" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD23" s="100"/>
-      <c r="CE23" s="85" t="str">
+      <c r="CE23" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF23" s="100"/>
       <c r="CG23" s="85" t="str">
@@ -13572,19 +13576,19 @@
       </c>
       <c r="CP23" s="96">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>35.5</v>
       </c>
       <c r="CQ23" s="92">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>35.5</v>
       </c>
       <c r="CR23" s="92">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>35.5</v>
       </c>
       <c r="CS23" s="97">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>48.344000000000001</v>
+        <v>43.016000000000005</v>
       </c>
       <c r="CT23" s="97">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13808,14 +13812,14 @@
         <v>0</v>
       </c>
       <c r="CB24" s="100"/>
-      <c r="CC24" s="85" t="str">
+      <c r="CC24" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD24" s="100"/>
-      <c r="CE24" s="85" t="str">
+      <c r="CE24" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF24" s="100"/>
       <c r="CG24" s="85" t="str">
@@ -14086,14 +14090,14 @@
         <v>80</v>
       </c>
       <c r="CB25" s="100"/>
-      <c r="CC25" s="85" t="str">
+      <c r="CC25" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD25" s="100"/>
-      <c r="CE25" s="85" t="str">
+      <c r="CE25" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF25" s="100"/>
       <c r="CG25" s="85" t="str">
@@ -14122,19 +14126,19 @@
       </c>
       <c r="CP25" s="96">
         <f t="shared" si="38"/>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="CQ25" s="92">
         <f t="shared" si="39"/>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="CR25" s="92">
         <f t="shared" si="40"/>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="CS25" s="97">
         <f t="shared" si="45"/>
-        <v>47.376000000000005</v>
+        <v>42.275999999999996</v>
       </c>
       <c r="CT25" s="97">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14362,14 +14366,14 @@
         <v>0</v>
       </c>
       <c r="CB26" s="100"/>
-      <c r="CC26" s="85" t="str">
+      <c r="CC26" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD26" s="100"/>
-      <c r="CE26" s="85" t="str">
+      <c r="CE26" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF26" s="100"/>
       <c r="CG26" s="85" t="str">
@@ -14398,19 +14402,19 @@
       </c>
       <c r="CP26" s="96">
         <f t="shared" si="38"/>
-        <v>34.6875</v>
+        <v>27.75</v>
       </c>
       <c r="CQ26" s="92">
         <f t="shared" si="39"/>
-        <v>34.6875</v>
+        <v>27.75</v>
       </c>
       <c r="CR26" s="92">
         <f t="shared" si="40"/>
-        <v>34.69</v>
+        <v>27.75</v>
       </c>
       <c r="CS26" s="97">
         <f t="shared" si="45"/>
-        <v>38.641999999999996</v>
+        <v>34.477999999999994</v>
       </c>
       <c r="CT26" s="97">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14640,14 +14644,14 @@
         <v>90</v>
       </c>
       <c r="CB27" s="100"/>
-      <c r="CC27" s="85" t="str">
+      <c r="CC27" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD27" s="100"/>
-      <c r="CE27" s="85" t="str">
+      <c r="CE27" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF27" s="100"/>
       <c r="CG27" s="85" t="str">
@@ -14676,19 +14680,19 @@
       </c>
       <c r="CP27" s="96">
         <f t="shared" si="38"/>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="CQ27" s="92">
         <f t="shared" si="39"/>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="CR27" s="92">
         <f t="shared" si="40"/>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="CS27" s="97">
         <f t="shared" si="45"/>
-        <v>46.415999999999997</v>
+        <v>41.316000000000003</v>
       </c>
       <c r="CT27" s="97">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14918,14 +14922,14 @@
         <v>90</v>
       </c>
       <c r="CB28" s="100"/>
-      <c r="CC28" s="85" t="str">
+      <c r="CC28" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD28" s="100"/>
-      <c r="CE28" s="85" t="str">
+      <c r="CE28" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF28" s="100"/>
       <c r="CG28" s="85" t="str">
@@ -14954,19 +14958,19 @@
       </c>
       <c r="CP28" s="96">
         <f t="shared" si="38"/>
-        <v>40.9375</v>
+        <v>32.75</v>
       </c>
       <c r="CQ28" s="92">
         <f t="shared" si="39"/>
-        <v>40.9375</v>
+        <v>32.75</v>
       </c>
       <c r="CR28" s="92">
         <f t="shared" si="40"/>
-        <v>40.94</v>
+        <v>32.75</v>
       </c>
       <c r="CS28" s="97">
         <f t="shared" si="45"/>
-        <v>46.515999999999998</v>
+        <v>41.602000000000004</v>
       </c>
       <c r="CT28" s="97">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15194,14 +15198,14 @@
         <v>0</v>
       </c>
       <c r="CB29" s="100"/>
-      <c r="CC29" s="85" t="str">
+      <c r="CC29" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD29" s="100"/>
-      <c r="CE29" s="85" t="str">
+      <c r="CE29" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF29" s="100"/>
       <c r="CG29" s="85" t="str">
@@ -15230,19 +15234,19 @@
       </c>
       <c r="CP29" s="96">
         <f t="shared" si="38"/>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="CQ29" s="92">
         <f t="shared" si="39"/>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="CR29" s="92">
         <f t="shared" si="40"/>
-        <v>35.31</v>
+        <v>28.25</v>
       </c>
       <c r="CS29" s="97">
         <f t="shared" si="45"/>
-        <v>44.518000000000001</v>
+        <v>40.281999999999996</v>
       </c>
       <c r="CT29" s="97">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15468,14 +15472,14 @@
         <v>0</v>
       </c>
       <c r="CB30" s="100"/>
-      <c r="CC30" s="85" t="str">
+      <c r="CC30" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD30" s="100"/>
-      <c r="CE30" s="85" t="str">
+      <c r="CE30" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF30" s="100"/>
       <c r="CG30" s="85" t="str">
@@ -15504,19 +15508,19 @@
       </c>
       <c r="CP30" s="96">
         <f t="shared" si="38"/>
-        <v>36.875</v>
+        <v>29.5</v>
       </c>
       <c r="CQ30" s="92">
         <f t="shared" si="39"/>
-        <v>36.875</v>
+        <v>29.5</v>
       </c>
       <c r="CR30" s="92">
         <f t="shared" si="40"/>
-        <v>36.880000000000003</v>
+        <v>29.5</v>
       </c>
       <c r="CS30" s="97">
         <f t="shared" si="45"/>
-        <v>39.700000000000003</v>
+        <v>35.271999999999998</v>
       </c>
       <c r="CT30" s="97">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15742,14 +15746,14 @@
         <v>0</v>
       </c>
       <c r="CB31" s="100"/>
-      <c r="CC31" s="85" t="str">
+      <c r="CC31" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD31" s="100"/>
-      <c r="CE31" s="85" t="str">
+      <c r="CE31" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF31" s="100"/>
       <c r="CG31" s="85" t="str">
@@ -15778,19 +15782,19 @@
       </c>
       <c r="CP31" s="96">
         <f t="shared" si="38"/>
-        <v>36.5625</v>
+        <v>29.25</v>
       </c>
       <c r="CQ31" s="92">
         <f t="shared" si="39"/>
-        <v>36.5625</v>
+        <v>29.25</v>
       </c>
       <c r="CR31" s="92">
         <f t="shared" si="40"/>
-        <v>36.56</v>
+        <v>29.25</v>
       </c>
       <c r="CS31" s="97">
         <f t="shared" si="45"/>
-        <v>41.591999999999999</v>
+        <v>37.206000000000003</v>
       </c>
       <c r="CT31" s="97">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -16012,14 +16016,14 @@
         <v>0</v>
       </c>
       <c r="CB32" s="100"/>
-      <c r="CC32" s="85" t="str">
+      <c r="CC32" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD32" s="100"/>
-      <c r="CE32" s="85" t="str">
+      <c r="CE32" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF32" s="100"/>
       <c r="CG32" s="85" t="str">
@@ -16288,14 +16292,14 @@
         <v>0</v>
       </c>
       <c r="CB33" s="100"/>
-      <c r="CC33" s="85" t="str">
+      <c r="CC33" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD33" s="100"/>
-      <c r="CE33" s="85" t="str">
+      <c r="CE33" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF33" s="100"/>
       <c r="CG33" s="85" t="str">
@@ -16324,19 +16328,19 @@
       </c>
       <c r="CP33" s="96">
         <f t="shared" si="38"/>
-        <v>35.625</v>
+        <v>28.5</v>
       </c>
       <c r="CQ33" s="92">
         <f t="shared" si="39"/>
-        <v>35.625</v>
+        <v>28.5</v>
       </c>
       <c r="CR33" s="92">
         <f t="shared" si="40"/>
-        <v>35.630000000000003</v>
+        <v>28.5</v>
       </c>
       <c r="CS33" s="97">
         <f t="shared" si="45"/>
-        <v>43.122</v>
+        <v>38.843999999999994</v>
       </c>
       <c r="CT33" s="97">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -16566,14 +16570,14 @@
         <v>95</v>
       </c>
       <c r="CB34" s="100"/>
-      <c r="CC34" s="85" t="str">
+      <c r="CC34" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD34" s="100"/>
-      <c r="CE34" s="85" t="str">
+      <c r="CE34" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF34" s="100"/>
       <c r="CG34" s="85" t="str">
@@ -16602,19 +16606,19 @@
       </c>
       <c r="CP34" s="96">
         <f t="shared" si="38"/>
-        <v>45.9375</v>
+        <v>36.75</v>
       </c>
       <c r="CQ34" s="92">
         <f t="shared" si="39"/>
-        <v>45.9375</v>
+        <v>36.75</v>
       </c>
       <c r="CR34" s="92">
         <f t="shared" si="40"/>
-        <v>45.94</v>
+        <v>36.75</v>
       </c>
       <c r="CS34" s="97">
         <f t="shared" si="45"/>
-        <v>48.635999999999996</v>
+        <v>43.122</v>
       </c>
       <c r="CT34" s="97">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -16840,14 +16844,14 @@
         <v>0</v>
       </c>
       <c r="CB35" s="100"/>
-      <c r="CC35" s="85" t="str">
+      <c r="CC35" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD35" s="100"/>
-      <c r="CE35" s="85" t="str">
+      <c r="CE35" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF35" s="100"/>
       <c r="CG35" s="85" t="str">
@@ -16876,19 +16880,19 @@
       </c>
       <c r="CP35" s="96">
         <f t="shared" si="38"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CQ35" s="92">
         <f t="shared" si="39"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CR35" s="92">
         <f t="shared" si="40"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CS35" s="97">
         <f t="shared" si="45"/>
-        <v>42.078000000000003</v>
+        <v>37.427999999999997</v>
       </c>
       <c r="CT35" s="97">
         <f>IFERROR(VLOOKUP(CS35,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -17110,14 +17114,14 @@
         <v>0</v>
       </c>
       <c r="CB36" s="100"/>
-      <c r="CC36" s="85" t="str">
+      <c r="CC36" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD36" s="100"/>
-      <c r="CE36" s="85" t="str">
+      <c r="CE36" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF36" s="100"/>
       <c r="CG36" s="85" t="str">
@@ -17146,19 +17150,19 @@
       </c>
       <c r="CP36" s="96">
         <f t="shared" si="38"/>
-        <v>4.375</v>
+        <v>3.5</v>
       </c>
       <c r="CQ36" s="92">
         <f t="shared" si="39"/>
-        <v>4.375</v>
+        <v>3.5</v>
       </c>
       <c r="CR36" s="92">
         <f t="shared" si="40"/>
-        <v>4.38</v>
+        <v>3.5</v>
       </c>
       <c r="CS36" s="97">
         <f t="shared" si="45"/>
-        <v>2.6279999999999997</v>
+        <v>2.1</v>
       </c>
       <c r="CT36" s="97">
         <f>IFERROR(VLOOKUP(CS36,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -17386,14 +17390,14 @@
         <v>0</v>
       </c>
       <c r="CB37" s="100"/>
-      <c r="CC37" s="85" t="str">
+      <c r="CC37" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD37" s="100"/>
-      <c r="CE37" s="85" t="str">
+      <c r="CE37" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF37" s="100"/>
       <c r="CG37" s="85" t="str">
@@ -17422,19 +17426,19 @@
       </c>
       <c r="CP37" s="96">
         <f t="shared" si="38"/>
-        <v>38.125</v>
+        <v>30.5</v>
       </c>
       <c r="CQ37" s="92">
         <f t="shared" si="39"/>
-        <v>38.125</v>
+        <v>30.5</v>
       </c>
       <c r="CR37" s="92">
         <f t="shared" si="40"/>
-        <v>38.130000000000003</v>
+        <v>30.5</v>
       </c>
       <c r="CS37" s="97">
         <f t="shared" si="45"/>
-        <v>45.793999999999997</v>
+        <v>41.216000000000001</v>
       </c>
       <c r="CT37" s="97">
         <f>IFERROR(VLOOKUP(CS37,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -17660,14 +17664,14 @@
         <v>0</v>
       </c>
       <c r="CB38" s="100"/>
-      <c r="CC38" s="85" t="str">
+      <c r="CC38" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD38" s="100"/>
-      <c r="CE38" s="85" t="str">
+      <c r="CE38" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF38" s="100"/>
       <c r="CG38" s="85" t="str">
@@ -17696,19 +17700,19 @@
       </c>
       <c r="CP38" s="96">
         <f t="shared" si="38"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CQ38" s="92">
         <f t="shared" si="39"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CR38" s="92">
         <f t="shared" si="40"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CS38" s="97">
         <f t="shared" si="45"/>
-        <v>40.466000000000001</v>
+        <v>35.816000000000003</v>
       </c>
       <c r="CT38" s="97">
         <f>IFERROR(VLOOKUP(CS38,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -17936,14 +17940,14 @@
         <v>90</v>
       </c>
       <c r="CB39" s="100"/>
-      <c r="CC39" s="85" t="str">
+      <c r="CC39" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD39" s="100"/>
-      <c r="CE39" s="85" t="str">
+      <c r="CE39" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF39" s="100"/>
       <c r="CG39" s="85" t="str">
@@ -17972,19 +17976,19 @@
       </c>
       <c r="CP39" s="96">
         <f t="shared" si="38"/>
-        <v>42.1875</v>
+        <v>33.75</v>
       </c>
       <c r="CQ39" s="92">
         <f t="shared" si="39"/>
-        <v>42.1875</v>
+        <v>33.75</v>
       </c>
       <c r="CR39" s="92">
         <f t="shared" si="40"/>
-        <v>42.19</v>
+        <v>33.75</v>
       </c>
       <c r="CS39" s="97">
         <f t="shared" si="45"/>
-        <v>43.158000000000001</v>
+        <v>38.094000000000001</v>
       </c>
       <c r="CT39" s="97">
         <f>IFERROR(VLOOKUP(CS39,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -18212,14 +18216,14 @@
         <v>0</v>
       </c>
       <c r="CB40" s="100"/>
-      <c r="CC40" s="85" t="str">
+      <c r="CC40" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD40" s="100"/>
-      <c r="CE40" s="85" t="str">
+      <c r="CE40" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF40" s="100"/>
       <c r="CG40" s="85" t="str">
@@ -18248,19 +18252,19 @@
       </c>
       <c r="CP40" s="96">
         <f t="shared" si="38"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CQ40" s="92">
         <f t="shared" si="39"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CR40" s="92">
         <f t="shared" si="40"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CS40" s="97">
         <f t="shared" si="45"/>
-        <v>43.978000000000002</v>
+        <v>39.328000000000003</v>
       </c>
       <c r="CT40" s="97">
         <f>IFERROR(VLOOKUP(CS40,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -18490,14 +18494,14 @@
         <v>95</v>
       </c>
       <c r="CB41" s="100"/>
-      <c r="CC41" s="85" t="str">
+      <c r="CC41" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD41" s="100"/>
-      <c r="CE41" s="85" t="str">
+      <c r="CE41" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF41" s="100"/>
       <c r="CG41" s="85" t="str">
@@ -18526,19 +18530,19 @@
       </c>
       <c r="CP41" s="96">
         <f t="shared" si="38"/>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="CQ41" s="92">
         <f t="shared" si="39"/>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="CR41" s="92">
         <f t="shared" si="40"/>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="CS41" s="97">
         <f t="shared" si="45"/>
-        <v>48.268000000000001</v>
+        <v>43.167999999999999</v>
       </c>
       <c r="CT41" s="97">
         <f>IFERROR(VLOOKUP(CS41,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -18764,14 +18768,14 @@
         <v>0</v>
       </c>
       <c r="CB42" s="100"/>
-      <c r="CC42" s="85" t="str">
+      <c r="CC42" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD42" s="100"/>
-      <c r="CE42" s="85" t="str">
+      <c r="CE42" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF42" s="100"/>
       <c r="CG42" s="85" t="str">
@@ -18800,19 +18804,19 @@
       </c>
       <c r="CP42" s="96">
         <f t="shared" si="38"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CQ42" s="92">
         <f t="shared" si="39"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CR42" s="92">
         <f t="shared" si="40"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CS42" s="97">
         <f t="shared" si="45"/>
-        <v>40.894000000000005</v>
+        <v>36.244</v>
       </c>
       <c r="CT42" s="97">
         <f>IFERROR(VLOOKUP(CS42,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19042,14 +19046,14 @@
         <v>90</v>
       </c>
       <c r="CB43" s="100"/>
-      <c r="CC43" s="85" t="str">
+      <c r="CC43" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD43" s="100"/>
-      <c r="CE43" s="85" t="str">
+      <c r="CE43" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF43" s="100"/>
       <c r="CG43" s="85" t="str">
@@ -19078,19 +19082,19 @@
       </c>
       <c r="CP43" s="96">
         <f t="shared" si="38"/>
-        <v>40.9375</v>
+        <v>32.75</v>
       </c>
       <c r="CQ43" s="92">
         <f t="shared" si="39"/>
-        <v>40.9375</v>
+        <v>32.75</v>
       </c>
       <c r="CR43" s="92">
         <f t="shared" si="40"/>
-        <v>40.94</v>
+        <v>32.75</v>
       </c>
       <c r="CS43" s="97">
         <f t="shared" si="45"/>
-        <v>42.135999999999996</v>
+        <v>37.221999999999994</v>
       </c>
       <c r="CT43" s="97">
         <f>IFERROR(VLOOKUP(CS43,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19318,14 +19322,14 @@
         <v>0</v>
       </c>
       <c r="CB44" s="100"/>
-      <c r="CC44" s="85" t="str">
+      <c r="CC44" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD44" s="100"/>
-      <c r="CE44" s="85" t="str">
+      <c r="CE44" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF44" s="100"/>
       <c r="CG44" s="85" t="str">
@@ -19354,19 +19358,19 @@
       </c>
       <c r="CP44" s="96">
         <f t="shared" si="38"/>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="CQ44" s="92">
         <f t="shared" si="39"/>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="CR44" s="92">
         <f t="shared" si="40"/>
-        <v>35.31</v>
+        <v>28.25</v>
       </c>
       <c r="CS44" s="97">
         <f t="shared" si="45"/>
-        <v>42.978000000000002</v>
+        <v>38.742000000000004</v>
       </c>
       <c r="CT44" s="97">
         <f>IFERROR(VLOOKUP(CS44,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19594,14 +19598,14 @@
         <v>0</v>
       </c>
       <c r="CB45" s="100"/>
-      <c r="CC45" s="85" t="str">
+      <c r="CC45" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD45" s="100"/>
-      <c r="CE45" s="85" t="str">
+      <c r="CE45" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF45" s="100"/>
       <c r="CG45" s="85" t="str">
@@ -19630,19 +19634,19 @@
       </c>
       <c r="CP45" s="96">
         <f t="shared" si="38"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="CQ45" s="92">
         <f t="shared" si="39"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="CR45" s="92">
         <f t="shared" si="40"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="CS45" s="97">
         <f t="shared" si="45"/>
-        <v>40.816000000000003</v>
+        <v>36.616</v>
       </c>
       <c r="CT45" s="97">
         <f>IFERROR(VLOOKUP(CS45,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19868,14 +19872,14 @@
         <v>0</v>
       </c>
       <c r="CB46" s="100"/>
-      <c r="CC46" s="85" t="str">
+      <c r="CC46" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD46" s="100"/>
-      <c r="CE46" s="85" t="str">
+      <c r="CE46" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF46" s="100"/>
       <c r="CG46" s="85" t="str">
@@ -19904,19 +19908,19 @@
       </c>
       <c r="CP46" s="96">
         <f t="shared" si="38"/>
-        <v>36.875</v>
+        <v>29.5</v>
       </c>
       <c r="CQ46" s="92">
         <f t="shared" si="39"/>
-        <v>36.875</v>
+        <v>29.5</v>
       </c>
       <c r="CR46" s="92">
         <f t="shared" si="40"/>
-        <v>36.880000000000003</v>
+        <v>29.5</v>
       </c>
       <c r="CS46" s="97">
         <f t="shared" si="45"/>
-        <v>39.644000000000005</v>
+        <v>35.216000000000001</v>
       </c>
       <c r="CT46" s="97">
         <f>IFERROR(VLOOKUP(CS46,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -20146,14 +20150,14 @@
         <v>95</v>
       </c>
       <c r="CB47" s="100"/>
-      <c r="CC47" s="85" t="str">
+      <c r="CC47" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD47" s="100"/>
-      <c r="CE47" s="85" t="str">
+      <c r="CE47" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF47" s="100"/>
       <c r="CG47" s="85" t="str">
@@ -20182,19 +20186,19 @@
       </c>
       <c r="CP47" s="96">
         <f t="shared" si="38"/>
-        <v>42.8125</v>
+        <v>34.25</v>
       </c>
       <c r="CQ47" s="92">
         <f t="shared" si="39"/>
-        <v>42.8125</v>
+        <v>34.25</v>
       </c>
       <c r="CR47" s="92">
         <f t="shared" si="40"/>
-        <v>42.81</v>
+        <v>34.25</v>
       </c>
       <c r="CS47" s="97">
         <f t="shared" si="45"/>
-        <v>46.466000000000001</v>
+        <v>41.33</v>
       </c>
       <c r="CT47" s="97">
         <f>IFERROR(VLOOKUP(CS47,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -20422,14 +20426,14 @@
         <v>0</v>
       </c>
       <c r="CB48" s="100"/>
-      <c r="CC48" s="85" t="str">
+      <c r="CC48" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD48" s="100"/>
-      <c r="CE48" s="85" t="str">
+      <c r="CE48" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF48" s="100"/>
       <c r="CG48" s="85" t="str">
@@ -20458,19 +20462,19 @@
       </c>
       <c r="CP48" s="96">
         <f t="shared" si="38"/>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="CQ48" s="92">
         <f t="shared" si="39"/>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="CR48" s="92">
         <f t="shared" si="40"/>
-        <v>35.31</v>
+        <v>28.25</v>
       </c>
       <c r="CS48" s="97">
         <f t="shared" si="45"/>
-        <v>43.602000000000004</v>
+        <v>39.366</v>
       </c>
       <c r="CT48" s="97">
         <f>IFERROR(VLOOKUP(CS48,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -20700,14 +20704,14 @@
         <v>95</v>
       </c>
       <c r="CB49" s="100"/>
-      <c r="CC49" s="85" t="str">
+      <c r="CC49" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD49" s="100"/>
-      <c r="CE49" s="85" t="str">
+      <c r="CE49" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF49" s="100"/>
       <c r="CG49" s="85" t="str">
@@ -20736,19 +20740,19 @@
       </c>
       <c r="CP49" s="96">
         <f t="shared" si="38"/>
-        <v>42.8125</v>
+        <v>34.25</v>
       </c>
       <c r="CQ49" s="92">
         <f t="shared" si="39"/>
-        <v>42.8125</v>
+        <v>34.25</v>
       </c>
       <c r="CR49" s="92">
         <f t="shared" si="40"/>
-        <v>42.81</v>
+        <v>34.25</v>
       </c>
       <c r="CS49" s="97">
         <f t="shared" si="45"/>
-        <v>44.97</v>
+        <v>39.834000000000003</v>
       </c>
       <c r="CT49" s="97">
         <f>IFERROR(VLOOKUP(CS49,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -20978,14 +20982,14 @@
         <v>95</v>
       </c>
       <c r="CB50" s="100"/>
-      <c r="CC50" s="85" t="str">
+      <c r="CC50" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD50" s="100"/>
-      <c r="CE50" s="85" t="str">
+      <c r="CE50" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF50" s="100"/>
       <c r="CG50" s="85" t="str">
@@ -21014,19 +21018,19 @@
       </c>
       <c r="CP50" s="96">
         <f t="shared" si="38"/>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="CQ50" s="92">
         <f t="shared" si="39"/>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="CR50" s="92">
         <f t="shared" si="40"/>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="CS50" s="97">
         <f t="shared" si="45"/>
-        <v>49.823999999999998</v>
+        <v>44.724000000000004</v>
       </c>
       <c r="CT50" s="97">
         <f>IFERROR(VLOOKUP(CS50,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -21254,14 +21258,14 @@
         <v>0</v>
       </c>
       <c r="CB51" s="100"/>
-      <c r="CC51" s="85" t="str">
+      <c r="CC51" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD51" s="100"/>
-      <c r="CE51" s="85" t="str">
+      <c r="CE51" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF51" s="100"/>
       <c r="CG51" s="85" t="str">
@@ -21290,19 +21294,19 @@
       </c>
       <c r="CP51" s="96">
         <f t="shared" si="38"/>
-        <v>38.4375</v>
+        <v>30.75</v>
       </c>
       <c r="CQ51" s="92">
         <f t="shared" si="39"/>
-        <v>38.4375</v>
+        <v>30.75</v>
       </c>
       <c r="CR51" s="92">
         <f t="shared" si="40"/>
-        <v>38.44</v>
+        <v>30.75</v>
       </c>
       <c r="CS51" s="97">
         <f t="shared" si="45"/>
-        <v>46.323999999999998</v>
+        <v>41.71</v>
       </c>
       <c r="CT51" s="97">
         <f>IFERROR(VLOOKUP(CS51,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -21530,14 +21534,14 @@
         <v>0</v>
       </c>
       <c r="CB52" s="100"/>
-      <c r="CC52" s="85" t="str">
+      <c r="CC52" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD52" s="100"/>
-      <c r="CE52" s="85" t="str">
+      <c r="CE52" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF52" s="100"/>
       <c r="CG52" s="85" t="str">
@@ -21566,19 +21570,19 @@
       </c>
       <c r="CP52" s="96">
         <f t="shared" si="38"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CQ52" s="92">
         <f t="shared" si="39"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CR52" s="92">
         <f t="shared" si="40"/>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="CS52" s="97">
         <f t="shared" si="45"/>
-        <v>49.63</v>
+        <v>44.980000000000004</v>
       </c>
       <c r="CT52" s="97">
         <f>IFERROR(VLOOKUP(CS52,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -21806,14 +21810,14 @@
         <v>0</v>
       </c>
       <c r="CB53" s="100"/>
-      <c r="CC53" s="85" t="str">
+      <c r="CC53" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD53" s="100"/>
-      <c r="CE53" s="85" t="str">
+      <c r="CE53" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF53" s="100"/>
       <c r="CG53" s="85" t="str">
@@ -21842,19 +21846,19 @@
       </c>
       <c r="CP53" s="96">
         <f t="shared" si="38"/>
-        <v>36.5625</v>
+        <v>29.25</v>
       </c>
       <c r="CQ53" s="92">
         <f t="shared" si="39"/>
-        <v>36.5625</v>
+        <v>29.25</v>
       </c>
       <c r="CR53" s="92">
         <f t="shared" si="40"/>
-        <v>36.56</v>
+        <v>29.25</v>
       </c>
       <c r="CS53" s="97">
         <f t="shared" si="45"/>
-        <v>45.260000000000005</v>
+        <v>40.874000000000002</v>
       </c>
       <c r="CT53" s="97">
         <f>IFERROR(VLOOKUP(CS53,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22084,14 +22088,14 @@
         <v>90</v>
       </c>
       <c r="CB54" s="100"/>
-      <c r="CC54" s="85" t="str">
+      <c r="CC54" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD54" s="100"/>
-      <c r="CE54" s="85" t="str">
+      <c r="CE54" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF54" s="100"/>
       <c r="CG54" s="85" t="str">
@@ -22120,19 +22124,19 @@
       </c>
       <c r="CP54" s="96">
         <f t="shared" si="38"/>
-        <v>40.625</v>
+        <v>32.5</v>
       </c>
       <c r="CQ54" s="92">
         <f t="shared" si="39"/>
-        <v>40.625</v>
+        <v>32.5</v>
       </c>
       <c r="CR54" s="92">
         <f t="shared" si="40"/>
-        <v>40.630000000000003</v>
+        <v>32.5</v>
       </c>
       <c r="CS54" s="97">
         <f t="shared" si="45"/>
-        <v>46.397999999999996</v>
+        <v>41.519999999999996</v>
       </c>
       <c r="CT54" s="97">
         <f>IFERROR(VLOOKUP(CS54,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22362,14 +22366,14 @@
         <v>85</v>
       </c>
       <c r="CB55" s="100"/>
-      <c r="CC55" s="85" t="str">
+      <c r="CC55" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD55" s="100"/>
-      <c r="CE55" s="85" t="str">
+      <c r="CE55" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF55" s="100"/>
       <c r="CG55" s="85" t="str">
@@ -22398,19 +22402,19 @@
       </c>
       <c r="CP55" s="96">
         <f t="shared" si="38"/>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="CQ55" s="92">
         <f t="shared" si="39"/>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="CR55" s="92">
         <f t="shared" si="40"/>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="CS55" s="97">
         <f t="shared" si="45"/>
-        <v>48.86</v>
+        <v>43.76</v>
       </c>
       <c r="CT55" s="97">
         <f>IFERROR(VLOOKUP(CS55,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22638,14 +22642,14 @@
         <v>0</v>
       </c>
       <c r="CB56" s="100"/>
-      <c r="CC56" s="85" t="str">
+      <c r="CC56" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD56" s="100"/>
-      <c r="CE56" s="85" t="str">
+      <c r="CE56" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF56" s="100"/>
       <c r="CG56" s="85" t="str">
@@ -22674,19 +22678,19 @@
       </c>
       <c r="CP56" s="96">
         <f t="shared" si="38"/>
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="CQ56" s="92">
         <f t="shared" si="39"/>
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="CR56" s="92">
         <f t="shared" si="40"/>
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="CS56" s="97">
         <f t="shared" si="45"/>
-        <v>44.144000000000005</v>
+        <v>39.644000000000005</v>
       </c>
       <c r="CT56" s="97">
         <f>IFERROR(VLOOKUP(CS56,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22916,14 +22920,14 @@
         <v>90</v>
       </c>
       <c r="CB57" s="100"/>
-      <c r="CC57" s="85" t="str">
+      <c r="CC57" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD57" s="100"/>
-      <c r="CE57" s="85" t="str">
+      <c r="CE57" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF57" s="100"/>
       <c r="CG57" s="85" t="str">
@@ -22952,19 +22956,19 @@
       </c>
       <c r="CP57" s="96">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>35.5</v>
       </c>
       <c r="CQ57" s="92">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>35.5</v>
       </c>
       <c r="CR57" s="92">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>35.5</v>
       </c>
       <c r="CS57" s="97">
         <f t="shared" si="45"/>
-        <v>50.103999999999999</v>
+        <v>44.775999999999996</v>
       </c>
       <c r="CT57" s="97">
         <f>IFERROR(VLOOKUP(CS57,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -23194,14 +23198,14 @@
         <v>90</v>
       </c>
       <c r="CB58" s="100"/>
-      <c r="CC58" s="85" t="str">
+      <c r="CC58" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD58" s="100"/>
-      <c r="CE58" s="85" t="str">
+      <c r="CE58" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF58" s="100"/>
       <c r="CG58" s="85" t="str">
@@ -23230,19 +23234,19 @@
       </c>
       <c r="CP58" s="96">
         <f t="shared" si="38"/>
-        <v>41.875</v>
+        <v>33.5</v>
       </c>
       <c r="CQ58" s="92">
         <f t="shared" si="39"/>
-        <v>41.875</v>
+        <v>33.5</v>
       </c>
       <c r="CR58" s="92">
         <f t="shared" si="40"/>
-        <v>41.88</v>
+        <v>33.5</v>
       </c>
       <c r="CS58" s="97">
         <f t="shared" si="45"/>
-        <v>47.707999999999998</v>
+        <v>42.68</v>
       </c>
       <c r="CT58" s="97">
         <f>IFERROR(VLOOKUP(CS58,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -23472,14 +23476,14 @@
         <v>90</v>
       </c>
       <c r="CB59" s="100"/>
-      <c r="CC59" s="85" t="str">
+      <c r="CC59" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD59" s="100"/>
-      <c r="CE59" s="85" t="str">
+      <c r="CE59" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF59" s="100"/>
       <c r="CG59" s="85" t="str">
@@ -23508,19 +23512,19 @@
       </c>
       <c r="CP59" s="96">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>35.5</v>
       </c>
       <c r="CQ59" s="92">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>35.5</v>
       </c>
       <c r="CR59" s="92">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>35.5</v>
       </c>
       <c r="CS59" s="97">
         <f t="shared" si="45"/>
-        <v>50.2</v>
+        <v>44.872</v>
       </c>
       <c r="CT59" s="97">
         <f>IFERROR(VLOOKUP(CS59,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -23544,14 +23548,16 @@
         <f>CONCATENATE(REGISTRATION!C61," ",REGISTRATION!D61," ",REGISTRATION!E61)</f>
         <v>Leah Capanas M</v>
       </c>
-      <c r="D60" s="101"/>
+      <c r="D60" s="101">
+        <v>56</v>
+      </c>
       <c r="E60" s="85">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F60" s="88">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G60" s="101"/>
       <c r="H60" s="85">
@@ -23562,15 +23568,19 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J60" s="101"/>
+      <c r="J60" s="101">
+        <v>16</v>
+      </c>
       <c r="K60" s="85">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="101"/>
+        <v>80</v>
+      </c>
+      <c r="L60" s="101">
+        <v>20</v>
+      </c>
       <c r="M60" s="85">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="N60" s="101">
         <v>8</v>
@@ -23614,7 +23624,7 @@
       <c r="AM60" s="87"/>
       <c r="AN60" s="88">
         <f t="shared" si="9"/>
-        <v>1.142857142857143</v>
+        <v>8</v>
       </c>
       <c r="AO60" s="101">
         <v>50</v>
@@ -23660,11 +23670,11 @@
       </c>
       <c r="BC60" s="91">
         <f t="shared" si="18"/>
-        <v>16.142857142857142</v>
+        <v>47</v>
       </c>
       <c r="BD60" s="91">
         <f t="shared" si="19"/>
-        <v>16.14</v>
+        <v>47</v>
       </c>
       <c r="BE60" s="101"/>
       <c r="BF60" s="85">
@@ -23726,14 +23736,14 @@
         <v>0</v>
       </c>
       <c r="CB60" s="100"/>
-      <c r="CC60" s="85" t="str">
+      <c r="CC60" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD60" s="100"/>
-      <c r="CE60" s="85" t="str">
+      <c r="CE60" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF60" s="100"/>
       <c r="CG60" s="85" t="str">
@@ -23774,7 +23784,7 @@
       </c>
       <c r="CS60" s="97">
         <f t="shared" si="45"/>
-        <v>6.4560000000000004</v>
+        <v>18.8</v>
       </c>
       <c r="CT60" s="97">
         <f>IFERROR(VLOOKUP(CS60,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -23974,14 +23984,14 @@
         <v>0</v>
       </c>
       <c r="CB61" s="100"/>
-      <c r="CC61" s="85" t="str">
+      <c r="CC61" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD61" s="100"/>
-      <c r="CE61" s="85" t="str">
+      <c r="CE61" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF61" s="100"/>
       <c r="CG61" s="85" t="str">
@@ -24222,14 +24232,14 @@
         <v>0</v>
       </c>
       <c r="CB62" s="100"/>
-      <c r="CC62" s="85" t="str">
+      <c r="CC62" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD62" s="100"/>
-      <c r="CE62" s="85" t="str">
+      <c r="CE62" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF62" s="100"/>
       <c r="CG62" s="85" t="str">
@@ -24470,14 +24480,14 @@
         <v>0</v>
       </c>
       <c r="CB63" s="100"/>
-      <c r="CC63" s="85" t="str">
+      <c r="CC63" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD63" s="100"/>
-      <c r="CE63" s="85" t="str">
+      <c r="CE63" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF63" s="100"/>
       <c r="CG63" s="85" t="str">
@@ -24718,14 +24728,14 @@
         <v>0</v>
       </c>
       <c r="CB64" s="100"/>
-      <c r="CC64" s="85" t="str">
+      <c r="CC64" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD64" s="100"/>
-      <c r="CE64" s="85" t="str">
+      <c r="CE64" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF64" s="100"/>
       <c r="CG64" s="85" t="str">
@@ -24966,14 +24976,14 @@
         <v>0</v>
       </c>
       <c r="CB65" s="100"/>
-      <c r="CC65" s="85" t="str">
+      <c r="CC65" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD65" s="100"/>
-      <c r="CE65" s="85" t="str">
+      <c r="CE65" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF65" s="100"/>
       <c r="CG65" s="85" t="str">
@@ -25214,14 +25224,14 @@
         <v>0</v>
       </c>
       <c r="CB66" s="100"/>
-      <c r="CC66" s="85" t="str">
+      <c r="CC66" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD66" s="100"/>
-      <c r="CE66" s="85" t="str">
+      <c r="CE66" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF66" s="100"/>
       <c r="CG66" s="85" t="str">
@@ -25462,14 +25472,14 @@
         <v>0</v>
       </c>
       <c r="CB67" s="100"/>
-      <c r="CC67" s="85" t="str">
+      <c r="CC67" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD67" s="100"/>
-      <c r="CE67" s="85" t="str">
+      <c r="CE67" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF67" s="100"/>
       <c r="CG67" s="85" t="str">
@@ -25710,14 +25720,14 @@
         <v>0</v>
       </c>
       <c r="CB68" s="100"/>
-      <c r="CC68" s="85" t="str">
+      <c r="CC68" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD68" s="100"/>
-      <c r="CE68" s="85" t="str">
+      <c r="CE68" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF68" s="100"/>
       <c r="CG68" s="85" t="str">
@@ -25958,14 +25968,14 @@
         <v>0</v>
       </c>
       <c r="CB69" s="100"/>
-      <c r="CC69" s="85" t="str">
+      <c r="CC69" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD69" s="100"/>
-      <c r="CE69" s="85" t="str">
+      <c r="CE69" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF69" s="100"/>
       <c r="CG69" s="85" t="str">
@@ -26206,14 +26216,14 @@
         <v>0</v>
       </c>
       <c r="CB70" s="100"/>
-      <c r="CC70" s="85" t="str">
+      <c r="CC70" s="85">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD70" s="100"/>
-      <c r="CE70" s="85" t="str">
+      <c r="CE70" s="85">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF70" s="100"/>
       <c r="CG70" s="85" t="str">
@@ -26601,19 +26611,19 @@
       </c>
       <c r="K8" s="51">
         <f>'RAW GRADES'!CP10</f>
-        <v>35.9375</v>
+        <v>28.75</v>
       </c>
       <c r="L8" s="51">
         <f>'RAW GRADES'!CQ10</f>
-        <v>35.9375</v>
+        <v>28.75</v>
       </c>
       <c r="M8" s="53">
         <f>'RAW GRADES'!CR10</f>
-        <v>35.94</v>
+        <v>28.75</v>
       </c>
       <c r="N8" s="54">
         <f>'RAW GRADES'!CS10</f>
-        <v>45.56</v>
+        <v>41.246000000000002</v>
       </c>
       <c r="O8" s="55">
         <f>'RAW GRADES'!CT10</f>
@@ -26666,19 +26676,19 @@
       </c>
       <c r="K9" s="51">
         <f>'RAW GRADES'!CP11</f>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="L9" s="51">
         <f>'RAW GRADES'!CQ11</f>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="M9" s="53">
         <f>'RAW GRADES'!CR11</f>
-        <v>35.31</v>
+        <v>28.25</v>
       </c>
       <c r="N9" s="57">
         <f>'RAW GRADES'!CS11</f>
-        <v>40.165999999999997</v>
+        <v>35.93</v>
       </c>
       <c r="O9" s="55">
         <f>'RAW GRADES'!CT11</f>
@@ -26731,19 +26741,19 @@
       </c>
       <c r="K10" s="51">
         <f>'RAW GRADES'!CP12</f>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="L10" s="51">
         <f>'RAW GRADES'!CQ12</f>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="M10" s="53">
         <f>'RAW GRADES'!CR12</f>
-        <v>35.31</v>
+        <v>28.25</v>
       </c>
       <c r="N10" s="57">
         <f>'RAW GRADES'!CS12</f>
-        <v>42.626000000000005</v>
+        <v>38.39</v>
       </c>
       <c r="O10" s="55">
         <f>'RAW GRADES'!CT12</f>
@@ -26796,19 +26806,19 @@
       </c>
       <c r="K11" s="51">
         <f>'RAW GRADES'!CP13</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="L11" s="51">
         <f>'RAW GRADES'!CQ13</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="M11" s="53">
         <f>'RAW GRADES'!CR13</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="N11" s="57">
         <f>'RAW GRADES'!CS13</f>
-        <v>40.866</v>
+        <v>36.215999999999994</v>
       </c>
       <c r="O11" s="55">
         <f>'RAW GRADES'!CT13</f>
@@ -26861,19 +26871,19 @@
       </c>
       <c r="K12" s="51">
         <f>'RAW GRADES'!CP14</f>
-        <v>47.8125</v>
+        <v>38.25</v>
       </c>
       <c r="L12" s="51">
         <f>'RAW GRADES'!CQ14</f>
-        <v>47.8125</v>
+        <v>38.25</v>
       </c>
       <c r="M12" s="53">
         <f>'RAW GRADES'!CR14</f>
-        <v>47.81</v>
+        <v>38.25</v>
       </c>
       <c r="N12" s="57">
         <f>'RAW GRADES'!CS14</f>
-        <v>54.045999999999999</v>
+        <v>48.31</v>
       </c>
       <c r="O12" s="55">
         <f>'RAW GRADES'!CT14</f>
@@ -26926,19 +26936,19 @@
       </c>
       <c r="K13" s="51">
         <f>'RAW GRADES'!CP15</f>
-        <v>44.6875</v>
+        <v>35.75</v>
       </c>
       <c r="L13" s="51">
         <f>'RAW GRADES'!CQ15</f>
-        <v>44.6875</v>
+        <v>35.75</v>
       </c>
       <c r="M13" s="53">
         <f>'RAW GRADES'!CR15</f>
-        <v>44.69</v>
+        <v>35.75</v>
       </c>
       <c r="N13" s="57">
         <f>'RAW GRADES'!CS15</f>
-        <v>51.105999999999995</v>
+        <v>45.742000000000004</v>
       </c>
       <c r="O13" s="55">
         <f>'RAW GRADES'!CT15</f>
@@ -26991,19 +27001,19 @@
       </c>
       <c r="K14" s="51">
         <f>'RAW GRADES'!CP16</f>
-        <v>31.25</v>
+        <v>25</v>
       </c>
       <c r="L14" s="51">
         <f>'RAW GRADES'!CQ16</f>
-        <v>31.25</v>
+        <v>25</v>
       </c>
       <c r="M14" s="53">
         <f>'RAW GRADES'!CR16</f>
-        <v>31.25</v>
+        <v>25</v>
       </c>
       <c r="N14" s="57">
         <f>'RAW GRADES'!CS16</f>
-        <v>35.201999999999998</v>
+        <v>31.452000000000002</v>
       </c>
       <c r="O14" s="55">
         <f>'RAW GRADES'!CT16</f>
@@ -27056,19 +27066,19 @@
       </c>
       <c r="K15" s="51">
         <f>'RAW GRADES'!CP17</f>
-        <v>40.9375</v>
+        <v>32.75</v>
       </c>
       <c r="L15" s="51">
         <f>'RAW GRADES'!CQ17</f>
-        <v>40.9375</v>
+        <v>32.75</v>
       </c>
       <c r="M15" s="53">
         <f>'RAW GRADES'!CR17</f>
-        <v>40.94</v>
+        <v>32.75</v>
       </c>
       <c r="N15" s="57">
         <f>'RAW GRADES'!CS17</f>
-        <v>47.06</v>
+        <v>42.146000000000001</v>
       </c>
       <c r="O15" s="55">
         <f>'RAW GRADES'!CT17</f>
@@ -27121,19 +27131,19 @@
       </c>
       <c r="K16" s="51">
         <f>'RAW GRADES'!CP18</f>
-        <v>38.4375</v>
+        <v>30.75</v>
       </c>
       <c r="L16" s="51">
         <f>'RAW GRADES'!CQ18</f>
-        <v>38.4375</v>
+        <v>30.75</v>
       </c>
       <c r="M16" s="53">
         <f>'RAW GRADES'!CR18</f>
-        <v>38.44</v>
+        <v>30.75</v>
       </c>
       <c r="N16" s="57">
         <f>'RAW GRADES'!CS18</f>
-        <v>42.447999999999993</v>
+        <v>37.834000000000003</v>
       </c>
       <c r="O16" s="55">
         <f>'RAW GRADES'!CT18</f>
@@ -27186,19 +27196,19 @@
       </c>
       <c r="K17" s="51">
         <f>'RAW GRADES'!CP19</f>
-        <v>34.6875</v>
+        <v>27.75</v>
       </c>
       <c r="L17" s="51">
         <f>'RAW GRADES'!CQ19</f>
-        <v>34.6875</v>
+        <v>27.75</v>
       </c>
       <c r="M17" s="53">
         <f>'RAW GRADES'!CR19</f>
-        <v>34.69</v>
+        <v>27.75</v>
       </c>
       <c r="N17" s="57">
         <f>'RAW GRADES'!CS19</f>
-        <v>43.518000000000001</v>
+        <v>39.353999999999999</v>
       </c>
       <c r="O17" s="55">
         <f>'RAW GRADES'!CT19</f>
@@ -27315,19 +27325,19 @@
       </c>
       <c r="K19" s="51">
         <f>'RAW GRADES'!CP21</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="L19" s="51">
         <f>'RAW GRADES'!CQ21</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="M19" s="53">
         <f>'RAW GRADES'!CR21</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="N19" s="57">
         <f>'RAW GRADES'!CS21</f>
-        <v>46.010000000000005</v>
+        <v>41.36</v>
       </c>
       <c r="O19" s="55">
         <f>'RAW GRADES'!CT21</f>
@@ -27380,19 +27390,19 @@
       </c>
       <c r="K20" s="51">
         <f>'RAW GRADES'!CP22</f>
-        <v>38.125</v>
+        <v>30.5</v>
       </c>
       <c r="L20" s="51">
         <f>'RAW GRADES'!CQ22</f>
-        <v>38.125</v>
+        <v>30.5</v>
       </c>
       <c r="M20" s="53">
         <f>'RAW GRADES'!CR22</f>
-        <v>38.130000000000003</v>
+        <v>30.5</v>
       </c>
       <c r="N20" s="57">
         <f>'RAW GRADES'!CS22</f>
-        <v>44.725999999999999</v>
+        <v>40.147999999999996</v>
       </c>
       <c r="O20" s="55">
         <f>'RAW GRADES'!CT22</f>
@@ -27445,19 +27455,19 @@
       </c>
       <c r="K21" s="51">
         <f>'RAW GRADES'!CP23</f>
-        <v>44.375</v>
+        <v>35.5</v>
       </c>
       <c r="L21" s="51">
         <f>'RAW GRADES'!CQ23</f>
-        <v>44.375</v>
+        <v>35.5</v>
       </c>
       <c r="M21" s="53">
         <f>'RAW GRADES'!CR23</f>
-        <v>44.38</v>
+        <v>35.5</v>
       </c>
       <c r="N21" s="57">
         <f>'RAW GRADES'!CS23</f>
-        <v>48.344000000000001</v>
+        <v>43.016000000000005</v>
       </c>
       <c r="O21" s="55">
         <f>'RAW GRADES'!CT23</f>
@@ -27574,19 +27584,19 @@
       </c>
       <c r="K23" s="51">
         <f>'RAW GRADES'!CP25</f>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="L23" s="51">
         <f>'RAW GRADES'!CQ25</f>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="M23" s="53">
         <f>'RAW GRADES'!CR25</f>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="N23" s="57">
         <f>'RAW GRADES'!CS25</f>
-        <v>47.376000000000005</v>
+        <v>42.275999999999996</v>
       </c>
       <c r="O23" s="55">
         <f>'RAW GRADES'!CT25</f>
@@ -27639,19 +27649,19 @@
       </c>
       <c r="K24" s="51">
         <f>'RAW GRADES'!CP26</f>
-        <v>34.6875</v>
+        <v>27.75</v>
       </c>
       <c r="L24" s="51">
         <f>'RAW GRADES'!CQ26</f>
-        <v>34.6875</v>
+        <v>27.75</v>
       </c>
       <c r="M24" s="53">
         <f>'RAW GRADES'!CR26</f>
-        <v>34.69</v>
+        <v>27.75</v>
       </c>
       <c r="N24" s="57">
         <f>'RAW GRADES'!CS26</f>
-        <v>38.641999999999996</v>
+        <v>34.477999999999994</v>
       </c>
       <c r="O24" s="55">
         <f>'RAW GRADES'!CT26</f>
@@ -27704,19 +27714,19 @@
       </c>
       <c r="K25" s="51">
         <f>'RAW GRADES'!CP27</f>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="L25" s="51">
         <f>'RAW GRADES'!CQ27</f>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="M25" s="53">
         <f>'RAW GRADES'!CR27</f>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="N25" s="57">
         <f>'RAW GRADES'!CS27</f>
-        <v>46.415999999999997</v>
+        <v>41.316000000000003</v>
       </c>
       <c r="O25" s="55">
         <f>'RAW GRADES'!CT27</f>
@@ -27769,19 +27779,19 @@
       </c>
       <c r="K26" s="51">
         <f>'RAW GRADES'!CP28</f>
-        <v>40.9375</v>
+        <v>32.75</v>
       </c>
       <c r="L26" s="51">
         <f>'RAW GRADES'!CQ28</f>
-        <v>40.9375</v>
+        <v>32.75</v>
       </c>
       <c r="M26" s="53">
         <f>'RAW GRADES'!CR28</f>
-        <v>40.94</v>
+        <v>32.75</v>
       </c>
       <c r="N26" s="57">
         <f>'RAW GRADES'!CS28</f>
-        <v>46.515999999999998</v>
+        <v>41.602000000000004</v>
       </c>
       <c r="O26" s="55">
         <f>'RAW GRADES'!CT28</f>
@@ -27834,19 +27844,19 @@
       </c>
       <c r="K27" s="51">
         <f>'RAW GRADES'!CP29</f>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="L27" s="51">
         <f>'RAW GRADES'!CQ29</f>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="M27" s="53">
         <f>'RAW GRADES'!CR29</f>
-        <v>35.31</v>
+        <v>28.25</v>
       </c>
       <c r="N27" s="57">
         <f>'RAW GRADES'!CS29</f>
-        <v>44.518000000000001</v>
+        <v>40.281999999999996</v>
       </c>
       <c r="O27" s="55">
         <f>'RAW GRADES'!CT29</f>
@@ -27899,19 +27909,19 @@
       </c>
       <c r="K28" s="51">
         <f>'RAW GRADES'!CP30</f>
-        <v>36.875</v>
+        <v>29.5</v>
       </c>
       <c r="L28" s="51">
         <f>'RAW GRADES'!CQ30</f>
-        <v>36.875</v>
+        <v>29.5</v>
       </c>
       <c r="M28" s="53">
         <f>'RAW GRADES'!CR30</f>
-        <v>36.880000000000003</v>
+        <v>29.5</v>
       </c>
       <c r="N28" s="57">
         <f>'RAW GRADES'!CS30</f>
-        <v>39.700000000000003</v>
+        <v>35.271999999999998</v>
       </c>
       <c r="O28" s="55">
         <f>'RAW GRADES'!CT30</f>
@@ -27964,19 +27974,19 @@
       </c>
       <c r="K29" s="51">
         <f>'RAW GRADES'!CP31</f>
-        <v>36.5625</v>
+        <v>29.25</v>
       </c>
       <c r="L29" s="51">
         <f>'RAW GRADES'!CQ31</f>
-        <v>36.5625</v>
+        <v>29.25</v>
       </c>
       <c r="M29" s="53">
         <f>'RAW GRADES'!CR31</f>
-        <v>36.56</v>
+        <v>29.25</v>
       </c>
       <c r="N29" s="57">
         <f>'RAW GRADES'!CS31</f>
-        <v>41.591999999999999</v>
+        <v>37.206000000000003</v>
       </c>
       <c r="O29" s="55">
         <f>'RAW GRADES'!CT31</f>
@@ -28093,19 +28103,19 @@
       </c>
       <c r="K31" s="51">
         <f>'RAW GRADES'!CP33</f>
-        <v>35.625</v>
+        <v>28.5</v>
       </c>
       <c r="L31" s="51">
         <f>'RAW GRADES'!CQ33</f>
-        <v>35.625</v>
+        <v>28.5</v>
       </c>
       <c r="M31" s="53">
         <f>'RAW GRADES'!CR33</f>
-        <v>35.630000000000003</v>
+        <v>28.5</v>
       </c>
       <c r="N31" s="57">
         <f>'RAW GRADES'!CS33</f>
-        <v>43.122</v>
+        <v>38.843999999999994</v>
       </c>
       <c r="O31" s="55">
         <f>'RAW GRADES'!CT33</f>
@@ -28158,19 +28168,19 @@
       </c>
       <c r="K32" s="51">
         <f>'RAW GRADES'!CP34</f>
-        <v>45.9375</v>
+        <v>36.75</v>
       </c>
       <c r="L32" s="51">
         <f>'RAW GRADES'!CQ34</f>
-        <v>45.9375</v>
+        <v>36.75</v>
       </c>
       <c r="M32" s="53">
         <f>'RAW GRADES'!CR34</f>
-        <v>45.94</v>
+        <v>36.75</v>
       </c>
       <c r="N32" s="57">
         <f>'RAW GRADES'!CS34</f>
-        <v>48.635999999999996</v>
+        <v>43.122</v>
       </c>
       <c r="O32" s="55">
         <f>'RAW GRADES'!CT34</f>
@@ -28223,19 +28233,19 @@
       </c>
       <c r="K33" s="51">
         <f>'RAW GRADES'!CP35</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="L33" s="51">
         <f>'RAW GRADES'!CQ35</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="M33" s="53">
         <f>'RAW GRADES'!CR35</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="N33" s="57">
         <f>'RAW GRADES'!CS35</f>
-        <v>42.078000000000003</v>
+        <v>37.427999999999997</v>
       </c>
       <c r="O33" s="55">
         <f>'RAW GRADES'!CT35</f>
@@ -28288,19 +28298,19 @@
       </c>
       <c r="K34" s="51">
         <f>'RAW GRADES'!CP36</f>
-        <v>4.375</v>
+        <v>3.5</v>
       </c>
       <c r="L34" s="51">
         <f>'RAW GRADES'!CQ36</f>
-        <v>4.375</v>
+        <v>3.5</v>
       </c>
       <c r="M34" s="53">
         <f>'RAW GRADES'!CR36</f>
-        <v>4.38</v>
+        <v>3.5</v>
       </c>
       <c r="N34" s="57">
         <f>'RAW GRADES'!CS36</f>
-        <v>2.6279999999999997</v>
+        <v>2.1</v>
       </c>
       <c r="O34" s="55">
         <f>'RAW GRADES'!CT36</f>
@@ -28352,19 +28362,19 @@
       </c>
       <c r="K35" s="51">
         <f>'RAW GRADES'!CP37</f>
-        <v>38.125</v>
+        <v>30.5</v>
       </c>
       <c r="L35" s="51">
         <f>'RAW GRADES'!CQ37</f>
-        <v>38.125</v>
+        <v>30.5</v>
       </c>
       <c r="M35" s="53">
         <f>'RAW GRADES'!CR37</f>
-        <v>38.130000000000003</v>
+        <v>30.5</v>
       </c>
       <c r="N35" s="57">
         <f>'RAW GRADES'!CS37</f>
-        <v>45.793999999999997</v>
+        <v>41.216000000000001</v>
       </c>
       <c r="O35" s="55">
         <f>'RAW GRADES'!CT37</f>
@@ -28417,19 +28427,19 @@
       </c>
       <c r="K36" s="51">
         <f>'RAW GRADES'!CP38</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="L36" s="51">
         <f>'RAW GRADES'!CQ38</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="M36" s="53">
         <f>'RAW GRADES'!CR38</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="N36" s="57">
         <f>'RAW GRADES'!CS38</f>
-        <v>40.466000000000001</v>
+        <v>35.816000000000003</v>
       </c>
       <c r="O36" s="55">
         <f>'RAW GRADES'!CT38</f>
@@ -28482,19 +28492,19 @@
       </c>
       <c r="K37" s="51">
         <f>'RAW GRADES'!CP39</f>
-        <v>42.1875</v>
+        <v>33.75</v>
       </c>
       <c r="L37" s="51">
         <f>'RAW GRADES'!CQ39</f>
-        <v>42.1875</v>
+        <v>33.75</v>
       </c>
       <c r="M37" s="53">
         <f>'RAW GRADES'!CR39</f>
-        <v>42.19</v>
+        <v>33.75</v>
       </c>
       <c r="N37" s="57">
         <f>'RAW GRADES'!CS39</f>
-        <v>43.158000000000001</v>
+        <v>38.094000000000001</v>
       </c>
       <c r="O37" s="55">
         <f>'RAW GRADES'!CT39</f>
@@ -28547,19 +28557,19 @@
       </c>
       <c r="K38" s="51">
         <f>'RAW GRADES'!CP40</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="L38" s="51">
         <f>'RAW GRADES'!CQ40</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="M38" s="53">
         <f>'RAW GRADES'!CR40</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="N38" s="57">
         <f>'RAW GRADES'!CS40</f>
-        <v>43.978000000000002</v>
+        <v>39.328000000000003</v>
       </c>
       <c r="O38" s="55">
         <f>'RAW GRADES'!CT40</f>
@@ -28612,19 +28622,19 @@
       </c>
       <c r="K39" s="51">
         <f>'RAW GRADES'!CP41</f>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="L39" s="51">
         <f>'RAW GRADES'!CQ41</f>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="M39" s="53">
         <f>'RAW GRADES'!CR41</f>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="N39" s="57">
         <f>'RAW GRADES'!CS41</f>
-        <v>48.268000000000001</v>
+        <v>43.167999999999999</v>
       </c>
       <c r="O39" s="55">
         <f>'RAW GRADES'!CT41</f>
@@ -28677,19 +28687,19 @@
       </c>
       <c r="K40" s="51">
         <f>'RAW GRADES'!CP42</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="L40" s="51">
         <f>'RAW GRADES'!CQ42</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="M40" s="53">
         <f>'RAW GRADES'!CR42</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="N40" s="57">
         <f>'RAW GRADES'!CS42</f>
-        <v>40.894000000000005</v>
+        <v>36.244</v>
       </c>
       <c r="O40" s="55">
         <f>'RAW GRADES'!CT42</f>
@@ -28742,19 +28752,19 @@
       </c>
       <c r="K41" s="51">
         <f>'RAW GRADES'!CP43</f>
-        <v>40.9375</v>
+        <v>32.75</v>
       </c>
       <c r="L41" s="51">
         <f>'RAW GRADES'!CQ43</f>
-        <v>40.9375</v>
+        <v>32.75</v>
       </c>
       <c r="M41" s="53">
         <f>'RAW GRADES'!CR43</f>
-        <v>40.94</v>
+        <v>32.75</v>
       </c>
       <c r="N41" s="57">
         <f>'RAW GRADES'!CS43</f>
-        <v>42.135999999999996</v>
+        <v>37.221999999999994</v>
       </c>
       <c r="O41" s="55">
         <f>'RAW GRADES'!CT43</f>
@@ -28807,19 +28817,19 @@
       </c>
       <c r="K42" s="51">
         <f>'RAW GRADES'!CP44</f>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="L42" s="51">
         <f>'RAW GRADES'!CQ44</f>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="M42" s="53">
         <f>'RAW GRADES'!CR44</f>
-        <v>35.31</v>
+        <v>28.25</v>
       </c>
       <c r="N42" s="57">
         <f>'RAW GRADES'!CS44</f>
-        <v>42.978000000000002</v>
+        <v>38.742000000000004</v>
       </c>
       <c r="O42" s="55">
         <f>'RAW GRADES'!CT44</f>
@@ -28872,19 +28882,19 @@
       </c>
       <c r="K43" s="51">
         <f>'RAW GRADES'!CP45</f>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L43" s="51">
         <f>'RAW GRADES'!CQ45</f>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M43" s="53">
         <f>'RAW GRADES'!CR45</f>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N43" s="57">
         <f>'RAW GRADES'!CS45</f>
-        <v>40.816000000000003</v>
+        <v>36.616</v>
       </c>
       <c r="O43" s="55">
         <f>'RAW GRADES'!CT45</f>
@@ -28937,19 +28947,19 @@
       </c>
       <c r="K44" s="51">
         <f>'RAW GRADES'!CP46</f>
-        <v>36.875</v>
+        <v>29.5</v>
       </c>
       <c r="L44" s="51">
         <f>'RAW GRADES'!CQ46</f>
-        <v>36.875</v>
+        <v>29.5</v>
       </c>
       <c r="M44" s="53">
         <f>'RAW GRADES'!CR46</f>
-        <v>36.880000000000003</v>
+        <v>29.5</v>
       </c>
       <c r="N44" s="57">
         <f>'RAW GRADES'!CS46</f>
-        <v>39.644000000000005</v>
+        <v>35.216000000000001</v>
       </c>
       <c r="O44" s="55">
         <f>'RAW GRADES'!CT46</f>
@@ -29002,19 +29012,19 @@
       </c>
       <c r="K45" s="51">
         <f>'RAW GRADES'!CP47</f>
-        <v>42.8125</v>
+        <v>34.25</v>
       </c>
       <c r="L45" s="51">
         <f>'RAW GRADES'!CQ47</f>
-        <v>42.8125</v>
+        <v>34.25</v>
       </c>
       <c r="M45" s="53">
         <f>'RAW GRADES'!CR47</f>
-        <v>42.81</v>
+        <v>34.25</v>
       </c>
       <c r="N45" s="57">
         <f>'RAW GRADES'!CS47</f>
-        <v>46.466000000000001</v>
+        <v>41.33</v>
       </c>
       <c r="O45" s="55">
         <f>'RAW GRADES'!CT47</f>
@@ -29067,19 +29077,19 @@
       </c>
       <c r="K46" s="51">
         <f>'RAW GRADES'!CP48</f>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="L46" s="51">
         <f>'RAW GRADES'!CQ48</f>
-        <v>35.3125</v>
+        <v>28.25</v>
       </c>
       <c r="M46" s="53">
         <f>'RAW GRADES'!CR48</f>
-        <v>35.31</v>
+        <v>28.25</v>
       </c>
       <c r="N46" s="57">
         <f>'RAW GRADES'!CS48</f>
-        <v>43.602000000000004</v>
+        <v>39.366</v>
       </c>
       <c r="O46" s="55">
         <f>'RAW GRADES'!CT48</f>
@@ -29132,19 +29142,19 @@
       </c>
       <c r="K47" s="51">
         <f>'RAW GRADES'!CP49</f>
-        <v>42.8125</v>
+        <v>34.25</v>
       </c>
       <c r="L47" s="51">
         <f>'RAW GRADES'!CQ49</f>
-        <v>42.8125</v>
+        <v>34.25</v>
       </c>
       <c r="M47" s="53">
         <f>'RAW GRADES'!CR49</f>
-        <v>42.81</v>
+        <v>34.25</v>
       </c>
       <c r="N47" s="57">
         <f>'RAW GRADES'!CS49</f>
-        <v>44.97</v>
+        <v>39.834000000000003</v>
       </c>
       <c r="O47" s="55">
         <f>'RAW GRADES'!CT49</f>
@@ -29197,19 +29207,19 @@
       </c>
       <c r="K48" s="51">
         <f>'RAW GRADES'!CP50</f>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="L48" s="51">
         <f>'RAW GRADES'!CQ50</f>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="M48" s="53">
         <f>'RAW GRADES'!CR50</f>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="N48" s="57">
         <f>'RAW GRADES'!CS50</f>
-        <v>49.823999999999998</v>
+        <v>44.724000000000004</v>
       </c>
       <c r="O48" s="55">
         <f>'RAW GRADES'!CT50</f>
@@ -29262,19 +29272,19 @@
       </c>
       <c r="K49" s="51">
         <f>'RAW GRADES'!CP51</f>
-        <v>38.4375</v>
+        <v>30.75</v>
       </c>
       <c r="L49" s="51">
         <f>'RAW GRADES'!CQ51</f>
-        <v>38.4375</v>
+        <v>30.75</v>
       </c>
       <c r="M49" s="53">
         <f>'RAW GRADES'!CR51</f>
-        <v>38.44</v>
+        <v>30.75</v>
       </c>
       <c r="N49" s="57">
         <f>'RAW GRADES'!CS51</f>
-        <v>46.323999999999998</v>
+        <v>41.71</v>
       </c>
       <c r="O49" s="55">
         <f>'RAW GRADES'!CT51</f>
@@ -29327,19 +29337,19 @@
       </c>
       <c r="K50" s="51">
         <f>'RAW GRADES'!CP52</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="L50" s="51">
         <f>'RAW GRADES'!CQ52</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="M50" s="53">
         <f>'RAW GRADES'!CR52</f>
-        <v>38.75</v>
+        <v>31</v>
       </c>
       <c r="N50" s="57">
         <f>'RAW GRADES'!CS52</f>
-        <v>49.63</v>
+        <v>44.980000000000004</v>
       </c>
       <c r="O50" s="55">
         <f>'RAW GRADES'!CT52</f>
@@ -29392,19 +29402,19 @@
       </c>
       <c r="K51" s="51">
         <f>'RAW GRADES'!CP53</f>
-        <v>36.5625</v>
+        <v>29.25</v>
       </c>
       <c r="L51" s="51">
         <f>'RAW GRADES'!CQ53</f>
-        <v>36.5625</v>
+        <v>29.25</v>
       </c>
       <c r="M51" s="53">
         <f>'RAW GRADES'!CR53</f>
-        <v>36.56</v>
+        <v>29.25</v>
       </c>
       <c r="N51" s="57">
         <f>'RAW GRADES'!CS53</f>
-        <v>45.260000000000005</v>
+        <v>40.874000000000002</v>
       </c>
       <c r="O51" s="55">
         <f>'RAW GRADES'!CT53</f>
@@ -29457,19 +29467,19 @@
       </c>
       <c r="K52" s="51">
         <f>'RAW GRADES'!CP54</f>
-        <v>40.625</v>
+        <v>32.5</v>
       </c>
       <c r="L52" s="51">
         <f>'RAW GRADES'!CQ54</f>
-        <v>40.625</v>
+        <v>32.5</v>
       </c>
       <c r="M52" s="53">
         <f>'RAW GRADES'!CR54</f>
-        <v>40.630000000000003</v>
+        <v>32.5</v>
       </c>
       <c r="N52" s="57">
         <f>'RAW GRADES'!CS54</f>
-        <v>46.397999999999996</v>
+        <v>41.519999999999996</v>
       </c>
       <c r="O52" s="55">
         <f>'RAW GRADES'!CT54</f>
@@ -29522,19 +29532,19 @@
       </c>
       <c r="K53" s="51">
         <f>'RAW GRADES'!CP55</f>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="L53" s="51">
         <f>'RAW GRADES'!CQ55</f>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="M53" s="53">
         <f>'RAW GRADES'!CR55</f>
-        <v>42.5</v>
+        <v>34</v>
       </c>
       <c r="N53" s="57">
         <f>'RAW GRADES'!CS55</f>
-        <v>48.86</v>
+        <v>43.76</v>
       </c>
       <c r="O53" s="55">
         <f>'RAW GRADES'!CT55</f>
@@ -29587,19 +29597,19 @@
       </c>
       <c r="K54" s="51">
         <f>'RAW GRADES'!CP56</f>
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="L54" s="51">
         <f>'RAW GRADES'!CQ56</f>
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="M54" s="53">
         <f>'RAW GRADES'!CR56</f>
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="N54" s="57">
         <f>'RAW GRADES'!CS56</f>
-        <v>44.144000000000005</v>
+        <v>39.644000000000005</v>
       </c>
       <c r="O54" s="55">
         <f>'RAW GRADES'!CT56</f>
@@ -29652,19 +29662,19 @@
       </c>
       <c r="K55" s="51">
         <f>'RAW GRADES'!CP57</f>
-        <v>44.375</v>
+        <v>35.5</v>
       </c>
       <c r="L55" s="51">
         <f>'RAW GRADES'!CQ57</f>
-        <v>44.375</v>
+        <v>35.5</v>
       </c>
       <c r="M55" s="53">
         <f>'RAW GRADES'!CR57</f>
-        <v>44.38</v>
+        <v>35.5</v>
       </c>
       <c r="N55" s="57">
         <f>'RAW GRADES'!CS57</f>
-        <v>50.103999999999999</v>
+        <v>44.775999999999996</v>
       </c>
       <c r="O55" s="55">
         <f>'RAW GRADES'!CT57</f>
@@ -29717,19 +29727,19 @@
       </c>
       <c r="K56" s="51">
         <f>'RAW GRADES'!CP58</f>
-        <v>41.875</v>
+        <v>33.5</v>
       </c>
       <c r="L56" s="51">
         <f>'RAW GRADES'!CQ58</f>
-        <v>41.875</v>
+        <v>33.5</v>
       </c>
       <c r="M56" s="53">
         <f>'RAW GRADES'!CR58</f>
-        <v>41.88</v>
+        <v>33.5</v>
       </c>
       <c r="N56" s="57">
         <f>'RAW GRADES'!CS58</f>
-        <v>47.707999999999998</v>
+        <v>42.68</v>
       </c>
       <c r="O56" s="55">
         <f>'RAW GRADES'!CT58</f>
@@ -29782,19 +29792,19 @@
       </c>
       <c r="K57" s="51">
         <f>'RAW GRADES'!CP59</f>
-        <v>44.375</v>
+        <v>35.5</v>
       </c>
       <c r="L57" s="51">
         <f>'RAW GRADES'!CQ59</f>
-        <v>44.375</v>
+        <v>35.5</v>
       </c>
       <c r="M57" s="53">
         <f>'RAW GRADES'!CR59</f>
-        <v>44.38</v>
+        <v>35.5</v>
       </c>
       <c r="N57" s="57">
         <f>'RAW GRADES'!CS59</f>
-        <v>50.2</v>
+        <v>44.872</v>
       </c>
       <c r="O57" s="55">
         <f>'RAW GRADES'!CT59</f>
@@ -29815,7 +29825,7 @@
       </c>
       <c r="C58" s="56">
         <f>'RAW GRADES'!F60</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D58" s="82">
         <f>'RAW GRADES'!I60</f>
@@ -29823,7 +29833,7 @@
       </c>
       <c r="E58" s="51">
         <f>'RAW GRADES'!AN60</f>
-        <v>1.142857142857143</v>
+        <v>8</v>
       </c>
       <c r="F58" s="51">
         <f>'RAW GRADES'!AU60</f>
@@ -29835,11 +29845,11 @@
       </c>
       <c r="H58" s="52">
         <f>'RAW GRADES'!BC60</f>
-        <v>16.142857142857142</v>
+        <v>47</v>
       </c>
       <c r="I58" s="52">
         <f>'RAW GRADES'!BD60</f>
-        <v>16.14</v>
+        <v>47</v>
       </c>
       <c r="J58" s="51">
         <f>'RAW GRADES'!BK60</f>
@@ -29859,7 +29869,7 @@
       </c>
       <c r="N58" s="57">
         <f>'RAW GRADES'!CS60</f>
-        <v>6.4560000000000004</v>
+        <v>18.8</v>
       </c>
       <c r="O58" s="55">
         <f>'RAW GRADES'!CT60</f>
@@ -32095,7 +32105,7 @@
       <c r="D77" s="59"/>
       <c r="E77" s="251">
         <f ca="1">NOW()</f>
-        <v>43063.544003587966</v>
+        <v>43066.663029398151</v>
       </c>
       <c r="F77" s="251"/>
       <c r="G77" s="123"/>

--- a/DCIT 21 - IT 1A/LEC AND LAB - IT 1A.xlsx
+++ b/DCIT 21 - IT 1A/LEC AND LAB - IT 1A.xlsx
@@ -8731,9 +8731,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="BV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CC30" sqref="CC30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14473,11 +14473,11 @@
         <v>68.571428571428569</v>
       </c>
       <c r="N27" s="101">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O27" s="85">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="P27" s="101">
         <v>12</v>
@@ -14516,7 +14516,7 @@
       <c r="AM27" s="87"/>
       <c r="AN27" s="88">
         <f t="shared" si="9"/>
-        <v>11.428571428571429</v>
+        <v>13.714285714285715</v>
       </c>
       <c r="AO27" s="101">
         <v>90</v>
@@ -14562,11 +14562,11 @@
       </c>
       <c r="BC27" s="91">
         <f t="shared" si="18"/>
-        <v>52.285714285714285</v>
+        <v>54.571428571428569</v>
       </c>
       <c r="BD27" s="91">
         <f t="shared" si="19"/>
-        <v>52.29</v>
+        <v>54.57</v>
       </c>
       <c r="BE27" s="101"/>
       <c r="BF27" s="85">
@@ -14692,7 +14692,7 @@
       </c>
       <c r="CS27" s="97">
         <f t="shared" si="45"/>
-        <v>41.316000000000003</v>
+        <v>42.228000000000002</v>
       </c>
       <c r="CT27" s="97">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -18047,11 +18047,11 @@
         <v>68.571428571428569</v>
       </c>
       <c r="N40" s="101">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O40" s="85">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P40" s="101">
         <v>9</v>
@@ -18090,7 +18090,7 @@
       <c r="AM40" s="87"/>
       <c r="AN40" s="88">
         <f t="shared" si="9"/>
-        <v>9.6785714285714288</v>
+        <v>11.678571428571429</v>
       </c>
       <c r="AO40" s="101">
         <v>90</v>
@@ -18136,11 +18136,11 @@
       </c>
       <c r="BC40" s="91">
         <f t="shared" si="18"/>
-        <v>51.821428571428577</v>
+        <v>53.821428571428577</v>
       </c>
       <c r="BD40" s="91">
         <f t="shared" si="19"/>
-        <v>51.82</v>
+        <v>53.82</v>
       </c>
       <c r="BE40" s="101"/>
       <c r="BF40" s="85">
@@ -18264,7 +18264,7 @@
       </c>
       <c r="CS40" s="97">
         <f t="shared" si="45"/>
-        <v>39.328000000000003</v>
+        <v>40.128</v>
       </c>
       <c r="CT40" s="97">
         <f>IFERROR(VLOOKUP(CS40,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -27690,7 +27690,7 @@
       </c>
       <c r="E25" s="51">
         <f>'RAW GRADES'!AN27</f>
-        <v>11.428571428571429</v>
+        <v>13.714285714285715</v>
       </c>
       <c r="F25" s="51">
         <f>'RAW GRADES'!AU27</f>
@@ -27702,11 +27702,11 @@
       </c>
       <c r="H25" s="52">
         <f>'RAW GRADES'!BC27</f>
-        <v>52.285714285714285</v>
+        <v>54.571428571428569</v>
       </c>
       <c r="I25" s="52">
         <f>'RAW GRADES'!BD27</f>
-        <v>52.29</v>
+        <v>54.57</v>
       </c>
       <c r="J25" s="51">
         <f>'RAW GRADES'!BK27</f>
@@ -27726,7 +27726,7 @@
       </c>
       <c r="N25" s="57">
         <f>'RAW GRADES'!CS27</f>
-        <v>41.316000000000003</v>
+        <v>42.228000000000002</v>
       </c>
       <c r="O25" s="55">
         <f>'RAW GRADES'!CT27</f>
@@ -28533,7 +28533,7 @@
       </c>
       <c r="E38" s="51">
         <f>'RAW GRADES'!AN40</f>
-        <v>9.6785714285714288</v>
+        <v>11.678571428571429</v>
       </c>
       <c r="F38" s="51">
         <f>'RAW GRADES'!AU40</f>
@@ -28545,11 +28545,11 @@
       </c>
       <c r="H38" s="52">
         <f>'RAW GRADES'!BC40</f>
-        <v>51.821428571428577</v>
+        <v>53.821428571428577</v>
       </c>
       <c r="I38" s="52">
         <f>'RAW GRADES'!BD40</f>
-        <v>51.82</v>
+        <v>53.82</v>
       </c>
       <c r="J38" s="51">
         <f>'RAW GRADES'!BK40</f>
@@ -28569,7 +28569,7 @@
       </c>
       <c r="N38" s="57">
         <f>'RAW GRADES'!CS40</f>
-        <v>39.328000000000003</v>
+        <v>40.128</v>
       </c>
       <c r="O38" s="55">
         <f>'RAW GRADES'!CT40</f>
@@ -32105,7 +32105,7 @@
       <c r="D77" s="59"/>
       <c r="E77" s="251">
         <f ca="1">NOW()</f>
-        <v>43066.663029398151</v>
+        <v>43067.733531365739</v>
       </c>
       <c r="F77" s="251"/>
       <c r="G77" s="123"/>

--- a/DCIT 21 - IT 1A/LEC AND LAB - IT 1A.xlsx
+++ b/DCIT 21 - IT 1A/LEC AND LAB - IT 1A.xlsx
@@ -8731,9 +8731,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O40" sqref="O40"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9213,7 +9213,9 @@
         <v>43046</v>
       </c>
       <c r="O7" s="185"/>
-      <c r="P7" s="185"/>
+      <c r="P7" s="185">
+        <v>43063</v>
+      </c>
       <c r="Q7" s="185"/>
       <c r="R7" s="185"/>
       <c r="S7" s="185"/>
@@ -15305,16 +15307,18 @@
         <v>45.714285714285715</v>
       </c>
       <c r="N30" s="101">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O30" s="85">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="101"/>
+        <v>100</v>
+      </c>
+      <c r="P30" s="101">
+        <v>2</v>
+      </c>
       <c r="Q30" s="85">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="R30" s="101"/>
       <c r="S30" s="85" t="str">
@@ -15346,7 +15350,7 @@
       <c r="AM30" s="87"/>
       <c r="AN30" s="88">
         <f t="shared" si="9"/>
-        <v>6.7857142857142865</v>
+        <v>12.452380952380954</v>
       </c>
       <c r="AO30" s="101">
         <v>70</v>
@@ -15392,11 +15396,11 @@
       </c>
       <c r="BC30" s="91">
         <f t="shared" si="18"/>
-        <v>43.928571428571431</v>
+        <v>49.595238095238102</v>
       </c>
       <c r="BD30" s="91">
         <f t="shared" si="19"/>
-        <v>43.93</v>
+        <v>49.6</v>
       </c>
       <c r="BE30" s="101"/>
       <c r="BF30" s="85">
@@ -15520,7 +15524,7 @@
       </c>
       <c r="CS30" s="97">
         <f t="shared" si="45"/>
-        <v>35.271999999999998</v>
+        <v>37.540000000000006</v>
       </c>
       <c r="CT30" s="97">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -17771,13 +17775,15 @@
         <v>45.714285714285715</v>
       </c>
       <c r="N39" s="101">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O39" s="85">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="101"/>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="P39" s="101">
+        <v>0</v>
+      </c>
       <c r="Q39" s="85">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -17812,7 +17818,7 @@
       <c r="AM39" s="87"/>
       <c r="AN39" s="88">
         <f t="shared" si="9"/>
-        <v>7.0357142857142865</v>
+        <v>8.1785714285714288</v>
       </c>
       <c r="AO39" s="101">
         <v>70</v>
@@ -17858,11 +17864,11 @@
       </c>
       <c r="BC39" s="91">
         <f t="shared" si="18"/>
-        <v>44.607142857142854</v>
+        <v>45.75</v>
       </c>
       <c r="BD39" s="91">
         <f t="shared" si="19"/>
-        <v>44.61</v>
+        <v>45.75</v>
       </c>
       <c r="BE39" s="101"/>
       <c r="BF39" s="85">
@@ -17988,7 +17994,7 @@
       </c>
       <c r="CS39" s="97">
         <f t="shared" si="45"/>
-        <v>38.094000000000001</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="CT39" s="97">
         <f>IFERROR(VLOOKUP(CS39,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19705,11 +19711,11 @@
         <v>42.857142857142854</v>
       </c>
       <c r="N46" s="101">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O46" s="85">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="P46" s="101"/>
       <c r="Q46" s="85">
@@ -19746,7 +19752,7 @@
       <c r="AM46" s="87"/>
       <c r="AN46" s="88">
         <f t="shared" si="9"/>
-        <v>6.6428571428571432</v>
+        <v>7.5</v>
       </c>
       <c r="AO46" s="101">
         <v>70</v>
@@ -19792,11 +19798,11 @@
       </c>
       <c r="BC46" s="91">
         <f t="shared" si="18"/>
-        <v>43.785714285714285</v>
+        <v>44.642857142857139</v>
       </c>
       <c r="BD46" s="91">
         <f t="shared" si="19"/>
-        <v>43.79</v>
+        <v>44.64</v>
       </c>
       <c r="BE46" s="101"/>
       <c r="BF46" s="85">
@@ -19920,7 +19926,7 @@
       </c>
       <c r="CS46" s="97">
         <f t="shared" si="45"/>
-        <v>35.216000000000001</v>
+        <v>35.555999999999997</v>
       </c>
       <c r="CT46" s="97">
         <f>IFERROR(VLOOKUP(CS46,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -23589,10 +23595,12 @@
         <f t="shared" si="5"/>
         <v>22.857142857142858</v>
       </c>
-      <c r="P60" s="101"/>
+      <c r="P60" s="101">
+        <v>11</v>
+      </c>
       <c r="Q60" s="85">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="R60" s="101"/>
       <c r="S60" s="85" t="str">
@@ -23624,7 +23632,7 @@
       <c r="AM60" s="87"/>
       <c r="AN60" s="88">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="AO60" s="101">
         <v>50</v>
@@ -23670,11 +23678,11 @@
       </c>
       <c r="BC60" s="91">
         <f t="shared" si="18"/>
-        <v>47</v>
+        <v>50.666666666666664</v>
       </c>
       <c r="BD60" s="91">
         <f t="shared" si="19"/>
-        <v>47</v>
+        <v>50.67</v>
       </c>
       <c r="BE60" s="101"/>
       <c r="BF60" s="85">
@@ -23784,7 +23792,7 @@
       </c>
       <c r="CS60" s="97">
         <f t="shared" si="45"/>
-        <v>18.8</v>
+        <v>20.268000000000001</v>
       </c>
       <c r="CT60" s="97">
         <f>IFERROR(VLOOKUP(CS60,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -27885,7 +27893,7 @@
       </c>
       <c r="E28" s="51">
         <f>'RAW GRADES'!AN30</f>
-        <v>6.7857142857142865</v>
+        <v>12.452380952380954</v>
       </c>
       <c r="F28" s="51">
         <f>'RAW GRADES'!AU30</f>
@@ -27897,11 +27905,11 @@
       </c>
       <c r="H28" s="52">
         <f>'RAW GRADES'!BC30</f>
-        <v>43.928571428571431</v>
+        <v>49.595238095238102</v>
       </c>
       <c r="I28" s="52">
         <f>'RAW GRADES'!BD30</f>
-        <v>43.93</v>
+        <v>49.6</v>
       </c>
       <c r="J28" s="51">
         <f>'RAW GRADES'!BK30</f>
@@ -27921,7 +27929,7 @@
       </c>
       <c r="N28" s="57">
         <f>'RAW GRADES'!CS30</f>
-        <v>35.271999999999998</v>
+        <v>37.540000000000006</v>
       </c>
       <c r="O28" s="55">
         <f>'RAW GRADES'!CT30</f>
@@ -28468,7 +28476,7 @@
       </c>
       <c r="E37" s="51">
         <f>'RAW GRADES'!AN39</f>
-        <v>7.0357142857142865</v>
+        <v>8.1785714285714288</v>
       </c>
       <c r="F37" s="51">
         <f>'RAW GRADES'!AU39</f>
@@ -28480,11 +28488,11 @@
       </c>
       <c r="H37" s="52">
         <f>'RAW GRADES'!BC39</f>
-        <v>44.607142857142854</v>
+        <v>45.75</v>
       </c>
       <c r="I37" s="52">
         <f>'RAW GRADES'!BD39</f>
-        <v>44.61</v>
+        <v>45.75</v>
       </c>
       <c r="J37" s="51">
         <f>'RAW GRADES'!BK39</f>
@@ -28504,7 +28512,7 @@
       </c>
       <c r="N37" s="57">
         <f>'RAW GRADES'!CS39</f>
-        <v>38.094000000000001</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="O37" s="55">
         <f>'RAW GRADES'!CT39</f>
@@ -28923,7 +28931,7 @@
       </c>
       <c r="E44" s="51">
         <f>'RAW GRADES'!AN46</f>
-        <v>6.6428571428571432</v>
+        <v>7.5</v>
       </c>
       <c r="F44" s="51">
         <f>'RAW GRADES'!AU46</f>
@@ -28935,11 +28943,11 @@
       </c>
       <c r="H44" s="52">
         <f>'RAW GRADES'!BC46</f>
-        <v>43.785714285714285</v>
+        <v>44.642857142857139</v>
       </c>
       <c r="I44" s="52">
         <f>'RAW GRADES'!BD46</f>
-        <v>43.79</v>
+        <v>44.64</v>
       </c>
       <c r="J44" s="51">
         <f>'RAW GRADES'!BK46</f>
@@ -28959,7 +28967,7 @@
       </c>
       <c r="N44" s="57">
         <f>'RAW GRADES'!CS46</f>
-        <v>35.216000000000001</v>
+        <v>35.555999999999997</v>
       </c>
       <c r="O44" s="55">
         <f>'RAW GRADES'!CT46</f>
@@ -29833,7 +29841,7 @@
       </c>
       <c r="E58" s="51">
         <f>'RAW GRADES'!AN60</f>
-        <v>8</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="F58" s="51">
         <f>'RAW GRADES'!AU60</f>
@@ -29845,11 +29853,11 @@
       </c>
       <c r="H58" s="52">
         <f>'RAW GRADES'!BC60</f>
-        <v>47</v>
+        <v>50.666666666666664</v>
       </c>
       <c r="I58" s="52">
         <f>'RAW GRADES'!BD60</f>
-        <v>47</v>
+        <v>50.67</v>
       </c>
       <c r="J58" s="51">
         <f>'RAW GRADES'!BK60</f>
@@ -29869,7 +29877,7 @@
       </c>
       <c r="N58" s="57">
         <f>'RAW GRADES'!CS60</f>
-        <v>18.8</v>
+        <v>20.268000000000001</v>
       </c>
       <c r="O58" s="55">
         <f>'RAW GRADES'!CT60</f>
@@ -32105,7 +32113,7 @@
       <c r="D77" s="59"/>
       <c r="E77" s="251">
         <f ca="1">NOW()</f>
-        <v>43067.733531365739</v>
+        <v>43070.580560069444</v>
       </c>
       <c r="F77" s="251"/>
       <c r="G77" s="123"/>

--- a/DCIT 21 - IT 1A/LEC AND LAB - IT 1A.xlsx
+++ b/DCIT 21 - IT 1A/LEC AND LAB - IT 1A.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="343">
   <si>
     <t>Subject:</t>
   </si>
@@ -2532,37 +2532,99 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2602,104 +2664,129 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2740,93 +2827,6 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2888,8 +2888,120 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2897,6 +3009,14 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -2914,10 +3034,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2946,122 +3062,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5565,7 +5565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5577,7 +5577,7 @@
   <dimension ref="A2:R71"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B61"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5598,82 +5598,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="165"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="126" t="s">
+      <c r="A6" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="163"/>
+      <c r="C6" s="164" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="126"/>
-      <c r="E6" s="127" t="s">
+      <c r="D6" s="164"/>
+      <c r="E6" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="127"/>
+      <c r="F6" s="165"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -5681,28 +5681,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="128" t="s">
+      <c r="J6" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="128"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="131"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="3" t="s">
         <v>335</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="132" t="s">
+      <c r="E7" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="170"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -5710,28 +5710,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="132" t="s">
+      <c r="J7" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="132"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="135"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="8" t="s">
         <v>336</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="E8" s="136" t="s">
+      <c r="E8" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="136"/>
+      <c r="F8" s="152"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -5739,45 +5739,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="136" t="s">
+      <c r="J8" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="142" t="s">
+      <c r="C9" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="143" t="s">
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146" t="s">
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="147"/>
-      <c r="L9" s="146" t="s">
+      <c r="K9" s="143"/>
+      <c r="L9" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="147"/>
+      <c r="M9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="139"/>
-      <c r="B10" s="141"/>
+      <c r="A10" s="155"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -5787,14 +5787,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -5815,19 +5815,19 @@
       <c r="F11" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="155"/>
-      <c r="O11" s="166" t="s">
+      <c r="G11" s="145"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="147"/>
+      <c r="O11" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="167"/>
-      <c r="R11" s="168"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="136"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -5848,21 +5848,21 @@
       <c r="F12" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
       <c r="O12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="164" t="s">
+      <c r="P12" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -5883,21 +5883,21 @@
       <c r="F13" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
       <c r="O13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="164" t="s">
+      <c r="P13" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="164"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -5918,21 +5918,21 @@
       <c r="F14" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
       <c r="O14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="161" t="s">
+      <c r="P14" s="126" t="s">
         <v>160</v>
       </c>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="163"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="128"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -5953,21 +5953,21 @@
       <c r="F15" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="152"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
       <c r="O15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="161" t="s">
+      <c r="P15" s="126" t="s">
         <v>161</v>
       </c>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="163"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="128"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -5988,21 +5988,21 @@
       <c r="F16" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
       <c r="O16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="169" t="s">
+      <c r="P16" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="Q16" s="170"/>
-      <c r="R16" s="171"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="139"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -6023,21 +6023,21 @@
       <c r="F17" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
       <c r="O17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="161" t="s">
+      <c r="P17" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="163"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -6058,13 +6058,13 @@
       <c r="F18" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -6085,13 +6085,13 @@
       <c r="F19" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -6112,13 +6112,13 @@
       <c r="F20" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="152"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -6139,13 +6139,13 @@
       <c r="F21" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="152"/>
-      <c r="M21" s="152"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
       <c r="P21" s="93" t="s">
         <v>143</v>
       </c>
@@ -6169,13 +6169,13 @@
       <c r="F22" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
       <c r="P22" s="94">
         <v>0</v>
       </c>
@@ -6202,13 +6202,13 @@
       <c r="F23" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
       <c r="P23" s="95">
         <v>70</v>
       </c>
@@ -6235,13 +6235,13 @@
       <c r="F24" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="152"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="140"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
       <c r="P24" s="95">
         <v>73.34</v>
       </c>
@@ -6268,13 +6268,13 @@
       <c r="F25" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="152"/>
-      <c r="M25" s="152"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
       <c r="P25" s="95">
         <v>76.680000000000007</v>
       </c>
@@ -6301,13 +6301,13 @@
       <c r="F26" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
       <c r="P26" s="95">
         <v>80.02</v>
       </c>
@@ -6334,13 +6334,13 @@
       <c r="F27" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="152"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
       <c r="P27" s="95">
         <v>83.36</v>
       </c>
@@ -6367,13 +6367,13 @@
       <c r="F28" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="152"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
       <c r="P28" s="95">
         <v>86.7</v>
       </c>
@@ -6400,13 +6400,13 @@
       <c r="F29" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="152"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
       <c r="P29" s="95">
         <v>90.04</v>
       </c>
@@ -6433,13 +6433,13 @@
       <c r="F30" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
       <c r="P30" s="95">
         <v>93.38</v>
       </c>
@@ -6466,13 +6466,13 @@
       <c r="F31" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="152"/>
-      <c r="M31" s="152"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
       <c r="P31" s="94"/>
       <c r="Q31" s="94"/>
     </row>
@@ -6495,13 +6495,13 @@
       <c r="F32" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="152"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
       <c r="P32" s="94">
         <v>96.72</v>
       </c>
@@ -6528,13 +6528,13 @@
       <c r="F33" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="152"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -6555,13 +6555,13 @@
       <c r="F34" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="152"/>
-      <c r="M34" s="152"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="130"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -6582,13 +6582,13 @@
       <c r="F35" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="152"/>
-      <c r="M35" s="152"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -6609,13 +6609,13 @@
       <c r="F36" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="152"/>
-      <c r="M36" s="152"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="132"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -6636,13 +6636,13 @@
       <c r="F37" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="158"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="152"/>
-      <c r="M37" s="152"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -6663,13 +6663,13 @@
       <c r="F38" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="158"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="152"/>
-      <c r="M38" s="152"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -6690,13 +6690,13 @@
       <c r="F39" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="158"/>
-      <c r="K39" s="158"/>
-      <c r="L39" s="152"/>
-      <c r="M39" s="152"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="132"/>
+      <c r="M39" s="132"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -6717,13 +6717,13 @@
       <c r="F40" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="158"/>
-      <c r="K40" s="158"/>
-      <c r="L40" s="152"/>
-      <c r="M40" s="152"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -6744,13 +6744,13 @@
       <c r="F41" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="158"/>
-      <c r="K41" s="158"/>
-      <c r="L41" s="152"/>
-      <c r="M41" s="152"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="131"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -6771,13 +6771,13 @@
       <c r="F42" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="158"/>
-      <c r="K42" s="158"/>
-      <c r="L42" s="152"/>
-      <c r="M42" s="152"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -6798,13 +6798,13 @@
       <c r="F43" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="158"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="152"/>
-      <c r="M43" s="152"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="131"/>
+      <c r="K43" s="131"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="132"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -6825,13 +6825,13 @@
       <c r="F44" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G44" s="149"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="149"/>
-      <c r="J44" s="158"/>
-      <c r="K44" s="158"/>
-      <c r="L44" s="152"/>
-      <c r="M44" s="152"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="131"/>
+      <c r="K44" s="131"/>
+      <c r="L44" s="132"/>
+      <c r="M44" s="132"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -6852,13 +6852,13 @@
       <c r="F45" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="158"/>
-      <c r="K45" s="158"/>
-      <c r="L45" s="152"/>
-      <c r="M45" s="152"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="131"/>
+      <c r="K45" s="131"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="132"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -6879,13 +6879,13 @@
       <c r="F46" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G46" s="149"/>
-      <c r="H46" s="149"/>
-      <c r="I46" s="149"/>
-      <c r="J46" s="158"/>
-      <c r="K46" s="158"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="152"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="131"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="132"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -6906,13 +6906,13 @@
       <c r="F47" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="149"/>
-      <c r="H47" s="149"/>
-      <c r="I47" s="149"/>
-      <c r="J47" s="158"/>
-      <c r="K47" s="158"/>
-      <c r="L47" s="152"/>
-      <c r="M47" s="152"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="131"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -6933,13 +6933,13 @@
       <c r="F48" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G48" s="149"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="149"/>
-      <c r="J48" s="158"/>
-      <c r="K48" s="158"/>
-      <c r="L48" s="152"/>
-      <c r="M48" s="152"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="131"/>
+      <c r="L48" s="132"/>
+      <c r="M48" s="132"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -6960,13 +6960,13 @@
       <c r="F49" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G49" s="149"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="149"/>
-      <c r="J49" s="158"/>
-      <c r="K49" s="158"/>
-      <c r="L49" s="152"/>
-      <c r="M49" s="152"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="131"/>
+      <c r="K49" s="131"/>
+      <c r="L49" s="132"/>
+      <c r="M49" s="132"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -6987,13 +6987,13 @@
       <c r="F50" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="149"/>
-      <c r="H50" s="149"/>
-      <c r="I50" s="149"/>
-      <c r="J50" s="158"/>
-      <c r="K50" s="158"/>
-      <c r="L50" s="152"/>
-      <c r="M50" s="152"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="131"/>
+      <c r="L50" s="132"/>
+      <c r="M50" s="132"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -7014,13 +7014,13 @@
       <c r="F51" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G51" s="149"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="149"/>
-      <c r="J51" s="158"/>
-      <c r="K51" s="158"/>
-      <c r="L51" s="152"/>
-      <c r="M51" s="152"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
+      <c r="J51" s="131"/>
+      <c r="K51" s="131"/>
+      <c r="L51" s="132"/>
+      <c r="M51" s="132"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -7041,13 +7041,13 @@
       <c r="F52" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G52" s="149"/>
-      <c r="H52" s="149"/>
-      <c r="I52" s="149"/>
-      <c r="J52" s="158"/>
-      <c r="K52" s="158"/>
-      <c r="L52" s="152"/>
-      <c r="M52" s="152"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="131"/>
+      <c r="K52" s="131"/>
+      <c r="L52" s="132"/>
+      <c r="M52" s="132"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -7068,13 +7068,13 @@
       <c r="F53" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G53" s="149"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="149"/>
-      <c r="J53" s="158"/>
-      <c r="K53" s="158"/>
-      <c r="L53" s="152"/>
-      <c r="M53" s="152"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="131"/>
+      <c r="K53" s="131"/>
+      <c r="L53" s="132"/>
+      <c r="M53" s="132"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -7095,13 +7095,13 @@
       <c r="F54" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G54" s="149"/>
-      <c r="H54" s="149"/>
-      <c r="I54" s="149"/>
-      <c r="J54" s="158"/>
-      <c r="K54" s="158"/>
-      <c r="L54" s="152"/>
-      <c r="M54" s="152"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="131"/>
+      <c r="K54" s="131"/>
+      <c r="L54" s="132"/>
+      <c r="M54" s="132"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -7122,13 +7122,13 @@
       <c r="F55" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G55" s="149"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="149"/>
-      <c r="J55" s="158"/>
-      <c r="K55" s="158"/>
-      <c r="L55" s="152"/>
-      <c r="M55" s="152"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="130"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="131"/>
+      <c r="K55" s="131"/>
+      <c r="L55" s="132"/>
+      <c r="M55" s="132"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -7149,13 +7149,13 @@
       <c r="F56" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G56" s="149"/>
-      <c r="H56" s="149"/>
-      <c r="I56" s="149"/>
-      <c r="J56" s="158"/>
-      <c r="K56" s="158"/>
-      <c r="L56" s="152"/>
-      <c r="M56" s="152"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="131"/>
+      <c r="K56" s="131"/>
+      <c r="L56" s="132"/>
+      <c r="M56" s="132"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -7176,13 +7176,13 @@
       <c r="F57" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G57" s="149"/>
-      <c r="H57" s="149"/>
-      <c r="I57" s="149"/>
-      <c r="J57" s="158"/>
-      <c r="K57" s="158"/>
-      <c r="L57" s="152"/>
-      <c r="M57" s="152"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="131"/>
+      <c r="K57" s="131"/>
+      <c r="L57" s="132"/>
+      <c r="M57" s="132"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -7203,13 +7203,13 @@
       <c r="F58" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G58" s="149"/>
-      <c r="H58" s="149"/>
-      <c r="I58" s="149"/>
-      <c r="J58" s="158"/>
-      <c r="K58" s="158"/>
-      <c r="L58" s="152"/>
-      <c r="M58" s="152"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="130"/>
+      <c r="I58" s="130"/>
+      <c r="J58" s="131"/>
+      <c r="K58" s="131"/>
+      <c r="L58" s="132"/>
+      <c r="M58" s="132"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -7230,13 +7230,13 @@
       <c r="F59" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G59" s="149"/>
-      <c r="H59" s="149"/>
-      <c r="I59" s="149"/>
-      <c r="J59" s="158"/>
-      <c r="K59" s="158"/>
-      <c r="L59" s="152"/>
-      <c r="M59" s="152"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="130"/>
+      <c r="J59" s="131"/>
+      <c r="K59" s="131"/>
+      <c r="L59" s="132"/>
+      <c r="M59" s="132"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -7257,13 +7257,13 @@
       <c r="F60" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G60" s="149"/>
-      <c r="H60" s="149"/>
-      <c r="I60" s="149"/>
-      <c r="J60" s="158"/>
-      <c r="K60" s="158"/>
-      <c r="L60" s="152"/>
-      <c r="M60" s="152"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="131"/>
+      <c r="K60" s="131"/>
+      <c r="L60" s="132"/>
+      <c r="M60" s="132"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -7284,13 +7284,13 @@
       <c r="F61" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G61" s="149"/>
-      <c r="H61" s="149"/>
-      <c r="I61" s="149"/>
-      <c r="J61" s="158"/>
-      <c r="K61" s="158"/>
-      <c r="L61" s="152"/>
-      <c r="M61" s="152"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="130"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="131"/>
+      <c r="K61" s="131"/>
+      <c r="L61" s="132"/>
+      <c r="M61" s="132"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -7301,13 +7301,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="149"/>
-      <c r="H62" s="149"/>
-      <c r="I62" s="149"/>
-      <c r="J62" s="158"/>
-      <c r="K62" s="158"/>
-      <c r="L62" s="152"/>
-      <c r="M62" s="152"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
+      <c r="J62" s="131"/>
+      <c r="K62" s="131"/>
+      <c r="L62" s="132"/>
+      <c r="M62" s="132"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -7318,13 +7318,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="149"/>
-      <c r="H63" s="149"/>
-      <c r="I63" s="149"/>
-      <c r="J63" s="158"/>
-      <c r="K63" s="158"/>
-      <c r="L63" s="152"/>
-      <c r="M63" s="152"/>
+      <c r="G63" s="130"/>
+      <c r="H63" s="130"/>
+      <c r="I63" s="130"/>
+      <c r="J63" s="131"/>
+      <c r="K63" s="131"/>
+      <c r="L63" s="132"/>
+      <c r="M63" s="132"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -7335,13 +7335,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="149"/>
-      <c r="H64" s="149"/>
-      <c r="I64" s="149"/>
-      <c r="J64" s="158"/>
-      <c r="K64" s="158"/>
-      <c r="L64" s="152"/>
-      <c r="M64" s="152"/>
+      <c r="G64" s="130"/>
+      <c r="H64" s="130"/>
+      <c r="I64" s="130"/>
+      <c r="J64" s="131"/>
+      <c r="K64" s="131"/>
+      <c r="L64" s="132"/>
+      <c r="M64" s="132"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -7352,13 +7352,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="149"/>
-      <c r="H65" s="149"/>
-      <c r="I65" s="149"/>
-      <c r="J65" s="158"/>
-      <c r="K65" s="158"/>
-      <c r="L65" s="152"/>
-      <c r="M65" s="152"/>
+      <c r="G65" s="130"/>
+      <c r="H65" s="130"/>
+      <c r="I65" s="130"/>
+      <c r="J65" s="131"/>
+      <c r="K65" s="131"/>
+      <c r="L65" s="132"/>
+      <c r="M65" s="132"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -7369,13 +7369,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="149"/>
-      <c r="H66" s="149"/>
-      <c r="I66" s="149"/>
-      <c r="J66" s="158"/>
-      <c r="K66" s="158"/>
-      <c r="L66" s="152"/>
-      <c r="M66" s="152"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="130"/>
+      <c r="I66" s="130"/>
+      <c r="J66" s="131"/>
+      <c r="K66" s="131"/>
+      <c r="L66" s="132"/>
+      <c r="M66" s="132"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -7386,13 +7386,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="83"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="149"/>
-      <c r="H67" s="149"/>
-      <c r="I67" s="149"/>
-      <c r="J67" s="158"/>
-      <c r="K67" s="158"/>
-      <c r="L67" s="152"/>
-      <c r="M67" s="152"/>
+      <c r="G67" s="130"/>
+      <c r="H67" s="130"/>
+      <c r="I67" s="130"/>
+      <c r="J67" s="131"/>
+      <c r="K67" s="131"/>
+      <c r="L67" s="132"/>
+      <c r="M67" s="132"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -7403,13 +7403,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="149"/>
-      <c r="H68" s="149"/>
-      <c r="I68" s="149"/>
-      <c r="J68" s="158"/>
-      <c r="K68" s="158"/>
-      <c r="L68" s="152"/>
-      <c r="M68" s="152"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="130"/>
+      <c r="I68" s="130"/>
+      <c r="J68" s="131"/>
+      <c r="K68" s="131"/>
+      <c r="L68" s="132"/>
+      <c r="M68" s="132"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -7420,13 +7420,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="149"/>
-      <c r="H69" s="149"/>
-      <c r="I69" s="149"/>
-      <c r="J69" s="158"/>
-      <c r="K69" s="158"/>
-      <c r="L69" s="152"/>
-      <c r="M69" s="152"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="130"/>
+      <c r="J69" s="131"/>
+      <c r="K69" s="131"/>
+      <c r="L69" s="132"/>
+      <c r="M69" s="132"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -7437,13 +7437,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="149"/>
-      <c r="H70" s="149"/>
-      <c r="I70" s="149"/>
-      <c r="J70" s="158"/>
-      <c r="K70" s="158"/>
-      <c r="L70" s="152"/>
-      <c r="M70" s="152"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="130"/>
+      <c r="I70" s="130"/>
+      <c r="J70" s="131"/>
+      <c r="K70" s="131"/>
+      <c r="L70" s="132"/>
+      <c r="M70" s="132"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -7454,13 +7454,13 @@
       <c r="D71" s="83"/>
       <c r="E71" s="83"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="149"/>
-      <c r="H71" s="149"/>
-      <c r="I71" s="149"/>
-      <c r="J71" s="158"/>
-      <c r="K71" s="158"/>
-      <c r="L71" s="152"/>
-      <c r="M71" s="152"/>
+      <c r="G71" s="130"/>
+      <c r="H71" s="130"/>
+      <c r="I71" s="130"/>
+      <c r="J71" s="131"/>
+      <c r="K71" s="131"/>
+      <c r="L71" s="132"/>
+      <c r="M71" s="132"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -7468,6 +7468,195 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -7492,195 +7681,6 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="208" priority="213" stopIfTrue="1" operator="equal">
@@ -8731,9 +8731,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J7" sqref="J7:M7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV62" sqref="AV62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8747,452 +8747,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="165"/>
-      <c r="AF2" s="165"/>
-      <c r="AG2" s="165"/>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="165"/>
-      <c r="AJ2" s="165"/>
-      <c r="AK2" s="165"/>
-      <c r="AL2" s="165"/>
-      <c r="AM2" s="165"/>
-      <c r="AN2" s="165"/>
-      <c r="AO2" s="165"/>
-      <c r="AP2" s="165"/>
-      <c r="AQ2" s="165"/>
-      <c r="AR2" s="165"/>
-      <c r="AS2" s="165"/>
-      <c r="AT2" s="165"/>
-      <c r="AU2" s="165"/>
-      <c r="AV2" s="165"/>
-      <c r="AW2" s="165"/>
-      <c r="AX2" s="165"/>
-      <c r="AY2" s="165"/>
-      <c r="AZ2" s="165"/>
-      <c r="BA2" s="165"/>
-      <c r="BB2" s="165"/>
-      <c r="BC2" s="165"/>
-      <c r="BD2" s="165"/>
-      <c r="BE2" s="165"/>
-      <c r="BF2" s="165"/>
-      <c r="BG2" s="165"/>
-      <c r="BH2" s="165"/>
-      <c r="BI2" s="165"/>
-      <c r="BJ2" s="165"/>
-      <c r="BK2" s="165"/>
-      <c r="BL2" s="165"/>
-      <c r="BM2" s="165"/>
-      <c r="BN2" s="165"/>
-      <c r="BO2" s="165"/>
-      <c r="BP2" s="165"/>
-      <c r="BQ2" s="165"/>
-      <c r="BR2" s="165"/>
-      <c r="BS2" s="165"/>
-      <c r="BT2" s="165"/>
-      <c r="BU2" s="165"/>
-      <c r="BV2" s="165"/>
-      <c r="BW2" s="165"/>
-      <c r="BX2" s="165"/>
-      <c r="BY2" s="165"/>
-      <c r="BZ2" s="165"/>
-      <c r="CA2" s="165"/>
-      <c r="CB2" s="165"/>
-      <c r="CC2" s="165"/>
-      <c r="CD2" s="165"/>
-      <c r="CE2" s="165"/>
-      <c r="CF2" s="165"/>
-      <c r="CG2" s="165"/>
-      <c r="CH2" s="165"/>
-      <c r="CI2" s="165"/>
-      <c r="CJ2" s="165"/>
-      <c r="CK2" s="165"/>
-      <c r="CL2" s="165"/>
-      <c r="CM2" s="165"/>
-      <c r="CN2" s="165"/>
-      <c r="CO2" s="165"/>
-      <c r="CP2" s="165"/>
-      <c r="CQ2" s="165"/>
-      <c r="CR2" s="165"/>
-      <c r="CS2" s="165"/>
-      <c r="CT2" s="165"/>
-      <c r="CU2" s="165"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="133"/>
+      <c r="AI2" s="133"/>
+      <c r="AJ2" s="133"/>
+      <c r="AK2" s="133"/>
+      <c r="AL2" s="133"/>
+      <c r="AM2" s="133"/>
+      <c r="AN2" s="133"/>
+      <c r="AO2" s="133"/>
+      <c r="AP2" s="133"/>
+      <c r="AQ2" s="133"/>
+      <c r="AR2" s="133"/>
+      <c r="AS2" s="133"/>
+      <c r="AT2" s="133"/>
+      <c r="AU2" s="133"/>
+      <c r="AV2" s="133"/>
+      <c r="AW2" s="133"/>
+      <c r="AX2" s="133"/>
+      <c r="AY2" s="133"/>
+      <c r="AZ2" s="133"/>
+      <c r="BA2" s="133"/>
+      <c r="BB2" s="133"/>
+      <c r="BC2" s="133"/>
+      <c r="BD2" s="133"/>
+      <c r="BE2" s="133"/>
+      <c r="BF2" s="133"/>
+      <c r="BG2" s="133"/>
+      <c r="BH2" s="133"/>
+      <c r="BI2" s="133"/>
+      <c r="BJ2" s="133"/>
+      <c r="BK2" s="133"/>
+      <c r="BL2" s="133"/>
+      <c r="BM2" s="133"/>
+      <c r="BN2" s="133"/>
+      <c r="BO2" s="133"/>
+      <c r="BP2" s="133"/>
+      <c r="BQ2" s="133"/>
+      <c r="BR2" s="133"/>
+      <c r="BS2" s="133"/>
+      <c r="BT2" s="133"/>
+      <c r="BU2" s="133"/>
+      <c r="BV2" s="133"/>
+      <c r="BW2" s="133"/>
+      <c r="BX2" s="133"/>
+      <c r="BY2" s="133"/>
+      <c r="BZ2" s="133"/>
+      <c r="CA2" s="133"/>
+      <c r="CB2" s="133"/>
+      <c r="CC2" s="133"/>
+      <c r="CD2" s="133"/>
+      <c r="CE2" s="133"/>
+      <c r="CF2" s="133"/>
+      <c r="CG2" s="133"/>
+      <c r="CH2" s="133"/>
+      <c r="CI2" s="133"/>
+      <c r="CJ2" s="133"/>
+      <c r="CK2" s="133"/>
+      <c r="CL2" s="133"/>
+      <c r="CM2" s="133"/>
+      <c r="CN2" s="133"/>
+      <c r="CO2" s="133"/>
+      <c r="CP2" s="133"/>
+      <c r="CQ2" s="133"/>
+      <c r="CR2" s="133"/>
+      <c r="CS2" s="133"/>
+      <c r="CT2" s="133"/>
+      <c r="CU2" s="133"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="165"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="165"/>
-      <c r="AF3" s="165"/>
-      <c r="AG3" s="165"/>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="165"/>
-      <c r="AJ3" s="165"/>
-      <c r="AK3" s="165"/>
-      <c r="AL3" s="165"/>
-      <c r="AM3" s="165"/>
-      <c r="AN3" s="165"/>
-      <c r="AO3" s="165"/>
-      <c r="AP3" s="165"/>
-      <c r="AQ3" s="165"/>
-      <c r="AR3" s="165"/>
-      <c r="AS3" s="165"/>
-      <c r="AT3" s="165"/>
-      <c r="AU3" s="165"/>
-      <c r="AV3" s="165"/>
-      <c r="AW3" s="165"/>
-      <c r="AX3" s="165"/>
-      <c r="AY3" s="165"/>
-      <c r="AZ3" s="165"/>
-      <c r="BA3" s="165"/>
-      <c r="BB3" s="165"/>
-      <c r="BC3" s="165"/>
-      <c r="BD3" s="165"/>
-      <c r="BE3" s="165"/>
-      <c r="BF3" s="165"/>
-      <c r="BG3" s="165"/>
-      <c r="BH3" s="165"/>
-      <c r="BI3" s="165"/>
-      <c r="BJ3" s="165"/>
-      <c r="BK3" s="165"/>
-      <c r="BL3" s="165"/>
-      <c r="BM3" s="165"/>
-      <c r="BN3" s="165"/>
-      <c r="BO3" s="165"/>
-      <c r="BP3" s="165"/>
-      <c r="BQ3" s="165"/>
-      <c r="BR3" s="165"/>
-      <c r="BS3" s="165"/>
-      <c r="BT3" s="165"/>
-      <c r="BU3" s="165"/>
-      <c r="BV3" s="165"/>
-      <c r="BW3" s="165"/>
-      <c r="BX3" s="165"/>
-      <c r="BY3" s="165"/>
-      <c r="BZ3" s="165"/>
-      <c r="CA3" s="165"/>
-      <c r="CB3" s="165"/>
-      <c r="CC3" s="165"/>
-      <c r="CD3" s="165"/>
-      <c r="CE3" s="165"/>
-      <c r="CF3" s="165"/>
-      <c r="CG3" s="165"/>
-      <c r="CH3" s="165"/>
-      <c r="CI3" s="165"/>
-      <c r="CJ3" s="165"/>
-      <c r="CK3" s="165"/>
-      <c r="CL3" s="165"/>
-      <c r="CM3" s="165"/>
-      <c r="CN3" s="165"/>
-      <c r="CO3" s="165"/>
-      <c r="CP3" s="165"/>
-      <c r="CQ3" s="165"/>
-      <c r="CR3" s="165"/>
-      <c r="CS3" s="165"/>
-      <c r="CT3" s="165"/>
-      <c r="CU3" s="165"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="133"/>
+      <c r="AG3" s="133"/>
+      <c r="AH3" s="133"/>
+      <c r="AI3" s="133"/>
+      <c r="AJ3" s="133"/>
+      <c r="AK3" s="133"/>
+      <c r="AL3" s="133"/>
+      <c r="AM3" s="133"/>
+      <c r="AN3" s="133"/>
+      <c r="AO3" s="133"/>
+      <c r="AP3" s="133"/>
+      <c r="AQ3" s="133"/>
+      <c r="AR3" s="133"/>
+      <c r="AS3" s="133"/>
+      <c r="AT3" s="133"/>
+      <c r="AU3" s="133"/>
+      <c r="AV3" s="133"/>
+      <c r="AW3" s="133"/>
+      <c r="AX3" s="133"/>
+      <c r="AY3" s="133"/>
+      <c r="AZ3" s="133"/>
+      <c r="BA3" s="133"/>
+      <c r="BB3" s="133"/>
+      <c r="BC3" s="133"/>
+      <c r="BD3" s="133"/>
+      <c r="BE3" s="133"/>
+      <c r="BF3" s="133"/>
+      <c r="BG3" s="133"/>
+      <c r="BH3" s="133"/>
+      <c r="BI3" s="133"/>
+      <c r="BJ3" s="133"/>
+      <c r="BK3" s="133"/>
+      <c r="BL3" s="133"/>
+      <c r="BM3" s="133"/>
+      <c r="BN3" s="133"/>
+      <c r="BO3" s="133"/>
+      <c r="BP3" s="133"/>
+      <c r="BQ3" s="133"/>
+      <c r="BR3" s="133"/>
+      <c r="BS3" s="133"/>
+      <c r="BT3" s="133"/>
+      <c r="BU3" s="133"/>
+      <c r="BV3" s="133"/>
+      <c r="BW3" s="133"/>
+      <c r="BX3" s="133"/>
+      <c r="BY3" s="133"/>
+      <c r="BZ3" s="133"/>
+      <c r="CA3" s="133"/>
+      <c r="CB3" s="133"/>
+      <c r="CC3" s="133"/>
+      <c r="CD3" s="133"/>
+      <c r="CE3" s="133"/>
+      <c r="CF3" s="133"/>
+      <c r="CG3" s="133"/>
+      <c r="CH3" s="133"/>
+      <c r="CI3" s="133"/>
+      <c r="CJ3" s="133"/>
+      <c r="CK3" s="133"/>
+      <c r="CL3" s="133"/>
+      <c r="CM3" s="133"/>
+      <c r="CN3" s="133"/>
+      <c r="CO3" s="133"/>
+      <c r="CP3" s="133"/>
+      <c r="CQ3" s="133"/>
+      <c r="CR3" s="133"/>
+      <c r="CS3" s="133"/>
+      <c r="CT3" s="133"/>
+      <c r="CU3" s="133"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="176" t="s">
+      <c r="B5" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="176" t="s">
+      <c r="C5" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="177" t="s">
+      <c r="D5" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="178"/>
-      <c r="P5" s="178"/>
-      <c r="Q5" s="178"/>
-      <c r="R5" s="178"/>
-      <c r="S5" s="178"/>
-      <c r="T5" s="178"/>
-      <c r="U5" s="178"/>
-      <c r="V5" s="178"/>
-      <c r="W5" s="178"/>
-      <c r="X5" s="178"/>
-      <c r="Y5" s="178"/>
-      <c r="Z5" s="178"/>
-      <c r="AA5" s="178"/>
-      <c r="AB5" s="178"/>
-      <c r="AC5" s="178"/>
-      <c r="AD5" s="178"/>
-      <c r="AE5" s="178"/>
-      <c r="AF5" s="178"/>
-      <c r="AG5" s="178"/>
-      <c r="AH5" s="178"/>
-      <c r="AI5" s="178"/>
-      <c r="AJ5" s="178"/>
-      <c r="AK5" s="178"/>
-      <c r="AL5" s="178"/>
-      <c r="AM5" s="178"/>
-      <c r="AN5" s="178"/>
-      <c r="AO5" s="178"/>
-      <c r="AP5" s="178"/>
-      <c r="AQ5" s="178"/>
-      <c r="AR5" s="178"/>
-      <c r="AS5" s="178"/>
-      <c r="AT5" s="178"/>
-      <c r="AU5" s="178"/>
-      <c r="AV5" s="178"/>
-      <c r="AW5" s="178"/>
-      <c r="AX5" s="178"/>
-      <c r="AY5" s="178"/>
-      <c r="AZ5" s="178"/>
-      <c r="BA5" s="178"/>
-      <c r="BB5" s="178"/>
-      <c r="BC5" s="178"/>
-      <c r="BD5" s="179"/>
-      <c r="BE5" s="180" t="s">
+      <c r="E5" s="203"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="203"/>
+      <c r="K5" s="203"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203"/>
+      <c r="R5" s="203"/>
+      <c r="S5" s="203"/>
+      <c r="T5" s="203"/>
+      <c r="U5" s="203"/>
+      <c r="V5" s="203"/>
+      <c r="W5" s="203"/>
+      <c r="X5" s="203"/>
+      <c r="Y5" s="203"/>
+      <c r="Z5" s="203"/>
+      <c r="AA5" s="203"/>
+      <c r="AB5" s="203"/>
+      <c r="AC5" s="203"/>
+      <c r="AD5" s="203"/>
+      <c r="AE5" s="203"/>
+      <c r="AF5" s="203"/>
+      <c r="AG5" s="203"/>
+      <c r="AH5" s="203"/>
+      <c r="AI5" s="203"/>
+      <c r="AJ5" s="203"/>
+      <c r="AK5" s="203"/>
+      <c r="AL5" s="203"/>
+      <c r="AM5" s="203"/>
+      <c r="AN5" s="203"/>
+      <c r="AO5" s="203"/>
+      <c r="AP5" s="203"/>
+      <c r="AQ5" s="203"/>
+      <c r="AR5" s="203"/>
+      <c r="AS5" s="203"/>
+      <c r="AT5" s="203"/>
+      <c r="AU5" s="203"/>
+      <c r="AV5" s="203"/>
+      <c r="AW5" s="203"/>
+      <c r="AX5" s="203"/>
+      <c r="AY5" s="203"/>
+      <c r="AZ5" s="203"/>
+      <c r="BA5" s="203"/>
+      <c r="BB5" s="203"/>
+      <c r="BC5" s="203"/>
+      <c r="BD5" s="204"/>
+      <c r="BE5" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="181"/>
-      <c r="BG5" s="181"/>
-      <c r="BH5" s="181"/>
-      <c r="BI5" s="181"/>
-      <c r="BJ5" s="181"/>
-      <c r="BK5" s="181"/>
-      <c r="BL5" s="181"/>
-      <c r="BM5" s="181"/>
-      <c r="BN5" s="181"/>
-      <c r="BO5" s="181"/>
-      <c r="BP5" s="181"/>
-      <c r="BQ5" s="181"/>
-      <c r="BR5" s="181"/>
-      <c r="BS5" s="181"/>
-      <c r="BT5" s="181"/>
-      <c r="BU5" s="181"/>
-      <c r="BV5" s="181"/>
-      <c r="BW5" s="181"/>
-      <c r="BX5" s="181"/>
-      <c r="BY5" s="181"/>
-      <c r="BZ5" s="181"/>
-      <c r="CA5" s="181"/>
-      <c r="CB5" s="181"/>
-      <c r="CC5" s="181"/>
-      <c r="CD5" s="181"/>
-      <c r="CE5" s="181"/>
-      <c r="CF5" s="181"/>
-      <c r="CG5" s="181"/>
-      <c r="CH5" s="181"/>
-      <c r="CI5" s="181"/>
-      <c r="CJ5" s="181"/>
-      <c r="CK5" s="181"/>
-      <c r="CL5" s="181"/>
-      <c r="CM5" s="181"/>
-      <c r="CN5" s="181"/>
-      <c r="CO5" s="181"/>
-      <c r="CP5" s="181"/>
-      <c r="CQ5" s="181"/>
-      <c r="CR5" s="182"/>
-      <c r="CS5" s="187" t="s">
+      <c r="BF5" s="206"/>
+      <c r="BG5" s="206"/>
+      <c r="BH5" s="206"/>
+      <c r="BI5" s="206"/>
+      <c r="BJ5" s="206"/>
+      <c r="BK5" s="206"/>
+      <c r="BL5" s="206"/>
+      <c r="BM5" s="206"/>
+      <c r="BN5" s="206"/>
+      <c r="BO5" s="206"/>
+      <c r="BP5" s="206"/>
+      <c r="BQ5" s="206"/>
+      <c r="BR5" s="206"/>
+      <c r="BS5" s="206"/>
+      <c r="BT5" s="206"/>
+      <c r="BU5" s="206"/>
+      <c r="BV5" s="206"/>
+      <c r="BW5" s="206"/>
+      <c r="BX5" s="206"/>
+      <c r="BY5" s="206"/>
+      <c r="BZ5" s="206"/>
+      <c r="CA5" s="206"/>
+      <c r="CB5" s="206"/>
+      <c r="CC5" s="206"/>
+      <c r="CD5" s="206"/>
+      <c r="CE5" s="206"/>
+      <c r="CF5" s="206"/>
+      <c r="CG5" s="206"/>
+      <c r="CH5" s="206"/>
+      <c r="CI5" s="206"/>
+      <c r="CJ5" s="206"/>
+      <c r="CK5" s="206"/>
+      <c r="CL5" s="206"/>
+      <c r="CM5" s="206"/>
+      <c r="CN5" s="206"/>
+      <c r="CO5" s="206"/>
+      <c r="CP5" s="206"/>
+      <c r="CQ5" s="206"/>
+      <c r="CR5" s="207"/>
+      <c r="CS5" s="194" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="188"/>
-      <c r="CU5" s="189"/>
+      <c r="CT5" s="195"/>
+      <c r="CU5" s="196"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="174"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="207" t="s">
+      <c r="A6" s="199"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="193" t="s">
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="180" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="193"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="193"/>
-      <c r="X6" s="193"/>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="193"/>
-      <c r="AA6" s="193"/>
-      <c r="AB6" s="193"/>
-      <c r="AC6" s="193"/>
-      <c r="AD6" s="193"/>
-      <c r="AE6" s="193"/>
-      <c r="AF6" s="193"/>
-      <c r="AG6" s="193"/>
-      <c r="AH6" s="193"/>
-      <c r="AI6" s="193"/>
-      <c r="AJ6" s="193"/>
-      <c r="AK6" s="193"/>
-      <c r="AL6" s="193"/>
-      <c r="AM6" s="193"/>
-      <c r="AN6" s="193"/>
-      <c r="AO6" s="193" t="s">
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="180"/>
+      <c r="Q6" s="180"/>
+      <c r="R6" s="180"/>
+      <c r="S6" s="180"/>
+      <c r="T6" s="180"/>
+      <c r="U6" s="180"/>
+      <c r="V6" s="180"/>
+      <c r="W6" s="180"/>
+      <c r="X6" s="180"/>
+      <c r="Y6" s="180"/>
+      <c r="Z6" s="180"/>
+      <c r="AA6" s="180"/>
+      <c r="AB6" s="180"/>
+      <c r="AC6" s="180"/>
+      <c r="AD6" s="180"/>
+      <c r="AE6" s="180"/>
+      <c r="AF6" s="180"/>
+      <c r="AG6" s="180"/>
+      <c r="AH6" s="180"/>
+      <c r="AI6" s="180"/>
+      <c r="AJ6" s="180"/>
+      <c r="AK6" s="180"/>
+      <c r="AL6" s="180"/>
+      <c r="AM6" s="180"/>
+      <c r="AN6" s="180"/>
+      <c r="AO6" s="180" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="193"/>
-      <c r="AQ6" s="193"/>
-      <c r="AR6" s="193"/>
-      <c r="AS6" s="193" t="s">
+      <c r="AP6" s="180"/>
+      <c r="AQ6" s="180"/>
+      <c r="AR6" s="180"/>
+      <c r="AS6" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="193"/>
-      <c r="AU6" s="193"/>
-      <c r="AV6" s="193" t="s">
+      <c r="AT6" s="180"/>
+      <c r="AU6" s="180"/>
+      <c r="AV6" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="193"/>
-      <c r="AX6" s="193"/>
-      <c r="AY6" s="193"/>
-      <c r="AZ6" s="193"/>
-      <c r="BA6" s="193"/>
-      <c r="BB6" s="193"/>
-      <c r="BC6" s="197" t="s">
+      <c r="AW6" s="180"/>
+      <c r="AX6" s="180"/>
+      <c r="AY6" s="180"/>
+      <c r="AZ6" s="180"/>
+      <c r="BA6" s="180"/>
+      <c r="BB6" s="180"/>
+      <c r="BC6" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="198"/>
-      <c r="BE6" s="199" t="s">
+      <c r="BD6" s="188"/>
+      <c r="BE6" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="200"/>
-      <c r="BG6" s="200"/>
-      <c r="BH6" s="200"/>
-      <c r="BI6" s="200"/>
-      <c r="BJ6" s="200"/>
-      <c r="BK6" s="201"/>
-      <c r="BL6" s="202" t="s">
+      <c r="BF6" s="190"/>
+      <c r="BG6" s="190"/>
+      <c r="BH6" s="190"/>
+      <c r="BI6" s="190"/>
+      <c r="BJ6" s="190"/>
+      <c r="BK6" s="191"/>
+      <c r="BL6" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="200"/>
-      <c r="BN6" s="200"/>
-      <c r="BO6" s="200"/>
-      <c r="BP6" s="200"/>
-      <c r="BQ6" s="200"/>
-      <c r="BR6" s="200"/>
-      <c r="BS6" s="200"/>
-      <c r="BT6" s="200"/>
-      <c r="BU6" s="200"/>
-      <c r="BV6" s="200"/>
-      <c r="BW6" s="200"/>
-      <c r="BX6" s="200"/>
-      <c r="BY6" s="200"/>
-      <c r="BZ6" s="200"/>
-      <c r="CA6" s="200"/>
-      <c r="CB6" s="200"/>
-      <c r="CC6" s="200"/>
-      <c r="CD6" s="200"/>
-      <c r="CE6" s="200"/>
-      <c r="CF6" s="200"/>
-      <c r="CG6" s="200"/>
-      <c r="CH6" s="200"/>
-      <c r="CI6" s="200"/>
-      <c r="CJ6" s="200"/>
-      <c r="CK6" s="200"/>
-      <c r="CL6" s="200"/>
-      <c r="CM6" s="200"/>
-      <c r="CN6" s="200"/>
-      <c r="CO6" s="200"/>
-      <c r="CP6" s="200"/>
-      <c r="CQ6" s="190" t="s">
+      <c r="BM6" s="190"/>
+      <c r="BN6" s="190"/>
+      <c r="BO6" s="190"/>
+      <c r="BP6" s="190"/>
+      <c r="BQ6" s="190"/>
+      <c r="BR6" s="190"/>
+      <c r="BS6" s="190"/>
+      <c r="BT6" s="190"/>
+      <c r="BU6" s="190"/>
+      <c r="BV6" s="190"/>
+      <c r="BW6" s="190"/>
+      <c r="BX6" s="190"/>
+      <c r="BY6" s="190"/>
+      <c r="BZ6" s="190"/>
+      <c r="CA6" s="190"/>
+      <c r="CB6" s="190"/>
+      <c r="CC6" s="190"/>
+      <c r="CD6" s="190"/>
+      <c r="CE6" s="190"/>
+      <c r="CF6" s="190"/>
+      <c r="CG6" s="190"/>
+      <c r="CH6" s="190"/>
+      <c r="CI6" s="190"/>
+      <c r="CJ6" s="190"/>
+      <c r="CK6" s="190"/>
+      <c r="CL6" s="190"/>
+      <c r="CM6" s="190"/>
+      <c r="CN6" s="190"/>
+      <c r="CO6" s="190"/>
+      <c r="CP6" s="190"/>
+      <c r="CQ6" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="190"/>
-      <c r="CS6" s="172" t="s">
+      <c r="CR6" s="197"/>
+      <c r="CS6" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="172" t="s">
+      <c r="CT6" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="194" t="s">
+      <c r="CU6" s="184" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="174"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="201"/>
+      <c r="C7" s="201"/>
       <c r="E7" s="117"/>
       <c r="F7" s="116">
         <v>0.3</v>
@@ -9201,349 +9201,353 @@
       <c r="I7" s="117">
         <v>0.3</v>
       </c>
-      <c r="J7" s="185">
+      <c r="J7" s="179">
         <v>42983</v>
       </c>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185">
+      <c r="K7" s="179"/>
+      <c r="L7" s="179">
         <v>43004</v>
       </c>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185">
+      <c r="M7" s="179"/>
+      <c r="N7" s="179">
         <v>43046</v>
       </c>
-      <c r="O7" s="185"/>
-      <c r="P7" s="185">
+      <c r="O7" s="179"/>
+      <c r="P7" s="179">
         <v>43063</v>
       </c>
-      <c r="Q7" s="185"/>
-      <c r="R7" s="185"/>
-      <c r="S7" s="185"/>
-      <c r="T7" s="186">
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="179"/>
+      <c r="T7" s="183">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>4</v>
       </c>
-      <c r="U7" s="186"/>
-      <c r="V7" s="185"/>
-      <c r="W7" s="185"/>
-      <c r="X7" s="185"/>
-      <c r="Y7" s="185"/>
-      <c r="Z7" s="185"/>
-      <c r="AA7" s="185"/>
-      <c r="AB7" s="185"/>
-      <c r="AC7" s="185"/>
-      <c r="AD7" s="185"/>
-      <c r="AE7" s="185"/>
-      <c r="AF7" s="185"/>
-      <c r="AG7" s="185"/>
-      <c r="AH7" s="185"/>
-      <c r="AI7" s="185"/>
-      <c r="AJ7" s="185"/>
-      <c r="AK7" s="185"/>
-      <c r="AL7" s="185"/>
-      <c r="AM7" s="185"/>
+      <c r="U7" s="183"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="179"/>
+      <c r="Y7" s="179"/>
+      <c r="Z7" s="179"/>
+      <c r="AA7" s="179"/>
+      <c r="AB7" s="179"/>
+      <c r="AC7" s="179"/>
+      <c r="AD7" s="179"/>
+      <c r="AE7" s="179"/>
+      <c r="AF7" s="179"/>
+      <c r="AG7" s="179"/>
+      <c r="AH7" s="179"/>
+      <c r="AI7" s="179"/>
+      <c r="AJ7" s="179"/>
+      <c r="AK7" s="179"/>
+      <c r="AL7" s="179"/>
+      <c r="AM7" s="179"/>
       <c r="AN7" s="90">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="185" t="s">
+      <c r="AO7" s="179" t="s">
         <v>166</v>
       </c>
-      <c r="AP7" s="185"/>
-      <c r="AQ7" s="185"/>
-      <c r="AR7" s="185"/>
-      <c r="AS7" s="186">
+      <c r="AP7" s="179"/>
+      <c r="AQ7" s="179"/>
+      <c r="AR7" s="179"/>
+      <c r="AS7" s="183">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="186"/>
+      <c r="AT7" s="183"/>
       <c r="AU7" s="20">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="185" t="s">
+      <c r="AV7" s="179" t="s">
         <v>167</v>
       </c>
-      <c r="AW7" s="185"/>
-      <c r="AX7" s="185"/>
-      <c r="AY7" s="185"/>
-      <c r="AZ7" s="186">
+      <c r="AW7" s="179"/>
+      <c r="AX7" s="179"/>
+      <c r="AY7" s="179"/>
+      <c r="AZ7" s="183">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="186"/>
+      <c r="BA7" s="183"/>
       <c r="BB7" s="21">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="197"/>
-      <c r="BD7" s="198"/>
-      <c r="BE7" s="185" t="s">
+      <c r="BC7" s="187"/>
+      <c r="BD7" s="188"/>
+      <c r="BE7" s="179" t="s">
         <v>338</v>
       </c>
-      <c r="BF7" s="185"/>
-      <c r="BG7" s="185"/>
-      <c r="BH7" s="185"/>
-      <c r="BI7" s="186">
+      <c r="BF7" s="179"/>
+      <c r="BG7" s="179"/>
+      <c r="BH7" s="179"/>
+      <c r="BI7" s="183">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>1</v>
       </c>
-      <c r="BJ7" s="186"/>
+      <c r="BJ7" s="183"/>
       <c r="BK7" s="98">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="185">
+      <c r="BL7" s="179">
         <v>42982</v>
       </c>
-      <c r="BM7" s="185"/>
-      <c r="BN7" s="185">
+      <c r="BM7" s="179"/>
+      <c r="BN7" s="179">
         <v>42989</v>
       </c>
-      <c r="BO7" s="185"/>
-      <c r="BP7" s="185">
+      <c r="BO7" s="179"/>
+      <c r="BP7" s="179">
         <v>42996</v>
       </c>
-      <c r="BQ7" s="185"/>
-      <c r="BR7" s="185">
+      <c r="BQ7" s="179"/>
+      <c r="BR7" s="179">
         <v>43003</v>
       </c>
-      <c r="BS7" s="185"/>
-      <c r="BT7" s="185">
+      <c r="BS7" s="179"/>
+      <c r="BT7" s="179">
         <v>43028</v>
       </c>
-      <c r="BU7" s="185"/>
-      <c r="BV7" s="185">
+      <c r="BU7" s="179"/>
+      <c r="BV7" s="179">
         <v>43035</v>
       </c>
-      <c r="BW7" s="185"/>
-      <c r="BX7" s="185">
+      <c r="BW7" s="179"/>
+      <c r="BX7" s="179">
         <v>43042</v>
       </c>
-      <c r="BY7" s="185"/>
-      <c r="BZ7" s="185">
+      <c r="BY7" s="179"/>
+      <c r="BZ7" s="179">
         <v>43052</v>
       </c>
-      <c r="CA7" s="185"/>
-      <c r="CB7" s="185"/>
-      <c r="CC7" s="185"/>
-      <c r="CD7" s="185"/>
-      <c r="CE7" s="185"/>
-      <c r="CF7" s="185"/>
-      <c r="CG7" s="185"/>
-      <c r="CH7" s="185"/>
-      <c r="CI7" s="185"/>
-      <c r="CJ7" s="185"/>
-      <c r="CK7" s="185"/>
-      <c r="CL7" s="185"/>
-      <c r="CM7" s="185"/>
-      <c r="CN7" s="186">
+      <c r="CA7" s="179"/>
+      <c r="CB7" s="179">
+        <v>43059</v>
+      </c>
+      <c r="CC7" s="179"/>
+      <c r="CD7" s="179">
+        <v>43066</v>
+      </c>
+      <c r="CE7" s="179"/>
+      <c r="CF7" s="179"/>
+      <c r="CG7" s="179"/>
+      <c r="CH7" s="179"/>
+      <c r="CI7" s="179"/>
+      <c r="CJ7" s="179"/>
+      <c r="CK7" s="179"/>
+      <c r="CL7" s="179"/>
+      <c r="CM7" s="179"/>
+      <c r="CN7" s="183">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>10</v>
       </c>
-      <c r="CO7" s="186"/>
+      <c r="CO7" s="183"/>
       <c r="CP7" s="99">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="190"/>
-      <c r="CR7" s="190"/>
-      <c r="CS7" s="172"/>
-      <c r="CT7" s="172"/>
-      <c r="CU7" s="195"/>
+      <c r="CQ7" s="197"/>
+      <c r="CR7" s="197"/>
+      <c r="CS7" s="193"/>
+      <c r="CT7" s="193"/>
+      <c r="CU7" s="185"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="174"/>
-      <c r="B8" s="176"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="183" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="208" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183" t="s">
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="184" t="s">
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184" t="s">
+      <c r="K8" s="172"/>
+      <c r="L8" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184" t="s">
+      <c r="M8" s="172"/>
+      <c r="N8" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184" t="s">
+      <c r="O8" s="172"/>
+      <c r="P8" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="184" t="s">
+      <c r="Q8" s="172"/>
+      <c r="R8" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184" t="s">
+      <c r="S8" s="172"/>
+      <c r="T8" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="184"/>
-      <c r="V8" s="184" t="s">
+      <c r="U8" s="172"/>
+      <c r="V8" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="184"/>
-      <c r="X8" s="184" t="s">
+      <c r="W8" s="172"/>
+      <c r="X8" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="184"/>
-      <c r="Z8" s="184" t="s">
+      <c r="Y8" s="172"/>
+      <c r="Z8" s="172" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184" t="s">
+      <c r="AA8" s="172"/>
+      <c r="AB8" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="184"/>
-      <c r="AD8" s="184" t="s">
+      <c r="AC8" s="172"/>
+      <c r="AD8" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="184"/>
-      <c r="AF8" s="184" t="s">
+      <c r="AE8" s="172"/>
+      <c r="AF8" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="184"/>
-      <c r="AH8" s="184" t="s">
+      <c r="AG8" s="172"/>
+      <c r="AH8" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="184"/>
-      <c r="AJ8" s="184" t="s">
+      <c r="AI8" s="172"/>
+      <c r="AJ8" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="184"/>
-      <c r="AL8" s="184" t="s">
+      <c r="AK8" s="172"/>
+      <c r="AL8" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="184"/>
+      <c r="AM8" s="172"/>
       <c r="AN8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="184" t="s">
+      <c r="AO8" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="184"/>
-      <c r="AQ8" s="184" t="s">
+      <c r="AP8" s="172"/>
+      <c r="AQ8" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="184"/>
-      <c r="AS8" s="184" t="s">
+      <c r="AR8" s="172"/>
+      <c r="AS8" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="184"/>
+      <c r="AT8" s="172"/>
       <c r="AU8" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="184" t="s">
+      <c r="AV8" s="172" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="184"/>
-      <c r="AX8" s="184" t="s">
+      <c r="AW8" s="172"/>
+      <c r="AX8" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="184"/>
-      <c r="AZ8" s="184" t="s">
+      <c r="AY8" s="172"/>
+      <c r="AZ8" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="184"/>
+      <c r="BA8" s="172"/>
       <c r="BB8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="197"/>
-      <c r="BD8" s="198"/>
-      <c r="BE8" s="206" t="s">
+      <c r="BC8" s="187"/>
+      <c r="BD8" s="188"/>
+      <c r="BE8" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="203"/>
-      <c r="BG8" s="203" t="s">
+      <c r="BF8" s="181"/>
+      <c r="BG8" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="203"/>
-      <c r="BI8" s="203" t="s">
+      <c r="BH8" s="181"/>
+      <c r="BI8" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="203"/>
+      <c r="BJ8" s="181"/>
       <c r="BK8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="204" t="s">
+      <c r="BL8" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="205"/>
-      <c r="BN8" s="204" t="s">
+      <c r="BM8" s="176"/>
+      <c r="BN8" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="205"/>
-      <c r="BP8" s="204" t="s">
+      <c r="BO8" s="176"/>
+      <c r="BP8" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="205"/>
-      <c r="BR8" s="204" t="s">
+      <c r="BQ8" s="176"/>
+      <c r="BR8" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="205"/>
-      <c r="BT8" s="204" t="s">
+      <c r="BS8" s="176"/>
+      <c r="BT8" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="205"/>
-      <c r="BV8" s="191" t="s">
+      <c r="BU8" s="176"/>
+      <c r="BV8" s="173" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="192"/>
-      <c r="BX8" s="191" t="s">
+      <c r="BW8" s="174"/>
+      <c r="BX8" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="192"/>
-      <c r="BZ8" s="191" t="s">
+      <c r="BY8" s="174"/>
+      <c r="BZ8" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="192"/>
-      <c r="CB8" s="191" t="s">
+      <c r="CA8" s="174"/>
+      <c r="CB8" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="192"/>
-      <c r="CD8" s="191" t="s">
+      <c r="CC8" s="174"/>
+      <c r="CD8" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="192"/>
-      <c r="CF8" s="191" t="s">
+      <c r="CE8" s="174"/>
+      <c r="CF8" s="173" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="192"/>
-      <c r="CH8" s="191" t="s">
+      <c r="CG8" s="174"/>
+      <c r="CH8" s="173" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="192"/>
-      <c r="CJ8" s="191" t="s">
+      <c r="CI8" s="174"/>
+      <c r="CJ8" s="173" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="192"/>
-      <c r="CL8" s="191" t="s">
+      <c r="CK8" s="174"/>
+      <c r="CL8" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="192"/>
-      <c r="CN8" s="191" t="s">
+      <c r="CM8" s="174"/>
+      <c r="CN8" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="192"/>
+      <c r="CO8" s="174"/>
       <c r="CP8" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="190"/>
-      <c r="CR8" s="190"/>
-      <c r="CS8" s="172"/>
-      <c r="CT8" s="172"/>
-      <c r="CU8" s="195"/>
+      <c r="CQ8" s="197"/>
+      <c r="CR8" s="197"/>
+      <c r="CS8" s="193"/>
+      <c r="CT8" s="193"/>
+      <c r="CU8" s="185"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="175"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="176"/>
+      <c r="A9" s="200"/>
+      <c r="B9" s="201"/>
+      <c r="C9" s="201"/>
       <c r="D9" s="26">
         <v>70</v>
       </c>
@@ -9552,7 +9556,7 @@
         <v>87</v>
       </c>
       <c r="G9" s="26">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H9" s="84"/>
       <c r="I9" s="89" t="s">
@@ -9733,9 +9737,9 @@
       <c r="CR9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="172"/>
-      <c r="CT9" s="172"/>
-      <c r="CU9" s="196"/>
+      <c r="CS9" s="193"/>
+      <c r="CT9" s="193"/>
+      <c r="CU9" s="186"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="41">
@@ -9948,20 +9952,26 @@
         <f>IFERROR(((BX10/$BX$9)*100),"")</f>
         <v>65</v>
       </c>
-      <c r="BZ10" s="100"/>
+      <c r="BZ10" s="100">
+        <v>65</v>
+      </c>
       <c r="CA10" s="85">
         <f>IFERROR(((BZ10/$BZ$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="CB10" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB10" s="100">
+        <v>100</v>
+      </c>
       <c r="CC10" s="85">
         <f>IFERROR(((CB10/$CB$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="CD10" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD10" s="100">
+        <v>100</v>
+      </c>
       <c r="CE10" s="85">
         <f>IFERROR(((CD10/$CD$9)*100),"")</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF10" s="100"/>
       <c r="CG10" s="85" t="str">
@@ -9990,19 +10000,19 @@
       </c>
       <c r="CP10" s="96">
         <f>IFERROR(((SUM(BM10,BO10,BQ10,BS10,BU10,BW10,BY10,CA10,CC10,CE10,CG10,CI10,CK10,CM10,CO10)/$CN$7)*$CP$7),"")</f>
-        <v>28.75</v>
+        <v>42</v>
       </c>
       <c r="CQ10" s="92">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
-        <v>28.75</v>
+        <v>42</v>
       </c>
       <c r="CR10" s="92">
         <f>IFERROR(ROUND(CQ10,2),"")</f>
-        <v>28.75</v>
+        <v>42</v>
       </c>
       <c r="CS10" s="97">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>41.246000000000002</v>
+        <v>49.195999999999998</v>
       </c>
       <c r="CT10" s="97">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10107,11 +10117,11 @@
         <v>12.30952380952381</v>
       </c>
       <c r="AO11" s="101">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP11" s="85">
         <f t="shared" ref="AP11:AP70" si="10">IFERROR(((AO11/$AO$9)*100),"")</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AQ11" s="101"/>
       <c r="AR11" s="85" t="str">
@@ -10125,7 +10135,7 @@
       </c>
       <c r="AU11" s="88">
         <f t="shared" ref="AU11:AU70" si="13">IFERROR(((SUM(AP11,AR11,AT11)/$AS$7)*$AU$7),"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV11" s="101">
         <v>100</v>
@@ -10150,11 +10160,11 @@
       </c>
       <c r="BC11" s="91">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>47.452380952380949</v>
+        <v>48.452380952380949</v>
       </c>
       <c r="BD11" s="91">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>47.45</v>
+        <v>48.45</v>
       </c>
       <c r="BE11" s="101"/>
       <c r="BF11" s="85">
@@ -10224,20 +10234,26 @@
         <f t="shared" ref="BY11:BY70" si="29">IFERROR(((BX11/$BX$9)*100),"")</f>
         <v>65</v>
       </c>
-      <c r="BZ11" s="100"/>
+      <c r="BZ11" s="100">
+        <v>65</v>
+      </c>
       <c r="CA11" s="85">
         <f t="shared" ref="CA11:CA70" si="30">IFERROR(((BZ11/$BZ$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="CB11" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB11" s="100">
+        <v>100</v>
+      </c>
       <c r="CC11" s="85">
         <f t="shared" ref="CC11:CC70" si="31">IFERROR(((CB11/$CB$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="CD11" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD11" s="100">
+        <v>100</v>
+      </c>
       <c r="CE11" s="85">
         <f t="shared" ref="CE11:CE70" si="32">IFERROR(((CD11/$CD$9)*100),"")</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF11" s="100"/>
       <c r="CG11" s="85" t="str">
@@ -10266,19 +10282,19 @@
       </c>
       <c r="CP11" s="96">
         <f t="shared" ref="CP11:CP70" si="38">IFERROR(((SUM(BM11,BO11,BQ11,BS11,BU11,BW11,BY11,CA11,CC11,CE11,CG11,CI11,CK11,CM11,CO11)/$CN$7)*$CP$7),"")</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="CQ11" s="92">
         <f t="shared" ref="CQ11:CQ70" si="39">IFERROR(SUM(CP11,BK11),"")</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="CR11" s="92">
         <f t="shared" ref="CR11:CR70" si="40">IFERROR(ROUND(CQ11,2),"")</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="CS11" s="97">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>35.93</v>
+        <v>44.28</v>
       </c>
       <c r="CT11" s="97">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10500,20 +10516,26 @@
         <f t="shared" si="29"/>
         <v>70</v>
       </c>
-      <c r="BZ12" s="100"/>
+      <c r="BZ12" s="100">
+        <v>65</v>
+      </c>
       <c r="CA12" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB12" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB12" s="100">
+        <v>100</v>
+      </c>
       <c r="CC12" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD12" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD12" s="100">
+        <v>100</v>
+      </c>
       <c r="CE12" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF12" s="100"/>
       <c r="CG12" s="85" t="str">
@@ -10542,19 +10564,19 @@
       </c>
       <c r="CP12" s="96">
         <f t="shared" si="38"/>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="CQ12" s="92">
         <f t="shared" si="39"/>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="CR12" s="92">
         <f t="shared" si="40"/>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="CS12" s="97">
         <f t="shared" si="41"/>
-        <v>38.39</v>
+        <v>46.34</v>
       </c>
       <c r="CT12" s="97">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10657,11 +10679,11 @@
         <v>7.1785714285714279</v>
       </c>
       <c r="AO13" s="101">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP13" s="85">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AQ13" s="101"/>
       <c r="AR13" s="85" t="str">
@@ -10675,7 +10697,7 @@
       </c>
       <c r="AU13" s="88">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV13" s="101">
         <v>100</v>
@@ -10700,11 +10722,11 @@
       </c>
       <c r="BC13" s="91">
         <f t="shared" si="18"/>
-        <v>44.035714285714278</v>
+        <v>45.035714285714278</v>
       </c>
       <c r="BD13" s="91">
         <f t="shared" si="19"/>
-        <v>44.04</v>
+        <v>45.04</v>
       </c>
       <c r="BE13" s="101"/>
       <c r="BF13" s="85">
@@ -10774,20 +10796,26 @@
         <f t="shared" si="29"/>
         <v>100</v>
       </c>
-      <c r="BZ13" s="100"/>
+      <c r="BZ13" s="100">
+        <v>65</v>
+      </c>
       <c r="CA13" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB13" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB13" s="100">
+        <v>100</v>
+      </c>
       <c r="CC13" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD13" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD13" s="100">
+        <v>100</v>
+      </c>
       <c r="CE13" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF13" s="100"/>
       <c r="CG13" s="85" t="str">
@@ -10816,19 +10844,19 @@
       </c>
       <c r="CP13" s="96">
         <f t="shared" si="38"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CQ13" s="92">
         <f t="shared" si="39"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CR13" s="92">
         <f t="shared" si="40"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CS13" s="97">
         <f t="shared" si="41"/>
-        <v>36.215999999999994</v>
+        <v>44.566000000000003</v>
       </c>
       <c r="CT13" s="97">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11057,15 +11085,19 @@
         <f t="shared" si="30"/>
         <v>95</v>
       </c>
-      <c r="CB14" s="100"/>
+      <c r="CB14" s="100">
+        <v>100</v>
+      </c>
       <c r="CC14" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD14" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD14" s="100">
+        <v>100</v>
+      </c>
       <c r="CE14" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF14" s="100"/>
       <c r="CG14" s="85" t="str">
@@ -11094,19 +11126,19 @@
       </c>
       <c r="CP14" s="96">
         <f t="shared" si="38"/>
-        <v>38.25</v>
+        <v>48.25</v>
       </c>
       <c r="CQ14" s="92">
         <f t="shared" si="39"/>
-        <v>38.25</v>
+        <v>48.25</v>
       </c>
       <c r="CR14" s="92">
         <f t="shared" si="40"/>
-        <v>38.25</v>
+        <v>48.25</v>
       </c>
       <c r="CS14" s="97">
         <f t="shared" si="41"/>
-        <v>48.31</v>
+        <v>54.31</v>
       </c>
       <c r="CT14" s="97">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11335,15 +11367,19 @@
         <f t="shared" si="30"/>
         <v>95</v>
       </c>
-      <c r="CB15" s="100"/>
+      <c r="CB15" s="100">
+        <v>100</v>
+      </c>
       <c r="CC15" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD15" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD15" s="100">
+        <v>100</v>
+      </c>
       <c r="CE15" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF15" s="100"/>
       <c r="CG15" s="85" t="str">
@@ -11372,19 +11408,19 @@
       </c>
       <c r="CP15" s="96">
         <f t="shared" si="38"/>
-        <v>35.75</v>
+        <v>45.75</v>
       </c>
       <c r="CQ15" s="92">
         <f t="shared" si="39"/>
-        <v>35.75</v>
+        <v>45.75</v>
       </c>
       <c r="CR15" s="92">
         <f t="shared" si="40"/>
-        <v>35.75</v>
+        <v>45.75</v>
       </c>
       <c r="CS15" s="97">
         <f t="shared" si="41"/>
-        <v>45.742000000000004</v>
+        <v>51.742000000000004</v>
       </c>
       <c r="CT15" s="97">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11606,20 +11642,26 @@
         <f t="shared" si="29"/>
         <v>70</v>
       </c>
-      <c r="BZ16" s="100"/>
+      <c r="BZ16" s="100">
+        <v>65</v>
+      </c>
       <c r="CA16" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB16" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB16" s="100">
+        <v>100</v>
+      </c>
       <c r="CC16" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD16" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD16" s="100">
+        <v>100</v>
+      </c>
       <c r="CE16" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF16" s="100"/>
       <c r="CG16" s="85" t="str">
@@ -11648,19 +11690,19 @@
       </c>
       <c r="CP16" s="96">
         <f t="shared" si="38"/>
-        <v>25</v>
+        <v>38.25</v>
       </c>
       <c r="CQ16" s="92">
         <f t="shared" si="39"/>
-        <v>25</v>
+        <v>38.25</v>
       </c>
       <c r="CR16" s="92">
         <f t="shared" si="40"/>
-        <v>25</v>
+        <v>38.25</v>
       </c>
       <c r="CS16" s="97">
         <f t="shared" si="41"/>
-        <v>31.452000000000002</v>
+        <v>39.402000000000001</v>
       </c>
       <c r="CT16" s="97">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11889,15 +11931,19 @@
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="CB17" s="100"/>
+      <c r="CB17" s="100">
+        <v>100</v>
+      </c>
       <c r="CC17" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD17" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD17" s="100">
+        <v>100</v>
+      </c>
       <c r="CE17" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF17" s="100"/>
       <c r="CG17" s="85" t="str">
@@ -11926,19 +11972,19 @@
       </c>
       <c r="CP17" s="96">
         <f t="shared" si="38"/>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="CQ17" s="92">
         <f t="shared" si="39"/>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="CR17" s="92">
         <f t="shared" si="40"/>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="CS17" s="97">
         <f t="shared" si="41"/>
-        <v>42.146000000000001</v>
+        <v>48.146000000000001</v>
       </c>
       <c r="CT17" s="97">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12158,20 +12204,26 @@
         <f t="shared" si="29"/>
         <v>95</v>
       </c>
-      <c r="BZ18" s="100"/>
+      <c r="BZ18" s="100">
+        <v>65</v>
+      </c>
       <c r="CA18" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB18" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB18" s="100">
+        <v>100</v>
+      </c>
       <c r="CC18" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD18" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD18" s="100">
+        <v>100</v>
+      </c>
       <c r="CE18" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF18" s="100"/>
       <c r="CG18" s="85" t="str">
@@ -12200,19 +12252,19 @@
       </c>
       <c r="CP18" s="96">
         <f t="shared" si="38"/>
-        <v>30.75</v>
+        <v>44</v>
       </c>
       <c r="CQ18" s="92">
         <f t="shared" si="39"/>
-        <v>30.75</v>
+        <v>44</v>
       </c>
       <c r="CR18" s="92">
         <f t="shared" si="40"/>
-        <v>30.75</v>
+        <v>44</v>
       </c>
       <c r="CS18" s="97">
         <f t="shared" si="41"/>
-        <v>37.834000000000003</v>
+        <v>45.783999999999999</v>
       </c>
       <c r="CT18" s="97">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12434,20 +12486,26 @@
         <f t="shared" si="29"/>
         <v>65</v>
       </c>
-      <c r="BZ19" s="100"/>
+      <c r="BZ19" s="100">
+        <v>65</v>
+      </c>
       <c r="CA19" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB19" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB19" s="100">
+        <v>100</v>
+      </c>
       <c r="CC19" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD19" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD19" s="100">
+        <v>100</v>
+      </c>
       <c r="CE19" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF19" s="100"/>
       <c r="CG19" s="85" t="str">
@@ -12476,19 +12534,19 @@
       </c>
       <c r="CP19" s="96">
         <f t="shared" si="38"/>
-        <v>27.75</v>
+        <v>41</v>
       </c>
       <c r="CQ19" s="92">
         <f t="shared" si="39"/>
-        <v>27.75</v>
+        <v>41</v>
       </c>
       <c r="CR19" s="92">
         <f t="shared" si="40"/>
-        <v>27.75</v>
+        <v>41</v>
       </c>
       <c r="CS19" s="97">
         <f t="shared" si="41"/>
-        <v>39.353999999999999</v>
+        <v>47.304000000000002</v>
       </c>
       <c r="CT19" s="97">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12592,7 +12650,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AO20" s="101"/>
+      <c r="AO20" s="101">
+        <v>0</v>
+      </c>
       <c r="AP20" s="85">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -12611,7 +12671,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AV20" s="101"/>
+      <c r="AV20" s="101">
+        <v>0</v>
+      </c>
       <c r="AW20" s="85">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -12706,17 +12768,23 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="BZ20" s="100"/>
+      <c r="BZ20" s="100">
+        <v>0</v>
+      </c>
       <c r="CA20" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="CB20" s="100"/>
+      <c r="CB20" s="100">
+        <v>0</v>
+      </c>
       <c r="CC20" s="85">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="CD20" s="100"/>
+      <c r="CD20" s="100">
+        <v>0</v>
+      </c>
       <c r="CE20" s="85">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -12766,9 +12834,8 @@
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
         <v>5</v>
       </c>
-      <c r="CU20" s="86" t="str">
-        <f t="shared" si="42"/>
-        <v>FAILED</v>
+      <c r="CU20" s="86" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:99">
@@ -12982,20 +13049,26 @@
         <f t="shared" si="29"/>
         <v>100</v>
       </c>
-      <c r="BZ21" s="100"/>
+      <c r="BZ21" s="100">
+        <v>65</v>
+      </c>
       <c r="CA21" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB21" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB21" s="100">
+        <v>100</v>
+      </c>
       <c r="CC21" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD21" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD21" s="100">
+        <v>100</v>
+      </c>
       <c r="CE21" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF21" s="100"/>
       <c r="CG21" s="85" t="str">
@@ -13024,19 +13097,19 @@
       </c>
       <c r="CP21" s="96">
         <f t="shared" si="38"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CQ21" s="92">
         <f t="shared" si="39"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CR21" s="92">
         <f t="shared" si="40"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CS21" s="97">
         <f t="shared" si="41"/>
-        <v>41.36</v>
+        <v>49.31</v>
       </c>
       <c r="CT21" s="97">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13258,20 +13331,26 @@
         <f t="shared" si="29"/>
         <v>90</v>
       </c>
-      <c r="BZ22" s="100"/>
+      <c r="BZ22" s="100">
+        <v>65</v>
+      </c>
       <c r="CA22" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB22" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB22" s="100">
+        <v>100</v>
+      </c>
       <c r="CC22" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD22" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD22" s="100">
+        <v>100</v>
+      </c>
       <c r="CE22" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF22" s="100"/>
       <c r="CG22" s="85" t="str">
@@ -13300,19 +13379,19 @@
       </c>
       <c r="CP22" s="96">
         <f t="shared" si="38"/>
-        <v>30.5</v>
+        <v>43.75</v>
       </c>
       <c r="CQ22" s="92">
         <f t="shared" si="39"/>
-        <v>30.5</v>
+        <v>43.75</v>
       </c>
       <c r="CR22" s="92">
         <f t="shared" si="40"/>
-        <v>30.5</v>
+        <v>43.75</v>
       </c>
       <c r="CS22" s="97">
         <f t="shared" si="41"/>
-        <v>40.147999999999996</v>
+        <v>48.097999999999999</v>
       </c>
       <c r="CT22" s="97">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13541,15 +13620,19 @@
         <f t="shared" si="30"/>
         <v>95</v>
       </c>
-      <c r="CB23" s="100"/>
+      <c r="CB23" s="100">
+        <v>100</v>
+      </c>
       <c r="CC23" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD23" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD23" s="100">
+        <v>100</v>
+      </c>
       <c r="CE23" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF23" s="100"/>
       <c r="CG23" s="85" t="str">
@@ -13578,19 +13661,19 @@
       </c>
       <c r="CP23" s="96">
         <f t="shared" si="38"/>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="CQ23" s="92">
         <f t="shared" si="39"/>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="CR23" s="92">
         <f t="shared" si="40"/>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="CS23" s="97">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>43.016000000000005</v>
+        <v>49.016000000000005</v>
       </c>
       <c r="CT23" s="97">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13694,7 +13777,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AO24" s="101"/>
+      <c r="AO24" s="101">
+        <v>0</v>
+      </c>
       <c r="AP24" s="85">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -13713,7 +13798,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AV24" s="101"/>
+      <c r="AV24" s="101">
+        <v>0</v>
+      </c>
       <c r="AW24" s="85">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13808,17 +13895,23 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="BZ24" s="100"/>
+      <c r="BZ24" s="100">
+        <v>0</v>
+      </c>
       <c r="CA24" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="CB24" s="100"/>
+      <c r="CB24" s="100">
+        <v>0</v>
+      </c>
       <c r="CC24" s="85">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="CD24" s="100"/>
+      <c r="CD24" s="100">
+        <v>0</v>
+      </c>
       <c r="CE24" s="85">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -13868,9 +13961,8 @@
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
         <v>5</v>
       </c>
-      <c r="CU24" s="86" t="str">
-        <f t="shared" si="42"/>
-        <v>FAILED</v>
+      <c r="CU24" s="86" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:99">
@@ -14091,15 +14183,19 @@
         <f t="shared" si="30"/>
         <v>80</v>
       </c>
-      <c r="CB25" s="100"/>
+      <c r="CB25" s="100">
+        <v>100</v>
+      </c>
       <c r="CC25" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD25" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD25" s="100">
+        <v>100</v>
+      </c>
       <c r="CE25" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF25" s="100"/>
       <c r="CG25" s="85" t="str">
@@ -14128,19 +14224,19 @@
       </c>
       <c r="CP25" s="96">
         <f t="shared" si="38"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CQ25" s="92">
         <f t="shared" si="39"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CR25" s="92">
         <f t="shared" si="40"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CS25" s="97">
         <f t="shared" si="45"/>
-        <v>42.275999999999996</v>
+        <v>48.275999999999996</v>
       </c>
       <c r="CT25" s="97">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14245,11 +14341,11 @@
         <v>11.571428571428571</v>
       </c>
       <c r="AO26" s="101">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP26" s="85">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AQ26" s="101"/>
       <c r="AR26" s="85" t="str">
@@ -14263,7 +14359,7 @@
       </c>
       <c r="AU26" s="88">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV26" s="101">
         <v>100</v>
@@ -14288,11 +14384,11 @@
       </c>
       <c r="BC26" s="91">
         <f t="shared" si="18"/>
-        <v>44.571428571428569</v>
+        <v>45.571428571428569</v>
       </c>
       <c r="BD26" s="91">
         <f t="shared" si="19"/>
-        <v>44.57</v>
+        <v>45.57</v>
       </c>
       <c r="BE26" s="101"/>
       <c r="BF26" s="85">
@@ -14362,20 +14458,26 @@
         <f t="shared" si="29"/>
         <v>65</v>
       </c>
-      <c r="BZ26" s="100"/>
+      <c r="BZ26" s="100">
+        <v>65</v>
+      </c>
       <c r="CA26" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB26" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB26" s="100">
+        <v>100</v>
+      </c>
       <c r="CC26" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD26" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD26" s="100">
+        <v>100</v>
+      </c>
       <c r="CE26" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF26" s="100"/>
       <c r="CG26" s="85" t="str">
@@ -14404,19 +14506,19 @@
       </c>
       <c r="CP26" s="96">
         <f t="shared" si="38"/>
-        <v>27.75</v>
+        <v>41</v>
       </c>
       <c r="CQ26" s="92">
         <f t="shared" si="39"/>
-        <v>27.75</v>
+        <v>41</v>
       </c>
       <c r="CR26" s="92">
         <f t="shared" si="40"/>
-        <v>27.75</v>
+        <v>41</v>
       </c>
       <c r="CS26" s="97">
         <f t="shared" si="45"/>
-        <v>34.477999999999994</v>
+        <v>42.828000000000003</v>
       </c>
       <c r="CT26" s="97">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14645,15 +14747,19 @@
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="CB27" s="100"/>
+      <c r="CB27" s="100">
+        <v>100</v>
+      </c>
       <c r="CC27" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD27" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD27" s="100">
+        <v>100</v>
+      </c>
       <c r="CE27" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF27" s="100"/>
       <c r="CG27" s="85" t="str">
@@ -14682,19 +14788,19 @@
       </c>
       <c r="CP27" s="96">
         <f t="shared" si="38"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CQ27" s="92">
         <f t="shared" si="39"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CR27" s="92">
         <f t="shared" si="40"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CS27" s="97">
         <f t="shared" si="45"/>
-        <v>42.228000000000002</v>
+        <v>48.228000000000002</v>
       </c>
       <c r="CT27" s="97">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14923,15 +15029,19 @@
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="CB28" s="100"/>
+      <c r="CB28" s="100">
+        <v>100</v>
+      </c>
       <c r="CC28" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD28" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD28" s="100">
+        <v>100</v>
+      </c>
       <c r="CE28" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF28" s="100"/>
       <c r="CG28" s="85" t="str">
@@ -14960,19 +15070,19 @@
       </c>
       <c r="CP28" s="96">
         <f t="shared" si="38"/>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="CQ28" s="92">
         <f t="shared" si="39"/>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="CR28" s="92">
         <f t="shared" si="40"/>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="CS28" s="97">
         <f t="shared" si="45"/>
-        <v>41.602000000000004</v>
+        <v>47.602000000000004</v>
       </c>
       <c r="CT28" s="97">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15194,20 +15304,26 @@
         <f t="shared" si="29"/>
         <v>70</v>
       </c>
-      <c r="BZ29" s="100"/>
+      <c r="BZ29" s="100">
+        <v>65</v>
+      </c>
       <c r="CA29" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB29" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB29" s="100">
+        <v>100</v>
+      </c>
       <c r="CC29" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD29" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD29" s="100">
+        <v>100</v>
+      </c>
       <c r="CE29" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF29" s="100"/>
       <c r="CG29" s="85" t="str">
@@ -15236,19 +15352,19 @@
       </c>
       <c r="CP29" s="96">
         <f t="shared" si="38"/>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="CQ29" s="92">
         <f t="shared" si="39"/>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="CR29" s="92">
         <f t="shared" si="40"/>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="CS29" s="97">
         <f t="shared" si="45"/>
-        <v>40.281999999999996</v>
+        <v>48.231999999999999</v>
       </c>
       <c r="CT29" s="97">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15470,20 +15586,26 @@
         <f t="shared" si="29"/>
         <v>70</v>
       </c>
-      <c r="BZ30" s="100"/>
+      <c r="BZ30" s="100">
+        <v>65</v>
+      </c>
       <c r="CA30" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB30" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB30" s="100">
+        <v>100</v>
+      </c>
       <c r="CC30" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD30" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD30" s="100">
+        <v>100</v>
+      </c>
       <c r="CE30" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF30" s="100"/>
       <c r="CG30" s="85" t="str">
@@ -15512,19 +15634,19 @@
       </c>
       <c r="CP30" s="96">
         <f t="shared" si="38"/>
-        <v>29.5</v>
+        <v>42.75</v>
       </c>
       <c r="CQ30" s="92">
         <f t="shared" si="39"/>
-        <v>29.5</v>
+        <v>42.75</v>
       </c>
       <c r="CR30" s="92">
         <f t="shared" si="40"/>
-        <v>29.5</v>
+        <v>42.75</v>
       </c>
       <c r="CS30" s="97">
         <f t="shared" si="45"/>
-        <v>37.540000000000006</v>
+        <v>45.49</v>
       </c>
       <c r="CT30" s="97">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15744,20 +15866,26 @@
         <f t="shared" si="29"/>
         <v>65</v>
       </c>
-      <c r="BZ31" s="100"/>
+      <c r="BZ31" s="100">
+        <v>65</v>
+      </c>
       <c r="CA31" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB31" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB31" s="100">
+        <v>100</v>
+      </c>
       <c r="CC31" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD31" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD31" s="100">
+        <v>100</v>
+      </c>
       <c r="CE31" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF31" s="100"/>
       <c r="CG31" s="85" t="str">
@@ -15786,19 +15914,19 @@
       </c>
       <c r="CP31" s="96">
         <f t="shared" si="38"/>
-        <v>29.25</v>
+        <v>42.5</v>
       </c>
       <c r="CQ31" s="92">
         <f t="shared" si="39"/>
-        <v>29.25</v>
+        <v>42.5</v>
       </c>
       <c r="CR31" s="92">
         <f t="shared" si="40"/>
-        <v>29.25</v>
+        <v>42.5</v>
       </c>
       <c r="CS31" s="97">
         <f t="shared" si="45"/>
-        <v>37.206000000000003</v>
+        <v>45.156000000000006</v>
       </c>
       <c r="CT31" s="97">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15900,7 +16028,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AO32" s="101"/>
+      <c r="AO32" s="101">
+        <v>0</v>
+      </c>
       <c r="AP32" s="85">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -15919,7 +16049,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AV32" s="101"/>
+      <c r="AV32" s="101">
+        <v>0</v>
+      </c>
       <c r="AW32" s="85">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -16014,17 +16146,23 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="BZ32" s="100"/>
+      <c r="BZ32" s="100">
+        <v>0</v>
+      </c>
       <c r="CA32" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="CB32" s="100"/>
+      <c r="CB32" s="100">
+        <v>0</v>
+      </c>
       <c r="CC32" s="85">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="CD32" s="100"/>
+      <c r="CD32" s="100">
+        <v>0</v>
+      </c>
       <c r="CE32" s="85">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -16074,9 +16212,8 @@
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
         <v>5</v>
       </c>
-      <c r="CU32" s="86" t="str">
-        <f t="shared" si="42"/>
-        <v>FAILED</v>
+      <c r="CU32" s="86" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:99">
@@ -16290,20 +16427,26 @@
         <f t="shared" si="29"/>
         <v>70</v>
       </c>
-      <c r="BZ33" s="100"/>
+      <c r="BZ33" s="100">
+        <v>65</v>
+      </c>
       <c r="CA33" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB33" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB33" s="100">
+        <v>100</v>
+      </c>
       <c r="CC33" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD33" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD33" s="100">
+        <v>100</v>
+      </c>
       <c r="CE33" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF33" s="100"/>
       <c r="CG33" s="85" t="str">
@@ -16332,19 +16475,19 @@
       </c>
       <c r="CP33" s="96">
         <f t="shared" si="38"/>
-        <v>28.5</v>
+        <v>41.75</v>
       </c>
       <c r="CQ33" s="92">
         <f t="shared" si="39"/>
-        <v>28.5</v>
+        <v>41.75</v>
       </c>
       <c r="CR33" s="92">
         <f t="shared" si="40"/>
-        <v>28.5</v>
+        <v>41.75</v>
       </c>
       <c r="CS33" s="97">
         <f t="shared" si="45"/>
-        <v>38.843999999999994</v>
+        <v>46.793999999999997</v>
       </c>
       <c r="CT33" s="97">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -16573,15 +16716,19 @@
         <f t="shared" si="30"/>
         <v>95</v>
       </c>
-      <c r="CB34" s="100"/>
+      <c r="CB34" s="100">
+        <v>100</v>
+      </c>
       <c r="CC34" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD34" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD34" s="100">
+        <v>100</v>
+      </c>
       <c r="CE34" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF34" s="100"/>
       <c r="CG34" s="85" t="str">
@@ -16610,19 +16757,19 @@
       </c>
       <c r="CP34" s="96">
         <f t="shared" si="38"/>
-        <v>36.75</v>
+        <v>46.75</v>
       </c>
       <c r="CQ34" s="92">
         <f t="shared" si="39"/>
-        <v>36.75</v>
+        <v>46.75</v>
       </c>
       <c r="CR34" s="92">
         <f t="shared" si="40"/>
-        <v>36.75</v>
+        <v>46.75</v>
       </c>
       <c r="CS34" s="97">
         <f t="shared" si="45"/>
-        <v>43.122</v>
+        <v>49.122</v>
       </c>
       <c r="CT34" s="97">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -16725,11 +16872,11 @@
         <v>7.6428571428571432</v>
       </c>
       <c r="AO35" s="101">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP35" s="85">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AQ35" s="101"/>
       <c r="AR35" s="85" t="str">
@@ -16743,7 +16890,7 @@
       </c>
       <c r="AU35" s="88">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV35" s="101">
         <v>100</v>
@@ -16768,11 +16915,11 @@
       </c>
       <c r="BC35" s="91">
         <f t="shared" si="18"/>
-        <v>47.071428571428569</v>
+        <v>48.071428571428569</v>
       </c>
       <c r="BD35" s="91">
         <f t="shared" si="19"/>
-        <v>47.07</v>
+        <v>48.07</v>
       </c>
       <c r="BE35" s="101"/>
       <c r="BF35" s="85">
@@ -16842,20 +16989,26 @@
         <f t="shared" si="29"/>
         <v>100</v>
       </c>
-      <c r="BZ35" s="100"/>
+      <c r="BZ35" s="100">
+        <v>65</v>
+      </c>
       <c r="CA35" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB35" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB35" s="100">
+        <v>100</v>
+      </c>
       <c r="CC35" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD35" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD35" s="100">
+        <v>100</v>
+      </c>
       <c r="CE35" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF35" s="100"/>
       <c r="CG35" s="85" t="str">
@@ -16884,19 +17037,19 @@
       </c>
       <c r="CP35" s="96">
         <f t="shared" si="38"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CQ35" s="92">
         <f t="shared" si="39"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CR35" s="92">
         <f t="shared" si="40"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CS35" s="97">
         <f t="shared" si="45"/>
-        <v>37.427999999999997</v>
+        <v>45.778000000000006</v>
       </c>
       <c r="CT35" s="97">
         <f>IFERROR(VLOOKUP(CS35,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -16998,7 +17151,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AO36" s="101"/>
+      <c r="AO36" s="101">
+        <v>0</v>
+      </c>
       <c r="AP36" s="85">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -17017,7 +17172,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AV36" s="101"/>
+      <c r="AV36" s="101">
+        <v>0</v>
+      </c>
       <c r="AW36" s="85">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -17106,23 +17263,29 @@
         <v>0</v>
       </c>
       <c r="BX36" s="100">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="BY36" s="85">
         <f t="shared" si="29"/>
-        <v>70</v>
-      </c>
-      <c r="BZ36" s="100"/>
+        <v>0</v>
+      </c>
+      <c r="BZ36" s="100">
+        <v>0</v>
+      </c>
       <c r="CA36" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="CB36" s="100"/>
+      <c r="CB36" s="100">
+        <v>0</v>
+      </c>
       <c r="CC36" s="85">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="CD36" s="100"/>
+      <c r="CD36" s="100">
+        <v>0</v>
+      </c>
       <c r="CE36" s="85">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -17154,27 +17317,26 @@
       </c>
       <c r="CP36" s="96">
         <f t="shared" si="38"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="CQ36" s="92">
         <f t="shared" si="39"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="CR36" s="92">
         <f t="shared" si="40"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="CS36" s="97">
         <f t="shared" si="45"/>
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="CT36" s="97">
         <f>IFERROR(VLOOKUP(CS36,REGISTRATION!$P$22:$Q$32,2),"")</f>
         <v>5</v>
       </c>
-      <c r="CU36" s="86" t="str">
-        <f t="shared" si="42"/>
-        <v>FAILED</v>
+      <c r="CU36" s="86" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:99">
@@ -17388,20 +17550,26 @@
         <f t="shared" si="29"/>
         <v>90</v>
       </c>
-      <c r="BZ37" s="100"/>
+      <c r="BZ37" s="100">
+        <v>65</v>
+      </c>
       <c r="CA37" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB37" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB37" s="100">
+        <v>100</v>
+      </c>
       <c r="CC37" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD37" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD37" s="100">
+        <v>100</v>
+      </c>
       <c r="CE37" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF37" s="100"/>
       <c r="CG37" s="85" t="str">
@@ -17430,19 +17598,19 @@
       </c>
       <c r="CP37" s="96">
         <f t="shared" si="38"/>
-        <v>30.5</v>
+        <v>43.75</v>
       </c>
       <c r="CQ37" s="92">
         <f t="shared" si="39"/>
-        <v>30.5</v>
+        <v>43.75</v>
       </c>
       <c r="CR37" s="92">
         <f t="shared" si="40"/>
-        <v>30.5</v>
+        <v>43.75</v>
       </c>
       <c r="CS37" s="97">
         <f t="shared" si="45"/>
-        <v>41.216000000000001</v>
+        <v>49.165999999999997</v>
       </c>
       <c r="CT37" s="97">
         <f>IFERROR(VLOOKUP(CS37,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -17662,20 +17830,26 @@
         <f t="shared" si="29"/>
         <v>100</v>
       </c>
-      <c r="BZ38" s="100"/>
+      <c r="BZ38" s="100">
+        <v>65</v>
+      </c>
       <c r="CA38" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB38" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB38" s="100">
+        <v>100</v>
+      </c>
       <c r="CC38" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD38" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD38" s="100">
+        <v>100</v>
+      </c>
       <c r="CE38" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF38" s="100"/>
       <c r="CG38" s="85" t="str">
@@ -17704,19 +17878,19 @@
       </c>
       <c r="CP38" s="96">
         <f t="shared" si="38"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CQ38" s="92">
         <f t="shared" si="39"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CR38" s="92">
         <f t="shared" si="40"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CS38" s="97">
         <f t="shared" si="45"/>
-        <v>35.816000000000003</v>
+        <v>43.766000000000005</v>
       </c>
       <c r="CT38" s="97">
         <f>IFERROR(VLOOKUP(CS38,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -17945,15 +18119,19 @@
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="CB39" s="100"/>
+      <c r="CB39" s="100">
+        <v>100</v>
+      </c>
       <c r="CC39" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD39" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD39" s="100">
+        <v>100</v>
+      </c>
       <c r="CE39" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF39" s="100"/>
       <c r="CG39" s="85" t="str">
@@ -17982,19 +18160,19 @@
       </c>
       <c r="CP39" s="96">
         <f t="shared" si="38"/>
-        <v>33.75</v>
+        <v>43.75</v>
       </c>
       <c r="CQ39" s="92">
         <f t="shared" si="39"/>
-        <v>33.75</v>
+        <v>43.75</v>
       </c>
       <c r="CR39" s="92">
         <f t="shared" si="40"/>
-        <v>33.75</v>
+        <v>43.75</v>
       </c>
       <c r="CS39" s="97">
         <f t="shared" si="45"/>
-        <v>38.549999999999997</v>
+        <v>44.55</v>
       </c>
       <c r="CT39" s="97">
         <f>IFERROR(VLOOKUP(CS39,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -18216,20 +18394,26 @@
         <f t="shared" si="29"/>
         <v>100</v>
       </c>
-      <c r="BZ40" s="100"/>
+      <c r="BZ40" s="100">
+        <v>65</v>
+      </c>
       <c r="CA40" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB40" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB40" s="100">
+        <v>100</v>
+      </c>
       <c r="CC40" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD40" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD40" s="100">
+        <v>100</v>
+      </c>
       <c r="CE40" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF40" s="100"/>
       <c r="CG40" s="85" t="str">
@@ -18258,19 +18442,19 @@
       </c>
       <c r="CP40" s="96">
         <f t="shared" si="38"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CQ40" s="92">
         <f t="shared" si="39"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CR40" s="92">
         <f t="shared" si="40"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CS40" s="97">
         <f t="shared" si="45"/>
-        <v>40.128</v>
+        <v>48.078000000000003</v>
       </c>
       <c r="CT40" s="97">
         <f>IFERROR(VLOOKUP(CS40,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -18499,15 +18683,19 @@
         <f t="shared" si="30"/>
         <v>95</v>
       </c>
-      <c r="CB41" s="100"/>
+      <c r="CB41" s="100">
+        <v>100</v>
+      </c>
       <c r="CC41" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD41" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD41" s="100">
+        <v>100</v>
+      </c>
       <c r="CE41" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF41" s="100"/>
       <c r="CG41" s="85" t="str">
@@ -18536,19 +18724,19 @@
       </c>
       <c r="CP41" s="96">
         <f t="shared" si="38"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CQ41" s="92">
         <f t="shared" si="39"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CR41" s="92">
         <f t="shared" si="40"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CS41" s="97">
         <f t="shared" si="45"/>
-        <v>43.167999999999999</v>
+        <v>49.167999999999999</v>
       </c>
       <c r="CT41" s="97">
         <f>IFERROR(VLOOKUP(CS41,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -18768,20 +18956,26 @@
         <f t="shared" si="29"/>
         <v>100</v>
       </c>
-      <c r="BZ42" s="100"/>
+      <c r="BZ42" s="100">
+        <v>65</v>
+      </c>
       <c r="CA42" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB42" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB42" s="100">
+        <v>100</v>
+      </c>
       <c r="CC42" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD42" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD42" s="100">
+        <v>100</v>
+      </c>
       <c r="CE42" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF42" s="100"/>
       <c r="CG42" s="85" t="str">
@@ -18810,19 +19004,19 @@
       </c>
       <c r="CP42" s="96">
         <f t="shared" si="38"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CQ42" s="92">
         <f t="shared" si="39"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CR42" s="92">
         <f t="shared" si="40"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CS42" s="97">
         <f t="shared" si="45"/>
-        <v>36.244</v>
+        <v>44.194000000000003</v>
       </c>
       <c r="CT42" s="97">
         <f>IFERROR(VLOOKUP(CS42,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19051,15 +19245,19 @@
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="CB43" s="100"/>
+      <c r="CB43" s="100">
+        <v>100</v>
+      </c>
       <c r="CC43" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD43" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD43" s="100">
+        <v>100</v>
+      </c>
       <c r="CE43" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF43" s="100"/>
       <c r="CG43" s="85" t="str">
@@ -19088,19 +19286,19 @@
       </c>
       <c r="CP43" s="96">
         <f t="shared" si="38"/>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="CQ43" s="92">
         <f t="shared" si="39"/>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="CR43" s="92">
         <f t="shared" si="40"/>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="CS43" s="97">
         <f t="shared" si="45"/>
-        <v>37.221999999999994</v>
+        <v>43.221999999999994</v>
       </c>
       <c r="CT43" s="97">
         <f>IFERROR(VLOOKUP(CS43,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19322,20 +19520,26 @@
         <f t="shared" si="29"/>
         <v>70</v>
       </c>
-      <c r="BZ44" s="100"/>
+      <c r="BZ44" s="100">
+        <v>65</v>
+      </c>
       <c r="CA44" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB44" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB44" s="100">
+        <v>100</v>
+      </c>
       <c r="CC44" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD44" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD44" s="100">
+        <v>100</v>
+      </c>
       <c r="CE44" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF44" s="100"/>
       <c r="CG44" s="85" t="str">
@@ -19364,19 +19568,19 @@
       </c>
       <c r="CP44" s="96">
         <f t="shared" si="38"/>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="CQ44" s="92">
         <f t="shared" si="39"/>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="CR44" s="92">
         <f t="shared" si="40"/>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="CS44" s="97">
         <f t="shared" si="45"/>
-        <v>38.742000000000004</v>
+        <v>46.692</v>
       </c>
       <c r="CT44" s="97">
         <f>IFERROR(VLOOKUP(CS44,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19598,20 +19802,26 @@
         <f t="shared" si="29"/>
         <v>70</v>
       </c>
-      <c r="BZ45" s="100"/>
+      <c r="BZ45" s="100">
+        <v>65</v>
+      </c>
       <c r="CA45" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB45" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB45" s="100">
+        <v>100</v>
+      </c>
       <c r="CC45" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD45" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD45" s="100">
+        <v>100</v>
+      </c>
       <c r="CE45" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF45" s="100"/>
       <c r="CG45" s="85" t="str">
@@ -19640,19 +19850,19 @@
       </c>
       <c r="CP45" s="96">
         <f t="shared" si="38"/>
-        <v>28</v>
+        <v>41.25</v>
       </c>
       <c r="CQ45" s="92">
         <f t="shared" si="39"/>
-        <v>28</v>
+        <v>41.25</v>
       </c>
       <c r="CR45" s="92">
         <f t="shared" si="40"/>
-        <v>28</v>
+        <v>41.25</v>
       </c>
       <c r="CS45" s="97">
         <f t="shared" si="45"/>
-        <v>36.616</v>
+        <v>44.566000000000003</v>
       </c>
       <c r="CT45" s="97">
         <f>IFERROR(VLOOKUP(CS45,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -19872,20 +20082,26 @@
         <f t="shared" si="29"/>
         <v>70</v>
       </c>
-      <c r="BZ46" s="100"/>
+      <c r="BZ46" s="100">
+        <v>65</v>
+      </c>
       <c r="CA46" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB46" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB46" s="100">
+        <v>100</v>
+      </c>
       <c r="CC46" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD46" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD46" s="100">
+        <v>100</v>
+      </c>
       <c r="CE46" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF46" s="100"/>
       <c r="CG46" s="85" t="str">
@@ -19914,19 +20130,19 @@
       </c>
       <c r="CP46" s="96">
         <f t="shared" si="38"/>
-        <v>29.5</v>
+        <v>42.75</v>
       </c>
       <c r="CQ46" s="92">
         <f t="shared" si="39"/>
-        <v>29.5</v>
+        <v>42.75</v>
       </c>
       <c r="CR46" s="92">
         <f t="shared" si="40"/>
-        <v>29.5</v>
+        <v>42.75</v>
       </c>
       <c r="CS46" s="97">
         <f t="shared" si="45"/>
-        <v>35.555999999999997</v>
+        <v>43.506</v>
       </c>
       <c r="CT46" s="97">
         <f>IFERROR(VLOOKUP(CS46,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -20155,15 +20371,19 @@
         <f t="shared" si="30"/>
         <v>95</v>
       </c>
-      <c r="CB47" s="100"/>
+      <c r="CB47" s="100">
+        <v>100</v>
+      </c>
       <c r="CC47" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD47" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD47" s="100">
+        <v>100</v>
+      </c>
       <c r="CE47" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF47" s="100"/>
       <c r="CG47" s="85" t="str">
@@ -20192,19 +20412,19 @@
       </c>
       <c r="CP47" s="96">
         <f t="shared" si="38"/>
-        <v>34.25</v>
+        <v>44.25</v>
       </c>
       <c r="CQ47" s="92">
         <f t="shared" si="39"/>
-        <v>34.25</v>
+        <v>44.25</v>
       </c>
       <c r="CR47" s="92">
         <f t="shared" si="40"/>
-        <v>34.25</v>
+        <v>44.25</v>
       </c>
       <c r="CS47" s="97">
         <f t="shared" si="45"/>
-        <v>41.33</v>
+        <v>47.33</v>
       </c>
       <c r="CT47" s="97">
         <f>IFERROR(VLOOKUP(CS47,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -20426,20 +20646,26 @@
         <f t="shared" si="29"/>
         <v>70</v>
       </c>
-      <c r="BZ48" s="100"/>
+      <c r="BZ48" s="100">
+        <v>65</v>
+      </c>
       <c r="CA48" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB48" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB48" s="100">
+        <v>100</v>
+      </c>
       <c r="CC48" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD48" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD48" s="100">
+        <v>100</v>
+      </c>
       <c r="CE48" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF48" s="100"/>
       <c r="CG48" s="85" t="str">
@@ -20468,19 +20694,19 @@
       </c>
       <c r="CP48" s="96">
         <f t="shared" si="38"/>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="CQ48" s="92">
         <f t="shared" si="39"/>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="CR48" s="92">
         <f t="shared" si="40"/>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="CS48" s="97">
         <f t="shared" si="45"/>
-        <v>39.366</v>
+        <v>47.316000000000003</v>
       </c>
       <c r="CT48" s="97">
         <f>IFERROR(VLOOKUP(CS48,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -20709,15 +20935,19 @@
         <f t="shared" si="30"/>
         <v>95</v>
       </c>
-      <c r="CB49" s="100"/>
+      <c r="CB49" s="100">
+        <v>100</v>
+      </c>
       <c r="CC49" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD49" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD49" s="100">
+        <v>100</v>
+      </c>
       <c r="CE49" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF49" s="100"/>
       <c r="CG49" s="85" t="str">
@@ -20746,19 +20976,19 @@
       </c>
       <c r="CP49" s="96">
         <f t="shared" si="38"/>
-        <v>34.25</v>
+        <v>44.25</v>
       </c>
       <c r="CQ49" s="92">
         <f t="shared" si="39"/>
-        <v>34.25</v>
+        <v>44.25</v>
       </c>
       <c r="CR49" s="92">
         <f t="shared" si="40"/>
-        <v>34.25</v>
+        <v>44.25</v>
       </c>
       <c r="CS49" s="97">
         <f t="shared" si="45"/>
-        <v>39.834000000000003</v>
+        <v>45.834000000000003</v>
       </c>
       <c r="CT49" s="97">
         <f>IFERROR(VLOOKUP(CS49,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -20987,15 +21217,19 @@
         <f t="shared" si="30"/>
         <v>95</v>
       </c>
-      <c r="CB50" s="100"/>
+      <c r="CB50" s="100">
+        <v>100</v>
+      </c>
       <c r="CC50" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD50" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD50" s="100">
+        <v>100</v>
+      </c>
       <c r="CE50" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF50" s="100"/>
       <c r="CG50" s="85" t="str">
@@ -21024,19 +21258,19 @@
       </c>
       <c r="CP50" s="96">
         <f t="shared" si="38"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CQ50" s="92">
         <f t="shared" si="39"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CR50" s="92">
         <f t="shared" si="40"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CS50" s="97">
         <f t="shared" si="45"/>
-        <v>44.724000000000004</v>
+        <v>50.724000000000004</v>
       </c>
       <c r="CT50" s="97">
         <f>IFERROR(VLOOKUP(CS50,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -21258,20 +21492,26 @@
         <f t="shared" si="29"/>
         <v>95</v>
       </c>
-      <c r="BZ51" s="100"/>
+      <c r="BZ51" s="100">
+        <v>65</v>
+      </c>
       <c r="CA51" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB51" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB51" s="100">
+        <v>100</v>
+      </c>
       <c r="CC51" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD51" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD51" s="100">
+        <v>100</v>
+      </c>
       <c r="CE51" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF51" s="100"/>
       <c r="CG51" s="85" t="str">
@@ -21300,19 +21540,19 @@
       </c>
       <c r="CP51" s="96">
         <f t="shared" si="38"/>
-        <v>30.75</v>
+        <v>44</v>
       </c>
       <c r="CQ51" s="92">
         <f t="shared" si="39"/>
-        <v>30.75</v>
+        <v>44</v>
       </c>
       <c r="CR51" s="92">
         <f t="shared" si="40"/>
-        <v>30.75</v>
+        <v>44</v>
       </c>
       <c r="CS51" s="97">
         <f t="shared" si="45"/>
-        <v>41.71</v>
+        <v>49.66</v>
       </c>
       <c r="CT51" s="97">
         <f>IFERROR(VLOOKUP(CS51,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -21534,20 +21774,26 @@
         <f t="shared" si="29"/>
         <v>100</v>
       </c>
-      <c r="BZ52" s="100"/>
+      <c r="BZ52" s="100">
+        <v>65</v>
+      </c>
       <c r="CA52" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB52" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB52" s="100">
+        <v>100</v>
+      </c>
       <c r="CC52" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD52" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD52" s="100">
+        <v>100</v>
+      </c>
       <c r="CE52" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF52" s="100"/>
       <c r="CG52" s="85" t="str">
@@ -21576,19 +21822,19 @@
       </c>
       <c r="CP52" s="96">
         <f t="shared" si="38"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CQ52" s="92">
         <f t="shared" si="39"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CR52" s="92">
         <f t="shared" si="40"/>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="CS52" s="97">
         <f t="shared" si="45"/>
-        <v>44.980000000000004</v>
+        <v>52.930000000000007</v>
       </c>
       <c r="CT52" s="97">
         <f>IFERROR(VLOOKUP(CS52,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -21810,20 +22056,26 @@
         <f t="shared" si="29"/>
         <v>65</v>
       </c>
-      <c r="BZ53" s="100"/>
+      <c r="BZ53" s="100">
+        <v>65</v>
+      </c>
       <c r="CA53" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB53" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB53" s="100">
+        <v>100</v>
+      </c>
       <c r="CC53" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD53" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD53" s="100">
+        <v>100</v>
+      </c>
       <c r="CE53" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF53" s="100"/>
       <c r="CG53" s="85" t="str">
@@ -21852,19 +22104,19 @@
       </c>
       <c r="CP53" s="96">
         <f t="shared" si="38"/>
-        <v>29.25</v>
+        <v>42.5</v>
       </c>
       <c r="CQ53" s="92">
         <f t="shared" si="39"/>
-        <v>29.25</v>
+        <v>42.5</v>
       </c>
       <c r="CR53" s="92">
         <f t="shared" si="40"/>
-        <v>29.25</v>
+        <v>42.5</v>
       </c>
       <c r="CS53" s="97">
         <f t="shared" si="45"/>
-        <v>40.874000000000002</v>
+        <v>48.823999999999998</v>
       </c>
       <c r="CT53" s="97">
         <f>IFERROR(VLOOKUP(CS53,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22093,15 +22345,19 @@
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="CB54" s="100"/>
+      <c r="CB54" s="100">
+        <v>100</v>
+      </c>
       <c r="CC54" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD54" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD54" s="100">
+        <v>100</v>
+      </c>
       <c r="CE54" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF54" s="100"/>
       <c r="CG54" s="85" t="str">
@@ -22130,19 +22386,19 @@
       </c>
       <c r="CP54" s="96">
         <f t="shared" si="38"/>
-        <v>32.5</v>
+        <v>42.5</v>
       </c>
       <c r="CQ54" s="92">
         <f t="shared" si="39"/>
-        <v>32.5</v>
+        <v>42.5</v>
       </c>
       <c r="CR54" s="92">
         <f t="shared" si="40"/>
-        <v>32.5</v>
+        <v>42.5</v>
       </c>
       <c r="CS54" s="97">
         <f t="shared" si="45"/>
-        <v>41.519999999999996</v>
+        <v>47.519999999999996</v>
       </c>
       <c r="CT54" s="97">
         <f>IFERROR(VLOOKUP(CS54,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22371,15 +22627,19 @@
         <f t="shared" si="30"/>
         <v>85</v>
       </c>
-      <c r="CB55" s="100"/>
+      <c r="CB55" s="100">
+        <v>100</v>
+      </c>
       <c r="CC55" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD55" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD55" s="100">
+        <v>100</v>
+      </c>
       <c r="CE55" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF55" s="100"/>
       <c r="CG55" s="85" t="str">
@@ -22408,19 +22668,19 @@
       </c>
       <c r="CP55" s="96">
         <f t="shared" si="38"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CQ55" s="92">
         <f t="shared" si="39"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CR55" s="92">
         <f t="shared" si="40"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="CS55" s="97">
         <f t="shared" si="45"/>
-        <v>43.76</v>
+        <v>49.76</v>
       </c>
       <c r="CT55" s="97">
         <f>IFERROR(VLOOKUP(CS55,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22642,20 +22902,26 @@
         <f t="shared" si="29"/>
         <v>90</v>
       </c>
-      <c r="BZ56" s="100"/>
+      <c r="BZ56" s="100">
+        <v>65</v>
+      </c>
       <c r="CA56" s="85">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB56" s="100"/>
+        <v>65</v>
+      </c>
+      <c r="CB56" s="100">
+        <v>100</v>
+      </c>
       <c r="CC56" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD56" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD56" s="100">
+        <v>100</v>
+      </c>
       <c r="CE56" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF56" s="100"/>
       <c r="CG56" s="85" t="str">
@@ -22684,19 +22950,19 @@
       </c>
       <c r="CP56" s="96">
         <f t="shared" si="38"/>
-        <v>30</v>
+        <v>43.25</v>
       </c>
       <c r="CQ56" s="92">
         <f t="shared" si="39"/>
-        <v>30</v>
+        <v>43.25</v>
       </c>
       <c r="CR56" s="92">
         <f t="shared" si="40"/>
-        <v>30</v>
+        <v>43.25</v>
       </c>
       <c r="CS56" s="97">
         <f t="shared" si="45"/>
-        <v>39.644000000000005</v>
+        <v>47.594000000000001</v>
       </c>
       <c r="CT56" s="97">
         <f>IFERROR(VLOOKUP(CS56,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22925,15 +23191,19 @@
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="CB57" s="100"/>
+      <c r="CB57" s="100">
+        <v>100</v>
+      </c>
       <c r="CC57" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD57" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD57" s="100">
+        <v>100</v>
+      </c>
       <c r="CE57" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF57" s="100"/>
       <c r="CG57" s="85" t="str">
@@ -22962,19 +23232,19 @@
       </c>
       <c r="CP57" s="96">
         <f t="shared" si="38"/>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="CQ57" s="92">
         <f t="shared" si="39"/>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="CR57" s="92">
         <f t="shared" si="40"/>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="CS57" s="97">
         <f t="shared" si="45"/>
-        <v>44.775999999999996</v>
+        <v>50.775999999999996</v>
       </c>
       <c r="CT57" s="97">
         <f>IFERROR(VLOOKUP(CS57,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -23203,15 +23473,19 @@
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="CB58" s="100"/>
+      <c r="CB58" s="100">
+        <v>100</v>
+      </c>
       <c r="CC58" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD58" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD58" s="100">
+        <v>100</v>
+      </c>
       <c r="CE58" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF58" s="100"/>
       <c r="CG58" s="85" t="str">
@@ -23240,19 +23514,19 @@
       </c>
       <c r="CP58" s="96">
         <f t="shared" si="38"/>
-        <v>33.5</v>
+        <v>43.5</v>
       </c>
       <c r="CQ58" s="92">
         <f t="shared" si="39"/>
-        <v>33.5</v>
+        <v>43.5</v>
       </c>
       <c r="CR58" s="92">
         <f t="shared" si="40"/>
-        <v>33.5</v>
+        <v>43.5</v>
       </c>
       <c r="CS58" s="97">
         <f t="shared" si="45"/>
-        <v>42.68</v>
+        <v>48.68</v>
       </c>
       <c r="CT58" s="97">
         <f>IFERROR(VLOOKUP(CS58,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -23481,15 +23755,19 @@
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="CB59" s="100"/>
+      <c r="CB59" s="100">
+        <v>100</v>
+      </c>
       <c r="CC59" s="85">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD59" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="CD59" s="100">
+        <v>100</v>
+      </c>
       <c r="CE59" s="85">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF59" s="100"/>
       <c r="CG59" s="85" t="str">
@@ -23518,19 +23796,19 @@
       </c>
       <c r="CP59" s="96">
         <f t="shared" si="38"/>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="CQ59" s="92">
         <f t="shared" si="39"/>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="CR59" s="92">
         <f t="shared" si="40"/>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="CS59" s="97">
         <f t="shared" si="45"/>
-        <v>44.872</v>
+        <v>50.872</v>
       </c>
       <c r="CT59" s="97">
         <f>IFERROR(VLOOKUP(CS59,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -23635,11 +23913,11 @@
         <v>11.666666666666666</v>
       </c>
       <c r="AO60" s="101">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP60" s="85">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AQ60" s="101"/>
       <c r="AR60" s="85" t="str">
@@ -23653,7 +23931,7 @@
       </c>
       <c r="AU60" s="88">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV60" s="101">
         <v>100</v>
@@ -23678,11 +23956,11 @@
       </c>
       <c r="BC60" s="91">
         <f t="shared" si="18"/>
-        <v>50.666666666666664</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="BD60" s="91">
         <f t="shared" si="19"/>
-        <v>50.67</v>
+        <v>51.67</v>
       </c>
       <c r="BE60" s="101"/>
       <c r="BF60" s="85">
@@ -23792,7 +24070,7 @@
       </c>
       <c r="CS60" s="97">
         <f t="shared" si="45"/>
-        <v>20.268000000000001</v>
+        <v>20.668000000000003</v>
       </c>
       <c r="CT60" s="97">
         <f>IFERROR(VLOOKUP(CS60,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -26284,8 +26562,89 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -26302,88 +26661,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -26408,8 +26685,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:P68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26619,19 +26896,19 @@
       </c>
       <c r="K8" s="51">
         <f>'RAW GRADES'!CP10</f>
-        <v>28.75</v>
+        <v>42</v>
       </c>
       <c r="L8" s="51">
         <f>'RAW GRADES'!CQ10</f>
-        <v>28.75</v>
+        <v>42</v>
       </c>
       <c r="M8" s="53">
         <f>'RAW GRADES'!CR10</f>
-        <v>28.75</v>
+        <v>42</v>
       </c>
       <c r="N8" s="54">
         <f>'RAW GRADES'!CS10</f>
-        <v>41.246000000000002</v>
+        <v>49.195999999999998</v>
       </c>
       <c r="O8" s="55">
         <f>'RAW GRADES'!CT10</f>
@@ -26664,7 +26941,7 @@
       </c>
       <c r="F9" s="51">
         <f>'RAW GRADES'!AU11</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="51">
         <f>'RAW GRADES'!BB11</f>
@@ -26672,11 +26949,11 @@
       </c>
       <c r="H9" s="52">
         <f>'RAW GRADES'!BC11</f>
-        <v>47.452380952380949</v>
+        <v>48.452380952380949</v>
       </c>
       <c r="I9" s="52">
         <f>'RAW GRADES'!BD11</f>
-        <v>47.45</v>
+        <v>48.45</v>
       </c>
       <c r="J9" s="51">
         <f>'RAW GRADES'!BK11</f>
@@ -26684,19 +26961,19 @@
       </c>
       <c r="K9" s="51">
         <f>'RAW GRADES'!CP11</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="L9" s="51">
         <f>'RAW GRADES'!CQ11</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="M9" s="53">
         <f>'RAW GRADES'!CR11</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="N9" s="57">
         <f>'RAW GRADES'!CS11</f>
-        <v>35.93</v>
+        <v>44.28</v>
       </c>
       <c r="O9" s="55">
         <f>'RAW GRADES'!CT11</f>
@@ -26749,19 +27026,19 @@
       </c>
       <c r="K10" s="51">
         <f>'RAW GRADES'!CP12</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="L10" s="51">
         <f>'RAW GRADES'!CQ12</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="M10" s="53">
         <f>'RAW GRADES'!CR12</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="N10" s="57">
         <f>'RAW GRADES'!CS12</f>
-        <v>38.39</v>
+        <v>46.34</v>
       </c>
       <c r="O10" s="55">
         <f>'RAW GRADES'!CT12</f>
@@ -26794,7 +27071,7 @@
       </c>
       <c r="F11" s="51">
         <f>'RAW GRADES'!AU13</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" s="51">
         <f>'RAW GRADES'!BB13</f>
@@ -26802,11 +27079,11 @@
       </c>
       <c r="H11" s="52">
         <f>'RAW GRADES'!BC13</f>
-        <v>44.035714285714278</v>
+        <v>45.035714285714278</v>
       </c>
       <c r="I11" s="52">
         <f>'RAW GRADES'!BD13</f>
-        <v>44.04</v>
+        <v>45.04</v>
       </c>
       <c r="J11" s="51">
         <f>'RAW GRADES'!BK13</f>
@@ -26814,19 +27091,19 @@
       </c>
       <c r="K11" s="51">
         <f>'RAW GRADES'!CP13</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="L11" s="51">
         <f>'RAW GRADES'!CQ13</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="M11" s="53">
         <f>'RAW GRADES'!CR13</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="N11" s="57">
         <f>'RAW GRADES'!CS13</f>
-        <v>36.215999999999994</v>
+        <v>44.566000000000003</v>
       </c>
       <c r="O11" s="55">
         <f>'RAW GRADES'!CT13</f>
@@ -26879,19 +27156,19 @@
       </c>
       <c r="K12" s="51">
         <f>'RAW GRADES'!CP14</f>
-        <v>38.25</v>
+        <v>48.25</v>
       </c>
       <c r="L12" s="51">
         <f>'RAW GRADES'!CQ14</f>
-        <v>38.25</v>
+        <v>48.25</v>
       </c>
       <c r="M12" s="53">
         <f>'RAW GRADES'!CR14</f>
-        <v>38.25</v>
+        <v>48.25</v>
       </c>
       <c r="N12" s="57">
         <f>'RAW GRADES'!CS14</f>
-        <v>48.31</v>
+        <v>54.31</v>
       </c>
       <c r="O12" s="55">
         <f>'RAW GRADES'!CT14</f>
@@ -26944,19 +27221,19 @@
       </c>
       <c r="K13" s="51">
         <f>'RAW GRADES'!CP15</f>
-        <v>35.75</v>
+        <v>45.75</v>
       </c>
       <c r="L13" s="51">
         <f>'RAW GRADES'!CQ15</f>
-        <v>35.75</v>
+        <v>45.75</v>
       </c>
       <c r="M13" s="53">
         <f>'RAW GRADES'!CR15</f>
-        <v>35.75</v>
+        <v>45.75</v>
       </c>
       <c r="N13" s="57">
         <f>'RAW GRADES'!CS15</f>
-        <v>45.742000000000004</v>
+        <v>51.742000000000004</v>
       </c>
       <c r="O13" s="55">
         <f>'RAW GRADES'!CT15</f>
@@ -27009,19 +27286,19 @@
       </c>
       <c r="K14" s="51">
         <f>'RAW GRADES'!CP16</f>
-        <v>25</v>
+        <v>38.25</v>
       </c>
       <c r="L14" s="51">
         <f>'RAW GRADES'!CQ16</f>
-        <v>25</v>
+        <v>38.25</v>
       </c>
       <c r="M14" s="53">
         <f>'RAW GRADES'!CR16</f>
-        <v>25</v>
+        <v>38.25</v>
       </c>
       <c r="N14" s="57">
         <f>'RAW GRADES'!CS16</f>
-        <v>31.452000000000002</v>
+        <v>39.402000000000001</v>
       </c>
       <c r="O14" s="55">
         <f>'RAW GRADES'!CT16</f>
@@ -27074,19 +27351,19 @@
       </c>
       <c r="K15" s="51">
         <f>'RAW GRADES'!CP17</f>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="L15" s="51">
         <f>'RAW GRADES'!CQ17</f>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="M15" s="53">
         <f>'RAW GRADES'!CR17</f>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="N15" s="57">
         <f>'RAW GRADES'!CS17</f>
-        <v>42.146000000000001</v>
+        <v>48.146000000000001</v>
       </c>
       <c r="O15" s="55">
         <f>'RAW GRADES'!CT17</f>
@@ -27139,19 +27416,19 @@
       </c>
       <c r="K16" s="51">
         <f>'RAW GRADES'!CP18</f>
-        <v>30.75</v>
+        <v>44</v>
       </c>
       <c r="L16" s="51">
         <f>'RAW GRADES'!CQ18</f>
-        <v>30.75</v>
+        <v>44</v>
       </c>
       <c r="M16" s="53">
         <f>'RAW GRADES'!CR18</f>
-        <v>30.75</v>
+        <v>44</v>
       </c>
       <c r="N16" s="57">
         <f>'RAW GRADES'!CS18</f>
-        <v>37.834000000000003</v>
+        <v>45.783999999999999</v>
       </c>
       <c r="O16" s="55">
         <f>'RAW GRADES'!CT18</f>
@@ -27204,19 +27481,19 @@
       </c>
       <c r="K17" s="51">
         <f>'RAW GRADES'!CP19</f>
-        <v>27.75</v>
+        <v>41</v>
       </c>
       <c r="L17" s="51">
         <f>'RAW GRADES'!CQ19</f>
-        <v>27.75</v>
+        <v>41</v>
       </c>
       <c r="M17" s="53">
         <f>'RAW GRADES'!CR19</f>
-        <v>27.75</v>
+        <v>41</v>
       </c>
       <c r="N17" s="57">
         <f>'RAW GRADES'!CS19</f>
-        <v>39.353999999999999</v>
+        <v>47.304000000000002</v>
       </c>
       <c r="O17" s="55">
         <f>'RAW GRADES'!CT19</f>
@@ -27333,19 +27610,19 @@
       </c>
       <c r="K19" s="51">
         <f>'RAW GRADES'!CP21</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="L19" s="51">
         <f>'RAW GRADES'!CQ21</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="M19" s="53">
         <f>'RAW GRADES'!CR21</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="N19" s="57">
         <f>'RAW GRADES'!CS21</f>
-        <v>41.36</v>
+        <v>49.31</v>
       </c>
       <c r="O19" s="55">
         <f>'RAW GRADES'!CT21</f>
@@ -27398,19 +27675,19 @@
       </c>
       <c r="K20" s="51">
         <f>'RAW GRADES'!CP22</f>
-        <v>30.5</v>
+        <v>43.75</v>
       </c>
       <c r="L20" s="51">
         <f>'RAW GRADES'!CQ22</f>
-        <v>30.5</v>
+        <v>43.75</v>
       </c>
       <c r="M20" s="53">
         <f>'RAW GRADES'!CR22</f>
-        <v>30.5</v>
+        <v>43.75</v>
       </c>
       <c r="N20" s="57">
         <f>'RAW GRADES'!CS22</f>
-        <v>40.147999999999996</v>
+        <v>48.097999999999999</v>
       </c>
       <c r="O20" s="55">
         <f>'RAW GRADES'!CT22</f>
@@ -27463,19 +27740,19 @@
       </c>
       <c r="K21" s="51">
         <f>'RAW GRADES'!CP23</f>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="L21" s="51">
         <f>'RAW GRADES'!CQ23</f>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="M21" s="53">
         <f>'RAW GRADES'!CR23</f>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="N21" s="57">
         <f>'RAW GRADES'!CS23</f>
-        <v>43.016000000000005</v>
+        <v>49.016000000000005</v>
       </c>
       <c r="O21" s="55">
         <f>'RAW GRADES'!CT23</f>
@@ -27592,19 +27869,19 @@
       </c>
       <c r="K23" s="51">
         <f>'RAW GRADES'!CP25</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="L23" s="51">
         <f>'RAW GRADES'!CQ25</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M23" s="53">
         <f>'RAW GRADES'!CR25</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N23" s="57">
         <f>'RAW GRADES'!CS25</f>
-        <v>42.275999999999996</v>
+        <v>48.275999999999996</v>
       </c>
       <c r="O23" s="55">
         <f>'RAW GRADES'!CT25</f>
@@ -27637,7 +27914,7 @@
       </c>
       <c r="F24" s="51">
         <f>'RAW GRADES'!AU26</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="51">
         <f>'RAW GRADES'!BB26</f>
@@ -27645,11 +27922,11 @@
       </c>
       <c r="H24" s="52">
         <f>'RAW GRADES'!BC26</f>
-        <v>44.571428571428569</v>
+        <v>45.571428571428569</v>
       </c>
       <c r="I24" s="52">
         <f>'RAW GRADES'!BD26</f>
-        <v>44.57</v>
+        <v>45.57</v>
       </c>
       <c r="J24" s="51">
         <f>'RAW GRADES'!BK26</f>
@@ -27657,19 +27934,19 @@
       </c>
       <c r="K24" s="51">
         <f>'RAW GRADES'!CP26</f>
-        <v>27.75</v>
+        <v>41</v>
       </c>
       <c r="L24" s="51">
         <f>'RAW GRADES'!CQ26</f>
-        <v>27.75</v>
+        <v>41</v>
       </c>
       <c r="M24" s="53">
         <f>'RAW GRADES'!CR26</f>
-        <v>27.75</v>
+        <v>41</v>
       </c>
       <c r="N24" s="57">
         <f>'RAW GRADES'!CS26</f>
-        <v>34.477999999999994</v>
+        <v>42.828000000000003</v>
       </c>
       <c r="O24" s="55">
         <f>'RAW GRADES'!CT26</f>
@@ -27722,19 +27999,19 @@
       </c>
       <c r="K25" s="51">
         <f>'RAW GRADES'!CP27</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="L25" s="51">
         <f>'RAW GRADES'!CQ27</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M25" s="53">
         <f>'RAW GRADES'!CR27</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N25" s="57">
         <f>'RAW GRADES'!CS27</f>
-        <v>42.228000000000002</v>
+        <v>48.228000000000002</v>
       </c>
       <c r="O25" s="55">
         <f>'RAW GRADES'!CT27</f>
@@ -27787,19 +28064,19 @@
       </c>
       <c r="K26" s="51">
         <f>'RAW GRADES'!CP28</f>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="L26" s="51">
         <f>'RAW GRADES'!CQ28</f>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="M26" s="53">
         <f>'RAW GRADES'!CR28</f>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="N26" s="57">
         <f>'RAW GRADES'!CS28</f>
-        <v>41.602000000000004</v>
+        <v>47.602000000000004</v>
       </c>
       <c r="O26" s="55">
         <f>'RAW GRADES'!CT28</f>
@@ -27852,19 +28129,19 @@
       </c>
       <c r="K27" s="51">
         <f>'RAW GRADES'!CP29</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="L27" s="51">
         <f>'RAW GRADES'!CQ29</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="M27" s="53">
         <f>'RAW GRADES'!CR29</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="N27" s="57">
         <f>'RAW GRADES'!CS29</f>
-        <v>40.281999999999996</v>
+        <v>48.231999999999999</v>
       </c>
       <c r="O27" s="55">
         <f>'RAW GRADES'!CT29</f>
@@ -27917,19 +28194,19 @@
       </c>
       <c r="K28" s="51">
         <f>'RAW GRADES'!CP30</f>
-        <v>29.5</v>
+        <v>42.75</v>
       </c>
       <c r="L28" s="51">
         <f>'RAW GRADES'!CQ30</f>
-        <v>29.5</v>
+        <v>42.75</v>
       </c>
       <c r="M28" s="53">
         <f>'RAW GRADES'!CR30</f>
-        <v>29.5</v>
+        <v>42.75</v>
       </c>
       <c r="N28" s="57">
         <f>'RAW GRADES'!CS30</f>
-        <v>37.540000000000006</v>
+        <v>45.49</v>
       </c>
       <c r="O28" s="55">
         <f>'RAW GRADES'!CT30</f>
@@ -27982,19 +28259,19 @@
       </c>
       <c r="K29" s="51">
         <f>'RAW GRADES'!CP31</f>
-        <v>29.25</v>
+        <v>42.5</v>
       </c>
       <c r="L29" s="51">
         <f>'RAW GRADES'!CQ31</f>
-        <v>29.25</v>
+        <v>42.5</v>
       </c>
       <c r="M29" s="53">
         <f>'RAW GRADES'!CR31</f>
-        <v>29.25</v>
+        <v>42.5</v>
       </c>
       <c r="N29" s="57">
         <f>'RAW GRADES'!CS31</f>
-        <v>37.206000000000003</v>
+        <v>45.156000000000006</v>
       </c>
       <c r="O29" s="55">
         <f>'RAW GRADES'!CT31</f>
@@ -28111,19 +28388,19 @@
       </c>
       <c r="K31" s="51">
         <f>'RAW GRADES'!CP33</f>
-        <v>28.5</v>
+        <v>41.75</v>
       </c>
       <c r="L31" s="51">
         <f>'RAW GRADES'!CQ33</f>
-        <v>28.5</v>
+        <v>41.75</v>
       </c>
       <c r="M31" s="53">
         <f>'RAW GRADES'!CR33</f>
-        <v>28.5</v>
+        <v>41.75</v>
       </c>
       <c r="N31" s="57">
         <f>'RAW GRADES'!CS33</f>
-        <v>38.843999999999994</v>
+        <v>46.793999999999997</v>
       </c>
       <c r="O31" s="55">
         <f>'RAW GRADES'!CT33</f>
@@ -28176,19 +28453,19 @@
       </c>
       <c r="K32" s="51">
         <f>'RAW GRADES'!CP34</f>
-        <v>36.75</v>
+        <v>46.75</v>
       </c>
       <c r="L32" s="51">
         <f>'RAW GRADES'!CQ34</f>
-        <v>36.75</v>
+        <v>46.75</v>
       </c>
       <c r="M32" s="53">
         <f>'RAW GRADES'!CR34</f>
-        <v>36.75</v>
+        <v>46.75</v>
       </c>
       <c r="N32" s="57">
         <f>'RAW GRADES'!CS34</f>
-        <v>43.122</v>
+        <v>49.122</v>
       </c>
       <c r="O32" s="55">
         <f>'RAW GRADES'!CT34</f>
@@ -28221,7 +28498,7 @@
       </c>
       <c r="F33" s="51">
         <f>'RAW GRADES'!AU35</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G33" s="51">
         <f>'RAW GRADES'!BB35</f>
@@ -28229,11 +28506,11 @@
       </c>
       <c r="H33" s="52">
         <f>'RAW GRADES'!BC35</f>
-        <v>47.071428571428569</v>
+        <v>48.071428571428569</v>
       </c>
       <c r="I33" s="52">
         <f>'RAW GRADES'!BD35</f>
-        <v>47.07</v>
+        <v>48.07</v>
       </c>
       <c r="J33" s="51">
         <f>'RAW GRADES'!BK35</f>
@@ -28241,19 +28518,19 @@
       </c>
       <c r="K33" s="51">
         <f>'RAW GRADES'!CP35</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="L33" s="51">
         <f>'RAW GRADES'!CQ35</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="M33" s="53">
         <f>'RAW GRADES'!CR35</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="N33" s="57">
         <f>'RAW GRADES'!CS35</f>
-        <v>37.427999999999997</v>
+        <v>45.778000000000006</v>
       </c>
       <c r="O33" s="55">
         <f>'RAW GRADES'!CT35</f>
@@ -28306,19 +28583,19 @@
       </c>
       <c r="K34" s="51">
         <f>'RAW GRADES'!CP36</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="L34" s="51">
         <f>'RAW GRADES'!CQ36</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="M34" s="53">
         <f>'RAW GRADES'!CR36</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="N34" s="57">
         <f>'RAW GRADES'!CS36</f>
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="55">
         <f>'RAW GRADES'!CT36</f>
@@ -28370,19 +28647,19 @@
       </c>
       <c r="K35" s="51">
         <f>'RAW GRADES'!CP37</f>
-        <v>30.5</v>
+        <v>43.75</v>
       </c>
       <c r="L35" s="51">
         <f>'RAW GRADES'!CQ37</f>
-        <v>30.5</v>
+        <v>43.75</v>
       </c>
       <c r="M35" s="53">
         <f>'RAW GRADES'!CR37</f>
-        <v>30.5</v>
+        <v>43.75</v>
       </c>
       <c r="N35" s="57">
         <f>'RAW GRADES'!CS37</f>
-        <v>41.216000000000001</v>
+        <v>49.165999999999997</v>
       </c>
       <c r="O35" s="55">
         <f>'RAW GRADES'!CT37</f>
@@ -28435,19 +28712,19 @@
       </c>
       <c r="K36" s="51">
         <f>'RAW GRADES'!CP38</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="L36" s="51">
         <f>'RAW GRADES'!CQ38</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="M36" s="53">
         <f>'RAW GRADES'!CR38</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="N36" s="57">
         <f>'RAW GRADES'!CS38</f>
-        <v>35.816000000000003</v>
+        <v>43.766000000000005</v>
       </c>
       <c r="O36" s="55">
         <f>'RAW GRADES'!CT38</f>
@@ -28500,19 +28777,19 @@
       </c>
       <c r="K37" s="51">
         <f>'RAW GRADES'!CP39</f>
-        <v>33.75</v>
+        <v>43.75</v>
       </c>
       <c r="L37" s="51">
         <f>'RAW GRADES'!CQ39</f>
-        <v>33.75</v>
+        <v>43.75</v>
       </c>
       <c r="M37" s="53">
         <f>'RAW GRADES'!CR39</f>
-        <v>33.75</v>
+        <v>43.75</v>
       </c>
       <c r="N37" s="57">
         <f>'RAW GRADES'!CS39</f>
-        <v>38.549999999999997</v>
+        <v>44.55</v>
       </c>
       <c r="O37" s="55">
         <f>'RAW GRADES'!CT39</f>
@@ -28565,19 +28842,19 @@
       </c>
       <c r="K38" s="51">
         <f>'RAW GRADES'!CP40</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="L38" s="51">
         <f>'RAW GRADES'!CQ40</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="M38" s="53">
         <f>'RAW GRADES'!CR40</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="N38" s="57">
         <f>'RAW GRADES'!CS40</f>
-        <v>40.128</v>
+        <v>48.078000000000003</v>
       </c>
       <c r="O38" s="55">
         <f>'RAW GRADES'!CT40</f>
@@ -28630,19 +28907,19 @@
       </c>
       <c r="K39" s="51">
         <f>'RAW GRADES'!CP41</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="L39" s="51">
         <f>'RAW GRADES'!CQ41</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M39" s="53">
         <f>'RAW GRADES'!CR41</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N39" s="57">
         <f>'RAW GRADES'!CS41</f>
-        <v>43.167999999999999</v>
+        <v>49.167999999999999</v>
       </c>
       <c r="O39" s="55">
         <f>'RAW GRADES'!CT41</f>
@@ -28695,19 +28972,19 @@
       </c>
       <c r="K40" s="51">
         <f>'RAW GRADES'!CP42</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="L40" s="51">
         <f>'RAW GRADES'!CQ42</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="M40" s="53">
         <f>'RAW GRADES'!CR42</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="N40" s="57">
         <f>'RAW GRADES'!CS42</f>
-        <v>36.244</v>
+        <v>44.194000000000003</v>
       </c>
       <c r="O40" s="55">
         <f>'RAW GRADES'!CT42</f>
@@ -28760,19 +29037,19 @@
       </c>
       <c r="K41" s="51">
         <f>'RAW GRADES'!CP43</f>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="L41" s="51">
         <f>'RAW GRADES'!CQ43</f>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="M41" s="53">
         <f>'RAW GRADES'!CR43</f>
-        <v>32.75</v>
+        <v>42.75</v>
       </c>
       <c r="N41" s="57">
         <f>'RAW GRADES'!CS43</f>
-        <v>37.221999999999994</v>
+        <v>43.221999999999994</v>
       </c>
       <c r="O41" s="55">
         <f>'RAW GRADES'!CT43</f>
@@ -28825,19 +29102,19 @@
       </c>
       <c r="K42" s="51">
         <f>'RAW GRADES'!CP44</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="L42" s="51">
         <f>'RAW GRADES'!CQ44</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="M42" s="53">
         <f>'RAW GRADES'!CR44</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="N42" s="57">
         <f>'RAW GRADES'!CS44</f>
-        <v>38.742000000000004</v>
+        <v>46.692</v>
       </c>
       <c r="O42" s="55">
         <f>'RAW GRADES'!CT44</f>
@@ -28890,19 +29167,19 @@
       </c>
       <c r="K43" s="51">
         <f>'RAW GRADES'!CP45</f>
-        <v>28</v>
+        <v>41.25</v>
       </c>
       <c r="L43" s="51">
         <f>'RAW GRADES'!CQ45</f>
-        <v>28</v>
+        <v>41.25</v>
       </c>
       <c r="M43" s="53">
         <f>'RAW GRADES'!CR45</f>
-        <v>28</v>
+        <v>41.25</v>
       </c>
       <c r="N43" s="57">
         <f>'RAW GRADES'!CS45</f>
-        <v>36.616</v>
+        <v>44.566000000000003</v>
       </c>
       <c r="O43" s="55">
         <f>'RAW GRADES'!CT45</f>
@@ -28955,19 +29232,19 @@
       </c>
       <c r="K44" s="51">
         <f>'RAW GRADES'!CP46</f>
-        <v>29.5</v>
+        <v>42.75</v>
       </c>
       <c r="L44" s="51">
         <f>'RAW GRADES'!CQ46</f>
-        <v>29.5</v>
+        <v>42.75</v>
       </c>
       <c r="M44" s="53">
         <f>'RAW GRADES'!CR46</f>
-        <v>29.5</v>
+        <v>42.75</v>
       </c>
       <c r="N44" s="57">
         <f>'RAW GRADES'!CS46</f>
-        <v>35.555999999999997</v>
+        <v>43.506</v>
       </c>
       <c r="O44" s="55">
         <f>'RAW GRADES'!CT46</f>
@@ -29020,19 +29297,19 @@
       </c>
       <c r="K45" s="51">
         <f>'RAW GRADES'!CP47</f>
-        <v>34.25</v>
+        <v>44.25</v>
       </c>
       <c r="L45" s="51">
         <f>'RAW GRADES'!CQ47</f>
-        <v>34.25</v>
+        <v>44.25</v>
       </c>
       <c r="M45" s="53">
         <f>'RAW GRADES'!CR47</f>
-        <v>34.25</v>
+        <v>44.25</v>
       </c>
       <c r="N45" s="57">
         <f>'RAW GRADES'!CS47</f>
-        <v>41.33</v>
+        <v>47.33</v>
       </c>
       <c r="O45" s="55">
         <f>'RAW GRADES'!CT47</f>
@@ -29085,19 +29362,19 @@
       </c>
       <c r="K46" s="51">
         <f>'RAW GRADES'!CP48</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="L46" s="51">
         <f>'RAW GRADES'!CQ48</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="M46" s="53">
         <f>'RAW GRADES'!CR48</f>
-        <v>28.25</v>
+        <v>41.5</v>
       </c>
       <c r="N46" s="57">
         <f>'RAW GRADES'!CS48</f>
-        <v>39.366</v>
+        <v>47.316000000000003</v>
       </c>
       <c r="O46" s="55">
         <f>'RAW GRADES'!CT48</f>
@@ -29150,19 +29427,19 @@
       </c>
       <c r="K47" s="51">
         <f>'RAW GRADES'!CP49</f>
-        <v>34.25</v>
+        <v>44.25</v>
       </c>
       <c r="L47" s="51">
         <f>'RAW GRADES'!CQ49</f>
-        <v>34.25</v>
+        <v>44.25</v>
       </c>
       <c r="M47" s="53">
         <f>'RAW GRADES'!CR49</f>
-        <v>34.25</v>
+        <v>44.25</v>
       </c>
       <c r="N47" s="57">
         <f>'RAW GRADES'!CS49</f>
-        <v>39.834000000000003</v>
+        <v>45.834000000000003</v>
       </c>
       <c r="O47" s="55">
         <f>'RAW GRADES'!CT49</f>
@@ -29215,19 +29492,19 @@
       </c>
       <c r="K48" s="51">
         <f>'RAW GRADES'!CP50</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="L48" s="51">
         <f>'RAW GRADES'!CQ50</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M48" s="53">
         <f>'RAW GRADES'!CR50</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N48" s="57">
         <f>'RAW GRADES'!CS50</f>
-        <v>44.724000000000004</v>
+        <v>50.724000000000004</v>
       </c>
       <c r="O48" s="55">
         <f>'RAW GRADES'!CT50</f>
@@ -29280,19 +29557,19 @@
       </c>
       <c r="K49" s="51">
         <f>'RAW GRADES'!CP51</f>
-        <v>30.75</v>
+        <v>44</v>
       </c>
       <c r="L49" s="51">
         <f>'RAW GRADES'!CQ51</f>
-        <v>30.75</v>
+        <v>44</v>
       </c>
       <c r="M49" s="53">
         <f>'RAW GRADES'!CR51</f>
-        <v>30.75</v>
+        <v>44</v>
       </c>
       <c r="N49" s="57">
         <f>'RAW GRADES'!CS51</f>
-        <v>41.71</v>
+        <v>49.66</v>
       </c>
       <c r="O49" s="55">
         <f>'RAW GRADES'!CT51</f>
@@ -29345,19 +29622,19 @@
       </c>
       <c r="K50" s="51">
         <f>'RAW GRADES'!CP52</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="L50" s="51">
         <f>'RAW GRADES'!CQ52</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="M50" s="53">
         <f>'RAW GRADES'!CR52</f>
-        <v>31</v>
+        <v>44.25</v>
       </c>
       <c r="N50" s="57">
         <f>'RAW GRADES'!CS52</f>
-        <v>44.980000000000004</v>
+        <v>52.930000000000007</v>
       </c>
       <c r="O50" s="55">
         <f>'RAW GRADES'!CT52</f>
@@ -29410,19 +29687,19 @@
       </c>
       <c r="K51" s="51">
         <f>'RAW GRADES'!CP53</f>
-        <v>29.25</v>
+        <v>42.5</v>
       </c>
       <c r="L51" s="51">
         <f>'RAW GRADES'!CQ53</f>
-        <v>29.25</v>
+        <v>42.5</v>
       </c>
       <c r="M51" s="53">
         <f>'RAW GRADES'!CR53</f>
-        <v>29.25</v>
+        <v>42.5</v>
       </c>
       <c r="N51" s="57">
         <f>'RAW GRADES'!CS53</f>
-        <v>40.874000000000002</v>
+        <v>48.823999999999998</v>
       </c>
       <c r="O51" s="55">
         <f>'RAW GRADES'!CT53</f>
@@ -29475,19 +29752,19 @@
       </c>
       <c r="K52" s="51">
         <f>'RAW GRADES'!CP54</f>
-        <v>32.5</v>
+        <v>42.5</v>
       </c>
       <c r="L52" s="51">
         <f>'RAW GRADES'!CQ54</f>
-        <v>32.5</v>
+        <v>42.5</v>
       </c>
       <c r="M52" s="53">
         <f>'RAW GRADES'!CR54</f>
-        <v>32.5</v>
+        <v>42.5</v>
       </c>
       <c r="N52" s="57">
         <f>'RAW GRADES'!CS54</f>
-        <v>41.519999999999996</v>
+        <v>47.519999999999996</v>
       </c>
       <c r="O52" s="55">
         <f>'RAW GRADES'!CT54</f>
@@ -29540,19 +29817,19 @@
       </c>
       <c r="K53" s="51">
         <f>'RAW GRADES'!CP55</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="L53" s="51">
         <f>'RAW GRADES'!CQ55</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M53" s="53">
         <f>'RAW GRADES'!CR55</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N53" s="57">
         <f>'RAW GRADES'!CS55</f>
-        <v>43.76</v>
+        <v>49.76</v>
       </c>
       <c r="O53" s="55">
         <f>'RAW GRADES'!CT55</f>
@@ -29605,19 +29882,19 @@
       </c>
       <c r="K54" s="51">
         <f>'RAW GRADES'!CP56</f>
-        <v>30</v>
+        <v>43.25</v>
       </c>
       <c r="L54" s="51">
         <f>'RAW GRADES'!CQ56</f>
-        <v>30</v>
+        <v>43.25</v>
       </c>
       <c r="M54" s="53">
         <f>'RAW GRADES'!CR56</f>
-        <v>30</v>
+        <v>43.25</v>
       </c>
       <c r="N54" s="57">
         <f>'RAW GRADES'!CS56</f>
-        <v>39.644000000000005</v>
+        <v>47.594000000000001</v>
       </c>
       <c r="O54" s="55">
         <f>'RAW GRADES'!CT56</f>
@@ -29670,19 +29947,19 @@
       </c>
       <c r="K55" s="51">
         <f>'RAW GRADES'!CP57</f>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="L55" s="51">
         <f>'RAW GRADES'!CQ57</f>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="M55" s="53">
         <f>'RAW GRADES'!CR57</f>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="N55" s="57">
         <f>'RAW GRADES'!CS57</f>
-        <v>44.775999999999996</v>
+        <v>50.775999999999996</v>
       </c>
       <c r="O55" s="55">
         <f>'RAW GRADES'!CT57</f>
@@ -29735,19 +30012,19 @@
       </c>
       <c r="K56" s="51">
         <f>'RAW GRADES'!CP58</f>
-        <v>33.5</v>
+        <v>43.5</v>
       </c>
       <c r="L56" s="51">
         <f>'RAW GRADES'!CQ58</f>
-        <v>33.5</v>
+        <v>43.5</v>
       </c>
       <c r="M56" s="53">
         <f>'RAW GRADES'!CR58</f>
-        <v>33.5</v>
+        <v>43.5</v>
       </c>
       <c r="N56" s="57">
         <f>'RAW GRADES'!CS58</f>
-        <v>42.68</v>
+        <v>48.68</v>
       </c>
       <c r="O56" s="55">
         <f>'RAW GRADES'!CT58</f>
@@ -29800,19 +30077,19 @@
       </c>
       <c r="K57" s="51">
         <f>'RAW GRADES'!CP59</f>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="L57" s="51">
         <f>'RAW GRADES'!CQ59</f>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="M57" s="53">
         <f>'RAW GRADES'!CR59</f>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="N57" s="57">
         <f>'RAW GRADES'!CS59</f>
-        <v>44.872</v>
+        <v>50.872</v>
       </c>
       <c r="O57" s="55">
         <f>'RAW GRADES'!CT59</f>
@@ -29845,7 +30122,7 @@
       </c>
       <c r="F58" s="51">
         <f>'RAW GRADES'!AU60</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G58" s="51">
         <f>'RAW GRADES'!BB60</f>
@@ -29853,11 +30130,11 @@
       </c>
       <c r="H58" s="52">
         <f>'RAW GRADES'!BC60</f>
-        <v>50.666666666666664</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="I58" s="52">
         <f>'RAW GRADES'!BD60</f>
-        <v>50.67</v>
+        <v>51.67</v>
       </c>
       <c r="J58" s="51">
         <f>'RAW GRADES'!BK60</f>
@@ -29877,7 +30154,7 @@
       </c>
       <c r="N58" s="57">
         <f>'RAW GRADES'!CS60</f>
-        <v>20.268000000000001</v>
+        <v>20.668000000000003</v>
       </c>
       <c r="O58" s="55">
         <f>'RAW GRADES'!CT60</f>
@@ -30564,8 +30841,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30593,106 +30870,106 @@
       <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="231"/>
-      <c r="B3" s="231"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
+      <c r="A3" s="246"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="261" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="232"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
+      <c r="B4" s="261"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="261"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="233" t="s">
+      <c r="A5" s="262" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="232" t="s">
+      <c r="A6" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="232"/>
+      <c r="B6" s="261"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="234" t="s">
+      <c r="A7" s="263" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="234"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="235"/>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
+      <c r="A8" s="264"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="231"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
+      <c r="A9" s="246"/>
+      <c r="B9" s="246"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="236"/>
-      <c r="B10" s="236"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="A10" s="265"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="237" t="s">
+      <c r="A11" s="266" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="237"/>
-      <c r="C11" s="237"/>
-      <c r="D11" s="237"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="237"/>
+      <c r="B11" s="266"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="266"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="266"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="235"/>
-      <c r="B12" s="235"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
+      <c r="A12" s="264"/>
+      <c r="B12" s="264"/>
+      <c r="C12" s="264"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="264"/>
+      <c r="F12" s="264"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="59"/>
       <c r="B13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="238" t="str">
+      <c r="C13" s="267" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 21</v>
       </c>
-      <c r="D13" s="238"/>
-      <c r="E13" s="238"/>
+      <c r="D13" s="267"/>
+      <c r="E13" s="267"/>
       <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6">
@@ -30700,12 +30977,12 @@
       <c r="B14" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="230" t="str">
+      <c r="C14" s="260" t="str">
         <f>REGISTRATION!C6</f>
         <v>Programming I</v>
       </c>
-      <c r="D14" s="230"/>
-      <c r="E14" s="230"/>
+      <c r="D14" s="260"/>
+      <c r="E14" s="260"/>
       <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:6">
@@ -30713,12 +30990,12 @@
       <c r="B15" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="242" t="str">
+      <c r="C15" s="241" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="242"/>
-      <c r="E15" s="242"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
       <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:6">
@@ -30726,12 +31003,12 @@
       <c r="B16" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="242" t="str">
+      <c r="C16" s="241" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>IT  1A</v>
       </c>
-      <c r="D16" s="242"/>
-      <c r="E16" s="242"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
       <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6">
@@ -30739,12 +31016,12 @@
       <c r="B17" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="242" t="str">
+      <c r="C17" s="241" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="242"/>
-      <c r="E17" s="242"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
       <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -30756,41 +31033,41 @@
       <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="224" t="s">
+      <c r="A19" s="242" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="252" t="s">
+      <c r="B19" s="255" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="224" t="s">
+      <c r="C19" s="242" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="224" t="s">
+      <c r="D19" s="242" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="227" t="s">
+      <c r="E19" s="257" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="224" t="s">
+      <c r="F19" s="242" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="225"/>
-      <c r="B20" s="253"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="225"/>
-      <c r="E20" s="228"/>
+      <c r="A20" s="253"/>
+      <c r="B20" s="256"/>
+      <c r="C20" s="253"/>
+      <c r="D20" s="253"/>
+      <c r="E20" s="258"/>
       <c r="F20" s="243"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="226"/>
+      <c r="A21" s="254"/>
       <c r="B21" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="226"/>
-      <c r="D21" s="226"/>
-      <c r="E21" s="229"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="254"/>
+      <c r="E21" s="259"/>
       <c r="F21" s="244"/>
     </row>
     <row r="22" spans="1:6" ht="18">
@@ -32068,14 +32345,14 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A73" s="247" t="s">
+      <c r="A73" s="248" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="248"/>
-      <c r="C73" s="248"/>
-      <c r="D73" s="248"/>
-      <c r="E73" s="248"/>
-      <c r="F73" s="249"/>
+      <c r="B73" s="249"/>
+      <c r="C73" s="249"/>
+      <c r="D73" s="249"/>
+      <c r="E73" s="249"/>
+      <c r="F73" s="250"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="61"/>
@@ -32111,11 +32388,11 @@
       </c>
       <c r="C77" s="59"/>
       <c r="D77" s="59"/>
-      <c r="E77" s="251">
+      <c r="E77" s="252">
         <f ca="1">NOW()</f>
-        <v>43070.580560069444</v>
-      </c>
-      <c r="F77" s="251"/>
+        <v>43070.591405439816</v>
+      </c>
+      <c r="F77" s="252"/>
       <c r="G77" s="123"/>
     </row>
     <row r="78" spans="1:7" ht="15.75">
@@ -32126,10 +32403,10 @@
       </c>
       <c r="C78" s="120"/>
       <c r="D78" s="120"/>
-      <c r="E78" s="250" t="s">
+      <c r="E78" s="251" t="s">
         <v>121</v>
       </c>
-      <c r="F78" s="250"/>
+      <c r="F78" s="251"/>
       <c r="G78" s="123"/>
     </row>
     <row r="79" spans="1:7">
@@ -32216,8 +32493,8 @@
       <c r="B88" s="71"/>
       <c r="C88" s="72"/>
       <c r="D88" s="72"/>
-      <c r="E88" s="231"/>
-      <c r="F88" s="231"/>
+      <c r="E88" s="246"/>
+      <c r="F88" s="246"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="59"/>
@@ -32232,8 +32509,8 @@
       <c r="B90" s="73"/>
       <c r="C90" s="73"/>
       <c r="D90" s="73"/>
-      <c r="E90" s="231"/>
-      <c r="F90" s="231"/>
+      <c r="E90" s="246"/>
+      <c r="F90" s="246"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="59"/>
@@ -32349,14 +32626,14 @@
       <c r="F104" s="59"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="246" t="s">
+      <c r="A105" s="247" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="246"/>
-      <c r="C105" s="246"/>
-      <c r="D105" s="246"/>
-      <c r="E105" s="246"/>
-      <c r="F105" s="246"/>
+      <c r="B105" s="247"/>
+      <c r="C105" s="247"/>
+      <c r="D105" s="247"/>
+      <c r="E105" s="247"/>
+      <c r="F105" s="247"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="59"/>
@@ -32371,124 +32648,124 @@
       <c r="B107" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="239" t="s">
+      <c r="C107" s="238" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="240"/>
-      <c r="E107" s="241" t="s">
+      <c r="D107" s="239"/>
+      <c r="E107" s="240" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="240"/>
+      <c r="F107" s="239"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="59"/>
       <c r="B108" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="264">
+      <c r="C108" s="224">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="265"/>
-      <c r="E108" s="266">
+      <c r="D108" s="225"/>
+      <c r="E108" s="226">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="267"/>
+      <c r="F108" s="227"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="59"/>
       <c r="B109" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="258">
+      <c r="C109" s="228">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="259"/>
-      <c r="E109" s="260">
+      <c r="D109" s="229"/>
+      <c r="E109" s="230">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="261"/>
+      <c r="F109" s="231"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="59"/>
       <c r="B110" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="258">
+      <c r="C110" s="228">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="259"/>
-      <c r="E110" s="260">
+      <c r="D110" s="229"/>
+      <c r="E110" s="230">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="261"/>
+      <c r="F110" s="231"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="59"/>
       <c r="B111" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="258">
+      <c r="C111" s="228">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>51</v>
       </c>
-      <c r="D111" s="259"/>
-      <c r="E111" s="260">
+      <c r="D111" s="229"/>
+      <c r="E111" s="230">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="261"/>
+      <c r="F111" s="231"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="59"/>
       <c r="B112" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="262">
-        <v>0</v>
-      </c>
-      <c r="D112" s="263"/>
-      <c r="E112" s="260">
+      <c r="C112" s="236">
+        <v>0</v>
+      </c>
+      <c r="D112" s="237"/>
+      <c r="E112" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="261"/>
+      <c r="F112" s="231"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="59"/>
       <c r="B113" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="262">
-        <v>0</v>
-      </c>
-      <c r="D113" s="263"/>
-      <c r="E113" s="260">
+      <c r="C113" s="236">
+        <v>0</v>
+      </c>
+      <c r="D113" s="237"/>
+      <c r="E113" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="261"/>
+      <c r="F113" s="231"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="59"/>
       <c r="B114" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="254">
+      <c r="C114" s="232">
         <f>SUM(C108:D113)</f>
         <v>51</v>
       </c>
-      <c r="D114" s="255"/>
-      <c r="E114" s="256">
+      <c r="D114" s="233"/>
+      <c r="E114" s="234">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="257"/>
+      <c r="F114" s="235"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="59"/>
@@ -32655,20 +32932,20 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="C107:D107"/>
     <mergeCell ref="E107:F107"/>
     <mergeCell ref="C15:E15"/>
@@ -32685,20 +32962,20 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F72">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
